--- a/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
+++ b/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
@@ -4516,25 +4516,25 @@
         </is>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M7" s="40" t="n">
-        <v>0.02933388519249003</v>
+        <v>0.04190555027498566</v>
       </c>
       <c r="N7" s="40" t="n">
-        <v>0.01517507595044554</v>
+        <v>0.02167867992920791</v>
       </c>
       <c r="O7" s="40" t="n">
-        <v>0.007765068619411175</v>
+        <v>0.01109295517058728</v>
       </c>
       <c r="P7" s="40" t="n">
-        <v>0.003970019534419666</v>
+        <v>0.005671456477742476</v>
       </c>
       <c r="Q7" s="40" t="n">
-        <v>0.002023431530018938</v>
+        <v>0.002890616471455498</v>
       </c>
       <c r="R7" s="40" t="n">
-        <v>0.001041530388762868</v>
+        <v>0.001487900555375399</v>
       </c>
       <c r="S7" s="40" t="n"/>
     </row>
@@ -4601,25 +4601,25 @@
         </is>
       </c>
       <c r="B9" s="40" t="n">
-        <v>0.04336417424997963</v>
+        <v>0.08672834849995936</v>
       </c>
       <c r="C9" s="40" t="n">
-        <v>0.01636505639351005</v>
+        <v>0.0327301127870202</v>
       </c>
       <c r="D9" s="40" t="n">
-        <v>0.007007214733189882</v>
+        <v>0.0140144294663801</v>
       </c>
       <c r="E9" s="40" t="n">
-        <v>0.00295221310574556</v>
+        <v>0.005904426211490899</v>
       </c>
       <c r="F9" s="40" t="n">
-        <v>0.001243374371044159</v>
+        <v>0.00248674874208854</v>
       </c>
       <c r="G9" s="40" t="n">
-        <v>0.0005214586632047435</v>
+        <v>0.001042917326409598</v>
       </c>
       <c r="H9" s="40" t="n">
-        <v>0.0002216550045196497</v>
+        <v>0.0004433100090392994</v>
       </c>
       <c r="I9" s="40" t="n"/>
       <c r="K9" s="127" t="inlineStr">
@@ -4628,25 +4628,25 @@
         </is>
       </c>
       <c r="L9" s="40" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.1999999999999998</v>
       </c>
       <c r="M9" s="40" t="n">
-        <v>0.04185761223808626</v>
+        <v>0.0837152244761723</v>
       </c>
       <c r="N9" s="40" t="n">
-        <v>0.02167762987749189</v>
+        <v>0.04335525975498378</v>
       </c>
       <c r="O9" s="40" t="n">
-        <v>0.01108390988913643</v>
+        <v>0.02216781977827287</v>
       </c>
       <c r="P9" s="40" t="n">
-        <v>0.005669835373702803</v>
+        <v>0.01133967074740561</v>
       </c>
       <c r="Q9" s="40" t="n">
-        <v>0.002889359270887515</v>
+        <v>0.005778718541774919</v>
       </c>
       <c r="R9" s="40" t="n">
-        <v>0.001488037983974677</v>
+        <v>0.002976075967949576</v>
       </c>
       <c r="S9" s="40" t="n"/>
     </row>
@@ -4657,25 +4657,25 @@
         </is>
       </c>
       <c r="B10" s="40" t="n">
-        <v>0.02169954014978481</v>
+        <v>0.0260394481797418</v>
       </c>
       <c r="C10" s="40" t="n">
-        <v>0.008193834814235967</v>
+        <v>0.009832601777083005</v>
       </c>
       <c r="D10" s="40" t="n">
-        <v>0.003501268606116992</v>
+        <v>0.004201522327340612</v>
       </c>
       <c r="E10" s="40" t="n">
-        <v>0.001477484592834699</v>
+        <v>0.001772981511401484</v>
       </c>
       <c r="F10" s="40" t="n">
-        <v>0.0006219810328100817</v>
+        <v>0.000746377239371987</v>
       </c>
       <c r="G10" s="40" t="n">
-        <v>0.0002608654333928762</v>
+        <v>0.0003130385200714736</v>
       </c>
       <c r="H10" s="40" t="n">
-        <v>0.0001107797684494205</v>
+        <v>0.000132935722139349</v>
       </c>
       <c r="I10" s="40" t="n"/>
       <c r="K10" s="127" t="inlineStr">
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M13" s="40" t="n">
-        <v>0.02924785799254026</v>
+        <v>0.04178265427505745</v>
       </c>
       <c r="N13" s="40" t="n">
-        <v>0.01518217023032864</v>
+        <v>0.02168881461475514</v>
       </c>
       <c r="O13" s="40" t="n">
-        <v>0.007746619214457073</v>
+        <v>0.01106659887779593</v>
       </c>
       <c r="P13" s="40" t="n">
-        <v>0.003966726548956245</v>
+        <v>0.005666752212794557</v>
       </c>
       <c r="Q13" s="40" t="n">
-        <v>0.002021026173691043</v>
+        <v>0.002887180248130061</v>
       </c>
       <c r="R13" s="40" t="n">
-        <v>0.001041841804496291</v>
+        <v>0.001488345434994542</v>
       </c>
       <c r="S13" s="40" t="n"/>
     </row>
@@ -4908,25 +4908,25 @@
         </is>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="M14" s="40" t="n">
-        <v>0.1044535504895403</v>
+        <v>0.1253442605874483</v>
       </c>
       <c r="N14" s="40" t="n">
-        <v>0.0541763147354315</v>
+        <v>0.06501157768251786</v>
       </c>
       <c r="O14" s="40" t="n">
-        <v>0.02768377662437083</v>
+        <v>0.03322053194924512</v>
       </c>
       <c r="P14" s="40" t="n">
-        <v>0.0141597161762278</v>
+        <v>0.01699165941147329</v>
       </c>
       <c r="Q14" s="40" t="n">
-        <v>0.007216650978840167</v>
+        <v>0.0086599811746082</v>
       </c>
       <c r="R14" s="40" t="n">
-        <v>0.003718717437958929</v>
+        <v>0.004462460925550804</v>
       </c>
       <c r="S14" s="40" t="n"/>
     </row>
@@ -4964,25 +4964,25 @@
         </is>
       </c>
       <c r="L15" s="40" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="M15" s="40" t="n">
-        <v>0.1047296095859441</v>
+        <v>0.1256755315031332</v>
       </c>
       <c r="N15" s="40" t="n">
-        <v>0.0541765891910021</v>
+        <v>0.06501190702920268</v>
       </c>
       <c r="O15" s="40" t="n">
-        <v>0.02772375169736119</v>
+        <v>0.03326850203683362</v>
       </c>
       <c r="P15" s="40" t="n">
-        <v>0.01417932971576352</v>
+        <v>0.01701519565891629</v>
       </c>
       <c r="Q15" s="40" t="n">
-        <v>0.007225925937951905</v>
+        <v>0.008671111125542308</v>
       </c>
       <c r="R15" s="40" t="n">
-        <v>0.003719869030296308</v>
+        <v>0.004463842836355703</v>
       </c>
       <c r="S15" s="40" t="n"/>
     </row>
@@ -5020,25 +5020,25 @@
         </is>
       </c>
       <c r="L16" s="40" t="n">
-        <v>0.07000000000000017</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="M16" s="40" t="n">
-        <v>0.02928868691527586</v>
+        <v>0.04184098130753711</v>
       </c>
       <c r="N16" s="40" t="n">
-        <v>0.01517363020582041</v>
+        <v>0.02167661457974346</v>
       </c>
       <c r="O16" s="40" t="n">
-        <v>0.007758595305765503</v>
+        <v>0.01108370757966515</v>
       </c>
       <c r="P16" s="40" t="n">
-        <v>0.00396906603599978</v>
+        <v>0.005670094337142384</v>
       </c>
       <c r="Q16" s="40" t="n">
-        <v>0.00202222196933044</v>
+        <v>0.002888888527614819</v>
       </c>
       <c r="R16" s="40" t="n">
-        <v>0.001041753935057566</v>
+        <v>0.00148821990722503</v>
       </c>
       <c r="S16" s="40" t="n"/>
     </row>
@@ -5076,25 +5076,25 @@
         </is>
       </c>
       <c r="L17" s="40" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M17" s="40" t="n">
-        <v>0.02927666341650803</v>
+        <v>0.04182380488072568</v>
       </c>
       <c r="N17" s="40" t="n">
-        <v>0.01517983361150588</v>
+        <v>0.02168547658786579</v>
       </c>
       <c r="O17" s="40" t="n">
-        <v>0.007755956837738665</v>
+        <v>0.01107993833962662</v>
       </c>
       <c r="P17" s="40" t="n">
-        <v>0.003967940385342872</v>
+        <v>0.005668486264775563</v>
       </c>
       <c r="Q17" s="40" t="n">
-        <v>0.0020218561101496</v>
+        <v>0.002888365871642429</v>
       </c>
       <c r="R17" s="40" t="n">
-        <v>0.001041747209894694</v>
+        <v>0.001488210299849468</v>
       </c>
       <c r="S17" s="40" t="n"/>
     </row>
@@ -5132,25 +5132,25 @@
         </is>
       </c>
       <c r="L18" s="40" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M18" s="40" t="n">
-        <v>0.02926639148186028</v>
+        <v>0.041809130688372</v>
       </c>
       <c r="N18" s="40" t="n">
-        <v>0.0151679912633147</v>
+        <v>0.02166855894759256</v>
       </c>
       <c r="O18" s="40" t="n">
-        <v>0.007749660730757002</v>
+        <v>0.01107094390108121</v>
       </c>
       <c r="P18" s="40" t="n">
-        <v>0.003966542524508676</v>
+        <v>0.005666489320726553</v>
       </c>
       <c r="Q18" s="40" t="n">
-        <v>0.002021373575974095</v>
+        <v>0.002887676537105976</v>
       </c>
       <c r="R18" s="40" t="n">
-        <v>0.001041226464672529</v>
+        <v>0.001487466378103486</v>
       </c>
       <c r="S18" s="40" t="n"/>
     </row>
@@ -5188,25 +5188,25 @@
         </is>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.07000000000000017</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M19" s="40" t="n">
-        <v>0.02928188380877483</v>
+        <v>0.04183126258396397</v>
       </c>
       <c r="N19" s="40" t="n">
-        <v>0.01516388124615431</v>
+        <v>0.02166268749450617</v>
       </c>
       <c r="O19" s="40" t="n">
-        <v>0.007757386740465555</v>
+        <v>0.01108198105780778</v>
       </c>
       <c r="P19" s="40" t="n">
-        <v>0.003967495686160727</v>
+        <v>0.005667850980229483</v>
       </c>
       <c r="Q19" s="40" t="n">
-        <v>0.002021765457136726</v>
+        <v>0.002888236367338259</v>
       </c>
       <c r="R19" s="40" t="n">
-        <v>0.001041221974603102</v>
+        <v>0.001487459963718685</v>
       </c>
       <c r="S19" s="40" t="n"/>
     </row>
@@ -5356,25 +5356,25 @@
         </is>
       </c>
       <c r="L22" s="40" t="n">
-        <v>0.1500000000000001</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="M22" s="40" t="n">
-        <v>0.06279048235693818</v>
+        <v>0.08372064314258443</v>
       </c>
       <c r="N22" s="40" t="n">
-        <v>0.03254097257352873</v>
+        <v>0.04338796343137186</v>
       </c>
       <c r="O22" s="40" t="n">
-        <v>0.01662537528764607</v>
+        <v>0.02216716705019472</v>
       </c>
       <c r="P22" s="40" t="n">
-        <v>0.00850721545761568</v>
+        <v>0.0113429539434875</v>
       </c>
       <c r="Q22" s="40" t="n">
-        <v>0.004334814835352252</v>
+        <v>0.005779753113802855</v>
       </c>
       <c r="R22" s="40" t="n">
-        <v>0.002232962726249399</v>
+        <v>0.002977283634999162</v>
       </c>
       <c r="S22" s="40" t="n"/>
     </row>
@@ -5468,25 +5468,25 @@
         </is>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="M24" s="40" t="n">
-        <v>0.02931535657622863</v>
+        <v>0.0418790808231837</v>
       </c>
       <c r="N24" s="40" t="n">
-        <v>0.01517201832474036</v>
+        <v>0.02167431189248614</v>
       </c>
       <c r="O24" s="40" t="n">
-        <v>0.007764587601176598</v>
+        <v>0.01109226800168106</v>
       </c>
       <c r="P24" s="40" t="n">
-        <v>0.003970991565606652</v>
+        <v>0.005672845093723899</v>
       </c>
       <c r="Q24" s="40" t="n">
-        <v>0.002022987030961709</v>
+        <v>0.002889981472802283</v>
       </c>
       <c r="R24" s="40" t="n">
-        <v>0.001041839163287483</v>
+        <v>0.001488341661839199</v>
       </c>
       <c r="S24" s="40" t="n"/>
     </row>
@@ -5524,25 +5524,25 @@
         </is>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.1999999999999998</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="M25" s="40" t="n">
-        <v>0.0837230992891721</v>
+        <v>0.1255846489337582</v>
       </c>
       <c r="N25" s="40" t="n">
-        <v>0.04334181201102538</v>
+        <v>0.06501271801653818</v>
       </c>
       <c r="O25" s="40" t="n">
-        <v>0.02216653949123604</v>
+        <v>0.03324980923685428</v>
       </c>
       <c r="P25" s="40" t="n">
-        <v>0.0113401498845892</v>
+        <v>0.01701022482688364</v>
       </c>
       <c r="Q25" s="40" t="n">
-        <v>0.005778996428398409</v>
+        <v>0.008668494642597446</v>
       </c>
       <c r="R25" s="40" t="n">
-        <v>0.002975787059615875</v>
+        <v>0.00446368058942348</v>
       </c>
       <c r="S25" s="40" t="n"/>
     </row>
@@ -5580,25 +5580,25 @@
         </is>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.07000000000000017</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M26" s="40" t="n">
-        <v>0.02935493174438764</v>
+        <v>0.04193561677769664</v>
       </c>
       <c r="N26" s="40" t="n">
-        <v>0.01520934003340424</v>
+        <v>0.02172762861914879</v>
       </c>
       <c r="O26" s="40" t="n">
-        <v>0.007780119237669303</v>
+        <v>0.01111445605381323</v>
       </c>
       <c r="P26" s="40" t="n">
-        <v>0.003972007666135147</v>
+        <v>0.005674296665907463</v>
       </c>
       <c r="Q26" s="40" t="n">
-        <v>0.002026138198114591</v>
+        <v>0.002894483140163939</v>
       </c>
       <c r="R26" s="40" t="n">
-        <v>0.001043232545934747</v>
+        <v>0.001490332208478273</v>
       </c>
       <c r="S26" s="40" t="n"/>
     </row>
@@ -5664,25 +5664,25 @@
         </is>
       </c>
       <c r="B28" s="40" t="n">
-        <v>0.1009449606763134</v>
+        <v>0.1054470595409633</v>
       </c>
       <c r="C28" s="40" t="n">
-        <v>0.04584133456341999</v>
+        <v>0.04752804554677148</v>
       </c>
       <c r="D28" s="40" t="n">
-        <v>0.02392367714133581</v>
+        <v>0.02464536828920028</v>
       </c>
       <c r="E28" s="40" t="n">
-        <v>0.01274802968349598</v>
+        <v>0.01305230009748803</v>
       </c>
       <c r="F28" s="40" t="n">
-        <v>0.007016436269479009</v>
+        <v>0.007144537023926145</v>
       </c>
       <c r="G28" s="40" t="n">
-        <v>0.003942852859994628</v>
+        <v>0.003996173947333759</v>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0.002286296366913909</v>
+        <v>0.002308960641350111</v>
       </c>
       <c r="I28" s="42" t="n"/>
       <c r="K28" s="127" t="inlineStr">
@@ -5691,25 +5691,25 @@
         </is>
       </c>
       <c r="L28" s="40" t="n">
-        <v>0.1956701290100499</v>
+        <v>0.2233473907938084</v>
       </c>
       <c r="M28" s="40" t="n">
-        <v>0.09899956560158596</v>
+        <v>0.1105536227026355</v>
       </c>
       <c r="N28" s="40" t="n">
-        <v>0.06135382446849447</v>
+        <v>0.06734561754829604</v>
       </c>
       <c r="O28" s="40" t="n">
-        <v>0.03883852077197802</v>
+        <v>0.04190051175758802</v>
       </c>
       <c r="P28" s="40" t="n">
-        <v>0.02532306755726865</v>
+        <v>0.02689079375585268</v>
       </c>
       <c r="Q28" s="40" t="n">
-        <v>0.01682979915841121</v>
+        <v>0.0176273717234442</v>
       </c>
       <c r="R28" s="40" t="n">
-        <v>0.01151333885519201</v>
+        <v>0.01192434396449582</v>
       </c>
       <c r="S28" s="43" t="n"/>
     </row>
@@ -16129,67 +16129,67 @@
         </is>
       </c>
       <c r="C102" s="88" t="n">
-        <v>12128440.42483756</v>
+        <v>11490101.45510927</v>
       </c>
       <c r="D102" s="88" t="n">
-        <v>12809810.25733798</v>
+        <v>12135609.71747809</v>
       </c>
       <c r="E102" s="88" t="n">
-        <v>11109290.6696083</v>
+        <v>10787799.94283507</v>
       </c>
       <c r="F102" s="88" t="n">
-        <v>12587587.70731531</v>
+        <v>12316346.79103637</v>
       </c>
       <c r="G102" s="88" t="n">
-        <v>13078351.69466638</v>
+        <v>12868122.1873697</v>
       </c>
       <c r="H102" s="88" t="n">
-        <v>11762911.26764549</v>
+        <v>11621665.65623876</v>
       </c>
       <c r="I102" s="88" t="n">
-        <v>13922781.11826627</v>
+        <v>13797770.86546465</v>
       </c>
       <c r="J102" s="88" t="n">
-        <v>12096469.83014025</v>
+        <v>12015193.18358098</v>
       </c>
       <c r="K102" s="88" t="n">
-        <v>11194319.36701619</v>
+        <v>11138002.66838743</v>
       </c>
       <c r="L102" s="88" t="n">
-        <v>17159930.46961089</v>
+        <v>17095265.30162406</v>
       </c>
       <c r="M102" s="88" t="n">
-        <v>12313302.87626875</v>
+        <v>12278534.71226073</v>
       </c>
       <c r="N102" s="88" t="n">
-        <v>14400398.11337058</v>
+        <v>14369923.61999017</v>
       </c>
       <c r="O102" s="88" t="n">
-        <v>14312958.3909776</v>
+        <v>14290253.31485347</v>
       </c>
       <c r="P102" s="88" t="n">
-        <v>13420018.7212707</v>
+        <v>13404058.61645508</v>
       </c>
       <c r="Q102" s="88" t="n">
-        <v>11719770.32369764</v>
+        <v>11709319.90052489</v>
       </c>
       <c r="R102" s="88" t="n">
-        <v>14007821.11107805</v>
+        <v>13998455.2044689</v>
       </c>
       <c r="S102" s="88" t="n">
-        <v>12950463.33938508</v>
+        <v>12943970.2225446</v>
       </c>
       <c r="T102" s="88" t="n">
-        <v>12309816.87426667</v>
+        <v>12305188.52277378</v>
       </c>
       <c r="U102" s="88" t="n">
-        <v>14548429.31706807</v>
+        <v>14544327.16937716</v>
       </c>
       <c r="V102" s="88" t="n">
-        <v>12604752.91909165</v>
+        <v>12602087.53272836</v>
       </c>
       <c r="W102" s="88" t="n">
-        <v>11843787.53110478</v>
+        <v>11841909.27526637</v>
       </c>
     </row>
     <row r="103">
@@ -16204,67 +16204,67 @@
         </is>
       </c>
       <c r="C103" s="88" t="n">
-        <v>15488454.40697533</v>
+        <v>15409026.4356575</v>
       </c>
       <c r="D103" s="88" t="n">
-        <v>16258872.86187589</v>
+        <v>16175494.02668678</v>
       </c>
       <c r="E103" s="88" t="n">
-        <v>13873988.13281703</v>
+        <v>13834410.98758871</v>
       </c>
       <c r="F103" s="88" t="n">
-        <v>15895671.50990736</v>
+        <v>15861784.17230234</v>
       </c>
       <c r="G103" s="88" t="n">
-        <v>16267210.99296082</v>
+        <v>16241270.56397313</v>
       </c>
       <c r="H103" s="88" t="n">
-        <v>14573441.94745384</v>
+        <v>14556047.01957</v>
       </c>
       <c r="I103" s="88" t="n">
-        <v>17261272.89128453</v>
+        <v>17245843.56041446</v>
       </c>
       <c r="J103" s="88" t="n">
-        <v>14968828.31675351</v>
+        <v>14958804.37898243</v>
       </c>
       <c r="K103" s="88" t="n">
-        <v>13961231.82547777</v>
+        <v>13954225.79254034</v>
       </c>
       <c r="L103" s="88" t="n">
-        <v>21478551.8644443</v>
+        <v>21470473.14810488</v>
       </c>
       <c r="M103" s="88" t="n">
-        <v>15326491.0148277</v>
+        <v>15322169.48793245</v>
       </c>
       <c r="N103" s="88" t="n">
-        <v>17843132.16854368</v>
+        <v>17839360.15017907</v>
       </c>
       <c r="O103" s="88" t="n">
-        <v>17847530.16364843</v>
+        <v>17844701.2001262</v>
       </c>
       <c r="P103" s="88" t="n">
-        <v>16647204.77223553</v>
+        <v>16645226.13686677</v>
       </c>
       <c r="Q103" s="88" t="n">
-        <v>14540274.18359308</v>
+        <v>14538978.21705894</v>
       </c>
       <c r="R103" s="88" t="n">
-        <v>17400188.90917557</v>
+        <v>17399025.88689521</v>
       </c>
       <c r="S103" s="88" t="n">
-        <v>15988254.4341699</v>
+        <v>15987453.0143069</v>
       </c>
       <c r="T103" s="88" t="n">
-        <v>15211438.60584949</v>
+        <v>15210866.78051483</v>
       </c>
       <c r="U103" s="88" t="n">
-        <v>18033814.37680528</v>
+        <v>18033305.95805885</v>
       </c>
       <c r="V103" s="88" t="n">
-        <v>15605050.29565606</v>
+        <v>15604720.34796622</v>
       </c>
       <c r="W103" s="88" t="n">
-        <v>14756607.58105956</v>
+        <v>14756373.58085725</v>
       </c>
     </row>
     <row r="104">
@@ -17554,67 +17554,67 @@
         </is>
       </c>
       <c r="C121" s="89" t="n">
-        <v>122483341.6714395</v>
+        <v>121765574.7303934</v>
       </c>
       <c r="D121" s="89" t="n">
-        <v>129313926.1824401</v>
+        <v>128556346.8073912</v>
       </c>
       <c r="E121" s="89" t="n">
-        <v>114928892.4838265</v>
+        <v>114567824.611825</v>
       </c>
       <c r="F121" s="89" t="n">
-        <v>132316221.9937008</v>
+        <v>132011093.7398169</v>
       </c>
       <c r="G121" s="89" t="n">
-        <v>138481411.4021768</v>
+        <v>138245241.4658924</v>
       </c>
       <c r="H121" s="89" t="n">
-        <v>125152005.0305521</v>
+        <v>124993364.4912616</v>
       </c>
       <c r="I121" s="89" t="n">
-        <v>148685328.4046791</v>
+        <v>148544888.8210074</v>
       </c>
       <c r="J121" s="89" t="n">
-        <v>129855998.9520782</v>
+        <v>129764698.3677479</v>
       </c>
       <c r="K121" s="89" t="n">
-        <v>120526765.5176773</v>
+        <v>120463442.7861111</v>
       </c>
       <c r="L121" s="89" t="n">
-        <v>185160788.9760296</v>
+        <v>185088045.0917034</v>
       </c>
       <c r="M121" s="89" t="n">
-        <v>132969197.7452564</v>
+        <v>132930108.0543531</v>
       </c>
       <c r="N121" s="89" t="n">
-        <v>155849233.9246835</v>
+        <v>155814987.4129385</v>
       </c>
       <c r="O121" s="89" t="n">
-        <v>155154823.9736393</v>
+        <v>155129289.933993</v>
       </c>
       <c r="P121" s="89" t="n">
-        <v>145641358.3366082</v>
+        <v>145623419.5964238</v>
       </c>
       <c r="Q121" s="89" t="n">
-        <v>127239764.7877267</v>
+        <v>127228018.3980199</v>
       </c>
       <c r="R121" s="89" t="n">
-        <v>153310762.9693346</v>
+        <v>153300234.0404451</v>
       </c>
       <c r="S121" s="89" t="n">
-        <v>141849743.2971507</v>
+        <v>141842448.7604471</v>
       </c>
       <c r="T121" s="89" t="n">
-        <v>134929439.9548461</v>
+        <v>134924239.7780186</v>
       </c>
       <c r="U121" s="89" t="n">
-        <v>159536813.0992892</v>
+        <v>159532202.5328519</v>
       </c>
       <c r="V121" s="89" t="n">
-        <v>138225597.632624</v>
+        <v>138222602.2985709</v>
       </c>
       <c r="W121" s="89" t="n">
-        <v>130044708.0210357</v>
+        <v>130042595.764995</v>
       </c>
     </row>
     <row r="122">
@@ -17704,67 +17704,67 @@
         </is>
       </c>
       <c r="C123" s="88" t="n">
-        <v>2424332.019333011</v>
+        <v>2346127.760644849</v>
       </c>
       <c r="D123" s="88" t="n">
-        <v>2548468.347177666</v>
+        <v>2466259.690817097</v>
       </c>
       <c r="E123" s="88" t="n">
-        <v>2148942.372202918</v>
+        <v>2079621.650518953</v>
       </c>
       <c r="F123" s="88" t="n">
-        <v>2493795.141290368</v>
+        <v>2454066.57614535</v>
       </c>
       <c r="G123" s="88" t="n">
-        <v>2571910.432282676</v>
+        <v>2539373.909715748</v>
       </c>
       <c r="H123" s="88" t="n">
-        <v>2302849.197101067</v>
+        <v>2279679.818413296</v>
       </c>
       <c r="I123" s="88" t="n">
-        <v>2743663.262745668</v>
+        <v>2721682.875001659</v>
       </c>
       <c r="J123" s="88" t="n">
-        <v>2371887.370647125</v>
+        <v>2356742.416724888</v>
       </c>
       <c r="K123" s="88" t="n">
-        <v>2212794.464781814</v>
+        <v>2201524.753505805</v>
       </c>
       <c r="L123" s="88" t="n">
-        <v>3439334.074331103</v>
+        <v>3425354.141333293</v>
       </c>
       <c r="M123" s="88" t="n">
-        <v>2438671.656685858</v>
+        <v>2430756.654747167</v>
       </c>
       <c r="N123" s="88" t="n">
-        <v>2863971.018226192</v>
+        <v>2856545.974663224</v>
       </c>
       <c r="O123" s="88" t="n">
-        <v>2858684.244961944</v>
+        <v>2852762.339882644</v>
       </c>
       <c r="P123" s="88" t="n">
-        <v>2671865.38290111</v>
+        <v>2667441.738848326</v>
       </c>
       <c r="Q123" s="88" t="n">
-        <v>2334523.152511208</v>
+        <v>2331433.437993702</v>
       </c>
       <c r="R123" s="88" t="n">
-        <v>2743261.855131453</v>
+        <v>2740359.107561471</v>
       </c>
       <c r="S123" s="88" t="n">
-        <v>2530244.29948547</v>
+        <v>2528103.480009875</v>
       </c>
       <c r="T123" s="88" t="n">
-        <v>2397824.777662734</v>
+        <v>2396202.393948114</v>
       </c>
       <c r="U123" s="88" t="n">
-        <v>2841286.33968304</v>
+        <v>2839748.879000903</v>
       </c>
       <c r="V123" s="88" t="n">
-        <v>2460651.566348472</v>
+        <v>2459586.640254481</v>
       </c>
       <c r="W123" s="88" t="n">
-        <v>2317172.997619025</v>
+        <v>2316370.894712187</v>
       </c>
     </row>
     <row r="124">
@@ -17854,67 +17854,67 @@
         </is>
       </c>
       <c r="C125" s="88" t="n">
-        <v>11490101.45510927</v>
+        <v>10213423.51565268</v>
       </c>
       <c r="D125" s="88" t="n">
-        <v>12135609.71747809</v>
+        <v>10787208.6377583</v>
       </c>
       <c r="E125" s="88" t="n">
-        <v>10287703.25674338</v>
+        <v>9144625.117105221</v>
       </c>
       <c r="F125" s="88" t="n">
-        <v>12200456.59806623</v>
+        <v>11542084.5725382</v>
       </c>
       <c r="G125" s="88" t="n">
-        <v>12744280.91593066</v>
+        <v>12199980.62989825</v>
       </c>
       <c r="H125" s="88" t="n">
-        <v>11514081.46643943</v>
+        <v>11124006.05382664</v>
       </c>
       <c r="I125" s="88" t="n">
-        <v>13679536.94895016</v>
+        <v>13311282.52683244</v>
       </c>
       <c r="J125" s="88" t="n">
-        <v>11922360.62290849</v>
+        <v>11666974.76911745</v>
       </c>
       <c r="K125" s="88" t="n">
-        <v>11061881.71423424</v>
+        <v>10873127.36282353</v>
       </c>
       <c r="L125" s="88" t="n">
-        <v>16993411.02837802</v>
+        <v>16762226.41915832</v>
       </c>
       <c r="M125" s="88" t="n">
-        <v>12215484.63706008</v>
+        <v>12082898.23384339</v>
       </c>
       <c r="N125" s="88" t="n">
-        <v>14306912.35495351</v>
+        <v>14182952.10315603</v>
       </c>
       <c r="O125" s="88" t="n">
-        <v>14237149.53788947</v>
+        <v>14138635.6086772</v>
       </c>
       <c r="P125" s="88" t="n">
-        <v>13362113.75133715</v>
+        <v>13288248.67658798</v>
       </c>
       <c r="Q125" s="88" t="n">
-        <v>11678630.69044015</v>
+        <v>11627040.63400989</v>
       </c>
       <c r="R125" s="88" t="n">
-        <v>13967868.42532029</v>
+        <v>13918549.83295339</v>
       </c>
       <c r="S125" s="88" t="n">
-        <v>12920485.86605801</v>
+        <v>12884015.27589043</v>
       </c>
       <c r="T125" s="88" t="n">
-        <v>12286715.56029456</v>
+        <v>12258985.89482956</v>
       </c>
       <c r="U125" s="88" t="n">
-        <v>14526315.95464619</v>
+        <v>14500100.44453339</v>
       </c>
       <c r="V125" s="88" t="n">
-        <v>12589249.10085253</v>
+        <v>12571079.89625012</v>
       </c>
       <c r="W125" s="88" t="n">
-        <v>11832008.66412104</v>
+        <v>11818351.54129888</v>
       </c>
     </row>
     <row r="126">
@@ -18154,67 +18154,67 @@
         </is>
       </c>
       <c r="C129" s="88" t="n">
-        <v>4279772.048915669</v>
+        <v>4141714.886047422</v>
       </c>
       <c r="D129" s="88" t="n">
-        <v>4543066.27521081</v>
+        <v>4396515.75020401</v>
       </c>
       <c r="E129" s="88" t="n">
-        <v>3891835.409003119</v>
+        <v>3766292.331293341</v>
       </c>
       <c r="F129" s="88" t="n">
-        <v>4389238.888575358</v>
+        <v>4319314.073888462</v>
       </c>
       <c r="G129" s="88" t="n">
-        <v>4628322.276823919</v>
+        <v>4569770.660750243</v>
       </c>
       <c r="H129" s="88" t="n">
-        <v>4221807.815028884</v>
+        <v>4179331.449604464</v>
       </c>
       <c r="I129" s="88" t="n">
-        <v>5012495.186087698</v>
+        <v>4972338.44045087</v>
       </c>
       <c r="J129" s="88" t="n">
-        <v>4355032.851830896</v>
+        <v>4327225.13520529</v>
       </c>
       <c r="K129" s="88" t="n">
-        <v>4011724.520379092</v>
+        <v>3991292.899736902</v>
       </c>
       <c r="L129" s="88" t="n">
-        <v>6062801.08317274</v>
+        <v>6038157.489067015</v>
       </c>
       <c r="M129" s="88" t="n">
-        <v>4436292.8402466</v>
+        <v>4421894.318684713</v>
       </c>
       <c r="N129" s="88" t="n">
-        <v>5194547.789608366</v>
+        <v>5181080.564073503</v>
       </c>
       <c r="O129" s="88" t="n">
-        <v>5144654.25991794</v>
+        <v>5133996.855468063</v>
       </c>
       <c r="P129" s="88" t="n">
-        <v>4841651.59512304</v>
+        <v>4833635.568783733</v>
       </c>
       <c r="Q129" s="88" t="n">
-        <v>4249442.126529894</v>
+        <v>4243818.038794668</v>
       </c>
       <c r="R129" s="88" t="n">
-        <v>5004713.505348411</v>
+        <v>4999417.831536255</v>
       </c>
       <c r="S129" s="88" t="n">
-        <v>4649817.27331561</v>
+        <v>4645883.100090246</v>
       </c>
       <c r="T129" s="88" t="n">
-        <v>4446386.236236881</v>
+        <v>4443377.782622681</v>
       </c>
       <c r="U129" s="88" t="n">
-        <v>5255833.40156257</v>
+        <v>5252989.39492589</v>
       </c>
       <c r="V129" s="88" t="n">
-        <v>4555528.116895314</v>
+        <v>4553556.565607869</v>
       </c>
       <c r="W129" s="88" t="n">
-        <v>4267092.915251156</v>
+        <v>4265615.836226592</v>
       </c>
     </row>
     <row r="130">
@@ -18229,67 +18229,67 @@
         </is>
       </c>
       <c r="C130" s="88" t="n">
-        <v>6237655.875349379</v>
+        <v>5821812.150326087</v>
       </c>
       <c r="D130" s="88" t="n">
-        <v>6642752.353543937</v>
+        <v>6199902.196641007</v>
       </c>
       <c r="E130" s="88" t="n">
-        <v>5718100.640199119</v>
+        <v>5336893.930852511</v>
       </c>
       <c r="F130" s="88" t="n">
-        <v>7223849.373671096</v>
+        <v>7011773.061783504</v>
       </c>
       <c r="G130" s="88" t="n">
-        <v>7780841.607229099</v>
+        <v>7603310.818329754</v>
       </c>
       <c r="H130" s="88" t="n">
-        <v>7222192.72991391</v>
+        <v>7093305.916469646</v>
       </c>
       <c r="I130" s="88" t="n">
-        <v>8727838.776501013</v>
+        <v>8605418.299723573</v>
       </c>
       <c r="J130" s="88" t="n">
-        <v>7675375.702723521</v>
+        <v>7590440.504683954</v>
       </c>
       <c r="K130" s="88" t="n">
-        <v>7200641.721079182</v>
+        <v>7137593.944935916</v>
       </c>
       <c r="L130" s="88" t="n">
-        <v>10987149.51141212</v>
+        <v>10910856.01421756</v>
       </c>
       <c r="M130" s="88" t="n">
-        <v>8070578.513761768</v>
+        <v>8026054.749597636</v>
       </c>
       <c r="N130" s="88" t="n">
-        <v>9420193.04021739</v>
+        <v>9378845.691638026</v>
       </c>
       <c r="O130" s="88" t="n">
-        <v>9441553.431056282</v>
+        <v>9408545.427301899</v>
       </c>
       <c r="P130" s="88" t="n">
-        <v>8912188.047880966</v>
+        <v>8887349.027008642</v>
       </c>
       <c r="Q130" s="88" t="n">
-        <v>7892996.078096407</v>
+        <v>7875446.233583617</v>
       </c>
       <c r="R130" s="88" t="n">
-        <v>9283586.524930488</v>
+        <v>9267109.735426705</v>
       </c>
       <c r="S130" s="88" t="n">
-        <v>8638490.350568151</v>
+        <v>8626246.598471034</v>
       </c>
       <c r="T130" s="88" t="n">
-        <v>8288138.55719751</v>
+        <v>8278754.113044072</v>
       </c>
       <c r="U130" s="88" t="n">
-        <v>9856358.804957354</v>
+        <v>9847440.823169651</v>
       </c>
       <c r="V130" s="88" t="n">
-        <v>8557198.426191721</v>
+        <v>8551010.018801382</v>
       </c>
       <c r="W130" s="88" t="n">
-        <v>8078199.271562916</v>
+        <v>8073529.045724072</v>
       </c>
     </row>
     <row r="131">
@@ -18304,67 +18304,67 @@
         </is>
       </c>
       <c r="C131" s="88" t="n">
-        <v>7593701.543305084</v>
+        <v>7087454.773751411</v>
       </c>
       <c r="D131" s="88" t="n">
-        <v>7996466.615284916</v>
+        <v>7463368.840932588</v>
       </c>
       <c r="E131" s="88" t="n">
-        <v>6740387.739583813</v>
+        <v>6291028.556944892</v>
       </c>
       <c r="F131" s="88" t="n">
-        <v>9020877.857450459</v>
+        <v>8756044.746039068</v>
       </c>
       <c r="G131" s="88" t="n">
-        <v>9546774.24408556</v>
+        <v>9328951.231029775</v>
       </c>
       <c r="H131" s="88" t="n">
-        <v>8692153.862389654</v>
+        <v>8537034.211725885</v>
       </c>
       <c r="I131" s="88" t="n">
-        <v>10420124.57452833</v>
+        <v>10273967.3583881</v>
       </c>
       <c r="J131" s="88" t="n">
-        <v>9183540.799969841</v>
+        <v>9081916.347075228</v>
       </c>
       <c r="K131" s="88" t="n">
-        <v>8593289.679515228</v>
+        <v>8518048.079525286</v>
       </c>
       <c r="L131" s="88" t="n">
-        <v>13367824.40492679</v>
+        <v>13274999.77623895</v>
       </c>
       <c r="M131" s="88" t="n">
-        <v>9529386.344266783</v>
+        <v>9476814.629674384</v>
       </c>
       <c r="N131" s="88" t="n">
-        <v>11279338.1584706</v>
+        <v>11229830.6033078</v>
       </c>
       <c r="O131" s="88" t="n">
-        <v>11255986.72681316</v>
+        <v>11216635.40027024</v>
       </c>
       <c r="P131" s="88" t="n">
-        <v>10577388.54246158</v>
+        <v>10547908.46715691</v>
       </c>
       <c r="Q131" s="88" t="n">
-        <v>9222991.245932521</v>
+        <v>9202484.196301756</v>
       </c>
       <c r="R131" s="88" t="n">
-        <v>11216353.26637103</v>
+        <v>11196446.14413182</v>
       </c>
       <c r="S131" s="88" t="n">
-        <v>10368696.85867678</v>
+        <v>10354000.80082919</v>
       </c>
       <c r="T131" s="88" t="n">
-        <v>9837481.995073954</v>
+        <v>9826343.269562053</v>
       </c>
       <c r="U131" s="88" t="n">
-        <v>11625698.92994163</v>
+        <v>11615180.05848229</v>
       </c>
       <c r="V131" s="88" t="n">
-        <v>10077033.92671813</v>
+        <v>10069746.40244687</v>
       </c>
       <c r="W131" s="88" t="n">
-        <v>9487615.34962922</v>
+        <v>9482130.302174294</v>
       </c>
     </row>
     <row r="132">
@@ -18379,67 +18379,67 @@
         </is>
       </c>
       <c r="C132" s="88" t="n">
-        <v>15228812.26751958</v>
+        <v>14737560.25888992</v>
       </c>
       <c r="D132" s="88" t="n">
-        <v>16094349.26554494</v>
+        <v>15575176.70859188</v>
       </c>
       <c r="E132" s="88" t="n">
-        <v>13645894.80566247</v>
+        <v>13205704.6506411</v>
       </c>
       <c r="F132" s="88" t="n">
-        <v>16242139.90070164</v>
+        <v>15983386.92518432</v>
       </c>
       <c r="G132" s="88" t="n">
-        <v>17020227.33835274</v>
+        <v>16804909.18265901</v>
       </c>
       <c r="H132" s="88" t="n">
-        <v>15315987.9430084</v>
+        <v>15161891.04205821</v>
       </c>
       <c r="I132" s="88" t="n">
-        <v>18087329.02154609</v>
+        <v>17942425.48671901</v>
       </c>
       <c r="J132" s="88" t="n">
-        <v>15827143.51637346</v>
+        <v>15726084.1818357</v>
       </c>
       <c r="K132" s="88" t="n">
-        <v>14580537.84335941</v>
+        <v>14506279.49973155</v>
       </c>
       <c r="L132" s="88" t="n">
-        <v>22309379.59438269</v>
+        <v>22218698.19350341</v>
       </c>
       <c r="M132" s="88" t="n">
-        <v>16054604.51186111</v>
+        <v>16002497.36349289</v>
       </c>
       <c r="N132" s="88" t="n">
-        <v>18755083.85674341</v>
+        <v>18706460.00064389</v>
       </c>
       <c r="O132" s="88" t="n">
-        <v>18619229.95024575</v>
+        <v>18580659.29921657</v>
       </c>
       <c r="P132" s="88" t="n">
-        <v>17496296.37277986</v>
+        <v>17467328.82527896</v>
       </c>
       <c r="Q132" s="88" t="n">
-        <v>15247418.89993687</v>
+        <v>15227239.11654986</v>
       </c>
       <c r="R132" s="88" t="n">
-        <v>18679277.61577504</v>
+        <v>18659512.37622753</v>
       </c>
       <c r="S132" s="88" t="n">
-        <v>17317141.34401366</v>
+        <v>17302489.4491518</v>
       </c>
       <c r="T132" s="88" t="n">
-        <v>16458600.36456062</v>
+        <v>16447464.36936796</v>
       </c>
       <c r="U132" s="88" t="n">
-        <v>19416090.04533648</v>
+        <v>19405583.7212717</v>
       </c>
       <c r="V132" s="88" t="n">
-        <v>16817612.94969941</v>
+        <v>16810334.58688133</v>
       </c>
       <c r="W132" s="88" t="n">
-        <v>15784564.23459428</v>
+        <v>15779100.31590166</v>
       </c>
     </row>
     <row r="133">
@@ -18454,67 +18454,67 @@
         </is>
       </c>
       <c r="C133" s="88" t="n">
-        <v>926766.2405535624</v>
+        <v>896870.5553744152</v>
       </c>
       <c r="D133" s="88" t="n">
-        <v>979298.8595089819</v>
+        <v>947708.5737183697</v>
       </c>
       <c r="E133" s="88" t="n">
-        <v>835577.6378997831</v>
+        <v>808623.5205481772</v>
       </c>
       <c r="F133" s="88" t="n">
-        <v>959247.5249617926</v>
+        <v>943965.7854336924</v>
       </c>
       <c r="G133" s="88" t="n">
-        <v>1004233.121603996</v>
+        <v>991528.8480751062</v>
       </c>
       <c r="H133" s="88" t="n">
-        <v>910119.9100778433</v>
+        <v>900963.030472171</v>
       </c>
       <c r="I133" s="88" t="n">
-        <v>1080365.701884829</v>
+        <v>1071710.537326117</v>
       </c>
       <c r="J133" s="88" t="n">
-        <v>938251.4386457677</v>
+        <v>932260.5239920561</v>
       </c>
       <c r="K133" s="88" t="n">
-        <v>866692.6710009556</v>
+        <v>862278.6251766963</v>
       </c>
       <c r="L133" s="88" t="n">
-        <v>1320542.680115375</v>
+        <v>1315175.042721106</v>
       </c>
       <c r="M133" s="88" t="n">
-        <v>960679.906751939</v>
+        <v>957561.9046611052</v>
       </c>
       <c r="N133" s="88" t="n">
-        <v>1113854.021044359</v>
+        <v>1110966.277217201</v>
       </c>
       <c r="O133" s="88" t="n">
-        <v>1108746.684032073</v>
+        <v>1106449.86071855</v>
       </c>
       <c r="P133" s="88" t="n">
-        <v>1039923.702332545</v>
+        <v>1038201.964279943</v>
       </c>
       <c r="Q133" s="88" t="n">
-        <v>912098.4861261372</v>
+        <v>910891.3342797537</v>
       </c>
       <c r="R133" s="88" t="n">
-        <v>1081791.071358304</v>
+        <v>1080646.38792324</v>
       </c>
       <c r="S133" s="88" t="n">
-        <v>1002218.255394075</v>
+        <v>1001370.286539692</v>
       </c>
       <c r="T133" s="88" t="n">
-        <v>955757.5985632859</v>
+        <v>955110.9268058338</v>
       </c>
       <c r="U133" s="88" t="n">
-        <v>1130483.459928282</v>
+        <v>1129871.739156894</v>
       </c>
       <c r="V133" s="88" t="n">
-        <v>979459.6017132219</v>
+        <v>979035.7090735086</v>
       </c>
       <c r="W133" s="88" t="n">
-        <v>919090.2090208983</v>
+        <v>918772.0606007936</v>
       </c>
     </row>
     <row r="134">
@@ -18529,67 +18529,67 @@
         </is>
       </c>
       <c r="C134" s="88" t="n">
-        <v>1695142.179662921</v>
+        <v>1640460.173867343</v>
       </c>
       <c r="D134" s="88" t="n">
-        <v>1795848.393560325</v>
+        <v>1737917.800219669</v>
       </c>
       <c r="E134" s="88" t="n">
-        <v>1540490.28657999</v>
+        <v>1490797.051529023</v>
       </c>
       <c r="F134" s="88" t="n">
-        <v>1742395.944683838</v>
+        <v>1714637.894453229</v>
       </c>
       <c r="G134" s="88" t="n">
-        <v>1813848.298760562</v>
+        <v>1790901.809114253</v>
       </c>
       <c r="H134" s="88" t="n">
-        <v>1662656.003669619</v>
+        <v>1645927.723491737</v>
       </c>
       <c r="I134" s="88" t="n">
-        <v>1984254.056649008</v>
+        <v>1968357.54553557</v>
       </c>
       <c r="J134" s="88" t="n">
-        <v>1722203.250008411</v>
+        <v>1711206.653294382</v>
       </c>
       <c r="K134" s="88" t="n">
-        <v>1610352.166495338</v>
+        <v>1602150.679977751</v>
       </c>
       <c r="L134" s="88" t="n">
-        <v>2432611.810885855</v>
+        <v>2422723.922884606</v>
       </c>
       <c r="M134" s="88" t="n">
-        <v>1771660.051424497</v>
+        <v>1765909.915811414</v>
       </c>
       <c r="N134" s="88" t="n">
-        <v>2074313.316824088</v>
+        <v>2068935.515637328</v>
       </c>
       <c r="O134" s="88" t="n">
-        <v>2070511.074050728</v>
+        <v>2066221.908478217</v>
       </c>
       <c r="P134" s="88" t="n">
-        <v>1942759.386626922</v>
+        <v>1939542.878766294</v>
       </c>
       <c r="Q134" s="88" t="n">
-        <v>1712187.4049553</v>
+        <v>1709921.344635405</v>
       </c>
       <c r="R134" s="88" t="n">
-        <v>2008777.898678104</v>
+        <v>2006652.335945871</v>
       </c>
       <c r="S134" s="88" t="n">
-        <v>1853996.001590247</v>
+        <v>1852427.350393726</v>
       </c>
       <c r="T134" s="88" t="n">
-        <v>1781673.925073487</v>
+        <v>1780468.433000951</v>
       </c>
       <c r="U134" s="88" t="n">
-        <v>2117149.198870937</v>
+        <v>2116003.579154254</v>
       </c>
       <c r="V134" s="88" t="n">
-        <v>1832532.296223535</v>
+        <v>1831739.2089425</v>
       </c>
       <c r="W134" s="88" t="n">
-        <v>1734119.761148843</v>
+        <v>1733519.4855101</v>
       </c>
     </row>
     <row r="135">
@@ -18604,67 +18604,67 @@
         </is>
       </c>
       <c r="C135" s="88" t="n">
-        <v>2034491.756112107</v>
+        <v>1968862.98978591</v>
       </c>
       <c r="D135" s="88" t="n">
-        <v>2151878.005037146</v>
+        <v>2082462.585519819</v>
       </c>
       <c r="E135" s="88" t="n">
-        <v>1834620.001501989</v>
+        <v>1775438.711130957</v>
       </c>
       <c r="F135" s="88" t="n">
-        <v>2156405.016788281</v>
+        <v>2122051.402182958</v>
       </c>
       <c r="G135" s="88" t="n">
-        <v>2251862.342531836</v>
+        <v>2223374.659210619</v>
       </c>
       <c r="H135" s="88" t="n">
-        <v>2041163.433267899</v>
+        <v>2020626.921972001</v>
       </c>
       <c r="I135" s="88" t="n">
-        <v>2426633.247319431</v>
+        <v>2407192.691179459</v>
       </c>
       <c r="J135" s="88" t="n">
-        <v>2122614.797289547</v>
+        <v>2109061.496362429</v>
       </c>
       <c r="K135" s="88" t="n">
-        <v>1974878.531461834</v>
+        <v>1964820.52055798</v>
       </c>
       <c r="L135" s="88" t="n">
-        <v>3013210.489365251</v>
+        <v>3000962.629797315</v>
       </c>
       <c r="M135" s="88" t="n">
-        <v>2174738.847228723</v>
+        <v>2167680.470942284</v>
       </c>
       <c r="N135" s="88" t="n">
-        <v>2537628.512829587</v>
+        <v>2531049.534853037</v>
       </c>
       <c r="O135" s="88" t="n">
-        <v>2538632.336211278</v>
+        <v>2533373.434409591</v>
       </c>
       <c r="P135" s="88" t="n">
-        <v>2383365.863449908</v>
+        <v>2379419.870401407</v>
       </c>
       <c r="Q135" s="88" t="n">
-        <v>2091577.249457565</v>
+        <v>2088809.071045977</v>
       </c>
       <c r="R135" s="88" t="n">
-        <v>2530619.00021604</v>
+        <v>2527941.257972919</v>
       </c>
       <c r="S135" s="88" t="n">
-        <v>2340719.484371103</v>
+        <v>2338739.020326559</v>
       </c>
       <c r="T135" s="88" t="n">
-        <v>2237672.072425097</v>
+        <v>2236158.049064099</v>
       </c>
       <c r="U135" s="88" t="n">
-        <v>2655379.179454688</v>
+        <v>2653942.315796295</v>
       </c>
       <c r="V135" s="88" t="n">
-        <v>2300887.258632454</v>
+        <v>2299891.475680264</v>
       </c>
       <c r="W135" s="88" t="n">
-        <v>2174767.65681839</v>
+        <v>2174014.848348318</v>
       </c>
     </row>
     <row r="136">
@@ -18829,67 +18829,67 @@
         </is>
       </c>
       <c r="C138" s="88" t="n">
-        <v>3009475.873604552</v>
+        <v>2832447.881039579</v>
       </c>
       <c r="D138" s="88" t="n">
-        <v>3173756.891264117</v>
+        <v>2987065.309425052</v>
       </c>
       <c r="E138" s="88" t="n">
-        <v>2683096.407737127</v>
+        <v>2525267.207282002</v>
       </c>
       <c r="F138" s="88" t="n">
-        <v>3261976.023075271</v>
+        <v>3171522.615156372</v>
       </c>
       <c r="G138" s="88" t="n">
-        <v>3432534.504693083</v>
+        <v>3357634.331389177</v>
       </c>
       <c r="H138" s="88" t="n">
-        <v>3106726.007713634</v>
+        <v>3053194.214082706</v>
       </c>
       <c r="I138" s="88" t="n">
-        <v>3699921.473840076</v>
+        <v>3649440.885599603</v>
       </c>
       <c r="J138" s="88" t="n">
-        <v>3222513.41670045</v>
+        <v>3187625.43335543</v>
       </c>
       <c r="K138" s="88" t="n">
-        <v>2975202.940214128</v>
+        <v>2949600.830849936</v>
       </c>
       <c r="L138" s="88" t="n">
-        <v>4582285.300312339</v>
+        <v>4550902.280568381</v>
       </c>
       <c r="M138" s="88" t="n">
-        <v>3306263.571003797</v>
+        <v>3288222.633987751</v>
       </c>
       <c r="N138" s="88" t="n">
-        <v>3867921.924286584</v>
+        <v>3851092.480384787</v>
       </c>
       <c r="O138" s="88" t="n">
-        <v>3835577.189005378</v>
+        <v>3822260.983736197</v>
       </c>
       <c r="P138" s="88" t="n">
-        <v>3600082.496136295</v>
+        <v>3590104.381827364</v>
       </c>
       <c r="Q138" s="88" t="n">
-        <v>3136880.544220679</v>
+        <v>3129936.661676453</v>
       </c>
       <c r="R138" s="88" t="n">
-        <v>3738272.10403569</v>
+        <v>3731660.773876758</v>
       </c>
       <c r="S138" s="88" t="n">
-        <v>3460152.293952343</v>
+        <v>3455261.914729899</v>
       </c>
       <c r="T138" s="88" t="n">
-        <v>3281812.527843134</v>
+        <v>3278105.012550392</v>
       </c>
       <c r="U138" s="88" t="n">
-        <v>3870829.753847849</v>
+        <v>3867333.773663406</v>
       </c>
       <c r="V138" s="88" t="n">
-        <v>3355163.813519462</v>
+        <v>3352740.925575132</v>
       </c>
       <c r="W138" s="88" t="n">
-        <v>3135238.941595654</v>
+        <v>3133428.468396503</v>
       </c>
     </row>
     <row r="139">
@@ -18979,67 +18979,67 @@
         </is>
       </c>
       <c r="C140" s="88" t="n">
-        <v>3561121.266974236</v>
+        <v>3446246.387394423</v>
       </c>
       <c r="D140" s="88" t="n">
-        <v>3749695.548823067</v>
+        <v>3628737.62789329</v>
       </c>
       <c r="E140" s="88" t="n">
-        <v>3150484.935400951</v>
+        <v>3048856.389097694</v>
       </c>
       <c r="F140" s="88" t="n">
-        <v>3855170.003471066</v>
+        <v>3793753.421935516</v>
       </c>
       <c r="G140" s="88" t="n">
-        <v>4029903.269154391</v>
+        <v>3978922.085278945</v>
       </c>
       <c r="H140" s="88" t="n">
-        <v>3587820.296645223</v>
+        <v>3551722.59332132</v>
       </c>
       <c r="I140" s="88" t="n">
-        <v>4233496.455831346</v>
+        <v>4199580.524938667</v>
       </c>
       <c r="J140" s="88" t="n">
-        <v>3714701.896363543</v>
+        <v>3690982.815199953</v>
       </c>
       <c r="K140" s="88" t="n">
-        <v>3416586.089326404</v>
+        <v>3399185.495014932</v>
       </c>
       <c r="L140" s="88" t="n">
-        <v>5303500.705521136</v>
+        <v>5281943.45550859</v>
       </c>
       <c r="M140" s="88" t="n">
-        <v>3738891.989849266</v>
+        <v>3726756.966560222</v>
       </c>
       <c r="N140" s="88" t="n">
-        <v>4423055.189824383</v>
+        <v>4411588.112379515</v>
       </c>
       <c r="O140" s="88" t="n">
-        <v>4386327.81162222</v>
+        <v>4377241.317724582</v>
       </c>
       <c r="P140" s="88" t="n">
-        <v>4121407.587184674</v>
+        <v>4114584.024785601</v>
       </c>
       <c r="Q140" s="88" t="n">
-        <v>3565914.04810217</v>
+        <v>3561194.601910023</v>
       </c>
       <c r="R140" s="88" t="n">
-        <v>4454006.329788688</v>
+        <v>4449293.379755757</v>
       </c>
       <c r="S140" s="88" t="n">
-        <v>4130531.67802763</v>
+        <v>4127036.868193387</v>
       </c>
       <c r="T140" s="88" t="n">
-        <v>3902907.786075548</v>
+        <v>3900267.053487088</v>
       </c>
       <c r="U140" s="88" t="n">
-        <v>4598329.134233536</v>
+        <v>4595840.912561306</v>
       </c>
       <c r="V140" s="88" t="n">
-        <v>3981375.507152449</v>
+        <v>3979652.43887024</v>
       </c>
       <c r="W140" s="88" t="n">
-        <v>3734017.537415749</v>
+        <v>3732724.985532906</v>
       </c>
     </row>
     <row r="141">
@@ -19054,67 +19054,67 @@
         </is>
       </c>
       <c r="C141" s="88" t="n">
-        <v>3739680.741846317</v>
+        <v>3272220.649115527</v>
       </c>
       <c r="D141" s="88" t="n">
-        <v>3949250.191562667</v>
+        <v>3455593.917617334</v>
       </c>
       <c r="E141" s="88" t="n">
-        <v>3348789.317919506</v>
+        <v>2930190.653179567</v>
       </c>
       <c r="F141" s="88" t="n">
-        <v>4267841.241004945</v>
+        <v>4024399.316384342</v>
       </c>
       <c r="G141" s="88" t="n">
-        <v>4501105.727220538</v>
+        <v>4300289.577661727</v>
       </c>
       <c r="H141" s="88" t="n">
-        <v>4108567.401073088</v>
+        <v>3964496.001213529</v>
       </c>
       <c r="I141" s="88" t="n">
-        <v>4908363.114799719</v>
+        <v>4772574.063764182</v>
       </c>
       <c r="J141" s="88" t="n">
-        <v>4312194.695395171</v>
+        <v>4217802.314697498</v>
       </c>
       <c r="K141" s="88" t="n">
-        <v>4026211.684210668</v>
+        <v>3956317.811938571</v>
       </c>
       <c r="L141" s="88" t="n">
-        <v>6194219.33996122</v>
+        <v>6108788.673311031</v>
       </c>
       <c r="M141" s="88" t="n">
-        <v>4456748.515132121</v>
+        <v>4407844.333020615</v>
       </c>
       <c r="N141" s="88" t="n">
-        <v>5246347.936349726</v>
+        <v>5200494.392850672</v>
       </c>
       <c r="O141" s="88" t="n">
-        <v>5230782.053865444</v>
+        <v>5194335.475338233</v>
       </c>
       <c r="P141" s="88" t="n">
-        <v>4916363.909966995</v>
+        <v>4889035.433766542</v>
       </c>
       <c r="Q141" s="88" t="n">
-        <v>4298828.49497883</v>
+        <v>4279754.2686455</v>
       </c>
       <c r="R141" s="88" t="n">
-        <v>5195916.624462659</v>
+        <v>5177505.561740623</v>
       </c>
       <c r="S141" s="88" t="n">
-        <v>4802418.571776219</v>
+        <v>4788824.437044624</v>
       </c>
       <c r="T141" s="88" t="n">
-        <v>4574061.943057506</v>
+        <v>4563715.474876098</v>
       </c>
       <c r="U141" s="88" t="n">
-        <v>5407049.711323789</v>
+        <v>5397274.015842933</v>
       </c>
       <c r="V141" s="88" t="n">
-        <v>4685895.648482664</v>
+        <v>4679123.040442185</v>
       </c>
       <c r="W141" s="88" t="n">
-        <v>4413545.654467923</v>
+        <v>4408445.422436949</v>
       </c>
     </row>
     <row r="142">
@@ -19129,67 +19129,67 @@
         </is>
       </c>
       <c r="C142" s="88" t="n">
-        <v>196000.0497702145</v>
+        <v>189677.4675195625</v>
       </c>
       <c r="D142" s="88" t="n">
-        <v>207989.0686568852</v>
+        <v>201279.7438615018</v>
       </c>
       <c r="E142" s="88" t="n">
-        <v>174082.996678975</v>
+        <v>168467.4161409435</v>
       </c>
       <c r="F142" s="88" t="n">
-        <v>192762.0298639814</v>
+        <v>189691.1445558264</v>
       </c>
       <c r="G142" s="88" t="n">
-        <v>200696.4577775205</v>
+        <v>198157.502786858</v>
       </c>
       <c r="H142" s="88" t="n">
-        <v>175919.2654679477</v>
+        <v>174149.310194614</v>
       </c>
       <c r="I142" s="88" t="n">
-        <v>207952.1756562408</v>
+        <v>206286.2024607691</v>
       </c>
       <c r="J142" s="88" t="n">
-        <v>175918.2720539072</v>
+        <v>174795.0002842155</v>
       </c>
       <c r="K142" s="88" t="n">
-        <v>162795.1303568577</v>
+        <v>161966.0185050965</v>
       </c>
       <c r="L142" s="88" t="n">
-        <v>252470.9620417689</v>
+        <v>251444.7380527768</v>
       </c>
       <c r="M142" s="88" t="n">
-        <v>180875.9527528756</v>
+        <v>180288.8981107401</v>
       </c>
       <c r="N142" s="88" t="n">
-        <v>204481.9550177958</v>
+        <v>203951.8213627464</v>
       </c>
       <c r="O142" s="88" t="n">
-        <v>201025.7655629499</v>
+        <v>200609.3307978109</v>
       </c>
       <c r="P142" s="88" t="n">
-        <v>187186.2262167216</v>
+        <v>186876.313433815</v>
       </c>
       <c r="Q142" s="88" t="n">
-        <v>163031.5777730201</v>
+        <v>162815.8073566439</v>
       </c>
       <c r="R142" s="88" t="n">
-        <v>182698.2575537498</v>
+        <v>182504.9377209522</v>
       </c>
       <c r="S142" s="88" t="n">
-        <v>168743.6996786177</v>
+        <v>168600.9269832186</v>
       </c>
       <c r="T142" s="88" t="n">
-        <v>156588.5145819474</v>
+        <v>156482.5657827187</v>
       </c>
       <c r="U142" s="88" t="n">
-        <v>183393.9716225092</v>
+        <v>183294.7345210694</v>
       </c>
       <c r="V142" s="88" t="n">
-        <v>158220.5932847083</v>
+        <v>158152.1182349695</v>
       </c>
       <c r="W142" s="88" t="n">
-        <v>146107.6577421308</v>
+        <v>146057.0817268282</v>
       </c>
     </row>
     <row r="143">
@@ -19279,67 +19279,67 @@
         </is>
       </c>
       <c r="C144" s="89" t="n">
-        <v>111198867.3925072</v>
+        <v>107376693.5238605</v>
       </c>
       <c r="D144" s="89" t="n">
-        <v>117392607.8881034</v>
+        <v>113353375.7386498</v>
       </c>
       <c r="E144" s="89" t="n">
-        <v>99496119.28418605</v>
+        <v>96067920.66333731</v>
       </c>
       <c r="F144" s="89" t="n">
-        <v>124007581.0499632</v>
+        <v>122028117.0420397</v>
       </c>
       <c r="G144" s="89" t="n">
-        <v>130823531.7582188</v>
+        <v>129184096.4676717</v>
       </c>
       <c r="H144" s="89" t="n">
-        <v>119059319.8263895</v>
+        <v>117883602.7814392</v>
       </c>
       <c r="I144" s="89" t="n">
-        <v>142308958.3854069</v>
+        <v>141199241.8269872</v>
       </c>
       <c r="J144" s="89" t="n">
-        <v>124948118.0309172</v>
+        <v>124177496.9918356</v>
       </c>
       <c r="K144" s="89" t="n">
-        <v>116507728.0163714</v>
+        <v>115938325.3822362</v>
       </c>
       <c r="L144" s="89" t="n">
-        <v>179703566.5441315</v>
+        <v>179007058.3356875</v>
       </c>
       <c r="M144" s="89" t="n">
-        <v>129505339.9179929</v>
+        <v>129105643.6531018</v>
       </c>
       <c r="N144" s="89" t="n">
-        <v>152244281.3125966</v>
+        <v>151870425.3103683</v>
       </c>
       <c r="O144" s="89" t="n">
-        <v>151975613.2946204</v>
+        <v>151678479.4714056</v>
       </c>
       <c r="P144" s="89" t="n">
-        <v>142989237.3648848</v>
+        <v>142766321.6714126</v>
       </c>
       <c r="Q144" s="89" t="n">
-        <v>125179831.6203448</v>
+        <v>125024096.3680673</v>
       </c>
       <c r="R144" s="89" t="n">
-        <v>151107852.2675244</v>
+        <v>150958309.4513278</v>
       </c>
       <c r="S144" s="89" t="n">
-        <v>140031314.7953013</v>
+        <v>139920658.327047</v>
       </c>
       <c r="T144" s="89" t="n">
-        <v>133386293.1685627</v>
+        <v>133302106.648858</v>
       </c>
       <c r="U144" s="89" t="n">
-        <v>157907150.564046</v>
+        <v>157827557.0707171</v>
       </c>
       <c r="V144" s="89" t="n">
-        <v>136962138.410944</v>
+        <v>136906978.6322908</v>
       </c>
       <c r="W144" s="89" t="n">
-        <v>128981389.7219115</v>
+        <v>128939909.1595144</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
+++ b/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
@@ -4769,25 +4769,25 @@
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>0.2289220432979463</v>
+        <v>0.4578440865958927</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.1322054888877957</v>
+        <v>0.2644109777755913</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.0817977391501038</v>
+        <v>0.1635954783002076</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.05020125149101085</v>
+        <v>0.1004025029820218</v>
       </c>
       <c r="F12" s="40" t="n">
-        <v>0.03081179138504553</v>
+        <v>0.06162358277009106</v>
       </c>
       <c r="G12" s="40" t="n">
-        <v>0.01886052237713276</v>
+        <v>0.03772104475426552</v>
       </c>
       <c r="H12" s="40" t="n">
-        <v>0.01162698003671137</v>
+        <v>0.02325396007342284</v>
       </c>
       <c r="I12" s="40" t="n"/>
       <c r="K12" s="127" t="inlineStr">
@@ -4796,25 +4796,25 @@
         </is>
       </c>
       <c r="L12" s="40" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M12" s="40" t="n">
-        <v>0.3301771550086363</v>
+        <v>0.4952657325129545</v>
       </c>
       <c r="N12" s="40" t="n">
-        <v>0.2418527563956913</v>
+        <v>0.3627791345935369</v>
       </c>
       <c r="O12" s="40" t="n">
-        <v>0.1762132650427445</v>
+        <v>0.2643198975641167</v>
       </c>
       <c r="P12" s="40" t="n">
-        <v>0.1284328556881084</v>
+        <v>0.1926492835321626</v>
       </c>
       <c r="Q12" s="40" t="n">
-        <v>0.09342530210779398</v>
+        <v>0.1401379531616912</v>
       </c>
       <c r="R12" s="40" t="n">
-        <v>0.06827528015483264</v>
+        <v>0.1024129202322488</v>
       </c>
       <c r="S12" s="40" t="n"/>
     </row>
@@ -5664,25 +5664,25 @@
         </is>
       </c>
       <c r="B28" s="40" t="n">
-        <v>0.1054470595409633</v>
+        <v>0.1067631769804581</v>
       </c>
       <c r="C28" s="40" t="n">
-        <v>0.04752804554677148</v>
+        <v>0.04826850933958948</v>
       </c>
       <c r="D28" s="40" t="n">
-        <v>0.02464536828920028</v>
+        <v>0.02510570880144758</v>
       </c>
       <c r="E28" s="40" t="n">
-        <v>0.01305230009748803</v>
+        <v>0.01333672374816086</v>
       </c>
       <c r="F28" s="40" t="n">
-        <v>0.007144537023926145</v>
+        <v>0.007319899533890672</v>
       </c>
       <c r="G28" s="40" t="n">
-        <v>0.003996173947333759</v>
+        <v>0.004100694141656813</v>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0.002308960641350111</v>
+        <v>0.002373799273310828</v>
       </c>
       <c r="I28" s="42" t="n"/>
       <c r="K28" s="127" t="inlineStr">
@@ -5691,25 +5691,25 @@
         </is>
       </c>
       <c r="L28" s="40" t="n">
-        <v>0.2233473907938084</v>
+        <v>0.2247846895140782</v>
       </c>
       <c r="M28" s="40" t="n">
-        <v>0.1105536227026355</v>
+        <v>0.1114782599115607</v>
       </c>
       <c r="N28" s="40" t="n">
-        <v>0.06734561754829604</v>
+        <v>0.06802616583070831</v>
       </c>
       <c r="O28" s="40" t="n">
-        <v>0.04190051175758802</v>
+        <v>0.04239969473263194</v>
       </c>
       <c r="P28" s="40" t="n">
-        <v>0.02689079375585268</v>
+        <v>0.02725627571783784</v>
       </c>
       <c r="Q28" s="40" t="n">
-        <v>0.0176273717234442</v>
+        <v>0.0178862412959766</v>
       </c>
       <c r="R28" s="40" t="n">
-        <v>0.01192434396449582</v>
+        <v>0.01211471479802273</v>
       </c>
       <c r="S28" s="43" t="n"/>
     </row>
@@ -16354,67 +16354,67 @@
         </is>
       </c>
       <c r="C105" s="88" t="n">
-        <v>595333.6911555397</v>
+        <v>396889.1274370265</v>
       </c>
       <c r="D105" s="88" t="n">
-        <v>629117.4312236425</v>
+        <v>419411.6208157617</v>
       </c>
       <c r="E105" s="88" t="n">
-        <v>583809.1036632363</v>
+        <v>455112.8176535679</v>
       </c>
       <c r="F105" s="88" t="n">
-        <v>668313.0684039078</v>
+        <v>547095.4324505576</v>
       </c>
       <c r="G105" s="88" t="n">
-        <v>702659.759737931</v>
+        <v>597198.7346263423</v>
       </c>
       <c r="H105" s="88" t="n">
-        <v>645956.0839662082</v>
+        <v>565362.6092170766</v>
       </c>
       <c r="I105" s="88" t="n">
-        <v>779908.0685998468</v>
+        <v>698717.3179538936</v>
       </c>
       <c r="J105" s="88" t="n">
-        <v>683666.1495119478</v>
+        <v>624100.3673701457</v>
       </c>
       <c r="K105" s="88" t="n">
-        <v>649133.8061582724</v>
+        <v>601680.4561805299</v>
       </c>
       <c r="L105" s="88" t="n">
-        <v>1003945.544895664</v>
+        <v>942239.821770194</v>
       </c>
       <c r="M105" s="88" t="n">
-        <v>725227.4446321175</v>
+        <v>687684.9765799305</v>
       </c>
       <c r="N105" s="88" t="n">
-        <v>854360.2219213013</v>
+        <v>817056.7481415818</v>
       </c>
       <c r="O105" s="88" t="n">
-        <v>858641.4243108634</v>
+        <v>826981.9326436989</v>
       </c>
       <c r="P105" s="88" t="n">
-        <v>807239.1943646708</v>
+        <v>782078.7727615396</v>
       </c>
       <c r="Q105" s="88" t="n">
-        <v>711868.9371770903</v>
+        <v>693097.0070576342</v>
       </c>
       <c r="R105" s="88" t="n">
-        <v>836697.2561872149</v>
+        <v>818017.0485908081</v>
       </c>
       <c r="S105" s="88" t="n">
-        <v>772451.7951264863</v>
+        <v>757841.7459070756</v>
       </c>
       <c r="T105" s="88" t="n">
-        <v>738603.2581430781</v>
+        <v>726762.4851936302</v>
       </c>
       <c r="U105" s="88" t="n">
-        <v>878540.3095813493</v>
+        <v>866597.5040518075</v>
       </c>
       <c r="V105" s="88" t="n">
-        <v>761858.4098818045</v>
+        <v>753073.1786575296</v>
       </c>
       <c r="W105" s="88" t="n">
-        <v>722961.2092873023</v>
+        <v>715887.2541249839</v>
       </c>
     </row>
     <row r="106">
@@ -17554,67 +17554,67 @@
         </is>
       </c>
       <c r="C121" s="89" t="n">
-        <v>121765574.7303934</v>
+        <v>121567130.1666749</v>
       </c>
       <c r="D121" s="89" t="n">
-        <v>128556346.8073912</v>
+        <v>128346640.9969833</v>
       </c>
       <c r="E121" s="89" t="n">
-        <v>114567824.611825</v>
+        <v>114439128.3258153</v>
       </c>
       <c r="F121" s="89" t="n">
-        <v>132011093.7398169</v>
+        <v>131889876.1038635</v>
       </c>
       <c r="G121" s="89" t="n">
-        <v>138245241.4658924</v>
+        <v>138139780.4407808</v>
       </c>
       <c r="H121" s="89" t="n">
-        <v>124993364.4912616</v>
+        <v>124912771.0165124</v>
       </c>
       <c r="I121" s="89" t="n">
-        <v>148544888.8210074</v>
+        <v>148463698.0703615</v>
       </c>
       <c r="J121" s="89" t="n">
-        <v>129764698.3677479</v>
+        <v>129705132.5856061</v>
       </c>
       <c r="K121" s="89" t="n">
-        <v>120463442.7861111</v>
+        <v>120415989.4361334</v>
       </c>
       <c r="L121" s="89" t="n">
-        <v>185088045.0917034</v>
+        <v>185026339.3685779</v>
       </c>
       <c r="M121" s="89" t="n">
-        <v>132930108.0543531</v>
+        <v>132892565.5863009</v>
       </c>
       <c r="N121" s="89" t="n">
-        <v>155814987.4129385</v>
+        <v>155777683.9391588</v>
       </c>
       <c r="O121" s="89" t="n">
-        <v>155129289.933993</v>
+        <v>155097630.4423258</v>
       </c>
       <c r="P121" s="89" t="n">
-        <v>145623419.5964238</v>
+        <v>145598259.1748207</v>
       </c>
       <c r="Q121" s="89" t="n">
-        <v>127228018.3980199</v>
+        <v>127209246.4679004</v>
       </c>
       <c r="R121" s="89" t="n">
-        <v>153300234.0404451</v>
+        <v>153281553.8328486</v>
       </c>
       <c r="S121" s="89" t="n">
-        <v>141842448.7604471</v>
+        <v>141827838.7112278</v>
       </c>
       <c r="T121" s="89" t="n">
-        <v>134924239.7780186</v>
+        <v>134912399.0050691</v>
       </c>
       <c r="U121" s="89" t="n">
-        <v>159532202.5328519</v>
+        <v>159520259.7273223</v>
       </c>
       <c r="V121" s="89" t="n">
-        <v>138222602.2985709</v>
+        <v>138213817.0673466</v>
       </c>
       <c r="W121" s="89" t="n">
-        <v>130042595.764995</v>
+        <v>130035521.8098327</v>
       </c>
     </row>
     <row r="122">
@@ -18079,67 +18079,67 @@
         </is>
       </c>
       <c r="C128" s="88" t="n">
-        <v>396889.1274370265</v>
+        <v>198444.5637185132</v>
       </c>
       <c r="D128" s="88" t="n">
-        <v>419411.6208157617</v>
+        <v>209705.8104078808</v>
       </c>
       <c r="E128" s="88" t="n">
-        <v>356252.6948364524</v>
+        <v>178126.3474182262</v>
       </c>
       <c r="F128" s="88" t="n">
-        <v>501746.7626190375</v>
+        <v>357854.7917499272</v>
       </c>
       <c r="G128" s="88" t="n">
-        <v>543016.7613796347</v>
+        <v>410464.7496446922</v>
       </c>
       <c r="H128" s="88" t="n">
-        <v>512039.4342524295</v>
+        <v>404784.3720209741</v>
       </c>
       <c r="I128" s="88" t="n">
-        <v>632287.2104463964</v>
+        <v>517881.4060466946</v>
       </c>
       <c r="J128" s="88" t="n">
-        <v>565489.1672082496</v>
+        <v>476617.7849854994</v>
       </c>
       <c r="K128" s="88" t="n">
-        <v>546658.1913241625</v>
+        <v>471693.7089182364</v>
       </c>
       <c r="L128" s="88" t="n">
-        <v>859223.7003410242</v>
+        <v>756009.9165009698</v>
       </c>
       <c r="M128" s="88" t="n">
-        <v>629789.2010293161</v>
+        <v>563298.8452018219</v>
       </c>
       <c r="N128" s="88" t="n">
-        <v>751756.9377711458</v>
+        <v>681803.5588062084</v>
       </c>
       <c r="O128" s="88" t="n">
-        <v>764577.2784638859</v>
+        <v>701715.4597068147</v>
       </c>
       <c r="P128" s="88" t="n">
-        <v>726607.209000665</v>
+        <v>673711.0055170965</v>
       </c>
       <c r="Q128" s="88" t="n">
-        <v>647067.2698952676</v>
+        <v>605280.471194628</v>
       </c>
       <c r="R128" s="88" t="n">
-        <v>767320.146590292</v>
+        <v>723291.4879936271</v>
       </c>
       <c r="S128" s="88" t="n">
-        <v>714139.7699735013</v>
+        <v>677678.7327873035</v>
       </c>
       <c r="T128" s="88" t="n">
-        <v>687867.5737827248</v>
+        <v>656579.345127824</v>
       </c>
       <c r="U128" s="88" t="n">
-        <v>823654.7459105386</v>
+        <v>790240.5613103623</v>
       </c>
       <c r="V128" s="88" t="n">
-        <v>718592.3767909835</v>
+        <v>692566.7446334355</v>
       </c>
       <c r="W128" s="88" t="n">
-        <v>685657.5479359903</v>
+        <v>663468.739679175</v>
       </c>
     </row>
     <row r="129">
@@ -19279,67 +19279,67 @@
         </is>
       </c>
       <c r="C144" s="89" t="n">
-        <v>107376693.5238605</v>
+        <v>107178248.9601419</v>
       </c>
       <c r="D144" s="89" t="n">
-        <v>113353375.7386498</v>
+        <v>113143669.9282419</v>
       </c>
       <c r="E144" s="89" t="n">
-        <v>96067920.66333731</v>
+        <v>95889794.31591909</v>
       </c>
       <c r="F144" s="89" t="n">
-        <v>122028117.0420397</v>
+        <v>121884225.0711706</v>
       </c>
       <c r="G144" s="89" t="n">
-        <v>129184096.4676717</v>
+        <v>129051544.4559367</v>
       </c>
       <c r="H144" s="89" t="n">
-        <v>117883602.7814392</v>
+        <v>117776347.7192077</v>
       </c>
       <c r="I144" s="89" t="n">
-        <v>141199241.8269872</v>
+        <v>141084836.0225875</v>
       </c>
       <c r="J144" s="89" t="n">
-        <v>124177496.9918356</v>
+        <v>124088625.6096128</v>
       </c>
       <c r="K144" s="89" t="n">
-        <v>115938325.3822362</v>
+        <v>115863360.8998303</v>
       </c>
       <c r="L144" s="89" t="n">
-        <v>179007058.3356875</v>
+        <v>178903844.5518474</v>
       </c>
       <c r="M144" s="89" t="n">
-        <v>129105643.6531018</v>
+        <v>129039153.2972743</v>
       </c>
       <c r="N144" s="89" t="n">
-        <v>151870425.3103683</v>
+        <v>151800471.9314034</v>
       </c>
       <c r="O144" s="89" t="n">
-        <v>151678479.4714056</v>
+        <v>151615617.6526485</v>
       </c>
       <c r="P144" s="89" t="n">
-        <v>142766321.6714126</v>
+        <v>142713425.467929</v>
       </c>
       <c r="Q144" s="89" t="n">
-        <v>125024096.3680673</v>
+        <v>124982309.5693666</v>
       </c>
       <c r="R144" s="89" t="n">
-        <v>150958309.4513278</v>
+        <v>150914280.7927311</v>
       </c>
       <c r="S144" s="89" t="n">
-        <v>139920658.327047</v>
+        <v>139884197.2898608</v>
       </c>
       <c r="T144" s="89" t="n">
-        <v>133302106.648858</v>
+        <v>133270818.4202031</v>
       </c>
       <c r="U144" s="89" t="n">
-        <v>157827557.0707171</v>
+        <v>157794142.8861169</v>
       </c>
       <c r="V144" s="89" t="n">
-        <v>136906978.6322908</v>
+        <v>136880953.0001332</v>
       </c>
       <c r="W144" s="89" t="n">
-        <v>128939909.1595144</v>
+        <v>128917720.3512575</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
+++ b/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
@@ -4769,25 +4769,25 @@
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>0.4578440865958927</v>
+        <v>0.2289220432979463</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.2644109777755913</v>
+        <v>0.1322054888877957</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.1635954783002076</v>
+        <v>0.0817977391501038</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.1004025029820218</v>
+        <v>0.05020125149101085</v>
       </c>
       <c r="F12" s="40" t="n">
-        <v>0.06162358277009106</v>
+        <v>0.03081179138504553</v>
       </c>
       <c r="G12" s="40" t="n">
-        <v>0.03772104475426552</v>
+        <v>0.01886052237713276</v>
       </c>
       <c r="H12" s="40" t="n">
-        <v>0.02325396007342284</v>
+        <v>0.01162698003671137</v>
       </c>
       <c r="I12" s="40" t="n"/>
       <c r="K12" s="127" t="inlineStr">
@@ -4796,25 +4796,25 @@
         </is>
       </c>
       <c r="L12" s="40" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="M12" s="40" t="n">
-        <v>0.4952657325129545</v>
+        <v>0.3301771550086363</v>
       </c>
       <c r="N12" s="40" t="n">
-        <v>0.3627791345935369</v>
+        <v>0.2418527563956913</v>
       </c>
       <c r="O12" s="40" t="n">
-        <v>0.2643198975641167</v>
+        <v>0.1762132650427445</v>
       </c>
       <c r="P12" s="40" t="n">
-        <v>0.1926492835321626</v>
+        <v>0.1284328556881084</v>
       </c>
       <c r="Q12" s="40" t="n">
-        <v>0.1401379531616912</v>
+        <v>0.09342530210779398</v>
       </c>
       <c r="R12" s="40" t="n">
-        <v>0.1024129202322488</v>
+        <v>0.06827528015483264</v>
       </c>
       <c r="S12" s="40" t="n"/>
     </row>
@@ -5664,25 +5664,25 @@
         </is>
       </c>
       <c r="B28" s="40" t="n">
-        <v>0.1067631769804581</v>
+        <v>0.1054470595409633</v>
       </c>
       <c r="C28" s="40" t="n">
-        <v>0.04826850933958948</v>
+        <v>0.04752804554677148</v>
       </c>
       <c r="D28" s="40" t="n">
-        <v>0.02510570880144758</v>
+        <v>0.02464536828920028</v>
       </c>
       <c r="E28" s="40" t="n">
-        <v>0.01333672374816086</v>
+        <v>0.01305230009748803</v>
       </c>
       <c r="F28" s="40" t="n">
-        <v>0.007319899533890672</v>
+        <v>0.007144537023926145</v>
       </c>
       <c r="G28" s="40" t="n">
-        <v>0.004100694141656813</v>
+        <v>0.003996173947333759</v>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0.002373799273310828</v>
+        <v>0.002308960641350111</v>
       </c>
       <c r="I28" s="42" t="n"/>
       <c r="K28" s="127" t="inlineStr">
@@ -5691,25 +5691,25 @@
         </is>
       </c>
       <c r="L28" s="40" t="n">
-        <v>0.2247846895140782</v>
+        <v>0.2233473907938084</v>
       </c>
       <c r="M28" s="40" t="n">
-        <v>0.1114782599115607</v>
+        <v>0.1105536227026355</v>
       </c>
       <c r="N28" s="40" t="n">
-        <v>0.06802616583070831</v>
+        <v>0.06734561754829604</v>
       </c>
       <c r="O28" s="40" t="n">
-        <v>0.04239969473263194</v>
+        <v>0.04190051175758802</v>
       </c>
       <c r="P28" s="40" t="n">
-        <v>0.02725627571783784</v>
+        <v>0.02689079375585268</v>
       </c>
       <c r="Q28" s="40" t="n">
-        <v>0.0178862412959766</v>
+        <v>0.0176273717234442</v>
       </c>
       <c r="R28" s="40" t="n">
-        <v>0.01211471479802273</v>
+        <v>0.01192434396449582</v>
       </c>
       <c r="S28" s="43" t="n"/>
     </row>
@@ -16354,67 +16354,67 @@
         </is>
       </c>
       <c r="C105" s="88" t="n">
-        <v>396889.1274370265</v>
+        <v>595333.6911555397</v>
       </c>
       <c r="D105" s="88" t="n">
-        <v>419411.6208157617</v>
+        <v>629117.4312236425</v>
       </c>
       <c r="E105" s="88" t="n">
-        <v>455112.8176535679</v>
+        <v>583809.1036632363</v>
       </c>
       <c r="F105" s="88" t="n">
-        <v>547095.4324505576</v>
+        <v>668313.0684039078</v>
       </c>
       <c r="G105" s="88" t="n">
-        <v>597198.7346263423</v>
+        <v>702659.759737931</v>
       </c>
       <c r="H105" s="88" t="n">
-        <v>565362.6092170766</v>
+        <v>645956.0839662082</v>
       </c>
       <c r="I105" s="88" t="n">
-        <v>698717.3179538936</v>
+        <v>779908.0685998468</v>
       </c>
       <c r="J105" s="88" t="n">
-        <v>624100.3673701457</v>
+        <v>683666.1495119478</v>
       </c>
       <c r="K105" s="88" t="n">
-        <v>601680.4561805299</v>
+        <v>649133.8061582724</v>
       </c>
       <c r="L105" s="88" t="n">
-        <v>942239.821770194</v>
+        <v>1003945.544895664</v>
       </c>
       <c r="M105" s="88" t="n">
-        <v>687684.9765799305</v>
+        <v>725227.4446321175</v>
       </c>
       <c r="N105" s="88" t="n">
-        <v>817056.7481415818</v>
+        <v>854360.2219213013</v>
       </c>
       <c r="O105" s="88" t="n">
-        <v>826981.9326436989</v>
+        <v>858641.4243108634</v>
       </c>
       <c r="P105" s="88" t="n">
-        <v>782078.7727615396</v>
+        <v>807239.1943646708</v>
       </c>
       <c r="Q105" s="88" t="n">
-        <v>693097.0070576342</v>
+        <v>711868.9371770903</v>
       </c>
       <c r="R105" s="88" t="n">
-        <v>818017.0485908081</v>
+        <v>836697.2561872149</v>
       </c>
       <c r="S105" s="88" t="n">
-        <v>757841.7459070756</v>
+        <v>772451.7951264863</v>
       </c>
       <c r="T105" s="88" t="n">
-        <v>726762.4851936302</v>
+        <v>738603.2581430781</v>
       </c>
       <c r="U105" s="88" t="n">
-        <v>866597.5040518075</v>
+        <v>878540.3095813493</v>
       </c>
       <c r="V105" s="88" t="n">
-        <v>753073.1786575296</v>
+        <v>761858.4098818045</v>
       </c>
       <c r="W105" s="88" t="n">
-        <v>715887.2541249839</v>
+        <v>722961.2092873023</v>
       </c>
     </row>
     <row r="106">
@@ -17554,67 +17554,67 @@
         </is>
       </c>
       <c r="C121" s="89" t="n">
-        <v>121567130.1666749</v>
+        <v>121765574.7303934</v>
       </c>
       <c r="D121" s="89" t="n">
-        <v>128346640.9969833</v>
+        <v>128556346.8073912</v>
       </c>
       <c r="E121" s="89" t="n">
-        <v>114439128.3258153</v>
+        <v>114567824.611825</v>
       </c>
       <c r="F121" s="89" t="n">
-        <v>131889876.1038635</v>
+        <v>132011093.7398169</v>
       </c>
       <c r="G121" s="89" t="n">
-        <v>138139780.4407808</v>
+        <v>138245241.4658924</v>
       </c>
       <c r="H121" s="89" t="n">
-        <v>124912771.0165124</v>
+        <v>124993364.4912616</v>
       </c>
       <c r="I121" s="89" t="n">
-        <v>148463698.0703615</v>
+        <v>148544888.8210074</v>
       </c>
       <c r="J121" s="89" t="n">
-        <v>129705132.5856061</v>
+        <v>129764698.3677479</v>
       </c>
       <c r="K121" s="89" t="n">
-        <v>120415989.4361334</v>
+        <v>120463442.7861111</v>
       </c>
       <c r="L121" s="89" t="n">
-        <v>185026339.3685779</v>
+        <v>185088045.0917034</v>
       </c>
       <c r="M121" s="89" t="n">
-        <v>132892565.5863009</v>
+        <v>132930108.0543531</v>
       </c>
       <c r="N121" s="89" t="n">
-        <v>155777683.9391588</v>
+        <v>155814987.4129385</v>
       </c>
       <c r="O121" s="89" t="n">
-        <v>155097630.4423258</v>
+        <v>155129289.933993</v>
       </c>
       <c r="P121" s="89" t="n">
-        <v>145598259.1748207</v>
+        <v>145623419.5964238</v>
       </c>
       <c r="Q121" s="89" t="n">
-        <v>127209246.4679004</v>
+        <v>127228018.3980199</v>
       </c>
       <c r="R121" s="89" t="n">
-        <v>153281553.8328486</v>
+        <v>153300234.0404451</v>
       </c>
       <c r="S121" s="89" t="n">
-        <v>141827838.7112278</v>
+        <v>141842448.7604471</v>
       </c>
       <c r="T121" s="89" t="n">
-        <v>134912399.0050691</v>
+        <v>134924239.7780186</v>
       </c>
       <c r="U121" s="89" t="n">
-        <v>159520259.7273223</v>
+        <v>159532202.5328519</v>
       </c>
       <c r="V121" s="89" t="n">
-        <v>138213817.0673466</v>
+        <v>138222602.2985709</v>
       </c>
       <c r="W121" s="89" t="n">
-        <v>130035521.8098327</v>
+        <v>130042595.764995</v>
       </c>
     </row>
     <row r="122">
@@ -18079,67 +18079,67 @@
         </is>
       </c>
       <c r="C128" s="88" t="n">
-        <v>198444.5637185132</v>
+        <v>396889.1274370265</v>
       </c>
       <c r="D128" s="88" t="n">
-        <v>209705.8104078808</v>
+        <v>419411.6208157617</v>
       </c>
       <c r="E128" s="88" t="n">
-        <v>178126.3474182262</v>
+        <v>356252.6948364524</v>
       </c>
       <c r="F128" s="88" t="n">
-        <v>357854.7917499272</v>
+        <v>501746.7626190375</v>
       </c>
       <c r="G128" s="88" t="n">
-        <v>410464.7496446922</v>
+        <v>543016.7613796347</v>
       </c>
       <c r="H128" s="88" t="n">
-        <v>404784.3720209741</v>
+        <v>512039.4342524295</v>
       </c>
       <c r="I128" s="88" t="n">
-        <v>517881.4060466946</v>
+        <v>632287.2104463964</v>
       </c>
       <c r="J128" s="88" t="n">
-        <v>476617.7849854994</v>
+        <v>565489.1672082496</v>
       </c>
       <c r="K128" s="88" t="n">
-        <v>471693.7089182364</v>
+        <v>546658.1913241625</v>
       </c>
       <c r="L128" s="88" t="n">
-        <v>756009.9165009698</v>
+        <v>859223.7003410242</v>
       </c>
       <c r="M128" s="88" t="n">
-        <v>563298.8452018219</v>
+        <v>629789.2010293161</v>
       </c>
       <c r="N128" s="88" t="n">
-        <v>681803.5588062084</v>
+        <v>751756.9377711458</v>
       </c>
       <c r="O128" s="88" t="n">
-        <v>701715.4597068147</v>
+        <v>764577.2784638859</v>
       </c>
       <c r="P128" s="88" t="n">
-        <v>673711.0055170965</v>
+        <v>726607.209000665</v>
       </c>
       <c r="Q128" s="88" t="n">
-        <v>605280.471194628</v>
+        <v>647067.2698952676</v>
       </c>
       <c r="R128" s="88" t="n">
-        <v>723291.4879936271</v>
+        <v>767320.146590292</v>
       </c>
       <c r="S128" s="88" t="n">
-        <v>677678.7327873035</v>
+        <v>714139.7699735013</v>
       </c>
       <c r="T128" s="88" t="n">
-        <v>656579.345127824</v>
+        <v>687867.5737827248</v>
       </c>
       <c r="U128" s="88" t="n">
-        <v>790240.5613103623</v>
+        <v>823654.7459105386</v>
       </c>
       <c r="V128" s="88" t="n">
-        <v>692566.7446334355</v>
+        <v>718592.3767909835</v>
       </c>
       <c r="W128" s="88" t="n">
-        <v>663468.739679175</v>
+        <v>685657.5479359903</v>
       </c>
     </row>
     <row r="129">
@@ -19279,67 +19279,67 @@
         </is>
       </c>
       <c r="C144" s="89" t="n">
-        <v>107178248.9601419</v>
+        <v>107376693.5238605</v>
       </c>
       <c r="D144" s="89" t="n">
-        <v>113143669.9282419</v>
+        <v>113353375.7386498</v>
       </c>
       <c r="E144" s="89" t="n">
-        <v>95889794.31591909</v>
+        <v>96067920.66333731</v>
       </c>
       <c r="F144" s="89" t="n">
-        <v>121884225.0711706</v>
+        <v>122028117.0420397</v>
       </c>
       <c r="G144" s="89" t="n">
-        <v>129051544.4559367</v>
+        <v>129184096.4676717</v>
       </c>
       <c r="H144" s="89" t="n">
-        <v>117776347.7192077</v>
+        <v>117883602.7814392</v>
       </c>
       <c r="I144" s="89" t="n">
-        <v>141084836.0225875</v>
+        <v>141199241.8269872</v>
       </c>
       <c r="J144" s="89" t="n">
-        <v>124088625.6096128</v>
+        <v>124177496.9918356</v>
       </c>
       <c r="K144" s="89" t="n">
-        <v>115863360.8998303</v>
+        <v>115938325.3822362</v>
       </c>
       <c r="L144" s="89" t="n">
-        <v>178903844.5518474</v>
+        <v>179007058.3356875</v>
       </c>
       <c r="M144" s="89" t="n">
-        <v>129039153.2972743</v>
+        <v>129105643.6531018</v>
       </c>
       <c r="N144" s="89" t="n">
-        <v>151800471.9314034</v>
+        <v>151870425.3103683</v>
       </c>
       <c r="O144" s="89" t="n">
-        <v>151615617.6526485</v>
+        <v>151678479.4714056</v>
       </c>
       <c r="P144" s="89" t="n">
-        <v>142713425.467929</v>
+        <v>142766321.6714126</v>
       </c>
       <c r="Q144" s="89" t="n">
-        <v>124982309.5693666</v>
+        <v>125024096.3680673</v>
       </c>
       <c r="R144" s="89" t="n">
-        <v>150914280.7927311</v>
+        <v>150958309.4513278</v>
       </c>
       <c r="S144" s="89" t="n">
-        <v>139884197.2898608</v>
+        <v>139920658.327047</v>
       </c>
       <c r="T144" s="89" t="n">
-        <v>133270818.4202031</v>
+        <v>133302106.648858</v>
       </c>
       <c r="U144" s="89" t="n">
-        <v>157794142.8861169</v>
+        <v>157827557.0707171</v>
       </c>
       <c r="V144" s="89" t="n">
-        <v>136880953.0001332</v>
+        <v>136906978.6322908</v>
       </c>
       <c r="W144" s="89" t="n">
-        <v>128917720.3512575</v>
+        <v>128939909.1595144</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
+++ b/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
@@ -242,16 +242,16 @@
       <sz val="13"/>
     </font>
     <font>
+      <name val="Open Sans Regular"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Open Sans Regular"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -313,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -625,6 +625,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -800,11 +815,6 @@
     <xf applyAlignment="1" borderId="14" fillId="0" fontId="22" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf applyAlignment="1" borderId="23" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,17 +828,32 @@
     <xf borderId="19" fillId="9" fontId="28" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf borderId="0" fillId="9" fontId="28" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="18" fillId="9" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="29" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="22" fillId="9" fontId="29" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="9" fontId="29" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="25" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -876,17 +901,7 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="9" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="18" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="22" fillId="0" fontId="29" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf borderId="22" fillId="9" fontId="29" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="25" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="26" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="18" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
@@ -898,10 +913,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
@@ -1222,36 +1237,36 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="85" width="7"/>
-    <col customWidth="1" max="2" min="2" style="85" width="31.5"/>
-    <col customWidth="1" max="5" min="3" style="85" width="12.83203125"/>
-    <col customWidth="1" max="6" min="6" style="85" width="0.6640625"/>
-    <col customWidth="1" max="9" min="7" style="85" width="12.83203125"/>
-    <col customWidth="1" max="13" min="10" style="85" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="14" style="85" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="82" width="7"/>
+    <col customWidth="1" max="2" min="2" style="82" width="31.5"/>
+    <col customWidth="1" max="5" min="3" style="82" width="12.83203125"/>
+    <col customWidth="1" max="6" min="6" style="82" width="0.6640625"/>
+    <col customWidth="1" max="9" min="7" style="82" width="12.83203125"/>
+    <col customWidth="1" max="15" min="10" style="82" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="16" style="82" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20" r="3" s="111">
-      <c r="B3" s="104" t="inlineStr">
+    <row customHeight="1" ht="20" r="3" s="121">
+      <c r="B3" s="114" t="inlineStr">
         <is>
           <t>Estimated Tax Revenue Impacts for Major City of Philadelphia Taxes by Fiscal Year</t>
         </is>
       </c>
-      <c r="C3" s="105" t="n"/>
-      <c r="D3" s="105" t="n"/>
-      <c r="E3" s="105" t="n"/>
-      <c r="F3" s="105" t="n"/>
-      <c r="G3" s="105" t="n"/>
-      <c r="H3" s="105" t="n"/>
-      <c r="I3" s="106" t="n"/>
-    </row>
-    <row customHeight="1" ht="16" r="4" s="111">
-      <c r="B4" s="132" t="inlineStr">
+      <c r="C3" s="115" t="n"/>
+      <c r="D3" s="115" t="n"/>
+      <c r="E3" s="115" t="n"/>
+      <c r="F3" s="115" t="n"/>
+      <c r="G3" s="115" t="n"/>
+      <c r="H3" s="115" t="n"/>
+      <c r="I3" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="16" r="4" s="121">
+      <c r="B4" s="101" t="inlineStr">
         <is>
           <t>Dollars in thousands</t>
         </is>
@@ -1260,17 +1275,17 @@
     </row>
     <row r="5">
       <c r="B5" s="58" t="n"/>
-      <c r="C5" s="107" t="inlineStr">
+      <c r="C5" s="117" t="inlineStr">
         <is>
           <t>Differences Relative to March Baseline</t>
         </is>
       </c>
-      <c r="D5" s="108" t="n"/>
-      <c r="E5" s="108" t="n"/>
-      <c r="F5" s="108" t="n"/>
-      <c r="G5" s="108" t="n"/>
-      <c r="H5" s="108" t="n"/>
-      <c r="I5" s="109" t="n"/>
+      <c r="D5" s="118" t="n"/>
+      <c r="E5" s="118" t="n"/>
+      <c r="F5" s="118" t="n"/>
+      <c r="G5" s="118" t="n"/>
+      <c r="H5" s="118" t="n"/>
+      <c r="I5" s="119" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="54" t="n"/>
@@ -1279,16 +1294,16 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="D6" s="102" t="n"/>
-      <c r="E6" s="103" t="n"/>
+      <c r="D6" s="112" t="n"/>
+      <c r="E6" s="113" t="n"/>
       <c r="F6" s="59" t="n"/>
       <c r="G6" s="133" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
       </c>
-      <c r="H6" s="102" t="n"/>
-      <c r="I6" s="103" t="n"/>
+      <c r="H6" s="112" t="n"/>
+      <c r="I6" s="113" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="57" t="inlineStr">
@@ -1296,13 +1311,13 @@
           <t>Tax</t>
         </is>
       </c>
-      <c r="C7" s="84" t="n">
+      <c r="C7" s="81" t="n">
         <v>2020</v>
       </c>
-      <c r="D7" s="84" t="n">
+      <c r="D7" s="81" t="n">
         <v>2021</v>
       </c>
-      <c r="E7" s="84" t="inlineStr">
+      <c r="E7" s="81" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -1311,17 +1326,17 @@
       <c r="G7" s="56" t="n">
         <v>2020</v>
       </c>
-      <c r="H7" s="84" t="n">
+      <c r="H7" s="81" t="n">
         <v>2021</v>
       </c>
-      <c r="I7" s="84" t="inlineStr">
+      <c r="I7" s="81" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="88" t="inlineStr">
+      <c r="B8" s="85" t="inlineStr">
         <is>
           <t>Wage</t>
         </is>
@@ -1338,7 +1353,7 @@
         <f>SUM(C8:D8)</f>
         <v/>
       </c>
-      <c r="F8" s="92" t="n"/>
+      <c r="F8" s="89" t="n"/>
       <c r="G8" s="60">
         <f>Summary!G7/1000</f>
         <v/>
@@ -1353,7 +1368,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="89" t="inlineStr">
+      <c r="B9" s="86" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
@@ -1370,7 +1385,7 @@
         <f>SUM(C9:D9)</f>
         <v/>
       </c>
-      <c r="F9" s="93" t="n"/>
+      <c r="F9" s="90" t="n"/>
       <c r="G9" s="61">
         <f>Summary!G8/1000</f>
         <v/>
@@ -1385,7 +1400,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="90" t="inlineStr">
+      <c r="B10" s="87" t="inlineStr">
         <is>
           <t>Business Income and Receipts</t>
         </is>
@@ -1402,7 +1417,7 @@
         <f>SUM(C10:D10)</f>
         <v/>
       </c>
-      <c r="F10" s="94" t="n"/>
+      <c r="F10" s="91" t="n"/>
       <c r="G10" s="62">
         <f>Summary!G14/1000</f>
         <v/>
@@ -1417,7 +1432,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="89" t="inlineStr">
+      <c r="B11" s="86" t="inlineStr">
         <is>
           <t>Realty Transfer</t>
         </is>
@@ -1434,7 +1449,7 @@
         <f>SUM(C11:D11)</f>
         <v/>
       </c>
-      <c r="F11" s="93" t="n"/>
+      <c r="F11" s="90" t="n"/>
       <c r="G11" s="61">
         <f>Summary!G9/1000</f>
         <v/>
@@ -1449,7 +1464,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="90" t="inlineStr">
+      <c r="B12" s="87" t="inlineStr">
         <is>
           <t>Beverage</t>
         </is>
@@ -1466,7 +1481,7 @@
         <f>SUM(C12:D12)</f>
         <v/>
       </c>
-      <c r="F12" s="94" t="n"/>
+      <c r="F12" s="91" t="n"/>
       <c r="G12" s="62">
         <f>Summary!G10/1000</f>
         <v/>
@@ -1481,7 +1496,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="89" t="inlineStr">
+      <c r="B13" s="86" t="inlineStr">
         <is>
           <t>Amusement</t>
         </is>
@@ -1498,7 +1513,7 @@
         <f>SUM(C13:D13)</f>
         <v/>
       </c>
-      <c r="F13" s="93" t="n"/>
+      <c r="F13" s="90" t="n"/>
       <c r="G13" s="61">
         <f>Summary!G11/1000</f>
         <v/>
@@ -1513,7 +1528,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="90" t="inlineStr">
+      <c r="B14" s="87" t="inlineStr">
         <is>
           <t>Net Profits</t>
         </is>
@@ -1530,7 +1545,7 @@
         <f>SUM(C14:D14)</f>
         <v/>
       </c>
-      <c r="F14" s="94" t="n"/>
+      <c r="F14" s="91" t="n"/>
       <c r="G14" s="62">
         <f>Summary!G12/1000</f>
         <v/>
@@ -1545,7 +1560,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="89" t="inlineStr">
+      <c r="B15" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Parking </t>
         </is>
@@ -1562,7 +1577,7 @@
         <f>SUM(C15:D15)</f>
         <v/>
       </c>
-      <c r="F15" s="93" t="n"/>
+      <c r="F15" s="90" t="n"/>
       <c r="G15" s="61">
         <f>Summary!G13/1000</f>
         <v/>
@@ -1577,112 +1592,111 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="86" t="inlineStr">
+      <c r="B16" s="83" t="inlineStr">
         <is>
           <t>Total Difference</t>
         </is>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="88">
         <f>SUM(C8:C15)</f>
         <v/>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="88">
         <f>SUM(D8:D15)</f>
         <v/>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="88">
         <f>SUM(C16:D16)</f>
         <v/>
       </c>
-      <c r="F16" s="87" t="n"/>
-      <c r="G16" s="91">
+      <c r="F16" s="84" t="n"/>
+      <c r="G16" s="88">
         <f>SUM(G8:G15)</f>
         <v/>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="88">
         <f>SUM(H8:H15)</f>
         <v/>
       </c>
-      <c r="I16" s="91">
+      <c r="I16" s="88">
         <f>SUM(G16:H16)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="124" t="inlineStr">
+      <c r="B17" s="93" t="inlineStr">
         <is>
           <t>Baseline</t>
         </is>
       </c>
-      <c r="C17" s="125" t="n">
-        <v>3726400</v>
-      </c>
-      <c r="D17" s="125" t="n">
-        <v>3860800</v>
-      </c>
-      <c r="E17" s="125">
+      <c r="C17" s="94" t="n">
+        <v>3726419</v>
+      </c>
+      <c r="D17" s="94" t="n">
+        <v>3860761</v>
+      </c>
+      <c r="E17" s="94">
         <f>C17+D17</f>
         <v/>
       </c>
-      <c r="F17" s="126" t="n"/>
-      <c r="G17" s="125">
-        <f>C17</f>
-        <v/>
-      </c>
-      <c r="H17" s="125">
+      <c r="F17" s="95" t="n"/>
+      <c r="G17" s="94" t="n">
+        <v>3726419</v>
+      </c>
+      <c r="H17" s="94">
         <f>D17</f>
         <v/>
       </c>
-      <c r="I17" s="125">
+      <c r="I17" s="94">
         <f>E17</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="123" t="inlineStr">
+      <c r="B18" s="92" t="inlineStr">
         <is>
           <t>Percent Change from Baseline</t>
         </is>
       </c>
-      <c r="C18" s="127">
+      <c r="C18" s="96">
         <f>C16/C17</f>
         <v/>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="96">
         <f>D16/D17</f>
         <v/>
       </c>
-      <c r="E18" s="127">
+      <c r="E18" s="96">
         <f>E16/E17</f>
         <v/>
       </c>
-      <c r="F18" s="128" t="n"/>
-      <c r="G18" s="127">
+      <c r="F18" s="97" t="n"/>
+      <c r="G18" s="96">
         <f>G16/G17</f>
         <v/>
       </c>
-      <c r="H18" s="127">
+      <c r="H18" s="96">
         <f>H16/H17</f>
         <v/>
       </c>
-      <c r="I18" s="127">
+      <c r="I18" s="96">
         <f>I16/I17</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="131" t="inlineStr">
+      <c r="B19" s="100" t="inlineStr">
         <is>
           <t>Note: Baseline estimates from FY21 - FY25 Five Year Financial Plan, as proposed on March 5, 2020.</t>
         </is>
       </c>
-      <c r="C19" s="129" t="n"/>
-      <c r="D19" s="129" t="n"/>
-      <c r="E19" s="129" t="n"/>
-      <c r="F19" s="129" t="n"/>
-      <c r="G19" s="129" t="n"/>
-      <c r="H19" s="129" t="n"/>
-      <c r="I19" s="130" t="n"/>
+      <c r="C19" s="98" t="n"/>
+      <c r="D19" s="98" t="n"/>
+      <c r="E19" s="98" t="n"/>
+      <c r="F19" s="98" t="n"/>
+      <c r="G19" s="98" t="n"/>
+      <c r="H19" s="98" t="n"/>
+      <c r="I19" s="99" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1711,24 +1725,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="10" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="22" min="13" style="117" width="15"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="10" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="22" min="13" style="127" width="15"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Amusement Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -1742,7 +1756,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -1758,7 +1772,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -1774,7 +1788,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="21" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -1790,7 +1804,7 @@
       </c>
       <c r="J7" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="B8" s="11" t="n"/>
       <c r="D8" s="22" t="inlineStr">
         <is>
@@ -1806,11 +1820,11 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" s="111">
+    <row customHeight="1" ht="20" r="9" s="121">
       <c r="B9" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -1829,35 +1843,35 @@
       <c r="V11" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -2131,8 +2145,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -2151,35 +2165,35 @@
       <c r="V20" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="121" t="inlineStr">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -2429,8 +2443,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -2758,24 +2772,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="10" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="22" min="13" style="117" width="15"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="10" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="22" min="13" style="127" width="15"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>NPT Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -2789,7 +2803,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -2805,7 +2819,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -2821,7 +2835,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="21" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -2837,7 +2851,7 @@
       </c>
       <c r="J7" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="B8" s="11" t="n"/>
       <c r="D8" s="22" t="inlineStr">
         <is>
@@ -2853,11 +2867,11 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" s="111">
+    <row customHeight="1" ht="20" r="9" s="121">
       <c r="B9" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -2876,35 +2890,35 @@
       <c r="V11" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -3178,8 +3192,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -3198,35 +3212,35 @@
       <c r="V20" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="121" t="inlineStr">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -3476,8 +3490,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -3799,22 +3813,22 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="125" zoomScalePageLayoutView="125">
-      <selection activeCell="A7" sqref="A7:A14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="111" width="35.83203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="111" width="13.6640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="111" width="12.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="111" width="35.5"/>
-    <col bestFit="1" customWidth="1" max="9" min="7" style="111" width="13.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="111" width="12.33203125"/>
-    <col customWidth="1" max="45" min="11" style="111" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="46" style="111" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="121" width="35.83203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="121" width="13.6640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="121" width="12.5"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="121" width="35.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="7" style="121" width="13.6640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="121" width="12.33203125"/>
+    <col customWidth="1" max="47" min="11" style="121" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="48" style="121" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="21" r="1" s="111">
+    <row customHeight="1" ht="21" r="1" s="121">
       <c r="A1" s="134" t="inlineStr">
         <is>
           <t>Moderate</t>
@@ -3864,7 +3878,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="111">
+    <row hidden="1" r="4" s="121">
       <c r="A4" s="31" t="inlineStr">
         <is>
           <t>Estimated Fund Balance pre-COVID</t>
@@ -3887,7 +3901,7 @@
       <c r="H4" s="51" t="n"/>
       <c r="I4" s="51" t="n"/>
     </row>
-    <row hidden="1" r="5" s="111">
+    <row hidden="1" r="5" s="121">
       <c r="A5" s="31" t="n"/>
       <c r="B5" s="51" t="n"/>
       <c r="C5" s="51" t="n"/>
@@ -4166,7 +4180,7 @@
         </is>
       </c>
       <c r="G13" s="51">
-        <f>'Parking Scenario Analysis'!E5</f>
+        <f>'Parking Scenario Analysis'!F5</f>
         <v/>
       </c>
       <c r="H13" s="51">
@@ -4179,7 +4193,7 @@
       </c>
       <c r="J13" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="14" s="121" thickBot="1">
       <c r="A14" s="27" t="inlineStr">
         <is>
           <t>BIRT</t>
@@ -4217,7 +4231,7 @@
       </c>
       <c r="J14" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="15" s="111" thickTop="1">
+    <row customHeight="1" ht="17" r="15" s="121" thickTop="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4293,7 +4307,7 @@
       <c r="H19" s="51" t="n"/>
       <c r="I19" s="51" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="20" s="111">
+    <row customHeight="1" ht="17" r="20" s="121">
       <c r="B20" s="51" t="n"/>
       <c r="C20" s="51" t="n"/>
       <c r="D20" s="51" t="n"/>
@@ -4302,7 +4316,7 @@
       <c r="H20" s="51" t="n"/>
       <c r="I20" s="51" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="21" s="111">
+    <row customHeight="1" ht="17" r="21" s="121">
       <c r="A21" s="52" t="n"/>
       <c r="B21" s="53" t="n"/>
       <c r="C21" s="53" t="n"/>
@@ -4412,26 +4426,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="111" width="48.83203125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="114" width="8"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="111" width="8.83203125"/>
-    <col bestFit="1" customWidth="1" max="9" min="4" style="111" width="8"/>
-    <col customWidth="1" max="10" min="10" style="111" width="10.83203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="111" width="48.83203125"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="111" width="8"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="111" width="8.83203125"/>
-    <col bestFit="1" customWidth="1" max="19" min="14" style="111" width="8"/>
-    <col customWidth="1" max="30" min="20" style="111" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="31" style="111" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="121" width="48.83203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="124" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="121" width="8.83203125"/>
+    <col bestFit="1" customWidth="1" max="9" min="4" style="121" width="8"/>
+    <col customWidth="1" max="10" min="10" style="121" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="121" width="48.83203125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="121" width="8"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="121" width="8.83203125"/>
+    <col bestFit="1" customWidth="1" max="19" min="14" style="121" width="8"/>
+    <col customWidth="1" max="32" min="20" style="121" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="33" style="121" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="113" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="123" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="K1" s="115" t="inlineStr">
+      <c r="K1" s="125" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4439,11 +4453,11 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="n"/>
-      <c r="C2" s="114" t="n"/>
-      <c r="D2" s="114" t="n"/>
-      <c r="G2" s="114" t="n"/>
-      <c r="H2" s="114" t="n"/>
-      <c r="I2" s="114" t="n"/>
+      <c r="C2" s="124" t="n"/>
+      <c r="D2" s="124" t="n"/>
+      <c r="G2" s="124" t="n"/>
+      <c r="H2" s="124" t="n"/>
+      <c r="I2" s="124" t="n"/>
       <c r="K2" s="43" t="n"/>
     </row>
     <row r="3">
@@ -4452,7 +4466,7 @@
       <c r="K3" s="43" t="n"/>
       <c r="S3" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="4" s="111">
+    <row customHeight="1" ht="20" r="4" s="121">
       <c r="A4" s="36" t="inlineStr">
         <is>
           <t>Wage</t>
@@ -5887,7 +5901,7 @@
       <c r="K31" s="39" t="n"/>
       <c r="L31" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="32" s="111">
+    <row customHeight="1" ht="21" r="32" s="121">
       <c r="A32" s="36" t="inlineStr">
         <is>
           <t>Sales</t>
@@ -6798,7 +6812,7 @@
       <c r="R51" s="43" t="n"/>
       <c r="S51" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="52" s="111">
+    <row customHeight="1" ht="21" r="52" s="121">
       <c r="A52" s="49" t="inlineStr">
         <is>
           <t>RTT</t>
@@ -6975,7 +6989,7 @@
       <c r="K56" s="39" t="n"/>
       <c r="L56" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="57" s="111">
+    <row customHeight="1" ht="21" r="57" s="121">
       <c r="A57" s="49" t="inlineStr">
         <is>
           <t>BIRT</t>
@@ -8264,7 +8278,7 @@
       <c r="A83" s="39" t="n"/>
       <c r="K83" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="84" s="111">
+    <row customHeight="1" ht="21" r="84" s="121">
       <c r="A84" s="49" t="inlineStr">
         <is>
           <t>Soda</t>
@@ -8426,7 +8440,7 @@
       <c r="K89" s="39" t="n"/>
       <c r="L89" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="90" s="111">
+    <row customHeight="1" ht="21" r="90" s="121">
       <c r="A90" s="49" t="inlineStr">
         <is>
           <t>Parking</t>
@@ -8586,7 +8600,7 @@
       <c r="K95" s="39" t="n"/>
       <c r="L95" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="96" s="111">
+    <row customHeight="1" ht="21" r="96" s="121">
       <c r="A96" s="49" t="inlineStr">
         <is>
           <t>Amusement</t>
@@ -8746,7 +8760,7 @@
       <c r="K101" s="43" t="n"/>
       <c r="L101" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="102" s="111">
+    <row customHeight="1" ht="21" r="102" s="121">
       <c r="A102" s="49" t="inlineStr">
         <is>
           <t>NPT</t>
@@ -9519,26 +9533,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="117" width="21.6640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="3" style="117" width="16"/>
-    <col customWidth="1" max="12" min="12" style="117" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="23" min="13" style="117" width="16"/>
-    <col customWidth="1" max="49" min="24" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="50" style="117" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="127" width="21.6640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16.5"/>
+    <col bestFit="1" customWidth="1" max="11" min="3" style="127" width="16"/>
+    <col customWidth="1" max="12" min="12" style="127" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="23" min="13" style="127" width="16"/>
+    <col customWidth="1" max="51" min="24" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="52" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Wage Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="3" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="3" s="121" thickBot="1">
       <c r="B3" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -9552,7 +9566,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -9568,7 +9582,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -9587,7 +9601,7 @@
       <c r="L6" s="32" t="n"/>
       <c r="M6" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -9602,7 +9616,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9617,12 +9631,12 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="9" s="111">
+    <row customHeight="1" ht="19" r="9" s="121">
       <c r="B9" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="111"/>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="17" r="10" s="121"/>
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Duration Scenario</t>
         </is>
@@ -9646,7 +9660,7 @@
     <row r="13">
       <c r="M13" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111">
+    <row customHeight="1" ht="17" r="14" s="121">
       <c r="M14" s="71" t="n"/>
     </row>
     <row r="15">
@@ -11626,7 +11640,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="37" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="37" s="121" thickBot="1">
       <c r="A37" s="33" t="inlineStr">
         <is>
           <t>Wholesale Trade</t>
@@ -11717,7 +11731,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="38" s="111" thickTop="1">
+    <row customHeight="1" ht="16" r="38" s="121" thickTop="1">
       <c r="A38" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -11911,7 +11925,7 @@
       <c r="I40" s="73" t="n"/>
       <c r="J40" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="41" s="111">
+    <row customHeight="1" ht="17" r="41" s="121">
       <c r="A41" s="7" t="n"/>
       <c r="B41" s="73" t="n"/>
       <c r="C41" s="73" t="n"/>
@@ -11923,8 +11937,8 @@
       <c r="I41" s="73" t="n"/>
       <c r="J41" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="42" s="111">
-      <c r="A42" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="42" s="121">
+      <c r="A42" s="128" t="inlineStr">
         <is>
           <t>Severe Duration Scenario</t>
         </is>
@@ -11948,7 +11962,7 @@
     <row r="44">
       <c r="M44" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="45" s="111">
+    <row customHeight="1" ht="17" r="45" s="121">
       <c r="M45" s="71" t="n"/>
     </row>
     <row r="46">
@@ -13018,7 +13032,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="58" s="111">
+    <row customHeight="1" ht="16" r="58" s="121">
       <c r="A58" s="2" t="inlineStr">
         <is>
           <t>Public Utilities</t>
@@ -13109,7 +13123,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="59" s="111">
+    <row customHeight="1" ht="16" r="59" s="121">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>Publishing, Broadcasting, and Other Information</t>
@@ -13200,7 +13214,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="60" s="111">
+    <row customHeight="1" ht="16" r="60" s="121">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>Real Estate, Rental and Leasing</t>
@@ -13291,7 +13305,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="61" s="111">
+    <row customHeight="1" ht="16" r="61" s="121">
       <c r="A61" s="2" t="inlineStr">
         <is>
           <t>Restaurants</t>
@@ -13382,7 +13396,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="62" s="111">
+    <row customHeight="1" ht="16" r="62" s="121">
       <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Retail Trade</t>
@@ -13473,7 +13487,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="63" s="111">
+    <row customHeight="1" ht="16" r="63" s="121">
       <c r="A63" s="2" t="inlineStr">
         <is>
           <t>Securities / Financial Investments</t>
@@ -13564,7 +13578,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="64" s="111">
+    <row customHeight="1" ht="16" r="64" s="121">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Sport Teams</t>
@@ -13655,7 +13669,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="65" s="111">
+    <row customHeight="1" ht="16" r="65" s="121">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Telecommunication</t>
@@ -13746,7 +13760,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="66" s="111">
+    <row customHeight="1" ht="16" r="66" s="121">
       <c r="A66" s="2" t="inlineStr">
         <is>
           <t>Transportation and Warehousing</t>
@@ -13837,7 +13851,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="67" s="111">
+    <row customHeight="1" ht="16" r="67" s="121">
       <c r="A67" s="2" t="inlineStr">
         <is>
           <t>Unclassified Accounts</t>
@@ -13928,7 +13942,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="68" s="111" thickBot="1">
+    <row customHeight="1" ht="16" r="68" s="121" thickBot="1">
       <c r="A68" s="33" t="inlineStr">
         <is>
           <t>Wholesale Trade</t>
@@ -14019,7 +14033,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="69" s="111" thickTop="1">
+    <row customHeight="1" ht="17" r="69" s="121" thickTop="1">
       <c r="A69" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -14201,22 +14215,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="74" s="111">
-      <c r="A74" s="119" t="inlineStr">
+    <row customHeight="1" ht="26" r="74" s="121">
+      <c r="A74" s="129" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B74" s="120" t="n"/>
-      <c r="C74" s="120" t="n"/>
-      <c r="D74" s="120" t="n"/>
-      <c r="E74" s="120" t="n"/>
-      <c r="F74" s="120" t="n"/>
-      <c r="G74" s="120" t="n"/>
-      <c r="H74" s="120" t="n"/>
-      <c r="I74" s="120" t="n"/>
-      <c r="J74" s="120" t="n"/>
-      <c r="K74" s="120" t="n"/>
+      <c r="B74" s="130" t="n"/>
+      <c r="C74" s="130" t="n"/>
+      <c r="D74" s="130" t="n"/>
+      <c r="E74" s="130" t="n"/>
+      <c r="F74" s="130" t="n"/>
+      <c r="G74" s="130" t="n"/>
+      <c r="H74" s="130" t="n"/>
+      <c r="I74" s="130" t="n"/>
+      <c r="J74" s="130" t="n"/>
+      <c r="K74" s="130" t="n"/>
       <c r="L74" s="16" t="n"/>
       <c r="M74" s="16" t="n"/>
       <c r="N74" s="16" t="n"/>
@@ -19506,29 +19520,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="117" width="21.6640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="6" min="5" style="117" width="15.83203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="7" style="117" width="15"/>
-    <col customWidth="1" max="12" min="12" style="117" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="117" width="15.83203125"/>
-    <col bestFit="1" customWidth="1" max="23" min="14" style="117" width="15"/>
-    <col customWidth="1" max="49" min="24" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="50" style="117" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="127" width="21.6640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" style="127" width="15.83203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="7" style="127" width="15"/>
+    <col customWidth="1" max="12" min="12" style="127" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="127" width="15.83203125"/>
+    <col bestFit="1" customWidth="1" max="23" min="14" style="127" width="15"/>
+    <col customWidth="1" max="51" min="24" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="52" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Sales Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="3" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="3" s="121" thickBot="1">
       <c r="B3" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -19542,7 +19556,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -19558,7 +19572,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -19577,7 +19591,7 @@
       <c r="L6" s="32" t="n"/>
       <c r="M6" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -19592,7 +19606,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -19607,12 +19621,12 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="9" s="111">
+    <row customHeight="1" ht="19" r="9" s="121">
       <c r="B9" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="111"/>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="17" r="10" s="121"/>
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Duration Scenario</t>
         </is>
@@ -19636,7 +19650,7 @@
     <row r="13">
       <c r="M13" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111">
+    <row customHeight="1" ht="17" r="14" s="121">
       <c r="M14" s="71" t="n"/>
     </row>
     <row r="15">
@@ -20797,7 +20811,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="28" s="111" thickBot="1">
+    <row customHeight="1" ht="16" r="28" s="121" thickBot="1">
       <c r="A28" s="10" t="inlineStr">
         <is>
           <t>Wholesale</t>
@@ -20888,7 +20902,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="29" s="111" thickTop="1">
+    <row customHeight="1" ht="16" r="29" s="121" thickTop="1">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -21082,7 +21096,7 @@
       <c r="I31" s="73" t="n"/>
       <c r="J31" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="32" s="111">
+    <row customHeight="1" ht="17" r="32" s="121">
       <c r="A32" s="7" t="n"/>
       <c r="B32" s="73" t="n"/>
       <c r="C32" s="73" t="n"/>
@@ -21094,8 +21108,8 @@
       <c r="I32" s="73" t="n"/>
       <c r="J32" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="33" s="111">
-      <c r="A33" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="33" s="121">
+      <c r="A33" s="128" t="inlineStr">
         <is>
           <t>Severe Duration Scenario</t>
         </is>
@@ -21119,7 +21133,7 @@
     <row r="35">
       <c r="M35" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="36" s="111">
+    <row customHeight="1" ht="17" r="36" s="121">
       <c r="M36" s="71" t="n"/>
     </row>
     <row r="37">
@@ -22189,7 +22203,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="49" s="111">
+    <row customHeight="1" ht="16" r="49" s="121">
       <c r="A49" s="7" t="inlineStr">
         <is>
           <t>Total Retail</t>
@@ -22280,7 +22294,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="50" s="111" thickBot="1">
+    <row customHeight="1" ht="16" r="50" s="121" thickBot="1">
       <c r="A50" s="10" t="inlineStr">
         <is>
           <t>Wholesale</t>
@@ -22371,7 +22385,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="51" s="111" thickTop="1">
+    <row customHeight="1" ht="17" r="51" s="121" thickTop="1">
       <c r="A51" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -22553,22 +22567,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="56" s="111">
-      <c r="A56" s="119" t="inlineStr">
+    <row customHeight="1" ht="26" r="56" s="121">
+      <c r="A56" s="129" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B56" s="120" t="n"/>
-      <c r="C56" s="120" t="n"/>
-      <c r="D56" s="120" t="n"/>
-      <c r="E56" s="120" t="n"/>
-      <c r="F56" s="120" t="n"/>
-      <c r="G56" s="120" t="n"/>
-      <c r="H56" s="120" t="n"/>
-      <c r="I56" s="120" t="n"/>
-      <c r="J56" s="120" t="n"/>
-      <c r="K56" s="120" t="n"/>
+      <c r="B56" s="130" t="n"/>
+      <c r="C56" s="130" t="n"/>
+      <c r="D56" s="130" t="n"/>
+      <c r="E56" s="130" t="n"/>
+      <c r="F56" s="130" t="n"/>
+      <c r="G56" s="130" t="n"/>
+      <c r="H56" s="130" t="n"/>
+      <c r="I56" s="130" t="n"/>
+      <c r="J56" s="130" t="n"/>
+      <c r="K56" s="130" t="n"/>
       <c r="L56" s="16" t="n"/>
       <c r="M56" s="16" t="n"/>
       <c r="N56" s="16" t="n"/>
@@ -25833,27 +25847,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="117" width="14.6640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="117" width="15.83203125"/>
-    <col bestFit="1" customWidth="1" max="10" min="7" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="22" min="13" style="117" width="15"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="127" width="14.6640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="127" width="15.83203125"/>
+    <col bestFit="1" customWidth="1" max="10" min="7" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="22" min="13" style="127" width="15"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Realty Transfer Tax (RTT) Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -25867,7 +25881,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -25883,7 +25897,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -25899,7 +25913,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="21" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -25915,7 +25929,7 @@
       </c>
       <c r="J7" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="B8" s="11" t="n"/>
       <c r="D8" s="22" t="inlineStr">
         <is>
@@ -25931,14 +25945,14 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" s="111">
+    <row customHeight="1" ht="20" r="9" s="121">
       <c r="B9" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="19" r="10" s="111">
+    <row customHeight="1" ht="19" r="10" s="121">
       <c r="B10" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -25957,35 +25971,35 @@
       <c r="V11" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -26259,8 +26273,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -26279,35 +26293,35 @@
       <c r="V20" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="121" t="inlineStr">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -26557,8 +26571,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -26856,7 +26870,7 @@
         <v>24017707.77158005</v>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="37" s="111"/>
+    <row customHeight="1" ht="26" r="37" s="121"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A20:J20"/>
@@ -26887,32 +26901,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="117" width="21.6640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16.33203125"/>
-    <col bestFit="1" customWidth="1" max="6" min="3" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="8" min="7" style="117" width="15.1640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="9" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="117" width="15.1640625"/>
-    <col customWidth="1" max="12" min="12" style="117" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="117" width="15.1640625"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="23" min="16" style="117" width="15.1640625"/>
-    <col customWidth="1" max="49" min="24" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="50" style="117" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="127" width="21.6640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16.33203125"/>
+    <col bestFit="1" customWidth="1" max="6" min="3" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="8" min="7" style="127" width="15.1640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="9" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="127" width="15.1640625"/>
+    <col customWidth="1" max="12" min="12" style="127" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="127" width="15.1640625"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="23" min="16" style="127" width="15.1640625"/>
+    <col customWidth="1" max="51" min="24" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="52" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>BIRT Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="3" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="3" s="121" thickBot="1">
       <c r="B3" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -26926,7 +26940,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -26942,7 +26956,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -26961,7 +26975,7 @@
       <c r="L6" s="32" t="n"/>
       <c r="M6" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -26976,7 +26990,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -26991,12 +27005,12 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="9" s="111">
+    <row customHeight="1" ht="19" r="9" s="121">
       <c r="B9" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="111"/>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="17" r="10" s="121"/>
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Duration Scenario</t>
         </is>
@@ -27020,7 +27034,7 @@
     <row r="13">
       <c r="M13" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111">
+    <row customHeight="1" ht="17" r="14" s="121">
       <c r="M14" s="71" t="n"/>
     </row>
     <row r="15">
@@ -28818,7 +28832,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="35" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="35" s="121" thickBot="1">
       <c r="A35" s="34" t="inlineStr">
         <is>
           <t>Wholesale Trade</t>
@@ -28909,7 +28923,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="36" s="111" thickTop="1">
+    <row customHeight="1" ht="16" r="36" s="121" thickTop="1">
       <c r="A36" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -29103,7 +29117,7 @@
       <c r="I38" s="73" t="n"/>
       <c r="J38" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="39" s="111">
+    <row customHeight="1" ht="17" r="39" s="121">
       <c r="A39" s="7" t="n"/>
       <c r="B39" s="73" t="n"/>
       <c r="C39" s="73" t="n"/>
@@ -29115,8 +29129,8 @@
       <c r="I39" s="73" t="n"/>
       <c r="J39" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="40" s="111">
-      <c r="A40" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="40" s="121">
+      <c r="A40" s="128" t="inlineStr">
         <is>
           <t>Severe Duration Scenario</t>
         </is>
@@ -29140,7 +29154,7 @@
     <row r="42">
       <c r="M42" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="43" s="111">
+    <row customHeight="1" ht="17" r="43" s="121">
       <c r="M43" s="71" t="n"/>
     </row>
     <row r="44">
@@ -30210,7 +30224,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="56" s="111">
+    <row customHeight="1" ht="16" r="56" s="121">
       <c r="A56" s="52" t="inlineStr">
         <is>
           <t>Other Services  **2</t>
@@ -30301,7 +30315,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="57" s="111">
+    <row customHeight="1" ht="16" r="57" s="121">
       <c r="A57" s="52" t="inlineStr">
         <is>
           <t>Professional Services, subtotal</t>
@@ -30392,7 +30406,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="58" s="111">
+    <row customHeight="1" ht="16" r="58" s="121">
       <c r="A58" s="52" t="inlineStr">
         <is>
           <t>Real Estate (including REITS)</t>
@@ -30483,7 +30497,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="59" s="111">
+    <row customHeight="1" ht="16" r="59" s="121">
       <c r="A59" s="52" t="inlineStr">
         <is>
           <t>Restaurants, Bars, and Other Food Services</t>
@@ -30574,7 +30588,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="60" s="111">
+    <row customHeight="1" ht="16" r="60" s="121">
       <c r="A60" s="52" t="inlineStr">
         <is>
           <t>Retail Trade</t>
@@ -30665,7 +30679,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="61" s="111">
+    <row customHeight="1" ht="16" r="61" s="121">
       <c r="A61" s="52" t="inlineStr">
         <is>
           <t>Sports</t>
@@ -30756,7 +30770,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="62" s="111">
+    <row customHeight="1" ht="16" r="62" s="121">
       <c r="A62" s="52" t="inlineStr">
         <is>
           <t>Transportation and Storage</t>
@@ -30847,7 +30861,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="63" s="111">
+    <row customHeight="1" ht="16" r="63" s="121">
       <c r="A63" s="52" t="inlineStr">
         <is>
           <t>Unclassified</t>
@@ -30938,7 +30952,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="64" s="111" thickBot="1">
+    <row customHeight="1" ht="16" r="64" s="121" thickBot="1">
       <c r="A64" s="34" t="inlineStr">
         <is>
           <t>Wholesale Trade</t>
@@ -31029,7 +31043,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="65" s="111" thickTop="1">
+    <row customHeight="1" ht="17" r="65" s="121" thickTop="1">
       <c r="A65" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -31211,22 +31225,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="70" s="111">
-      <c r="A70" s="119" t="inlineStr">
+    <row customHeight="1" ht="26" r="70" s="121">
+      <c r="A70" s="129" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B70" s="120" t="n"/>
-      <c r="C70" s="120" t="n"/>
-      <c r="D70" s="120" t="n"/>
-      <c r="E70" s="120" t="n"/>
-      <c r="F70" s="120" t="n"/>
-      <c r="G70" s="120" t="n"/>
-      <c r="H70" s="120" t="n"/>
-      <c r="I70" s="120" t="n"/>
-      <c r="J70" s="120" t="n"/>
-      <c r="K70" s="120" t="n"/>
+      <c r="B70" s="130" t="n"/>
+      <c r="C70" s="130" t="n"/>
+      <c r="D70" s="130" t="n"/>
+      <c r="E70" s="130" t="n"/>
+      <c r="F70" s="130" t="n"/>
+      <c r="G70" s="130" t="n"/>
+      <c r="H70" s="130" t="n"/>
+      <c r="I70" s="130" t="n"/>
+      <c r="J70" s="130" t="n"/>
+      <c r="K70" s="130" t="n"/>
       <c r="L70" s="16" t="n"/>
       <c r="M70" s="16" t="n"/>
       <c r="N70" s="16" t="n"/>
@@ -36066,24 +36080,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="10" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="22" min="13" style="117" width="15"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="10" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="22" min="13" style="127" width="15"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Soda Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -36097,7 +36111,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -36113,7 +36127,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -36129,7 +36143,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="21" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -36145,7 +36159,7 @@
       </c>
       <c r="J7" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="B8" s="11" t="n"/>
       <c r="D8" s="22" t="inlineStr">
         <is>
@@ -36161,11 +36175,11 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="9" s="111">
+    <row customHeight="1" ht="19" r="9" s="121">
       <c r="B9" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -36184,35 +36198,35 @@
       <c r="V11" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -36486,8 +36500,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -36506,35 +36520,35 @@
       <c r="V20" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="121" t="inlineStr">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -36784,8 +36798,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -37113,23 +37127,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="117" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="5" style="117" width="14.6640625"/>
-    <col bestFit="1" customWidth="1" max="22" min="7" style="117" width="14"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="127" width="14"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" style="127" width="14.6640625"/>
+    <col bestFit="1" customWidth="1" max="22" min="7" style="127" width="14"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Parking Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="21" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="21" r="4" s="121" thickBot="1">
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
         <is>
@@ -37142,7 +37156,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="5" s="111">
+    <row customHeight="1" ht="20" r="5" s="121">
       <c r="D5" s="19" t="inlineStr">
         <is>
           <t>FY20</t>
@@ -37157,7 +37171,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="6" s="111">
+    <row customHeight="1" ht="20" r="6" s="121">
       <c r="D6" s="20" t="inlineStr">
         <is>
           <t>FY21</t>
@@ -37172,7 +37186,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -37187,7 +37201,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="19" r="8" s="121" thickBot="1" thickTop="1">
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -37202,12 +37216,12 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" s="111">
+    <row customHeight="1" ht="20" r="9" s="121">
       <c r="D9" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="111"/>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="17" r="10" s="121"/>
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -37225,36 +37239,36 @@
       <c r="U11" s="30" t="n"/>
       <c r="V11" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111">
-      <c r="B14" s="121" t="inlineStr">
+    <row customHeight="1" ht="17" r="14" s="121">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -37516,7 +37530,7 @@
       <c r="I18" s="73" t="n"/>
       <c r="J18" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="19" s="111">
+    <row customHeight="1" ht="17" r="19" s="121">
       <c r="A19" s="7" t="n"/>
       <c r="B19" s="73" t="n"/>
       <c r="C19" s="73" t="n"/>
@@ -37528,8 +37542,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -37547,36 +37561,36 @@
       <c r="U20" s="30" t="n"/>
       <c r="V20" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="23" s="111">
-      <c r="B23" s="121" t="inlineStr">
+    <row customHeight="1" ht="17" r="23" s="121">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -37826,8 +37840,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -38125,17 +38139,17 @@
         <v>8417071.608904393</v>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="37" s="111"/>
+    <row customHeight="1" ht="26" r="37" s="121"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="K14:V14"/>
-    <mergeCell ref="K23:V23"/>
-    <mergeCell ref="B23:J23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:V14"/>
+    <mergeCell ref="K23:V23"/>
+    <mergeCell ref="B23:J23"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
+++ b/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
@@ -2819,6 +2819,9 @@
       <c r="C35" s="142" t="n">
         <v>48405</v>
       </c>
+      <c r="D35" t="n">
+        <v>3407</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3664,67 +3667,67 @@
         </is>
       </c>
       <c r="B32" s="142" t="n">
-        <v>34587981.59544217</v>
+        <v>18293939.4893317</v>
       </c>
       <c r="C32" s="142" t="n">
-        <v>12614016.2424446</v>
+        <v>6671683.030129089</v>
       </c>
       <c r="D32" s="142" t="n">
-        <v>4349966.173638103</v>
+        <v>2300741.884622189</v>
       </c>
       <c r="E32" s="142" t="n">
-        <v>854884.7235235441</v>
+        <v>452157.3298325865</v>
       </c>
       <c r="F32" s="142" t="n">
-        <v>1601188.214952878</v>
+        <v>846884.9283543895</v>
       </c>
       <c r="G32" s="142" t="n">
-        <v>1960015.853990187</v>
+        <v>1036672.56015171</v>
       </c>
       <c r="H32" s="142" t="n">
-        <v>2543994.143143357</v>
+        <v>1345544.688332192</v>
       </c>
       <c r="I32" s="142" t="n">
-        <v>873285.3169393745</v>
+        <v>461889.5930925321</v>
       </c>
       <c r="J32" s="142" t="n">
-        <v>1290258.067677718</v>
+        <v>682430.77297198</v>
       </c>
       <c r="K32" s="142" t="n">
-        <v>3308961.553100921</v>
+        <v>1750143.825476365</v>
       </c>
       <c r="L32" s="142" t="n">
-        <v>1199743.758592058</v>
+        <v>634556.8232081712</v>
       </c>
       <c r="M32" s="142" t="n">
-        <v>5881444.692620478</v>
+        <v>3110756.637236918</v>
       </c>
       <c r="N32" s="142" t="n">
-        <v>37463010.04456998</v>
+        <v>19814571.62952522</v>
       </c>
       <c r="O32" s="142" t="n">
-        <v>13586316.02281467</v>
+        <v>7185942.392112917</v>
       </c>
       <c r="P32" s="142" t="n">
-        <v>4343735.327032948</v>
+        <v>2297446.325716923</v>
       </c>
       <c r="Q32" s="142" t="n">
-        <v>1252452.992339099</v>
+        <v>662435.2794874611</v>
       </c>
       <c r="R32" s="142" t="n">
-        <v>1517444.139949538</v>
+        <v>802591.825084581</v>
       </c>
       <c r="S32" s="142" t="n">
-        <v>2142541.684652331</v>
+        <v>1133212.35077694</v>
       </c>
       <c r="T32" s="142" t="n">
-        <v>2845769.883903461</v>
+        <v>1505156.983879992</v>
       </c>
       <c r="U32" s="142" t="n">
-        <v>980064.0747889997</v>
+        <v>518365.9772219968</v>
       </c>
       <c r="V32" s="142" t="n">
-        <v>1731642.31118745</v>
+        <v>915883.4426523502</v>
       </c>
     </row>
     <row r="33">
@@ -3734,67 +3737,67 @@
         </is>
       </c>
       <c r="B33" s="142" t="n">
-        <v>2416794.435986189</v>
+        <v>1278267.453915582</v>
       </c>
       <c r="C33" s="142" t="n">
-        <v>829621.0510924058</v>
+        <v>438795.1134379054</v>
       </c>
       <c r="D33" s="142" t="n">
-        <v>1225745.164293832</v>
+        <v>648309.234323381</v>
       </c>
       <c r="E33" s="142" t="n">
-        <v>32858582.51567006</v>
+        <v>17379242.51486512</v>
       </c>
       <c r="F33" s="142" t="n">
-        <v>11983315.43032237</v>
+        <v>6338098.878622634</v>
       </c>
       <c r="G33" s="142" t="n">
-        <v>4132467.864956197</v>
+        <v>2185704.790391079</v>
       </c>
       <c r="H33" s="142" t="n">
-        <v>812140.4873473669</v>
+        <v>429549.4633409572</v>
       </c>
       <c r="I33" s="142" t="n">
-        <v>1521128.804205234</v>
+        <v>804540.68193667</v>
       </c>
       <c r="J33" s="142" t="n">
-        <v>1862015.061290677</v>
+        <v>984838.9321441248</v>
       </c>
       <c r="K33" s="142" t="n">
-        <v>2978065.397790829</v>
+        <v>1575129.442928729</v>
       </c>
       <c r="L33" s="142" t="n">
-        <v>1079769.382732852</v>
+        <v>571101.140887354</v>
       </c>
       <c r="M33" s="142" t="n">
-        <v>5293300.22335843</v>
+        <v>2799680.973513226</v>
       </c>
       <c r="N33" s="142" t="n">
-        <v>33716709.04011299</v>
+        <v>17833114.4665727</v>
       </c>
       <c r="O33" s="142" t="n">
-        <v>12227684.4205332</v>
+        <v>6467348.152901625</v>
       </c>
       <c r="P33" s="142" t="n">
-        <v>3909361.794329653</v>
+        <v>2067701.693145231</v>
       </c>
       <c r="Q33" s="142" t="n">
-        <v>1127207.693105189</v>
+        <v>596191.751538715</v>
       </c>
       <c r="R33" s="142" t="n">
-        <v>1365699.725954584</v>
+        <v>722332.642576123</v>
       </c>
       <c r="S33" s="142" t="n">
-        <v>1928287.516187098</v>
+        <v>1019891.115699246</v>
       </c>
       <c r="T33" s="142" t="n">
-        <v>2561192.895513115</v>
+        <v>1354641.285491992</v>
       </c>
       <c r="U33" s="142" t="n">
-        <v>882057.6673100998</v>
+        <v>466529.3794997971</v>
       </c>
       <c r="V33" s="142" t="n">
-        <v>1558478.080068705</v>
+        <v>824295.0983871152</v>
       </c>
     </row>
     <row r="34">
@@ -3804,67 +3807,67 @@
         </is>
       </c>
       <c r="B34" s="142" t="n">
-        <v>2289594.728829021</v>
+        <v>1210990.219498973</v>
       </c>
       <c r="C34" s="142" t="n">
-        <v>785956.7852454371</v>
+        <v>415700.6337832789</v>
       </c>
       <c r="D34" s="142" t="n">
-        <v>1161232.260909946</v>
+        <v>614187.695674782</v>
       </c>
       <c r="E34" s="142" t="n">
-        <v>31129183.43589795</v>
+        <v>16464545.54039853</v>
       </c>
       <c r="F34" s="142" t="n">
-        <v>11352614.61820014</v>
+        <v>6004514.727116181</v>
       </c>
       <c r="G34" s="142" t="n">
-        <v>3914969.556274293</v>
+        <v>2070667.69615997</v>
       </c>
       <c r="H34" s="142" t="n">
-        <v>769396.2511711897</v>
+        <v>406941.5968493278</v>
       </c>
       <c r="I34" s="142" t="n">
-        <v>1441069.39345759</v>
+        <v>762196.4355189506</v>
       </c>
       <c r="J34" s="142" t="n">
-        <v>1764014.268591168</v>
+        <v>933005.3041365392</v>
       </c>
       <c r="K34" s="142" t="n">
-        <v>2812617.320135782</v>
+        <v>1487622.251654911</v>
       </c>
       <c r="L34" s="142" t="n">
-        <v>1019782.194803249</v>
+        <v>539373.2997269455</v>
       </c>
       <c r="M34" s="142" t="n">
-        <v>4999227.988727406</v>
+        <v>2644143.14165138</v>
       </c>
       <c r="N34" s="142" t="n">
-        <v>31843558.53788448</v>
+        <v>16842385.88509644</v>
       </c>
       <c r="O34" s="142" t="n">
-        <v>11548368.61939247</v>
+        <v>6108051.03329598</v>
       </c>
       <c r="P34" s="142" t="n">
-        <v>3692175.027978006</v>
+        <v>1952829.376859385</v>
       </c>
       <c r="Q34" s="142" t="n">
-        <v>1064585.043488234</v>
+        <v>563069.9875643419</v>
       </c>
       <c r="R34" s="142" t="n">
-        <v>1289827.518957107</v>
+        <v>682203.0513218938</v>
       </c>
       <c r="S34" s="142" t="n">
-        <v>1821160.431954482</v>
+        <v>963230.4981603989</v>
       </c>
       <c r="T34" s="142" t="n">
-        <v>2418904.401317941</v>
+        <v>1279383.436297993</v>
       </c>
       <c r="U34" s="142" t="n">
-        <v>833054.4635706497</v>
+        <v>440611.0806386973</v>
       </c>
       <c r="V34" s="142" t="n">
-        <v>1471895.964509333</v>
+        <v>778500.9262544976</v>
       </c>
     </row>
     <row r="35">
@@ -3878,6 +3881,9 @@
       </c>
       <c r="C35" s="142" t="n">
         <v>4713316</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5440406</v>
       </c>
     </row>
   </sheetData>
@@ -4676,25 +4682,25 @@
         </is>
       </c>
       <c r="B6" s="40" t="n">
-        <v>0.2284299747972229</v>
+        <v>0.228432804707738</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.132535918391959</v>
+        <v>0.1325365767988044</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.08274754131189965</v>
+        <v>0.08274790929430176</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.05028279244411027</v>
+        <v>0.05028268220142973</v>
       </c>
       <c r="F6" s="40" t="n">
-        <v>0.03066422210379327</v>
+        <v>0.03066373475852013</v>
       </c>
       <c r="G6" s="40" t="n">
-        <v>0.01889638552823769</v>
+        <v>0.01889642883934195</v>
       </c>
       <c r="H6" s="40" t="n">
-        <v>0.01171562038169904</v>
+        <v>0.01171564341937181</v>
       </c>
       <c r="I6" s="40" t="n"/>
       <c r="K6" s="144" t="inlineStr">
@@ -4706,22 +4712,22 @@
         <v>0.5</v>
       </c>
       <c r="M6" s="40" t="n">
-        <v>0.3307516470636387</v>
+        <v>0.3307527148226869</v>
       </c>
       <c r="N6" s="40" t="n">
-        <v>0.2436700605594697</v>
+        <v>0.2436707673566622</v>
       </c>
       <c r="O6" s="40" t="n">
-        <v>0.1764129032878905</v>
+        <v>0.176412651438144</v>
       </c>
       <c r="P6" s="40" t="n">
-        <v>0.128036139281798</v>
+        <v>0.1280348028616939</v>
       </c>
       <c r="Q6" s="40" t="n">
-        <v>0.09354744306369167</v>
+        <v>0.09354758309287703</v>
       </c>
       <c r="R6" s="40" t="n">
-        <v>0.06861252016067232</v>
+        <v>0.06861260790097323</v>
       </c>
       <c r="S6" s="40" t="n"/>
     </row>
@@ -4732,25 +4738,25 @@
         </is>
       </c>
       <c r="B7" s="40" t="n">
-        <v>0.04370245217331736</v>
+        <v>0.04370321610419226</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.01626985447100271</v>
+        <v>0.01627009146631186</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.007005624393117582</v>
+        <v>0.00700564003667592</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.002872072866018649</v>
+        <v>0.002872058503589736</v>
       </c>
       <c r="F7" s="40" t="n">
-        <v>0.001268508981537408</v>
+        <v>0.001268491574116015</v>
       </c>
       <c r="G7" s="40" t="n">
-        <v>0.0005188863801270927</v>
+        <v>0.0005188897748266141</v>
       </c>
       <c r="H7" s="40" t="n">
-        <v>0.0002202778156332741</v>
+        <v>0.0002202782598301756</v>
       </c>
       <c r="I7" s="40" t="n"/>
       <c r="K7" s="144" t="inlineStr">
@@ -4759,25 +4765,25 @@
         </is>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M7" s="40" t="n">
-        <v>0.04167232731684434</v>
+        <v>0.04167280283308894</v>
       </c>
       <c r="N7" s="40" t="n">
-        <v>0.02167611493710042</v>
+        <v>0.02167614838862886</v>
       </c>
       <c r="O7" s="40" t="n">
-        <v>0.01084854410940017</v>
+        <v>0.01084850106867075</v>
       </c>
       <c r="P7" s="40" t="n">
-        <v>0.005758461087632005</v>
+        <v>0.005758398634493345</v>
       </c>
       <c r="Q7" s="40" t="n">
-        <v>0.002878551118913553</v>
+        <v>0.002878565924769649</v>
       </c>
       <c r="R7" s="40" t="n">
-        <v>0.001480851779997572</v>
+        <v>0.001480853965106999</v>
       </c>
       <c r="S7" s="40" t="n"/>
     </row>
@@ -4788,25 +4794,25 @@
         </is>
       </c>
       <c r="B8" s="40" t="n">
-        <v>0.087498177931152</v>
+        <v>0.08749619734681113</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.03290927478469785</v>
+        <v>0.03290907347724503</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.01412245779165067</v>
+        <v>0.01412250596993536</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.00600523764667138</v>
+        <v>0.006005119436292117</v>
       </c>
       <c r="F8" s="40" t="n">
-        <v>0.002475605460137698</v>
+        <v>0.002475488514739332</v>
       </c>
       <c r="G8" s="40" t="n">
-        <v>0.001049475704294811</v>
+        <v>0.001049471332369656</v>
       </c>
       <c r="H8" s="40" t="n">
-        <v>0.0004470131937310828</v>
+        <v>0.0004470133769352014</v>
       </c>
       <c r="I8" s="40" t="n"/>
       <c r="K8" s="144" t="inlineStr">
@@ -4818,22 +4824,22 @@
         <v>0.2000000000000001</v>
       </c>
       <c r="M8" s="40" t="n">
-        <v>0.0840785065842945</v>
+        <v>0.08407810745943012</v>
       </c>
       <c r="N8" s="40" t="n">
-        <v>0.0436149985130474</v>
+        <v>0.04361511327295409</v>
       </c>
       <c r="O8" s="40" t="n">
-        <v>0.02246904776354475</v>
+        <v>0.02246870200640372</v>
       </c>
       <c r="P8" s="40" t="n">
-        <v>0.01130205241935089</v>
+        <v>0.01130163036248455</v>
       </c>
       <c r="Q8" s="40" t="n">
-        <v>0.005807578700401606</v>
+        <v>0.005807559856527367</v>
       </c>
       <c r="R8" s="40" t="n">
-        <v>0.002995560285137033</v>
+        <v>0.002995561137436931</v>
       </c>
       <c r="S8" s="40" t="n"/>
     </row>
@@ -4844,25 +4850,25 @@
         </is>
       </c>
       <c r="B9" s="40" t="n">
-        <v>0.08629533621560626</v>
+        <v>0.08629538189469954</v>
       </c>
       <c r="C9" s="40" t="n">
-        <v>0.03243677444691562</v>
+        <v>0.03243701071251592</v>
       </c>
       <c r="D9" s="40" t="n">
-        <v>0.01373049926952785</v>
+        <v>0.01373042106929911</v>
       </c>
       <c r="E9" s="40" t="n">
-        <v>0.005748599125648068</v>
+        <v>0.005748584435666393</v>
       </c>
       <c r="F9" s="40" t="n">
-        <v>0.002461632602565045</v>
+        <v>0.002461587933747733</v>
       </c>
       <c r="G9" s="40" t="n">
-        <v>0.001029788646452645</v>
+        <v>0.001029791831594573</v>
       </c>
       <c r="H9" s="40" t="n">
-        <v>0.0004336890753933176</v>
+        <v>0.0004336882030785416</v>
       </c>
       <c r="I9" s="40" t="n"/>
       <c r="K9" s="144" t="inlineStr">
@@ -4871,25 +4877,25 @@
         </is>
       </c>
       <c r="L9" s="40" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M9" s="40" t="n">
-        <v>0.08312204114960997</v>
+        <v>0.08312250685400679</v>
       </c>
       <c r="N9" s="40" t="n">
-        <v>0.04267344877377199</v>
+        <v>0.04267325803205335</v>
       </c>
       <c r="O9" s="40" t="n">
-        <v>0.0217179746527042</v>
+        <v>0.021717931874077</v>
       </c>
       <c r="P9" s="40" t="n">
-        <v>0.01125004911370309</v>
+        <v>0.01124988792959725</v>
       </c>
       <c r="Q9" s="40" t="n">
-        <v>0.005721871581146232</v>
+        <v>0.005721885230554724</v>
       </c>
       <c r="R9" s="40" t="n">
-        <v>0.00292589570393309</v>
+        <v>0.002925891066428266</v>
       </c>
       <c r="S9" s="40" t="n"/>
     </row>
@@ -4900,25 +4906,25 @@
         </is>
       </c>
       <c r="B10" s="40" t="n">
-        <v>0.02655017193259335</v>
+        <v>0.02655029322884317</v>
       </c>
       <c r="C10" s="40" t="n">
-        <v>0.009767092554659795</v>
+        <v>0.009767109787224504</v>
       </c>
       <c r="D10" s="40" t="n">
-        <v>0.004152762402336863</v>
+        <v>0.004153042715363542</v>
       </c>
       <c r="E10" s="40" t="n">
-        <v>0.001780384472297558</v>
+        <v>0.00178038913676748</v>
       </c>
       <c r="F10" s="40" t="n">
-        <v>0.000749629890196668</v>
+        <v>0.0007496285616316323</v>
       </c>
       <c r="G10" s="40" t="n">
-        <v>0.0003099888260973405</v>
+        <v>0.0003099908251654737</v>
       </c>
       <c r="H10" s="40" t="n">
-        <v>0.000132101674333085</v>
+        <v>0.0001321078529953335</v>
       </c>
       <c r="I10" s="40" t="n"/>
       <c r="K10" s="144" t="inlineStr">
@@ -4930,22 +4936,22 @@
         <v>0.04999999999999993</v>
       </c>
       <c r="M10" s="40" t="n">
-        <v>0.0208326634117032</v>
+        <v>0.02083270045869079</v>
       </c>
       <c r="N10" s="40" t="n">
-        <v>0.01073443516462014</v>
+        <v>0.01073499698294977</v>
       </c>
       <c r="O10" s="40" t="n">
-        <v>0.005562462279543157</v>
+        <v>0.005562473007443947</v>
       </c>
       <c r="P10" s="40" t="n">
-        <v>0.002845384468983636</v>
+        <v>0.002845379478164878</v>
       </c>
       <c r="Q10" s="40" t="n">
-        <v>0.0014337083016559</v>
+        <v>0.001433715789127543</v>
       </c>
       <c r="R10" s="40" t="n">
-        <v>0.0007400351003312711</v>
+        <v>0.0007400619207063031</v>
       </c>
       <c r="S10" s="40" t="n"/>
     </row>
@@ -4956,25 +4962,25 @@
         </is>
       </c>
       <c r="B11" s="40" t="n">
-        <v>0.08555543583587022</v>
+        <v>0.08555477184380944</v>
       </c>
       <c r="C11" s="40" t="n">
-        <v>0.03267624675754677</v>
+        <v>0.03267676161390554</v>
       </c>
       <c r="D11" s="40" t="n">
-        <v>0.01397726446096481</v>
+        <v>0.01397743977391053</v>
       </c>
       <c r="E11" s="40" t="n">
-        <v>0.005981501268333633</v>
+        <v>0.005981447946542984</v>
       </c>
       <c r="F11" s="40" t="n">
-        <v>0.002459490537381814</v>
+        <v>0.002459376165691474</v>
       </c>
       <c r="G11" s="40" t="n">
-        <v>0.001042223104092854</v>
+        <v>0.001042229971607078</v>
       </c>
       <c r="H11" s="40" t="n">
-        <v>0.0004438914550118911</v>
+        <v>0.0004438939977066125</v>
       </c>
       <c r="I11" s="40" t="n"/>
       <c r="K11" s="144" t="inlineStr">
@@ -4983,25 +4989,25 @@
         </is>
       </c>
       <c r="L11" s="40" t="n">
-        <v>0.2</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="M11" s="40" t="n">
-        <v>0.08361683667408304</v>
+        <v>0.08361784428215169</v>
       </c>
       <c r="N11" s="40" t="n">
-        <v>0.04327188255292758</v>
+        <v>0.04327230345126742</v>
       </c>
       <c r="O11" s="40" t="n">
-        <v>0.02239889217740032</v>
+        <v>0.02239873696341832</v>
       </c>
       <c r="P11" s="40" t="n">
-        <v>0.01124228168325236</v>
+        <v>0.01124186749072265</v>
       </c>
       <c r="Q11" s="40" t="n">
-        <v>0.005776279872348744</v>
+        <v>0.005776309046362504</v>
       </c>
       <c r="R11" s="40" t="n">
-        <v>0.002979416731010209</v>
+        <v>0.002979429956167179</v>
       </c>
       <c r="S11" s="40" t="n"/>
     </row>
@@ -5012,25 +5018,25 @@
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>0.2272526326084165</v>
+        <v>0.2272497251338144</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.1323782391654534</v>
+        <v>0.132378513038393</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.08175443143229377</v>
+        <v>0.08175455000446108</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.04993949375061291</v>
+        <v>0.04993948136308723</v>
       </c>
       <c r="F12" s="40" t="n">
-        <v>0.03044915850049701</v>
+        <v>0.03044851873550769</v>
       </c>
       <c r="G12" s="40" t="n">
-        <v>0.01887434993011006</v>
+        <v>0.01887436988568514</v>
       </c>
       <c r="H12" s="40" t="n">
-        <v>0.01162123973003304</v>
+        <v>0.01162124629809791</v>
       </c>
       <c r="I12" s="40" t="n"/>
       <c r="K12" s="144" t="inlineStr">
@@ -5042,22 +5048,22 @@
         <v>0.5</v>
       </c>
       <c r="M12" s="40" t="n">
-        <v>0.3304866429804438</v>
+        <v>0.3304870965164365</v>
       </c>
       <c r="N12" s="40" t="n">
-        <v>0.2417856511745909</v>
+        <v>0.2417858807120404</v>
       </c>
       <c r="O12" s="40" t="n">
-        <v>0.1756293700888484</v>
+        <v>0.1756293416107834</v>
       </c>
       <c r="P12" s="40" t="n">
-        <v>0.1274543451602203</v>
+        <v>0.1274525885269926</v>
       </c>
       <c r="Q12" s="40" t="n">
-        <v>0.09347664666606637</v>
+        <v>0.09347671221138387</v>
       </c>
       <c r="R12" s="40" t="n">
-        <v>0.06825606541135265</v>
+        <v>0.06825609069991545</v>
       </c>
       <c r="S12" s="40" t="n"/>
     </row>
@@ -5068,25 +5074,25 @@
         </is>
       </c>
       <c r="B13" s="40" t="n">
-        <v>0.04306179554181866</v>
+        <v>0.04304583346955282</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.01632010816184348</v>
+        <v>0.01631935778577676</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.007026556835654452</v>
+        <v>0.007026363995120244</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.002675995041236834</v>
+        <v>0.002675833053824239</v>
       </c>
       <c r="F13" s="40" t="n">
-        <v>0.001262243146782804</v>
+        <v>0.001261994576426173</v>
       </c>
       <c r="G13" s="40" t="n">
-        <v>0.0005231009011109622</v>
+        <v>0.0005230912112210717</v>
       </c>
       <c r="H13" s="40" t="n">
-        <v>0.0002222774152753626</v>
+        <v>0.0002222751225856578</v>
       </c>
       <c r="I13" s="40" t="n"/>
       <c r="K13" s="144" t="inlineStr">
@@ -5095,25 +5101,25 @@
         </is>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M13" s="40" t="n">
-        <v>0.04177385779838971</v>
+        <v>0.04177229422861684</v>
       </c>
       <c r="N13" s="40" t="n">
-        <v>0.02172922227616347</v>
+        <v>0.02172878459178773</v>
       </c>
       <c r="O13" s="40" t="n">
-        <v>0.01026604338399473</v>
+        <v>0.01026557011070939</v>
       </c>
       <c r="P13" s="40" t="n">
-        <v>0.005735821083217907</v>
+        <v>0.005734918095061214</v>
       </c>
       <c r="Q13" s="40" t="n">
-        <v>0.002896740486018956</v>
+        <v>0.002896696499995799</v>
       </c>
       <c r="R13" s="40" t="n">
-        <v>0.001491546791503429</v>
+        <v>0.001491535630712137</v>
       </c>
       <c r="S13" s="40" t="n"/>
     </row>
@@ -5124,25 +5130,25 @@
         </is>
       </c>
       <c r="B14" s="40" t="n">
-        <v>0.1300844282858368</v>
+        <v>0.1300869864047445</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.0491181997740302</v>
+        <v>0.04911870928572348</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.02104159926621063</v>
+        <v>0.02104172515450509</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.008594967044403989</v>
+        <v>0.008594931695635966</v>
       </c>
       <c r="F14" s="40" t="n">
-        <v>0.003736744537868208</v>
+        <v>0.003736617056000924</v>
       </c>
       <c r="G14" s="40" t="n">
-        <v>0.001565575901815164</v>
+        <v>0.001565582591742776</v>
       </c>
       <c r="H14" s="40" t="n">
-        <v>0.0006659316716440822</v>
+        <v>0.0006659334055711952</v>
       </c>
       <c r="I14" s="40" t="n"/>
       <c r="K14" s="144" t="inlineStr">
@@ -5151,25 +5157,25 @@
         </is>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.3000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="M14" s="40" t="n">
-        <v>0.1256226040643554</v>
+        <v>0.1256236220804599</v>
       </c>
       <c r="N14" s="40" t="n">
-        <v>0.06507749446130495</v>
+        <v>0.06507779742710851</v>
       </c>
       <c r="O14" s="40" t="n">
-        <v>0.03247897183107828</v>
+        <v>0.03247886807414324</v>
       </c>
       <c r="P14" s="40" t="n">
-        <v>0.01703243613108441</v>
+        <v>0.01703197721096461</v>
       </c>
       <c r="Q14" s="40" t="n">
-        <v>0.008673620359672785</v>
+        <v>0.008673649399794647</v>
       </c>
       <c r="R14" s="40" t="n">
-        <v>0.004469015873491355</v>
+        <v>0.004469024903313468</v>
       </c>
       <c r="S14" s="40" t="n"/>
     </row>
@@ -5180,25 +5186,25 @@
         </is>
       </c>
       <c r="B15" s="40" t="n">
-        <v>0.1322186588659255</v>
+        <v>0.1322375034580657</v>
       </c>
       <c r="C15" s="40" t="n">
-        <v>0.05005707076227073</v>
+        <v>0.05005763146703746</v>
       </c>
       <c r="D15" s="40" t="n">
-        <v>0.02138864724656542</v>
+        <v>0.02138894227559507</v>
       </c>
       <c r="E15" s="40" t="n">
-        <v>0.009079118074716286</v>
+        <v>0.009079047641197047</v>
       </c>
       <c r="F15" s="40" t="n">
-        <v>0.003739574123998057</v>
+        <v>0.003739712424835839</v>
       </c>
       <c r="G15" s="40" t="n">
-        <v>0.001592807004171748</v>
+        <v>0.001592815554661398</v>
       </c>
       <c r="H15" s="40" t="n">
-        <v>0.0006746645694521991</v>
+        <v>0.0006746686472365315</v>
       </c>
       <c r="I15" s="40" t="n"/>
       <c r="K15" s="144" t="inlineStr">
@@ -5210,22 +5216,22 @@
         <v>0.3</v>
       </c>
       <c r="M15" s="40" t="n">
-        <v>0.1275112863299792</v>
+        <v>0.1275124038150153</v>
       </c>
       <c r="N15" s="40" t="n">
-        <v>0.06591100036757669</v>
+        <v>0.065911711947925</v>
       </c>
       <c r="O15" s="40" t="n">
-        <v>0.03391365414757297</v>
+        <v>0.0339134478492269</v>
       </c>
       <c r="P15" s="40" t="n">
-        <v>0.01704749750740897</v>
+        <v>0.01704799786012812</v>
       </c>
       <c r="Q15" s="40" t="n">
-        <v>0.008791942919251783</v>
+        <v>0.008791980040035452</v>
       </c>
       <c r="R15" s="40" t="n">
-        <v>0.004514685626983317</v>
+        <v>0.004514706951203817</v>
       </c>
       <c r="S15" s="40" t="n"/>
     </row>
@@ -5236,25 +5242,25 @@
         </is>
       </c>
       <c r="B16" s="40" t="n">
-        <v>0.04365632902119365</v>
+        <v>0.04365783042954652</v>
       </c>
       <c r="C16" s="40" t="n">
-        <v>0.01644483673826791</v>
+        <v>0.0164444588835112</v>
       </c>
       <c r="D16" s="40" t="n">
-        <v>0.00705369851186588</v>
+        <v>0.007053618300149167</v>
       </c>
       <c r="E16" s="40" t="n">
-        <v>0.00310053188952808</v>
+        <v>0.003100490700414626</v>
       </c>
       <c r="F16" s="40" t="n">
-        <v>0.001241718878535858</v>
+        <v>0.001241965092009578</v>
       </c>
       <c r="G16" s="40" t="n">
-        <v>0.0005246813699885111</v>
+        <v>0.0005246757504173694</v>
       </c>
       <c r="H16" s="40" t="n">
-        <v>0.0002223909185630202</v>
+        <v>0.0002223890578526566</v>
       </c>
       <c r="I16" s="40" t="n"/>
       <c r="K16" s="144" t="inlineStr">
@@ -5263,25 +5269,25 @@
         </is>
       </c>
       <c r="L16" s="40" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M16" s="40" t="n">
-        <v>0.04202014567387435</v>
+        <v>0.04201938575694519</v>
       </c>
       <c r="N16" s="40" t="n">
-        <v>0.02178644629586157</v>
+        <v>0.02178625431165648</v>
       </c>
       <c r="O16" s="40" t="n">
-        <v>0.01151838919184567</v>
+        <v>0.01151827042743458</v>
       </c>
       <c r="P16" s="40" t="n">
-        <v>0.005664910623542574</v>
+        <v>0.005665798496595431</v>
       </c>
       <c r="Q16" s="40" t="n">
-        <v>0.002903409568440374</v>
+        <v>0.00290338509805621</v>
       </c>
       <c r="R16" s="40" t="n">
-        <v>0.001491718861923896</v>
+        <v>0.001491709119606499</v>
       </c>
       <c r="S16" s="40" t="n"/>
     </row>
@@ -5292,25 +5298,25 @@
         </is>
       </c>
       <c r="B17" s="40" t="n">
-        <v>0.04369892951272203</v>
+        <v>0.04369898246887716</v>
       </c>
       <c r="C17" s="40" t="n">
-        <v>0.01620630072979323</v>
+        <v>0.01620640014296926</v>
       </c>
       <c r="D17" s="40" t="n">
-        <v>0.006977797319849488</v>
+        <v>0.006977834679359085</v>
       </c>
       <c r="E17" s="40" t="n">
-        <v>0.002719260361366826</v>
+        <v>0.002719240115019117</v>
       </c>
       <c r="F17" s="40" t="n">
-        <v>0.001268349911230482</v>
+        <v>0.001268308164090959</v>
       </c>
       <c r="G17" s="40" t="n">
-        <v>0.0005147311521599418</v>
+        <v>0.0005147328337614665</v>
       </c>
       <c r="H17" s="40" t="n">
-        <v>0.0002194762702959485</v>
+        <v>0.0002194766618485167</v>
       </c>
       <c r="I17" s="40" t="n"/>
       <c r="K17" s="144" t="inlineStr">
@@ -5322,22 +5328,22 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="M17" s="40" t="n">
-        <v>0.04153672740085834</v>
+        <v>0.0415369248899139</v>
       </c>
       <c r="N17" s="40" t="n">
-        <v>0.02160320820185146</v>
+        <v>0.02160329938882166</v>
       </c>
       <c r="O17" s="40" t="n">
-        <v>0.01040211919663303</v>
+        <v>0.01040206024424606</v>
       </c>
       <c r="P17" s="40" t="n">
-        <v>0.005757832301366284</v>
+        <v>0.005757682140817622</v>
       </c>
       <c r="Q17" s="40" t="n">
-        <v>0.002860293500298483</v>
+        <v>0.002860300757546397</v>
       </c>
       <c r="R17" s="40" t="n">
-        <v>0.001476510989342539</v>
+        <v>0.001476513069216367</v>
       </c>
       <c r="S17" s="40" t="n"/>
     </row>
@@ -5348,25 +5354,25 @@
         </is>
       </c>
       <c r="B18" s="40" t="n">
-        <v>0.04363535104349991</v>
+        <v>0.04363857487384559</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.01641246679172181</v>
+        <v>0.01641263108986457</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.007122831767362059</v>
+        <v>0.00712281840174156</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.002983080517053427</v>
+        <v>0.002983131670633243</v>
       </c>
       <c r="F18" s="40" t="n">
-        <v>0.001251213147642094</v>
+        <v>0.001251273529670804</v>
       </c>
       <c r="G18" s="40" t="n">
-        <v>0.000525113278050382</v>
+        <v>0.0005251152418448424</v>
       </c>
       <c r="H18" s="40" t="n">
-        <v>0.0002242736151281122</v>
+        <v>0.0002242735286395181</v>
       </c>
       <c r="I18" s="40" t="n"/>
       <c r="K18" s="144" t="inlineStr">
@@ -5375,25 +5381,25 @@
         </is>
       </c>
       <c r="L18" s="40" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M18" s="40" t="n">
-        <v>0.04195806434140603</v>
+        <v>0.04195839318820294</v>
       </c>
       <c r="N18" s="40" t="n">
-        <v>0.02195373296761971</v>
+        <v>0.02195369825318616</v>
       </c>
       <c r="O18" s="40" t="n">
-        <v>0.01117518330140355</v>
+        <v>0.01117533200184584</v>
       </c>
       <c r="P18" s="40" t="n">
-        <v>0.005698258397963896</v>
+        <v>0.005698476556586951</v>
       </c>
       <c r="Q18" s="40" t="n">
-        <v>0.002905295333731073</v>
+        <v>0.002905303883335209</v>
       </c>
       <c r="R18" s="40" t="n">
-        <v>0.001501609487268962</v>
+        <v>0.001501608941137045</v>
       </c>
       <c r="S18" s="40" t="n"/>
     </row>
@@ -5404,25 +5410,25 @@
         </is>
       </c>
       <c r="B19" s="40" t="n">
-        <v>0.04419477417636275</v>
+        <v>0.0442066245079229</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.01637307183454884</v>
+        <v>0.01637295818836204</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.007206918426315934</v>
+        <v>0.007207157673029596</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.002970123637877631</v>
+        <v>0.002969310897272814</v>
       </c>
       <c r="F19" s="40" t="n">
-        <v>0.001266365433067684</v>
+        <v>0.001266454319505672</v>
       </c>
       <c r="G19" s="40" t="n">
-        <v>0.000523273577377692</v>
+        <v>0.0005232828049545057</v>
       </c>
       <c r="H19" s="40" t="n">
-        <v>0.0002258275428353995</v>
+        <v>0.0002258294302662778</v>
       </c>
       <c r="I19" s="40" t="n"/>
       <c r="K19" s="144" t="inlineStr">
@@ -5434,22 +5440,22 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="M19" s="40" t="n">
-        <v>0.04187937327862334</v>
+        <v>0.04187910885762869</v>
       </c>
       <c r="N19" s="40" t="n">
-        <v>0.02215569103285731</v>
+        <v>0.02215629350420134</v>
       </c>
       <c r="O19" s="40" t="n">
-        <v>0.01113890492326042</v>
+        <v>0.01113653503850087</v>
       </c>
       <c r="P19" s="40" t="n">
-        <v>0.005752007874691101</v>
+        <v>0.005752328139687291</v>
       </c>
       <c r="Q19" s="40" t="n">
-        <v>0.002897457176577301</v>
+        <v>0.002897495537515726</v>
       </c>
       <c r="R19" s="40" t="n">
-        <v>0.001509719418107736</v>
+        <v>0.00150973018590983</v>
       </c>
       <c r="S19" s="40" t="n"/>
     </row>
@@ -5460,25 +5466,25 @@
         </is>
       </c>
       <c r="B20" s="40" t="n">
-        <v>0.6432161865916401</v>
+        <v>0.6432278083884118</v>
       </c>
       <c r="C20" s="40" t="n">
-        <v>0.3731372844836992</v>
+        <v>0.3731436902119273</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.2299297541501892</v>
+        <v>0.2299302569577114</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.1417135848765325</v>
+        <v>0.1417142992537378</v>
       </c>
       <c r="F20" s="40" t="n">
-        <v>0.08606035103790177</v>
+        <v>0.08605989798767433</v>
       </c>
       <c r="G20" s="40" t="n">
-        <v>0.05335386165853517</v>
+        <v>0.05335422943169121</v>
       </c>
       <c r="H20" s="40" t="n">
-        <v>0.03268154316856153</v>
+        <v>0.03268156694688473</v>
       </c>
       <c r="I20" s="40" t="n"/>
       <c r="K20" s="144" t="inlineStr">
@@ -5490,22 +5496,22 @@
         <v>0.9</v>
       </c>
       <c r="M20" s="40" t="n">
-        <v>0.5974708097969301</v>
+        <v>0.5974774036874894</v>
       </c>
       <c r="N20" s="40" t="n">
-        <v>0.4364143881629462</v>
+        <v>0.4364150295994019</v>
       </c>
       <c r="O20" s="40" t="n">
-        <v>0.3189260431319485</v>
+        <v>0.3189270762170844</v>
       </c>
       <c r="P20" s="40" t="n">
-        <v>0.2308314038563029</v>
+        <v>0.2308305784044746</v>
       </c>
       <c r="Q20" s="40" t="n">
-        <v>0.1693015589767061</v>
+        <v>0.1693023112652238</v>
       </c>
       <c r="R20" s="40" t="n">
-        <v>0.1232031240081461</v>
+        <v>0.1232031842864102</v>
       </c>
       <c r="S20" s="40" t="n"/>
     </row>
@@ -5516,25 +5522,25 @@
         </is>
       </c>
       <c r="B21" s="40" t="n">
-        <v>0.2299362530686105</v>
+        <v>0.2299210440635692</v>
       </c>
       <c r="C21" s="40" t="n">
-        <v>0.1327214974871876</v>
+        <v>0.1327168695015178</v>
       </c>
       <c r="D21" s="40" t="n">
-        <v>0.08231956585085742</v>
+        <v>0.08232115580559485</v>
       </c>
       <c r="E21" s="40" t="n">
-        <v>0.05075992527103168</v>
+        <v>0.05075820769261374</v>
       </c>
       <c r="F21" s="40" t="n">
-        <v>0.03088215541957051</v>
+        <v>0.03087859032768625</v>
       </c>
       <c r="G21" s="40" t="n">
-        <v>0.01893020955838876</v>
+        <v>0.01892986049069145</v>
       </c>
       <c r="H21" s="40" t="n">
-        <v>0.01168479164379854</v>
+        <v>0.01168485689216714</v>
       </c>
       <c r="I21" s="40" t="n"/>
       <c r="K21" s="144" t="inlineStr">
@@ -5546,22 +5552,22 @@
         <v>0.5</v>
       </c>
       <c r="M21" s="40" t="n">
-        <v>0.3310239238976519</v>
+        <v>0.3310165619194004</v>
       </c>
       <c r="N21" s="40" t="n">
-        <v>0.2428540017741633</v>
+        <v>0.2428571009405751</v>
       </c>
       <c r="O21" s="40" t="n">
-        <v>0.1775026371917918</v>
+        <v>0.1774987402586277</v>
       </c>
       <c r="P21" s="40" t="n">
-        <v>0.1286299516239798</v>
+        <v>0.1286202212829037</v>
       </c>
       <c r="Q21" s="40" t="n">
-        <v>0.09365152518261477</v>
+        <v>0.09365042253808187</v>
       </c>
       <c r="R21" s="40" t="n">
-        <v>0.06849583562679795</v>
+        <v>0.06849608925277528</v>
       </c>
       <c r="S21" s="40" t="n"/>
     </row>
@@ -5572,25 +5578,25 @@
         </is>
       </c>
       <c r="B22" s="40" t="n">
-        <v>0.08230631992939696</v>
+        <v>0.08230866842926965</v>
       </c>
       <c r="C22" s="40" t="n">
-        <v>0.03164688225201784</v>
+        <v>0.03164725056564222</v>
       </c>
       <c r="D22" s="40" t="n">
-        <v>0.01346354523266369</v>
+        <v>0.01346361342964497</v>
       </c>
       <c r="E22" s="40" t="n">
-        <v>0.005804631175980068</v>
+        <v>0.005804612841101786</v>
       </c>
       <c r="F22" s="40" t="n">
-        <v>0.002523771209989367</v>
+        <v>0.002523728621940169</v>
       </c>
       <c r="G22" s="40" t="n">
-        <v>0.001018306457429508</v>
+        <v>0.001018310647872167</v>
       </c>
       <c r="H22" s="40" t="n">
-        <v>0.0004252464963359071</v>
+        <v>0.0004252473088851572</v>
       </c>
       <c r="I22" s="40" t="n"/>
       <c r="K22" s="144" t="inlineStr">
@@ -5599,25 +5605,25 @@
         </is>
       </c>
       <c r="L22" s="40" t="n">
-        <v>0.1999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="M22" s="40" t="n">
-        <v>0.08155135504640798</v>
+        <v>0.08155208834371597</v>
       </c>
       <c r="N22" s="40" t="n">
-        <v>0.04200735362060992</v>
+        <v>0.04200751848110029</v>
       </c>
       <c r="O22" s="40" t="n">
-        <v>0.0218776635265685</v>
+        <v>0.02187760987225118</v>
       </c>
       <c r="P22" s="40" t="n">
-        <v>0.01146458105701498</v>
+        <v>0.01146442857054908</v>
       </c>
       <c r="Q22" s="40" t="n">
-        <v>0.00567237319307845</v>
+        <v>0.005672391310474367</v>
       </c>
       <c r="R22" s="40" t="n">
-        <v>0.002880601459918863</v>
+        <v>0.002880605725543828</v>
       </c>
       <c r="S22" s="40" t="n"/>
     </row>
@@ -5628,25 +5634,25 @@
         </is>
       </c>
       <c r="B23" s="40" t="n">
-        <v>0.2205822260369388</v>
+        <v>0.220584909964996</v>
       </c>
       <c r="C23" s="40" t="n">
-        <v>0.1300141687402677</v>
+        <v>0.130014600902402</v>
       </c>
       <c r="D23" s="40" t="n">
-        <v>0.08240294620005006</v>
+        <v>0.08240314360714873</v>
       </c>
       <c r="E23" s="40" t="n">
-        <v>0.05102956326381958</v>
+        <v>0.05102947272461877</v>
       </c>
       <c r="F23" s="40" t="n">
-        <v>0.03049385361446566</v>
+        <v>0.0304936450151444</v>
       </c>
       <c r="G23" s="40" t="n">
-        <v>0.01846798841648256</v>
+        <v>0.01846801765217276</v>
       </c>
       <c r="H23" s="40" t="n">
-        <v>0.01164320724359047</v>
+        <v>0.01164321765412513</v>
       </c>
       <c r="I23" s="40" t="n"/>
       <c r="K23" s="144" t="inlineStr">
@@ -5658,22 +5664,22 @@
         <v>0.5</v>
       </c>
       <c r="M23" s="40" t="n">
-        <v>0.3265636312494677</v>
+        <v>0.3265643389286468</v>
       </c>
       <c r="N23" s="40" t="n">
-        <v>0.2430333524761777</v>
+        <v>0.2430337334200582</v>
       </c>
       <c r="O23" s="40" t="n">
-        <v>0.1781027451190144</v>
+        <v>0.1781025391683927</v>
       </c>
       <c r="P23" s="40" t="n">
-        <v>0.1275571653511394</v>
+        <v>0.1275565949023909</v>
       </c>
       <c r="Q23" s="40" t="n">
-        <v>0.09214318425878176</v>
+        <v>0.09214327943801282</v>
       </c>
       <c r="R23" s="40" t="n">
-        <v>0.06833794019399853</v>
+        <v>0.06833798007435921</v>
       </c>
       <c r="S23" s="40" t="n"/>
     </row>
@@ -5684,25 +5690,25 @@
         </is>
       </c>
       <c r="B24" s="40" t="n">
-        <v>0.04318421326939048</v>
+        <v>0.04318407183676853</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.01637849647032452</v>
+        <v>0.01637842318432403</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.006972836832625173</v>
+        <v>0.006972913099178912</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.002714331166636219</v>
+        <v>0.002714261639070514</v>
       </c>
       <c r="F24" s="40" t="n">
-        <v>0.001288470209111714</v>
+        <v>0.001288460407369629</v>
       </c>
       <c r="G24" s="40" t="n">
-        <v>0.0005219123356224875</v>
+        <v>0.0005219113943937259</v>
       </c>
       <c r="H24" s="40" t="n">
-        <v>0.0002212943824914104</v>
+        <v>0.0002212955114822002</v>
       </c>
       <c r="I24" s="40" t="n"/>
       <c r="K24" s="144" t="inlineStr">
@@ -5711,25 +5717,25 @@
         </is>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M24" s="40" t="n">
-        <v>0.04188841178659064</v>
+        <v>0.04188826199219031</v>
       </c>
       <c r="N24" s="40" t="n">
-        <v>0.02161277591254362</v>
+        <v>0.02161296214073383</v>
       </c>
       <c r="O24" s="40" t="n">
-        <v>0.01037853074591222</v>
+        <v>0.01037832707914466</v>
       </c>
       <c r="P24" s="40" t="n">
-        <v>0.005828232021984125</v>
+        <v>0.005828196612071235</v>
       </c>
       <c r="Q24" s="40" t="n">
-        <v>0.00289165765454924</v>
+        <v>0.002891653466003397</v>
       </c>
       <c r="R24" s="40" t="n">
-        <v>0.001486957738525696</v>
+        <v>0.001486963727831858</v>
       </c>
       <c r="S24" s="40" t="n"/>
     </row>
@@ -5740,25 +5746,25 @@
         </is>
       </c>
       <c r="B25" s="40" t="n">
-        <v>0.1284959894848942</v>
+        <v>0.1284917717886628</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.04931304407989801</v>
+        <v>0.04931324116840707</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.02087919830540819</v>
+        <v>0.02087934057674934</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.008824584131558066</v>
+        <v>0.008824538224610157</v>
       </c>
       <c r="F25" s="40" t="n">
-        <v>0.003687213453653304</v>
+        <v>0.00368696699237514</v>
       </c>
       <c r="G25" s="40" t="n">
-        <v>0.001566832163698129</v>
+        <v>0.001566834184959731</v>
       </c>
       <c r="H25" s="40" t="n">
-        <v>0.0006590900657174048</v>
+        <v>0.0006590920022595537</v>
       </c>
       <c r="I25" s="40" t="n"/>
       <c r="K25" s="144" t="inlineStr">
@@ -5767,25 +5773,25 @@
         </is>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.3</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="M25" s="40" t="n">
-        <v>0.1260306306594194</v>
+        <v>0.1260310357275793</v>
       </c>
       <c r="N25" s="40" t="n">
-        <v>0.06469095734475494</v>
+        <v>0.06469130429087144</v>
       </c>
       <c r="O25" s="40" t="n">
-        <v>0.03316221410807085</v>
+        <v>0.03316207995937026</v>
       </c>
       <c r="P25" s="40" t="n">
-        <v>0.01685714123809579</v>
+        <v>0.01685625245919098</v>
       </c>
       <c r="Q25" s="40" t="n">
-        <v>0.008679580196359171</v>
+        <v>0.008679589446911606</v>
       </c>
       <c r="R25" s="40" t="n">
-        <v>0.004433185798028094</v>
+        <v>0.004433196042514242</v>
       </c>
       <c r="S25" s="40" t="n"/>
     </row>
@@ -5796,25 +5802,25 @@
         </is>
       </c>
       <c r="B26" s="40" t="n">
-        <v>0.04711431744154448</v>
+        <v>0.04736226267464927</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.01703276489219929</v>
+        <v>0.01702724428163294</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.007584017470744553</v>
+        <v>0.007577429931169388</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.003073322850136728</v>
+        <v>0.00307477513721921</v>
       </c>
       <c r="F26" s="40" t="n">
-        <v>0.001328550315247479</v>
+        <v>0.001338182105249497</v>
       </c>
       <c r="G26" s="40" t="n">
-        <v>0.0005516609627037594</v>
+        <v>0.0005516674219266937</v>
       </c>
       <c r="H26" s="40" t="n">
-        <v>0.0002357041277432081</v>
+        <v>0.0002356234574709681</v>
       </c>
       <c r="I26" s="40" t="n"/>
       <c r="K26" s="144" t="inlineStr">
@@ -5826,22 +5832,22 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="M26" s="40" t="n">
-        <v>0.04322037047554661</v>
+        <v>0.04320960543973784</v>
       </c>
       <c r="N26" s="40" t="n">
-        <v>0.02307617635388504</v>
+        <v>0.0230602259801983</v>
       </c>
       <c r="O26" s="40" t="n">
-        <v>0.01144435477143513</v>
+        <v>0.01144861944904574</v>
       </c>
       <c r="P26" s="40" t="n">
-        <v>0.005976231376399799</v>
+        <v>0.006010942238473316</v>
       </c>
       <c r="Q26" s="40" t="n">
-        <v>0.003021343880433291</v>
+        <v>0.003021374394910015</v>
       </c>
       <c r="R26" s="40" t="n">
-        <v>0.00156215921777425</v>
+        <v>0.001561737955657394</v>
       </c>
       <c r="S26" s="40" t="n"/>
     </row>
@@ -5852,25 +5858,25 @@
         </is>
       </c>
       <c r="B27" s="40" t="n">
-        <v>0.2315174806092918</v>
+        <v>0.2314526411883987</v>
       </c>
       <c r="C27" s="40" t="n">
-        <v>0.1331255230421835</v>
+        <v>0.1331226449241464</v>
       </c>
       <c r="D27" s="40" t="n">
-        <v>0.08253211395066384</v>
+        <v>0.08253067760275001</v>
       </c>
       <c r="E27" s="40" t="n">
-        <v>0.05130521011089972</v>
+        <v>0.05130537845770278</v>
       </c>
       <c r="F27" s="40" t="n">
-        <v>0.03092813772369052</v>
+        <v>0.03092553728536729</v>
       </c>
       <c r="G27" s="40" t="n">
-        <v>0.01898914652675199</v>
+        <v>0.0189890058718446</v>
       </c>
       <c r="H27" s="40" t="n">
-        <v>0.01168362742098383</v>
+        <v>0.01168355387023079</v>
       </c>
       <c r="I27" s="41" t="n"/>
       <c r="K27" s="144" t="inlineStr">
@@ -5882,22 +5888,22 @@
         <v>0.5</v>
       </c>
       <c r="M27" s="40" t="n">
-        <v>0.3316955328578075</v>
+        <v>0.3316908702127864</v>
       </c>
       <c r="N27" s="40" t="n">
-        <v>0.2432335148276309</v>
+        <v>0.2432307665110599</v>
       </c>
       <c r="O27" s="40" t="n">
-        <v>0.1787431202048873</v>
+        <v>0.1787435153453468</v>
       </c>
       <c r="P27" s="40" t="n">
-        <v>0.1287626656490406</v>
+        <v>0.1287555132133593</v>
       </c>
       <c r="Q27" s="40" t="n">
-        <v>0.09384350949995779</v>
+        <v>0.09384305481903132</v>
       </c>
       <c r="R27" s="40" t="n">
-        <v>0.06848660599162693</v>
+        <v>0.0684863281104946</v>
       </c>
     </row>
     <row r="28">
@@ -5907,25 +5913,25 @@
         </is>
       </c>
       <c r="B28" s="40" t="n">
-        <v>0.1062971055659244</v>
+        <v>0.1063451020354635</v>
       </c>
       <c r="C28" s="40" t="n">
-        <v>0.04758767389837726</v>
+        <v>0.04761704853231974</v>
       </c>
       <c r="D28" s="40" t="n">
-        <v>0.02550151832314662</v>
+        <v>0.02551208285983464</v>
       </c>
       <c r="E28" s="40" t="n">
-        <v>0.01268281499995294</v>
+        <v>0.01268966306319352</v>
       </c>
       <c r="F28" s="40" t="n">
-        <v>0.007214216331386969</v>
+        <v>0.007219347303638268</v>
       </c>
       <c r="G28" s="40" t="n">
-        <v>0.004043410552489246</v>
+        <v>0.004046502565074994</v>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0.002425503525800732</v>
+        <v>0.002426977795352281</v>
       </c>
       <c r="I28" s="42" t="n"/>
       <c r="K28" s="144" t="inlineStr">
@@ -5934,25 +5940,25 @@
         </is>
       </c>
       <c r="L28" s="40" t="n">
-        <v>0.2256098849563659</v>
+        <v>0.2257127691414889</v>
       </c>
       <c r="M28" s="40" t="n">
-        <v>0.1104236392267742</v>
+        <v>0.1104914181092798</v>
       </c>
       <c r="N28" s="40" t="n">
-        <v>0.06934431455657819</v>
+        <v>0.06937215077704384</v>
       </c>
       <c r="O28" s="40" t="n">
-        <v>0.0407611012582465</v>
+        <v>0.04078238110865795</v>
       </c>
       <c r="P28" s="40" t="n">
-        <v>0.02717540914357075</v>
+        <v>0.0271944131451427</v>
       </c>
       <c r="Q28" s="40" t="n">
-        <v>0.01778922777650449</v>
+        <v>0.01780225008709624</v>
       </c>
       <c r="R28" s="40" t="n">
-        <v>0.01244512139161413</v>
+        <v>0.01245221888293147</v>
       </c>
       <c r="S28" s="43" t="n"/>
     </row>
@@ -8360,7 +8366,7 @@
       <c r="S81" s="43" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="113" t="inlineStr">
+      <c r="A82" s="144" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -8386,7 +8392,7 @@
       <c r="H82" t="n">
         <v>0.15</v>
       </c>
-      <c r="K82" s="113" t="inlineStr">
+      <c r="K82" s="144" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -8568,45 +8574,45 @@
       <c r="L87" s="43" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="113" t="inlineStr">
+      <c r="A88" s="144" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
       <c r="B88" s="43" t="n">
-        <v>0.8995317033261516</v>
+        <v>0.9132494612548101</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.67594792005987</v>
+        <v>-10.0899866629706</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3760003612720414</v>
+        <v>0.108815526567001</v>
       </c>
       <c r="E88" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.09999999999999987</v>
       </c>
-      <c r="F88" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="H88" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="K88" s="113" t="inlineStr">
+      <c r="K88" s="144" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
       <c r="L88" s="43" t="n">
-        <v>0.904819508414249</v>
+        <v>0.9178152790835042</v>
       </c>
       <c r="M88" t="n">
-        <v>-11.95616118742515</v>
+        <v>-9.506303154393201</v>
       </c>
       <c r="N88" t="n">
-        <v>0.4088424475208813</v>
+        <v>0.1557199725371589</v>
       </c>
       <c r="O88" t="n">
         <v>0.1499999999999999</v>
@@ -8615,7 +8621,7 @@
         <v>0.15</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.1500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="R88" t="n">
         <v>0.1500000000000001</v>
@@ -9042,7 +9048,7 @@
         <v>-10.0899866629706</v>
       </c>
       <c r="D103" s="40" t="n">
-        <v>0.1088155265670011</v>
+        <v>0.108815526567001</v>
       </c>
       <c r="E103" s="40" t="n">
         <v>0.09999999999999998</v>
@@ -9051,7 +9057,7 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="G103" s="40" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="H103" s="40" t="n">
         <v>0.09999999999999998</v>
@@ -9074,13 +9080,13 @@
         <v>0.1499999999999999</v>
       </c>
       <c r="P103" s="40" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="Q103" s="40" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="R103" s="40" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.1500000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -14518,67 +14524,67 @@
         </is>
       </c>
       <c r="C76" s="76" t="n">
-        <v>1472505.795221645</v>
+        <v>1473376.345643046</v>
       </c>
       <c r="D76" s="76" t="n">
-        <v>1730879.587065949</v>
+        <v>1731940.706997134</v>
       </c>
       <c r="E76" s="76" t="n">
-        <v>1445395.666941441</v>
+        <v>1445991.910118381</v>
       </c>
       <c r="F76" s="76" t="n">
-        <v>1498643.283795266</v>
+        <v>1499696.74619022</v>
       </c>
       <c r="G76" s="76" t="n">
-        <v>1751172.596178774</v>
+        <v>1752303.852269587</v>
       </c>
       <c r="H76" s="76" t="n">
-        <v>1291186.185016852</v>
+        <v>1291964.757711726</v>
       </c>
       <c r="I76" s="76" t="n">
-        <v>2021763.283526832</v>
+        <v>2022838.770505027</v>
       </c>
       <c r="J76" s="76" t="n">
-        <v>1450210.98346968</v>
+        <v>1450904.912906068</v>
       </c>
       <c r="K76" s="76" t="n">
-        <v>1337138.500635635</v>
+        <v>1337742.532907862</v>
       </c>
       <c r="L76" s="76" t="n">
-        <v>2020269.886314436</v>
+        <v>2021267.654263771</v>
       </c>
       <c r="M76" s="76" t="n">
-        <v>1598173.132880608</v>
+        <v>1598999.936813354</v>
       </c>
       <c r="N76" s="76" t="n">
-        <v>1621480.050133657</v>
+        <v>1622344.561873821</v>
       </c>
       <c r="O76" s="76" t="n">
-        <v>1717734.799674535</v>
+        <v>1718794.165501532</v>
       </c>
       <c r="P76" s="76" t="n">
-        <v>1761041.660993571</v>
+        <v>1762162.379770773</v>
       </c>
       <c r="Q76" s="76" t="n">
-        <v>1536531.147578875</v>
+        <v>1537967.674008009</v>
       </c>
       <c r="R76" s="76" t="n">
-        <v>1715836.30533964</v>
+        <v>1717027.73218725</v>
       </c>
       <c r="S76" s="76" t="n">
-        <v>1711235.14462602</v>
+        <v>1712394.811859604</v>
       </c>
       <c r="T76" s="76" t="n">
-        <v>1435967.353775355</v>
+        <v>1436899.908215006</v>
       </c>
       <c r="U76" s="76" t="n">
-        <v>2053997.537247164</v>
+        <v>2055275.089768529</v>
       </c>
       <c r="V76" s="76" t="n">
-        <v>1588731.612119223</v>
+        <v>1589677.362506276</v>
       </c>
       <c r="W76" s="76" t="n">
-        <v>1472001.007904031</v>
+        <v>1472864.977168735</v>
       </c>
     </row>
     <row r="77">
@@ -14593,67 +14599,67 @@
         </is>
       </c>
       <c r="C77" s="76" t="n">
-        <v>4134524.856348229</v>
+        <v>4136783.583940698</v>
       </c>
       <c r="D77" s="76" t="n">
-        <v>3487045.75467578</v>
+        <v>3489300.945841661</v>
       </c>
       <c r="E77" s="76" t="n">
-        <v>3081197.419407051</v>
+        <v>3082497.11867064</v>
       </c>
       <c r="F77" s="76" t="n">
-        <v>2884629.32418608</v>
+        <v>2886945.271246495</v>
       </c>
       <c r="G77" s="76" t="n">
-        <v>3292748.53886405</v>
+        <v>3295227.528288657</v>
       </c>
       <c r="H77" s="76" t="n">
-        <v>2823154.224552362</v>
+        <v>2824952.979074773</v>
       </c>
       <c r="I77" s="76" t="n">
-        <v>3231371.370817461</v>
+        <v>3233466.496355533</v>
       </c>
       <c r="J77" s="76" t="n">
-        <v>2992581.842369375</v>
+        <v>2994123.09284159</v>
       </c>
       <c r="K77" s="76" t="n">
-        <v>2563091.537728526</v>
+        <v>2564750.727383078</v>
       </c>
       <c r="L77" s="76" t="n">
-        <v>4596901.076463326</v>
+        <v>4599969.052747361</v>
       </c>
       <c r="M77" s="76" t="n">
-        <v>3857640.047103849</v>
+        <v>3860124.71747362</v>
       </c>
       <c r="N77" s="76" t="n">
-        <v>5047439.163746506</v>
+        <v>5051069.726581837</v>
       </c>
       <c r="O77" s="76" t="n">
-        <v>4522741.099227632</v>
+        <v>4526022.7837698</v>
       </c>
       <c r="P77" s="76" t="n">
-        <v>3428919.941371797</v>
+        <v>3431504.589952476</v>
       </c>
       <c r="Q77" s="76" t="n">
-        <v>3044216.295173001</v>
+        <v>3046911.819839696</v>
       </c>
       <c r="R77" s="76" t="n">
-        <v>3135945.921443767</v>
+        <v>3138598.658625978</v>
       </c>
       <c r="S77" s="76" t="n">
-        <v>3189243.971222396</v>
+        <v>3191896.65321902</v>
       </c>
       <c r="T77" s="76" t="n">
-        <v>2877010.518175789</v>
+        <v>2879231.25075195</v>
       </c>
       <c r="U77" s="76" t="n">
-        <v>3308313.892677276</v>
+        <v>3310950.97211207</v>
       </c>
       <c r="V77" s="76" t="n">
-        <v>3023641.303435854</v>
+        <v>3025833.506817268</v>
       </c>
       <c r="W77" s="76" t="n">
-        <v>2868194.199974935</v>
+        <v>2870445.493027579</v>
       </c>
     </row>
     <row r="78">
@@ -14668,67 +14674,67 @@
         </is>
       </c>
       <c r="C78" s="76" t="n">
-        <v>6004289.318372132</v>
+        <v>6009881.144781234</v>
       </c>
       <c r="D78" s="76" t="n">
-        <v>7296649.813657385</v>
+        <v>7303522.217480486</v>
       </c>
       <c r="E78" s="76" t="n">
-        <v>5321461.454283313</v>
+        <v>5327629.677184089</v>
       </c>
       <c r="F78" s="76" t="n">
-        <v>6812721.471289184</v>
+        <v>6819926.88714225</v>
       </c>
       <c r="G78" s="76" t="n">
-        <v>7107673.785779464</v>
+        <v>7115561.484668927</v>
       </c>
       <c r="H78" s="76" t="n">
-        <v>5904124.688641917</v>
+        <v>5910753.213056511</v>
       </c>
       <c r="I78" s="76" t="n">
-        <v>7697810.35023169</v>
+        <v>7705450.383096471</v>
       </c>
       <c r="J78" s="76" t="n">
-        <v>6246190.918591461</v>
+        <v>6252112.506118585</v>
       </c>
       <c r="K78" s="76" t="n">
-        <v>5705801.970122097</v>
+        <v>5711286.739685654</v>
       </c>
       <c r="L78" s="76" t="n">
-        <v>8230400.449208651</v>
+        <v>8237772.868546018</v>
       </c>
       <c r="M78" s="76" t="n">
-        <v>6256792.184289883</v>
+        <v>6263294.717294726</v>
       </c>
       <c r="N78" s="76" t="n">
-        <v>5630986.952301119</v>
+        <v>5637178.591075693</v>
       </c>
       <c r="O78" s="76" t="n">
-        <v>6686476.977425531</v>
+        <v>6694223.064165592</v>
       </c>
       <c r="P78" s="76" t="n">
-        <v>7167223.100507346</v>
+        <v>7175647.843625765</v>
       </c>
       <c r="Q78" s="76" t="n">
-        <v>5637540.149800461</v>
+        <v>5647343.278799477</v>
       </c>
       <c r="R78" s="76" t="n">
-        <v>7489471.408310498</v>
+        <v>7498735.899158965</v>
       </c>
       <c r="S78" s="76" t="n">
-        <v>7026269.81245026</v>
+        <v>7035177.776051814</v>
       </c>
       <c r="T78" s="76" t="n">
-        <v>6100974.335005675</v>
+        <v>6108790.000853287</v>
       </c>
       <c r="U78" s="76" t="n">
-        <v>7925912.429098572</v>
+        <v>7935609.473841926</v>
       </c>
       <c r="V78" s="76" t="n">
-        <v>6615285.937928506</v>
+        <v>6623216.903165406</v>
       </c>
       <c r="W78" s="76" t="n">
-        <v>5892756.883906344</v>
+        <v>5899967.857370726</v>
       </c>
     </row>
     <row r="79">
@@ -14743,67 +14749,67 @@
         </is>
       </c>
       <c r="C79" s="76" t="n">
-        <v>17805585.33335083</v>
+        <v>17813907.32789802</v>
       </c>
       <c r="D79" s="76" t="n">
-        <v>17567384.78777343</v>
+        <v>17575730.13198019</v>
       </c>
       <c r="E79" s="76" t="n">
-        <v>16134772.43478514</v>
+        <v>16142296.60892481</v>
       </c>
       <c r="F79" s="76" t="n">
-        <v>17168386.9370363</v>
+        <v>17178253.06675762</v>
       </c>
       <c r="G79" s="76" t="n">
-        <v>17659185.94803399</v>
+        <v>17667844.09820597</v>
       </c>
       <c r="H79" s="76" t="n">
-        <v>17613082.22166246</v>
+        <v>17621916.31934729</v>
       </c>
       <c r="I79" s="76" t="n">
-        <v>18235953.43987418</v>
+        <v>18244311.68115457</v>
       </c>
       <c r="J79" s="76" t="n">
-        <v>19189266.17214578</v>
+        <v>19198328.47226257</v>
       </c>
       <c r="K79" s="76" t="n">
-        <v>17971468.46446132</v>
+        <v>17980843.37498292</v>
       </c>
       <c r="L79" s="76" t="n">
-        <v>15943885.8526061</v>
+        <v>15951127.16853039</v>
       </c>
       <c r="M79" s="76" t="n">
-        <v>16760839.00022671</v>
+        <v>16768891.28942685</v>
       </c>
       <c r="N79" s="76" t="n">
-        <v>17109853.19338273</v>
+        <v>17118070.29298662</v>
       </c>
       <c r="O79" s="76" t="n">
-        <v>18467174.42464226</v>
+        <v>18477028.53700726</v>
       </c>
       <c r="P79" s="76" t="n">
-        <v>18265927.81407257</v>
+        <v>18275726.41836258</v>
       </c>
       <c r="Q79" s="76" t="n">
-        <v>16869783.75323737</v>
+        <v>16882303.03750128</v>
       </c>
       <c r="R79" s="76" t="n">
-        <v>18116479.9187156</v>
+        <v>18127448.2898634</v>
       </c>
       <c r="S79" s="76" t="n">
-        <v>17946182.19793855</v>
+        <v>17956462.71693739</v>
       </c>
       <c r="T79" s="76" t="n">
-        <v>18194210.93108275</v>
+        <v>18204662.45599401</v>
       </c>
       <c r="U79" s="76" t="n">
-        <v>18644665.26477913</v>
+        <v>18654987.71497397</v>
       </c>
       <c r="V79" s="76" t="n">
-        <v>19662213.07167034</v>
+        <v>19673109.17327725</v>
       </c>
       <c r="W79" s="76" t="n">
-        <v>18974235.69294296</v>
+        <v>18985168.54101231</v>
       </c>
     </row>
     <row r="80">
@@ -14818,67 +14824,67 @@
         </is>
       </c>
       <c r="C80" s="76" t="n">
-        <v>20991853.34510304</v>
+        <v>20921708.17354197</v>
       </c>
       <c r="D80" s="76" t="n">
-        <v>19803782.66611703</v>
+        <v>19733834.37330433</v>
       </c>
       <c r="E80" s="76" t="n">
-        <v>14546297.58723963</v>
+        <v>14495653.73282984</v>
       </c>
       <c r="F80" s="76" t="n">
-        <v>25739570.82184285</v>
+        <v>25629158.96971657</v>
       </c>
       <c r="G80" s="76" t="n">
-        <v>20405722.53413761</v>
+        <v>20323514.598552</v>
       </c>
       <c r="H80" s="76" t="n">
-        <v>25965741.91587342</v>
+        <v>25853339.85673383</v>
       </c>
       <c r="I80" s="76" t="n">
-        <v>19853232.39468091</v>
+        <v>19783344.49462239</v>
       </c>
       <c r="J80" s="76" t="n">
-        <v>18060730.32332953</v>
+        <v>17986486.88295398</v>
       </c>
       <c r="K80" s="76" t="n">
-        <v>18166639.57649612</v>
+        <v>18090441.13374282</v>
       </c>
       <c r="L80" s="76" t="n">
-        <v>29720870.16825052</v>
+        <v>29594272.27436007</v>
       </c>
       <c r="M80" s="76" t="n">
-        <v>16746968.47246792</v>
+        <v>16673831.10826077</v>
       </c>
       <c r="N80" s="76" t="n">
-        <v>24368842.89792717</v>
+        <v>24264720.86951114</v>
       </c>
       <c r="O80" s="76" t="n">
-        <v>22298395.4015354</v>
+        <v>22204578.86761596</v>
       </c>
       <c r="P80" s="76" t="n">
-        <v>19322937.83311199</v>
+        <v>19237535.63304192</v>
       </c>
       <c r="Q80" s="76" t="n">
-        <v>17486344.90888408</v>
+        <v>17413842.11412508</v>
       </c>
       <c r="R80" s="76" t="n">
-        <v>26024522.30333893</v>
+        <v>25895729.14326888</v>
       </c>
       <c r="S80" s="76" t="n">
-        <v>19687013.28581</v>
+        <v>19591494.94446056</v>
       </c>
       <c r="T80" s="76" t="n">
-        <v>25836929.45604734</v>
+        <v>25707169.37546415</v>
       </c>
       <c r="U80" s="76" t="n">
-        <v>21806828.7312322</v>
+        <v>21709436.26552938</v>
       </c>
       <c r="V80" s="76" t="n">
-        <v>18279366.1918213</v>
+        <v>18189608.07631553</v>
       </c>
       <c r="W80" s="76" t="n">
-        <v>19247060.36746449</v>
+        <v>19152383.81557544</v>
       </c>
     </row>
     <row r="81">
@@ -14893,67 +14899,67 @@
         </is>
       </c>
       <c r="C81" s="76" t="n">
-        <v>36971569.47436253</v>
+        <v>37003043.24298178</v>
       </c>
       <c r="D81" s="76" t="n">
-        <v>41045435.2203951</v>
+        <v>41073050.71942988</v>
       </c>
       <c r="E81" s="76" t="n">
-        <v>38454354.90255673</v>
+        <v>38486120.8557562</v>
       </c>
       <c r="F81" s="76" t="n">
-        <v>38791326.5929584</v>
+        <v>38827608.07306798</v>
       </c>
       <c r="G81" s="76" t="n">
-        <v>43124362.00434892</v>
+        <v>43154849.46319147</v>
       </c>
       <c r="H81" s="76" t="n">
-        <v>36251022.88372745</v>
+        <v>36279262.02302631</v>
       </c>
       <c r="I81" s="76" t="n">
-        <v>42745887.69860606</v>
+        <v>42777864.22299469</v>
       </c>
       <c r="J81" s="76" t="n">
-        <v>41188557.5570964</v>
+        <v>41214525.72516084</v>
       </c>
       <c r="K81" s="76" t="n">
-        <v>34647714.95862918</v>
+        <v>34669156.21406803</v>
       </c>
       <c r="L81" s="76" t="n">
-        <v>50070097.30967068</v>
+        <v>50100489.92201637</v>
       </c>
       <c r="M81" s="76" t="n">
-        <v>38394027.56491002</v>
+        <v>38420656.62400907</v>
       </c>
       <c r="N81" s="76" t="n">
-        <v>35843108.89152753</v>
+        <v>35867976.53935911</v>
       </c>
       <c r="O81" s="76" t="n">
-        <v>42289864.52434616</v>
+        <v>42326256.5906501</v>
       </c>
       <c r="P81" s="76" t="n">
-        <v>41750045.33512674</v>
+        <v>41782936.56978904</v>
       </c>
       <c r="Q81" s="76" t="n">
-        <v>39029588.18199851</v>
+        <v>39084340.76854884</v>
       </c>
       <c r="R81" s="76" t="n">
-        <v>43449681.44967347</v>
+        <v>43489864.65675036</v>
       </c>
       <c r="S81" s="76" t="n">
-        <v>42757243.26488966</v>
+        <v>42792784.50627414</v>
       </c>
       <c r="T81" s="76" t="n">
-        <v>38105807.80427063</v>
+        <v>38138658.24524844</v>
       </c>
       <c r="U81" s="76" t="n">
-        <v>46132659.14179937</v>
+        <v>46171957.10828786</v>
       </c>
       <c r="V81" s="76" t="n">
-        <v>42065982.28556993</v>
+        <v>42099410.27678632</v>
       </c>
       <c r="W81" s="76" t="n">
-        <v>36635711.08921102</v>
+        <v>36664812.92946478</v>
       </c>
     </row>
     <row r="82">
@@ -14968,67 +14974,67 @@
         </is>
       </c>
       <c r="C82" s="76" t="n">
-        <v>896481.1496060769</v>
+        <v>896705.6206919057</v>
       </c>
       <c r="D82" s="76" t="n">
-        <v>1118177.153914961</v>
+        <v>1118498.874342837</v>
       </c>
       <c r="E82" s="76" t="n">
-        <v>982854.3727185694</v>
+        <v>983307.8059341279</v>
       </c>
       <c r="F82" s="76" t="n">
-        <v>1054628.92581836</v>
+        <v>1054999.901152052</v>
       </c>
       <c r="G82" s="76" t="n">
-        <v>1202848.409891899</v>
+        <v>1203289.36575154</v>
       </c>
       <c r="H82" s="76" t="n">
-        <v>934705.5147454038</v>
+        <v>934991.9768861567</v>
       </c>
       <c r="I82" s="76" t="n">
-        <v>1096042.216071612</v>
+        <v>1096328.28916326</v>
       </c>
       <c r="J82" s="76" t="n">
-        <v>1047242.714147697</v>
+        <v>1047507.448965413</v>
       </c>
       <c r="K82" s="76" t="n">
-        <v>883992.7016460942</v>
+        <v>884198.1061572244</v>
       </c>
       <c r="L82" s="76" t="n">
-        <v>1139608.469174473</v>
+        <v>1139905.559314487</v>
       </c>
       <c r="M82" s="76" t="n">
-        <v>977703.4349817683</v>
+        <v>977959.5265203865</v>
       </c>
       <c r="N82" s="76" t="n">
-        <v>1033094.373868296</v>
+        <v>1033368.405821529</v>
       </c>
       <c r="O82" s="76" t="n">
-        <v>998204.796836681</v>
+        <v>998470.8829100798</v>
       </c>
       <c r="P82" s="76" t="n">
-        <v>1129560.052816588</v>
+        <v>1129877.296979229</v>
       </c>
       <c r="Q82" s="76" t="n">
-        <v>1019701.454517171</v>
+        <v>1020396.009795469</v>
       </c>
       <c r="R82" s="76" t="n">
-        <v>1110698.229517919</v>
+        <v>1111065.782204196</v>
       </c>
       <c r="S82" s="76" t="n">
-        <v>1124695.319039249</v>
+        <v>1125075.967438966</v>
       </c>
       <c r="T82" s="76" t="n">
-        <v>950229.9546733012</v>
+        <v>950523.0133438989</v>
       </c>
       <c r="U82" s="76" t="n">
-        <v>1151322.266212507</v>
+        <v>1151647.408401784</v>
       </c>
       <c r="V82" s="76" t="n">
-        <v>1061047.018363371</v>
+        <v>1061344.286143427</v>
       </c>
       <c r="W82" s="76" t="n">
-        <v>945652.4158721711</v>
+        <v>945909.0054921764</v>
       </c>
     </row>
     <row r="83">
@@ -15043,67 +15049,67 @@
         </is>
       </c>
       <c r="C83" s="76" t="n">
-        <v>6636499.879107306</v>
+        <v>6644319.313447788</v>
       </c>
       <c r="D83" s="76" t="n">
-        <v>5451322.573552054</v>
+        <v>5447536.662627731</v>
       </c>
       <c r="E83" s="76" t="n">
-        <v>5614844.455488541</v>
+        <v>5635662.3972382</v>
       </c>
       <c r="F83" s="76" t="n">
-        <v>5107461.312735402</v>
+        <v>5107640.828011927</v>
       </c>
       <c r="G83" s="76" t="n">
-        <v>5825114.886052841</v>
+        <v>5821582.060040673</v>
       </c>
       <c r="H83" s="76" t="n">
-        <v>4819401.151803369</v>
+        <v>4822643.096846215</v>
       </c>
       <c r="I83" s="76" t="n">
-        <v>5661313.102824552</v>
+        <v>5663803.738589461</v>
       </c>
       <c r="J83" s="76" t="n">
-        <v>5507228.885849601</v>
+        <v>5514749.79402749</v>
       </c>
       <c r="K83" s="76" t="n">
-        <v>4284961.361303329</v>
+        <v>4287433.400908547</v>
       </c>
       <c r="L83" s="76" t="n">
-        <v>6492485.174450701</v>
+        <v>6491152.765749354</v>
       </c>
       <c r="M83" s="76" t="n">
-        <v>5435556.97687307</v>
+        <v>5438046.521382687</v>
       </c>
       <c r="N83" s="76" t="n">
-        <v>13752515.01893131</v>
+        <v>13757959.67354543</v>
       </c>
       <c r="O83" s="76" t="n">
-        <v>7510069.65554526</v>
+        <v>7516053.861169655</v>
       </c>
       <c r="P83" s="76" t="n">
-        <v>5652373.338330369</v>
+        <v>5652181.950887085</v>
       </c>
       <c r="Q83" s="76" t="n">
-        <v>5371337.493614872</v>
+        <v>5388979.749664559</v>
       </c>
       <c r="R83" s="76" t="n">
-        <v>5870766.093430583</v>
+        <v>5872784.094375322</v>
       </c>
       <c r="S83" s="76" t="n">
-        <v>5644615.873067503</v>
+        <v>5644768.349426408</v>
       </c>
       <c r="T83" s="76" t="n">
-        <v>4941586.202089505</v>
+        <v>4944634.837668115</v>
       </c>
       <c r="U83" s="76" t="n">
-        <v>5947303.153215205</v>
+        <v>5950363.791059074</v>
       </c>
       <c r="V83" s="76" t="n">
-        <v>5588961.203975592</v>
+        <v>5594091.644934831</v>
       </c>
       <c r="W83" s="76" t="n">
-        <v>4610916.044915019</v>
+        <v>4613486.017558566</v>
       </c>
     </row>
     <row r="84">
@@ -15118,67 +15124,67 @@
         </is>
       </c>
       <c r="C84" s="76" t="n">
-        <v>11053560.05271749</v>
+        <v>11060839.53965515</v>
       </c>
       <c r="D84" s="76" t="n">
-        <v>11175162.12940897</v>
+        <v>11183095.10335988</v>
       </c>
       <c r="E84" s="76" t="n">
-        <v>9685041.518437134</v>
+        <v>9689882.409318393</v>
       </c>
       <c r="F84" s="76" t="n">
-        <v>9560612.737054292</v>
+        <v>9568098.456539271</v>
       </c>
       <c r="G84" s="76" t="n">
-        <v>10031542.51235491</v>
+        <v>10038866.18730501</v>
       </c>
       <c r="H84" s="76" t="n">
-        <v>8784068.838235399</v>
+        <v>8789941.630597997</v>
       </c>
       <c r="I84" s="76" t="n">
-        <v>11990486.3634381</v>
+        <v>11997637.72311696</v>
       </c>
       <c r="J84" s="76" t="n">
-        <v>9985101.135404063</v>
+        <v>9990565.125854049</v>
       </c>
       <c r="K84" s="76" t="n">
-        <v>9566238.757261466</v>
+        <v>9571367.897582598</v>
       </c>
       <c r="L84" s="76" t="n">
-        <v>13460436.72439575</v>
+        <v>13467982.15736562</v>
       </c>
       <c r="M84" s="76" t="n">
-        <v>10479169.43370111</v>
+        <v>10485315.10045895</v>
       </c>
       <c r="N84" s="76" t="n">
-        <v>15204962.92086654</v>
+        <v>15214081.20323527</v>
       </c>
       <c r="O84" s="76" t="n">
-        <v>12228163.15831077</v>
+        <v>12236769.5843458</v>
       </c>
       <c r="P84" s="76" t="n">
-        <v>11081471.23017909</v>
+        <v>11089637.59528223</v>
       </c>
       <c r="Q84" s="76" t="n">
-        <v>9857792.183711786</v>
+        <v>9868647.601624707</v>
       </c>
       <c r="R84" s="76" t="n">
-        <v>10727351.49767033</v>
+        <v>10735763.09509343</v>
       </c>
       <c r="S84" s="76" t="n">
-        <v>10117513.14400753</v>
+        <v>10125266.56980519</v>
       </c>
       <c r="T84" s="76" t="n">
-        <v>9313264.577521699</v>
+        <v>9320131.95822316</v>
       </c>
       <c r="U84" s="76" t="n">
-        <v>11962812.46990587</v>
+        <v>11971315.90946801</v>
       </c>
       <c r="V84" s="76" t="n">
-        <v>10037530.10879928</v>
+        <v>10044417.59566368</v>
       </c>
       <c r="W84" s="76" t="n">
-        <v>9629086.090234628</v>
+        <v>9635683.406241976</v>
       </c>
     </row>
     <row r="85">
@@ -15193,67 +15199,67 @@
         </is>
       </c>
       <c r="C85" s="76" t="n">
-        <v>12328583.90839566</v>
+        <v>12337345.79018471</v>
       </c>
       <c r="D85" s="76" t="n">
-        <v>16862086.53225341</v>
+        <v>16874020.20690795</v>
       </c>
       <c r="E85" s="76" t="n">
-        <v>10848862.34332695</v>
+        <v>10840778.27151562</v>
       </c>
       <c r="F85" s="76" t="n">
-        <v>14890802.62136618</v>
+        <v>14902672.23295404</v>
       </c>
       <c r="G85" s="76" t="n">
-        <v>15080295.09401524</v>
+        <v>15091315.99285696</v>
       </c>
       <c r="H85" s="76" t="n">
-        <v>10909631.17164324</v>
+        <v>10916920.60720058</v>
       </c>
       <c r="I85" s="76" t="n">
-        <v>17066223.61996449</v>
+        <v>17075222.18842684</v>
       </c>
       <c r="J85" s="76" t="n">
-        <v>12245471.70402378</v>
+        <v>12250762.79486012</v>
       </c>
       <c r="K85" s="76" t="n">
-        <v>11592121.16819861</v>
+        <v>11596588.45484774</v>
       </c>
       <c r="L85" s="76" t="n">
-        <v>18803186.5078446</v>
+        <v>18811771.13952185</v>
       </c>
       <c r="M85" s="76" t="n">
-        <v>13919362.17799123</v>
+        <v>13926418.01738319</v>
       </c>
       <c r="N85" s="76" t="n">
-        <v>11757231.32954412</v>
+        <v>11763579.98970535</v>
       </c>
       <c r="O85" s="76" t="n">
-        <v>15016137.70748477</v>
+        <v>15025902.37319114</v>
       </c>
       <c r="P85" s="76" t="n">
-        <v>16048589.99349844</v>
+        <v>16059469.01614703</v>
       </c>
       <c r="Q85" s="76" t="n">
-        <v>11594728.44584429</v>
+        <v>11596662.26475109</v>
       </c>
       <c r="R85" s="76" t="n">
-        <v>16471073.04326299</v>
+        <v>16483088.00476166</v>
       </c>
       <c r="S85" s="76" t="n">
-        <v>14610156.67741333</v>
+        <v>14620513.79342205</v>
       </c>
       <c r="T85" s="76" t="n">
-        <v>11767348.35499306</v>
+        <v>11775201.86235691</v>
       </c>
       <c r="U85" s="76" t="n">
-        <v>17457388.88254323</v>
+        <v>17468038.30655058</v>
       </c>
       <c r="V85" s="76" t="n">
-        <v>13314714.20616742</v>
+        <v>13322253.38106126</v>
       </c>
       <c r="W85" s="76" t="n">
-        <v>12296858.78137175</v>
+        <v>12303595.48637139</v>
       </c>
     </row>
     <row r="86">
@@ -15268,67 +15274,67 @@
         </is>
       </c>
       <c r="C86" s="76" t="n">
-        <v>18941477.52324348</v>
+        <v>18943673.31147777</v>
       </c>
       <c r="D86" s="76" t="n">
-        <v>23994370.39310211</v>
+        <v>23991796.20783699</v>
       </c>
       <c r="E86" s="76" t="n">
-        <v>17536869.63979049</v>
+        <v>17530869.82528041</v>
       </c>
       <c r="F86" s="76" t="n">
-        <v>20954694.10416302</v>
+        <v>20959290.49665779</v>
       </c>
       <c r="G86" s="76" t="n">
-        <v>22071420.56113055</v>
+        <v>22077314.5232113</v>
       </c>
       <c r="H86" s="76" t="n">
-        <v>18261938.82546772</v>
+        <v>18270859.38704358</v>
       </c>
       <c r="I86" s="76" t="n">
-        <v>25699261.65292391</v>
+        <v>25725093.19277571</v>
       </c>
       <c r="J86" s="76" t="n">
-        <v>19327250.16601186</v>
+        <v>19349075.4230041</v>
       </c>
       <c r="K86" s="76" t="n">
-        <v>19572838.67018617</v>
+        <v>19594600.55026341</v>
       </c>
       <c r="L86" s="76" t="n">
-        <v>40951970.39271111</v>
+        <v>40987358.94864192</v>
       </c>
       <c r="M86" s="76" t="n">
-        <v>21353202.8516411</v>
+        <v>21375941.41382926</v>
       </c>
       <c r="N86" s="76" t="n">
-        <v>20922666.17837907</v>
+        <v>20942981.89789537</v>
       </c>
       <c r="O86" s="76" t="n">
-        <v>22615318.8317083</v>
+        <v>22632193.17372166</v>
       </c>
       <c r="P86" s="76" t="n">
-        <v>23615969.08943836</v>
+        <v>23630640.89864373</v>
       </c>
       <c r="Q86" s="76" t="n">
-        <v>18427656.44293481</v>
+        <v>18396479.72107818</v>
       </c>
       <c r="R86" s="76" t="n">
-        <v>23637578.80676516</v>
+        <v>23656886.1433034</v>
       </c>
       <c r="S86" s="76" t="n">
-        <v>21579080.40052789</v>
+        <v>21597299.70093408</v>
       </c>
       <c r="T86" s="76" t="n">
-        <v>19374429.62741671</v>
+        <v>19392601.78906329</v>
       </c>
       <c r="U86" s="76" t="n">
-        <v>26544720.69321478</v>
+        <v>26575018.2756977</v>
       </c>
       <c r="V86" s="76" t="n">
-        <v>20914674.4942719</v>
+        <v>20939741.41392379</v>
       </c>
       <c r="W86" s="76" t="n">
-        <v>21144985.46259966</v>
+        <v>21170916.58704134</v>
       </c>
     </row>
     <row r="87">
@@ -15343,67 +15349,67 @@
         </is>
       </c>
       <c r="C87" s="76" t="n">
-        <v>1412765.068894108</v>
+        <v>1413525.719971578</v>
       </c>
       <c r="D87" s="76" t="n">
-        <v>1106179.286247751</v>
+        <v>1106833.27655441</v>
       </c>
       <c r="E87" s="76" t="n">
-        <v>1019142.016940183</v>
+        <v>1019702.330702445</v>
       </c>
       <c r="F87" s="76" t="n">
-        <v>1148046.342421445</v>
+        <v>1148867.510335187</v>
       </c>
       <c r="G87" s="76" t="n">
-        <v>1182955.17690318</v>
+        <v>1183743.712554525</v>
       </c>
       <c r="H87" s="76" t="n">
-        <v>1187360.676503567</v>
+        <v>1188134.459315468</v>
       </c>
       <c r="I87" s="76" t="n">
-        <v>1290025.292040576</v>
+        <v>1290749.061089781</v>
       </c>
       <c r="J87" s="76" t="n">
-        <v>1042963.860308479</v>
+        <v>1043541.788088245</v>
       </c>
       <c r="K87" s="76" t="n">
-        <v>1096090.888526205</v>
+        <v>1096641.969270416</v>
       </c>
       <c r="L87" s="76" t="n">
-        <v>1235381.708134781</v>
+        <v>1235963.27544869</v>
       </c>
       <c r="M87" s="76" t="n">
-        <v>1753049.131205773</v>
+        <v>1754036.94721559</v>
       </c>
       <c r="N87" s="76" t="n">
-        <v>2382881.143637137</v>
+        <v>2384207.812005024</v>
       </c>
       <c r="O87" s="76" t="n">
-        <v>1540116.253832577</v>
+        <v>1541028.990563578</v>
       </c>
       <c r="P87" s="76" t="n">
-        <v>1160610.072132987</v>
+        <v>1161327.52938882</v>
       </c>
       <c r="Q87" s="76" t="n">
-        <v>1039715.511846765</v>
+        <v>1040739.367058647</v>
       </c>
       <c r="R87" s="76" t="n">
-        <v>1199198.567507035</v>
+        <v>1200055.708019108</v>
       </c>
       <c r="S87" s="76" t="n">
-        <v>1206489.89934163</v>
+        <v>1207323.84843708</v>
       </c>
       <c r="T87" s="76" t="n">
-        <v>1206745.369145608</v>
+        <v>1207566.915742705</v>
       </c>
       <c r="U87" s="76" t="n">
-        <v>1253547.280639907</v>
+        <v>1254341.312561623</v>
       </c>
       <c r="V87" s="76" t="n">
-        <v>1106978.943670377</v>
+        <v>1107680.094434262</v>
       </c>
       <c r="W87" s="76" t="n">
-        <v>1137774.617422124</v>
+        <v>1138472.820692671</v>
       </c>
     </row>
     <row r="88">
@@ -15418,67 +15424,67 @@
         </is>
       </c>
       <c r="C88" s="76" t="n">
-        <v>2343428.358912692</v>
+        <v>2344985.928136573</v>
       </c>
       <c r="D88" s="76" t="n">
-        <v>2810737.098496569</v>
+        <v>2812658.355245126</v>
       </c>
       <c r="E88" s="76" t="n">
-        <v>2115003.954979878</v>
+        <v>2114919.881644122</v>
       </c>
       <c r="F88" s="76" t="n">
-        <v>2276505.491478196</v>
+        <v>2278255.450909512</v>
       </c>
       <c r="G88" s="76" t="n">
-        <v>2509720.404102411</v>
+        <v>2511539.869443289</v>
       </c>
       <c r="H88" s="76" t="n">
-        <v>2016792.717428257</v>
+        <v>2018111.349185145</v>
       </c>
       <c r="I88" s="76" t="n">
-        <v>2924636.047344357</v>
+        <v>2926746.083967862</v>
       </c>
       <c r="J88" s="76" t="n">
-        <v>2087708.613221647</v>
+        <v>2089090.108302882</v>
       </c>
       <c r="K88" s="76" t="n">
-        <v>2011067.669870127</v>
+        <v>2012589.393638585</v>
       </c>
       <c r="L88" s="76" t="n">
-        <v>3376443.175036202</v>
+        <v>3379339.795979531</v>
       </c>
       <c r="M88" s="76" t="n">
-        <v>2374958.914008684</v>
+        <v>2376563.950148777</v>
       </c>
       <c r="N88" s="76" t="n">
-        <v>2531983.758859314</v>
+        <v>2533752.336831884</v>
       </c>
       <c r="O88" s="76" t="n">
-        <v>2841764.111885943</v>
+        <v>2844067.256078301</v>
       </c>
       <c r="P88" s="76" t="n">
-        <v>2701736.815345726</v>
+        <v>2704000.397877365</v>
       </c>
       <c r="Q88" s="76" t="n">
-        <v>2148195.083754298</v>
+        <v>2148633.298757839</v>
       </c>
       <c r="R88" s="76" t="n">
-        <v>2629528.893433931</v>
+        <v>2631863.241255763</v>
       </c>
       <c r="S88" s="76" t="n">
-        <v>2397971.827520032</v>
+        <v>2400076.80345045</v>
       </c>
       <c r="T88" s="76" t="n">
-        <v>2134901.488714322</v>
+        <v>2136706.246419076</v>
       </c>
       <c r="U88" s="76" t="n">
-        <v>3017643.728881733</v>
+        <v>3020299.897653817</v>
       </c>
       <c r="V88" s="76" t="n">
-        <v>2277954.843109028</v>
+        <v>2279875.815551904</v>
       </c>
       <c r="W88" s="76" t="n">
-        <v>2199850.747007206</v>
+        <v>2201813.417826387</v>
       </c>
     </row>
     <row r="89">
@@ -15493,67 +15499,67 @@
         </is>
       </c>
       <c r="C89" s="76" t="n">
-        <v>2803701.652195559</v>
+        <v>2799160.703585235</v>
       </c>
       <c r="D89" s="76" t="n">
-        <v>3134357.552825188</v>
+        <v>3128094.426411789</v>
       </c>
       <c r="E89" s="76" t="n">
-        <v>2145131.242104105</v>
+        <v>2135282.700357505</v>
       </c>
       <c r="F89" s="76" t="n">
-        <v>2772822.251406967</v>
+        <v>2766210.235683475</v>
       </c>
       <c r="G89" s="76" t="n">
-        <v>3096042.453034076</v>
+        <v>3087190.935471267</v>
       </c>
       <c r="H89" s="76" t="n">
-        <v>2524100.568159642</v>
+        <v>2518472.812507676</v>
       </c>
       <c r="I89" s="76" t="n">
-        <v>3322141.837433293</v>
+        <v>3312499.024703631</v>
       </c>
       <c r="J89" s="76" t="n">
-        <v>2134083.559336946</v>
+        <v>2129028.350137426</v>
       </c>
       <c r="K89" s="76" t="n">
-        <v>2037099.152847748</v>
+        <v>2030098.547940919</v>
       </c>
       <c r="L89" s="76" t="n">
-        <v>4147793.68601552</v>
+        <v>4123399.53579493</v>
       </c>
       <c r="M89" s="76" t="n">
-        <v>3308813.211213838</v>
+        <v>3297441.803571483</v>
       </c>
       <c r="N89" s="76" t="n">
-        <v>3193611.327529253</v>
+        <v>3183414.155212695</v>
       </c>
       <c r="O89" s="76" t="n">
-        <v>3480805.511969387</v>
+        <v>3468143.946150849</v>
       </c>
       <c r="P89" s="76" t="n">
-        <v>3016254.490467384</v>
+        <v>3005201.50625032</v>
       </c>
       <c r="Q89" s="76" t="n">
-        <v>2312331.467555088</v>
+        <v>2301859.858807776</v>
       </c>
       <c r="R89" s="76" t="n">
-        <v>3114138.850879857</v>
+        <v>3101446.874383411</v>
       </c>
       <c r="S89" s="76" t="n">
-        <v>2969986.651664107</v>
+        <v>2956637.115992031</v>
       </c>
       <c r="T89" s="76" t="n">
-        <v>2614665.671184648</v>
+        <v>2603654.210191249</v>
       </c>
       <c r="U89" s="76" t="n">
-        <v>3411715.14744167</v>
+        <v>3395718.474164779</v>
       </c>
       <c r="V89" s="76" t="n">
-        <v>2433094.245060779</v>
+        <v>2422466.017615887</v>
       </c>
       <c r="W89" s="76" t="n">
-        <v>2321862.622147663</v>
+        <v>2310580.790462286</v>
       </c>
     </row>
     <row r="90">
@@ -15568,67 +15574,67 @@
         </is>
       </c>
       <c r="C90" s="76" t="n">
-        <v>4560660.631883973</v>
+        <v>4565336.627453801</v>
       </c>
       <c r="D90" s="76" t="n">
-        <v>6136957.45802173</v>
+        <v>6140992.279570894</v>
       </c>
       <c r="E90" s="76" t="n">
-        <v>4418916.131976563</v>
+        <v>4421235.421858291</v>
       </c>
       <c r="F90" s="76" t="n">
-        <v>5334215.985517351</v>
+        <v>5339747.657994244</v>
       </c>
       <c r="G90" s="76" t="n">
-        <v>5790486.568478586</v>
+        <v>5794312.779442504</v>
       </c>
       <c r="H90" s="76" t="n">
-        <v>4124174.809384162</v>
+        <v>4127157.956291947</v>
       </c>
       <c r="I90" s="76" t="n">
-        <v>6417065.958050378</v>
+        <v>6421789.016348147</v>
       </c>
       <c r="J90" s="76" t="n">
-        <v>4808878.836295697</v>
+        <v>4812632.863588517</v>
       </c>
       <c r="K90" s="76" t="n">
-        <v>4901907.907859756</v>
+        <v>4905278.431263348</v>
       </c>
       <c r="L90" s="76" t="n">
-        <v>6490415.837332278</v>
+        <v>6495712.906423664</v>
       </c>
       <c r="M90" s="76" t="n">
-        <v>5476503.412543616</v>
+        <v>5480294.644024149</v>
       </c>
       <c r="N90" s="76" t="n">
-        <v>4523464.858624587</v>
+        <v>4526784.570026852</v>
       </c>
       <c r="O90" s="76" t="n">
-        <v>5440223.722289372</v>
+        <v>5445645.138554686</v>
       </c>
       <c r="P90" s="76" t="n">
-        <v>6002331.277111592</v>
+        <v>6007421.270101958</v>
       </c>
       <c r="Q90" s="76" t="n">
-        <v>4597853.36023788</v>
+        <v>4603040.496769859</v>
       </c>
       <c r="R90" s="76" t="n">
-        <v>6120195.651187421</v>
+        <v>6126454.349458753</v>
       </c>
       <c r="S90" s="76" t="n">
-        <v>5453375.153007196</v>
+        <v>5458158.677975526</v>
       </c>
       <c r="T90" s="76" t="n">
-        <v>4380207.600881137</v>
+        <v>4384165.956682355</v>
       </c>
       <c r="U90" s="76" t="n">
-        <v>6592732.826788221</v>
+        <v>6598784.388102422</v>
       </c>
       <c r="V90" s="76" t="n">
-        <v>5351177.937652911</v>
+        <v>5356167.926560177</v>
       </c>
       <c r="W90" s="76" t="n">
-        <v>5051578.475604446</v>
+        <v>5056131.78839051</v>
       </c>
     </row>
     <row r="91">
@@ -15643,67 +15649,67 @@
         </is>
       </c>
       <c r="C91" s="76" t="n">
-        <v>8717409.12199419</v>
+        <v>8720981.278902391</v>
       </c>
       <c r="D91" s="76" t="n">
-        <v>10002490.66498018</v>
+        <v>10018522.35372444</v>
       </c>
       <c r="E91" s="76" t="n">
-        <v>7616746.858657936</v>
+        <v>7632857.257772747</v>
       </c>
       <c r="F91" s="76" t="n">
-        <v>8818776.665058987</v>
+        <v>8825671.39217612</v>
       </c>
       <c r="G91" s="76" t="n">
-        <v>9014407.277340613</v>
+        <v>9030360.565440113</v>
       </c>
       <c r="H91" s="76" t="n">
-        <v>7501899.115570955</v>
+        <v>7512243.899588241</v>
       </c>
       <c r="I91" s="76" t="n">
-        <v>10006178.29366439</v>
+        <v>10016028.25243666</v>
       </c>
       <c r="J91" s="76" t="n">
-        <v>7926719.82486671</v>
+        <v>7934803.955740063</v>
       </c>
       <c r="K91" s="76" t="n">
-        <v>7220511.317046267</v>
+        <v>7224756.533406601</v>
       </c>
       <c r="L91" s="76" t="n">
-        <v>11757107.19985406</v>
+        <v>11764598.94873</v>
       </c>
       <c r="M91" s="76" t="n">
-        <v>8409602.142524539</v>
+        <v>8419771.534336472</v>
       </c>
       <c r="N91" s="76" t="n">
-        <v>7959838.687608685</v>
+        <v>7969498.529585986</v>
       </c>
       <c r="O91" s="76" t="n">
-        <v>10073701.42239806</v>
+        <v>10082510.04028476</v>
       </c>
       <c r="P91" s="76" t="n">
-        <v>9834130.630778611</v>
+        <v>9848631.390958712</v>
       </c>
       <c r="Q91" s="76" t="n">
-        <v>7838273.994003435</v>
+        <v>7863475.697834083</v>
       </c>
       <c r="R91" s="76" t="n">
-        <v>9622491.637398697</v>
+        <v>9633084.98298713</v>
       </c>
       <c r="S91" s="76" t="n">
-        <v>8751275.037195371</v>
+        <v>8765497.059618359</v>
       </c>
       <c r="T91" s="76" t="n">
-        <v>7858859.780129351</v>
+        <v>7869885.947928756</v>
       </c>
       <c r="U91" s="76" t="n">
-        <v>10286252.6078147</v>
+        <v>10298549.50582175</v>
       </c>
       <c r="V91" s="76" t="n">
-        <v>8377072.188933007</v>
+        <v>8387360.946020758</v>
       </c>
       <c r="W91" s="76" t="n">
-        <v>7707387.986264803</v>
+        <v>7715699.234770834</v>
       </c>
     </row>
     <row r="92">
@@ -15718,67 +15724,67 @@
         </is>
       </c>
       <c r="C92" s="76" t="n">
-        <v>6374418.531327729</v>
+        <v>6377982.227021183</v>
       </c>
       <c r="D92" s="76" t="n">
-        <v>3005312.740115643</v>
+        <v>3007461.04124931</v>
       </c>
       <c r="E92" s="76" t="n">
-        <v>6369355.485150789</v>
+        <v>6371814.018353717</v>
       </c>
       <c r="F92" s="76" t="n">
-        <v>3166033.149736552</v>
+        <v>3168452.378993057</v>
       </c>
       <c r="G92" s="76" t="n">
-        <v>3949196.456562778</v>
+        <v>3951862.667897318</v>
       </c>
       <c r="H92" s="76" t="n">
-        <v>4212416.908593304</v>
+        <v>4215108.594254986</v>
       </c>
       <c r="I92" s="76" t="n">
-        <v>3624220.287094144</v>
+        <v>3626256.763145886</v>
       </c>
       <c r="J92" s="76" t="n">
-        <v>3183805.580260214</v>
+        <v>3185484.855487149</v>
       </c>
       <c r="K92" s="76" t="n">
-        <v>4444008.475516216</v>
+        <v>4446286.861910095</v>
       </c>
       <c r="L92" s="76" t="n">
-        <v>7161689.907842033</v>
+        <v>7165492.219913424</v>
       </c>
       <c r="M92" s="76" t="n">
-        <v>6171798.694303248</v>
+        <v>6175225.04423824</v>
       </c>
       <c r="N92" s="76" t="n">
-        <v>7041163.932838616</v>
+        <v>7045122.257507008</v>
       </c>
       <c r="O92" s="76" t="n">
-        <v>6870524.872257778</v>
+        <v>6874890.166977934</v>
       </c>
       <c r="P92" s="76" t="n">
-        <v>3962260.074656191</v>
+        <v>3964950.429307338</v>
       </c>
       <c r="Q92" s="76" t="n">
-        <v>5171446.82348336</v>
+        <v>5175617.347136538</v>
       </c>
       <c r="R92" s="76" t="n">
-        <v>3771079.3552552</v>
+        <v>3773894.433968545</v>
       </c>
       <c r="S92" s="76" t="n">
-        <v>4079830.153544862</v>
+        <v>4082764.306413241</v>
       </c>
       <c r="T92" s="76" t="n">
-        <v>4252941.115587027</v>
+        <v>4255932.226935541</v>
       </c>
       <c r="U92" s="76" t="n">
-        <v>3686520.241958739</v>
+        <v>3688991.165751343</v>
       </c>
       <c r="V92" s="76" t="n">
-        <v>3563831.272924542</v>
+        <v>3566176.125594683</v>
       </c>
       <c r="W92" s="76" t="n">
-        <v>4643272.442145547</v>
+        <v>4646296.180129224</v>
       </c>
     </row>
     <row r="93">
@@ -15793,67 +15799,67 @@
         </is>
       </c>
       <c r="C93" s="76" t="n">
-        <v>1469639.060616946</v>
+        <v>1470324.754063666</v>
       </c>
       <c r="D93" s="76" t="n">
-        <v>1644055.830116174</v>
+        <v>1644882.386671495</v>
       </c>
       <c r="E93" s="76" t="n">
-        <v>2292400.688697629</v>
+        <v>2293150.775431709</v>
       </c>
       <c r="F93" s="76" t="n">
-        <v>2110509.702607119</v>
+        <v>2111716.859364736</v>
       </c>
       <c r="G93" s="76" t="n">
-        <v>1996566.800331148</v>
+        <v>1997695.031121612</v>
       </c>
       <c r="H93" s="76" t="n">
-        <v>2651224.064316444</v>
+        <v>2652587.04805253</v>
       </c>
       <c r="I93" s="76" t="n">
-        <v>2663877.967663988</v>
+        <v>2665168.528795397</v>
       </c>
       <c r="J93" s="76" t="n">
-        <v>2333003.896442171</v>
+        <v>2334089.334430024</v>
       </c>
       <c r="K93" s="76" t="n">
-        <v>1847941.240029441</v>
+        <v>1848748.931674388</v>
       </c>
       <c r="L93" s="76" t="n">
-        <v>3190473.736648148</v>
+        <v>3191949.51812699</v>
       </c>
       <c r="M93" s="76" t="n">
-        <v>1882205.662148814</v>
+        <v>1883124.493439498</v>
       </c>
       <c r="N93" s="76" t="n">
-        <v>2014940.220212156</v>
+        <v>2015932.585522175</v>
       </c>
       <c r="O93" s="76" t="n">
-        <v>2020685.154871278</v>
+        <v>2021738.255619675</v>
       </c>
       <c r="P93" s="76" t="n">
-        <v>1819198.718300064</v>
+        <v>1820187.359446891</v>
       </c>
       <c r="Q93" s="76" t="n">
-        <v>2030928.726080368</v>
+        <v>2032240.110817411</v>
       </c>
       <c r="R93" s="76" t="n">
-        <v>2260643.658518422</v>
+        <v>2262012.960039217</v>
       </c>
       <c r="S93" s="76" t="n">
-        <v>1951472.922372903</v>
+        <v>1952654.585295696</v>
       </c>
       <c r="T93" s="76" t="n">
-        <v>2901740.641471488</v>
+        <v>2903420.87882188</v>
       </c>
       <c r="U93" s="76" t="n">
-        <v>2835140.488349714</v>
+        <v>2836746.156056318</v>
       </c>
       <c r="V93" s="76" t="n">
-        <v>2450539.249658266</v>
+        <v>2451908.560757042</v>
       </c>
       <c r="W93" s="76" t="n">
-        <v>2261437.897152378</v>
+        <v>2262680.714945797</v>
       </c>
     </row>
     <row r="94">
@@ -15868,67 +15874,67 @@
         </is>
       </c>
       <c r="C94" s="76" t="n">
-        <v>7886340.718620657</v>
+        <v>7886938.045053967</v>
       </c>
       <c r="D94" s="76" t="n">
-        <v>4412898.162975674</v>
+        <v>4413087.282345305</v>
       </c>
       <c r="E94" s="76" t="n">
-        <v>5566624.741026224</v>
+        <v>5567148.49004085</v>
       </c>
       <c r="F94" s="76" t="n">
-        <v>4318691.121352336</v>
+        <v>4319822.92098071</v>
       </c>
       <c r="G94" s="76" t="n">
-        <v>4696108.533817761</v>
+        <v>4697229.073170138</v>
       </c>
       <c r="H94" s="76" t="n">
-        <v>3931176.756925517</v>
+        <v>3932430.898781028</v>
       </c>
       <c r="I94" s="76" t="n">
-        <v>3941308.627758638</v>
+        <v>3942267.021223034</v>
       </c>
       <c r="J94" s="76" t="n">
-        <v>5642170.926546178</v>
+        <v>5643374.380356621</v>
       </c>
       <c r="K94" s="76" t="n">
-        <v>3002412.443221288</v>
+        <v>3002680.073915696</v>
       </c>
       <c r="L94" s="76" t="n">
-        <v>6210205.857500105</v>
+        <v>6209980.229264257</v>
       </c>
       <c r="M94" s="76" t="n">
-        <v>4647573.4287451</v>
+        <v>4648447.652763813</v>
       </c>
       <c r="N94" s="76" t="n">
-        <v>11499027.08139521</v>
+        <v>11501364.69874919</v>
       </c>
       <c r="O94" s="76" t="n">
-        <v>8925358.693493024</v>
+        <v>8925994.600851355</v>
       </c>
       <c r="P94" s="76" t="n">
-        <v>5352882.066799005</v>
+        <v>5353169.428365583</v>
       </c>
       <c r="Q94" s="76" t="n">
-        <v>5275873.799903923</v>
+        <v>5276755.613418228</v>
       </c>
       <c r="R94" s="76" t="n">
-        <v>4872748.940940173</v>
+        <v>4873600.402714232</v>
       </c>
       <c r="S94" s="76" t="n">
-        <v>4804737.115168499</v>
+        <v>4805512.519988684</v>
       </c>
       <c r="T94" s="76" t="n">
-        <v>4195646.371563585</v>
+        <v>4196478.06041804</v>
       </c>
       <c r="U94" s="76" t="n">
-        <v>4673687.810581591</v>
+        <v>4674428.744654</v>
       </c>
       <c r="V94" s="76" t="n">
-        <v>5595634.085624042</v>
+        <v>5596475.828814294</v>
       </c>
       <c r="W94" s="76" t="n">
-        <v>3632774.7508019</v>
+        <v>3633107.584023335</v>
       </c>
     </row>
     <row r="95">
@@ -15943,67 +15949,67 @@
         </is>
       </c>
       <c r="C95" s="76" t="n">
-        <v>5992356.317903263</v>
+        <v>5996499.219408022</v>
       </c>
       <c r="D95" s="76" t="n">
-        <v>6540652.779192829</v>
+        <v>6545603.027426682</v>
       </c>
       <c r="E95" s="76" t="n">
-        <v>6108429.628536491</v>
+        <v>6114644.985065903</v>
       </c>
       <c r="F95" s="76" t="n">
-        <v>6073258.66173141</v>
+        <v>6078180.617372191</v>
       </c>
       <c r="G95" s="76" t="n">
-        <v>6803781.28470685</v>
+        <v>6809500.32027745</v>
       </c>
       <c r="H95" s="76" t="n">
-        <v>5265685.218805061</v>
+        <v>5269664.125695233</v>
       </c>
       <c r="I95" s="76" t="n">
-        <v>6869051.552639216</v>
+        <v>6873796.719027394</v>
       </c>
       <c r="J95" s="76" t="n">
-        <v>6352167.796929715</v>
+        <v>6356464.380874865</v>
       </c>
       <c r="K95" s="76" t="n">
-        <v>5888493.522621294</v>
+        <v>5892110.607449609</v>
       </c>
       <c r="L95" s="76" t="n">
-        <v>7611929.611756731</v>
+        <v>7616987.092409753</v>
       </c>
       <c r="M95" s="76" t="n">
-        <v>6101554.188036308</v>
+        <v>6105865.929693665</v>
       </c>
       <c r="N95" s="76" t="n">
-        <v>6529954.242794249</v>
+        <v>6534627.325886505</v>
       </c>
       <c r="O95" s="76" t="n">
-        <v>6607840.186591679</v>
+        <v>6613178.840198353</v>
       </c>
       <c r="P95" s="76" t="n">
-        <v>6763157.18505762</v>
+        <v>6768880.216765976</v>
       </c>
       <c r="Q95" s="76" t="n">
-        <v>6107546.785388147</v>
+        <v>6117186.712637502</v>
       </c>
       <c r="R95" s="76" t="n">
-        <v>6770762.470911779</v>
+        <v>6776793.690707249</v>
       </c>
       <c r="S95" s="76" t="n">
-        <v>6590304.697221383</v>
+        <v>6596354.009546991</v>
       </c>
       <c r="T95" s="76" t="n">
-        <v>5794273.557728904</v>
+        <v>5799320.901899518</v>
       </c>
       <c r="U95" s="76" t="n">
-        <v>7105693.515878942</v>
+        <v>7111710.79329961</v>
       </c>
       <c r="V95" s="76" t="n">
-        <v>6399185.077453195</v>
+        <v>6404564.733769638</v>
       </c>
       <c r="W95" s="76" t="n">
-        <v>6361104.123928159</v>
+        <v>6366286.260383663</v>
       </c>
     </row>
     <row r="96">
@@ -16018,67 +16024,67 @@
         </is>
       </c>
       <c r="C96" s="76" t="n">
-        <v>438414.3065416294</v>
+        <v>425638.7728810157</v>
       </c>
       <c r="D96" s="76" t="n">
-        <v>499112.527005075</v>
+        <v>485222.4398090364</v>
       </c>
       <c r="E96" s="76" t="n">
-        <v>142469.8302073253</v>
+        <v>124893.6846973034</v>
       </c>
       <c r="F96" s="76" t="n">
-        <v>262922.6607918222</v>
+        <v>254594.3196865587</v>
       </c>
       <c r="G96" s="76" t="n">
-        <v>321065.1586591714</v>
+        <v>312346.9368297639</v>
       </c>
       <c r="H96" s="76" t="n">
-        <v>131290.717694403</v>
+        <v>127533.2329501352</v>
       </c>
       <c r="I96" s="76" t="n">
-        <v>403914.7725005092</v>
+        <v>394568.6690280684</v>
       </c>
       <c r="J96" s="76" t="n">
-        <v>253544.6942553791</v>
+        <v>248596.8566843007</v>
       </c>
       <c r="K96" s="76" t="n">
-        <v>116519.2979608421</v>
+        <v>115437.1083201672</v>
       </c>
       <c r="L96" s="76" t="n">
-        <v>498718.3542277876</v>
+        <v>488962.7507331131</v>
       </c>
       <c r="M96" s="76" t="n">
-        <v>377973.2353142319</v>
+        <v>369693.5523281233</v>
       </c>
       <c r="N96" s="76" t="n">
-        <v>251880.077802748</v>
+        <v>245522.6874619393</v>
       </c>
       <c r="O96" s="76" t="n">
-        <v>469988.8993149873</v>
+        <v>455984.4978334749</v>
       </c>
       <c r="P96" s="76" t="n">
-        <v>406583.4937591352</v>
+        <v>393740.0642172031</v>
       </c>
       <c r="Q96" s="76" t="n">
-        <v>143428.1143593213</v>
+        <v>118088.9994276864</v>
       </c>
       <c r="R96" s="76" t="n">
-        <v>307091.4246203059</v>
+        <v>297345.3089379406</v>
       </c>
       <c r="S96" s="76" t="n">
-        <v>271338.7576120161</v>
+        <v>262832.1255821655</v>
       </c>
       <c r="T96" s="76" t="n">
-        <v>125523.8166815933</v>
+        <v>121484.9192528141</v>
       </c>
       <c r="U96" s="76" t="n">
-        <v>358837.8522060646</v>
+        <v>347967.7572200239</v>
       </c>
       <c r="V96" s="76" t="n">
-        <v>260902.5644591814</v>
+        <v>253621.6108639626</v>
       </c>
       <c r="W96" s="76" t="n">
-        <v>132665.7397157848</v>
+        <v>129215.192310215</v>
       </c>
     </row>
     <row r="97">
@@ -16093,67 +16099,67 @@
         </is>
       </c>
       <c r="C97" s="76" t="n">
-        <v>3362805.294594327</v>
+        <v>3357291.146744725</v>
       </c>
       <c r="D97" s="76" t="n">
-        <v>4859844.381184082</v>
+        <v>4852513.36057082</v>
       </c>
       <c r="E97" s="76" t="n">
-        <v>2986203.074719615</v>
+        <v>2995814.608155332</v>
       </c>
       <c r="F97" s="76" t="n">
-        <v>3847343.656532667</v>
+        <v>3842253.396168596</v>
       </c>
       <c r="G97" s="76" t="n">
-        <v>4069552.918801301</v>
+        <v>4065212.763806205</v>
       </c>
       <c r="H97" s="76" t="n">
-        <v>3055493.59505497</v>
+        <v>3052748.573166015</v>
       </c>
       <c r="I97" s="76" t="n">
-        <v>4681526.409321882</v>
+        <v>4678669.828500401</v>
       </c>
       <c r="J97" s="76" t="n">
-        <v>2998106.639928182</v>
+        <v>2997124.197320213</v>
       </c>
       <c r="K97" s="76" t="n">
-        <v>3322366.233994765</v>
+        <v>3321294.835284232</v>
       </c>
       <c r="L97" s="76" t="n">
-        <v>5907843.433394691</v>
+        <v>5904038.734965334</v>
       </c>
       <c r="M97" s="76" t="n">
-        <v>3636222.091528689</v>
+        <v>3634097.864169939</v>
       </c>
       <c r="N97" s="76" t="n">
-        <v>3315800.789174122</v>
+        <v>3313388.97967942</v>
       </c>
       <c r="O97" s="76" t="n">
-        <v>4189246.895392316</v>
+        <v>4183886.469287743</v>
       </c>
       <c r="P97" s="76" t="n">
-        <v>4377529.973947851</v>
+        <v>4371433.716024561</v>
       </c>
       <c r="Q97" s="76" t="n">
-        <v>3119696.902702201</v>
+        <v>3121570.964104487</v>
       </c>
       <c r="R97" s="76" t="n">
-        <v>4186217.989967652</v>
+        <v>4181212.617419738</v>
       </c>
       <c r="S97" s="76" t="n">
-        <v>3808687.831441451</v>
+        <v>3804329.763120991</v>
       </c>
       <c r="T97" s="76" t="n">
-        <v>3209276.429803842</v>
+        <v>3205903.414300337</v>
       </c>
       <c r="U97" s="76" t="n">
-        <v>4537543.991607834</v>
+        <v>4533184.676273586</v>
       </c>
       <c r="V97" s="76" t="n">
-        <v>3332212.58781848</v>
+        <v>3329467.554541507</v>
       </c>
       <c r="W97" s="76" t="n">
-        <v>3458414.942161916</v>
+        <v>3455444.958928496</v>
       </c>
     </row>
     <row r="98">
@@ -16168,67 +16174,67 @@
         </is>
       </c>
       <c r="C98" s="77" t="n">
-        <v>182598869.6993135</v>
+        <v>182600247.8174662</v>
       </c>
       <c r="D98" s="77" t="n">
-        <v>193684895.0930771</v>
+        <v>193678196.3796884</v>
       </c>
       <c r="E98" s="77" t="n">
-        <v>164432375.4479717</v>
+        <v>164452154.7668507</v>
       </c>
       <c r="F98" s="77" t="n">
-        <v>184592603.8208802</v>
+        <v>184568063.6691006</v>
       </c>
       <c r="G98" s="77" t="n">
-        <v>190981969.9035262</v>
+        <v>190982663.8097962</v>
       </c>
       <c r="H98" s="77" t="n">
-        <v>170159672.7698059</v>
+        <v>170131738.7973133</v>
       </c>
       <c r="I98" s="77" t="n">
-        <v>201443292.5384712</v>
+        <v>201473900.1490672</v>
       </c>
       <c r="J98" s="77" t="n">
-        <v>176002986.6308306</v>
+        <v>176023373.2499651</v>
       </c>
       <c r="K98" s="77" t="n">
-        <v>162180425.8161625</v>
+        <v>162184332.426604</v>
       </c>
       <c r="L98" s="77" t="n">
-        <v>249018114.5188327</v>
+        <v>248979494.5188469</v>
       </c>
       <c r="M98" s="77" t="n">
-        <v>179919689.38864</v>
+        <v>179934042.3887826</v>
       </c>
       <c r="N98" s="77" t="n">
-        <v>203536727.0910841</v>
+        <v>203526947.6900598</v>
       </c>
       <c r="O98" s="77" t="n">
-        <v>206810537.1010337</v>
+        <v>206813362.0864493</v>
       </c>
       <c r="P98" s="77" t="n">
-        <v>194620734.187803</v>
+        <v>194626263.5011865</v>
       </c>
       <c r="Q98" s="77" t="n">
-        <v>169660511.02661</v>
+        <v>169683082.5065064</v>
       </c>
       <c r="R98" s="77" t="n">
-        <v>202603502.4180893</v>
+        <v>202584756.0694839</v>
       </c>
       <c r="S98" s="77" t="n">
-        <v>187678719.1370819</v>
+        <v>187685276.6052504</v>
       </c>
       <c r="T98" s="77" t="n">
-        <v>177572540.9579433</v>
+        <v>177543024.3757744</v>
       </c>
       <c r="U98" s="77" t="n">
-        <v>210695239.9540744</v>
+        <v>210715323.1872502</v>
       </c>
       <c r="V98" s="77" t="n">
-        <v>183300730.4304865</v>
+        <v>183318468.8351191</v>
       </c>
       <c r="W98" s="77" t="n">
-        <v>172625582.3807489</v>
+        <v>172630963.0591884</v>
       </c>
     </row>
     <row r="99">
@@ -16243,67 +16249,67 @@
         </is>
       </c>
       <c r="C99" s="76" t="n">
-        <v>1104379.346416234</v>
+        <v>1105032.259232284</v>
       </c>
       <c r="D99" s="76" t="n">
-        <v>1298159.690299462</v>
+        <v>1298955.53024785</v>
       </c>
       <c r="E99" s="76" t="n">
-        <v>1184321.074600143</v>
+        <v>1184809.621353248</v>
       </c>
       <c r="F99" s="76" t="n">
-        <v>1268554.707130074</v>
+        <v>1269446.430126703</v>
       </c>
       <c r="G99" s="76" t="n">
-        <v>1522641.836170263</v>
+        <v>1523625.461573637</v>
       </c>
       <c r="H99" s="76" t="n">
-        <v>1147959.642587205</v>
+        <v>1148651.851071859</v>
       </c>
       <c r="I99" s="76" t="n">
-        <v>1831136.522754194</v>
+        <v>1832110.604884167</v>
       </c>
       <c r="J99" s="76" t="n">
-        <v>1333984.87985113</v>
+        <v>1334623.194817971</v>
       </c>
       <c r="K99" s="76" t="n">
-        <v>1246049.107613598</v>
+        <v>1246611.991618075</v>
       </c>
       <c r="L99" s="76" t="n">
-        <v>1903287.70088042</v>
+        <v>1904227.693838374</v>
       </c>
       <c r="M99" s="76" t="n">
-        <v>1519513.286988304</v>
+        <v>1520299.396788108</v>
       </c>
       <c r="N99" s="76" t="n">
-        <v>1553644.117341816</v>
+        <v>1554472.461532278</v>
       </c>
       <c r="O99" s="76" t="n">
-        <v>1656651.395624621</v>
+        <v>1657673.089937447</v>
       </c>
       <c r="P99" s="76" t="n">
-        <v>1707811.758190504</v>
+        <v>1708898.601703479</v>
       </c>
       <c r="Q99" s="76" t="n">
-        <v>1497053.948013727</v>
+        <v>1498453.566606262</v>
       </c>
       <c r="R99" s="76" t="n">
-        <v>1678364.920200009</v>
+        <v>1679530.328007148</v>
       </c>
       <c r="S99" s="76" t="n">
-        <v>1679469.877552568</v>
+        <v>1680608.01814821</v>
       </c>
       <c r="T99" s="76" t="n">
-        <v>1413310.149914169</v>
+        <v>1414227.990178045</v>
       </c>
       <c r="U99" s="76" t="n">
-        <v>2026450.138841473</v>
+        <v>2027710.55733631</v>
       </c>
       <c r="V99" s="76" t="n">
-        <v>1570620.29085308</v>
+        <v>1571555.259816155</v>
       </c>
       <c r="W99" s="76" t="n">
-        <v>1457737.490698458</v>
+        <v>1458593.088202269</v>
       </c>
     </row>
     <row r="100">
@@ -16318,67 +16324,67 @@
         </is>
       </c>
       <c r="C100" s="76" t="n">
-        <v>3927798.613530817</v>
+        <v>3929944.404743663</v>
       </c>
       <c r="D100" s="76" t="n">
-        <v>3312693.466941991</v>
+        <v>3314835.898549578</v>
       </c>
       <c r="E100" s="76" t="n">
-        <v>2994538.741986228</v>
+        <v>2995801.887208028</v>
       </c>
       <c r="F100" s="76" t="n">
-        <v>2823781.674379029</v>
+        <v>2826048.769431139</v>
       </c>
       <c r="G100" s="76" t="n">
-        <v>3240656.227995302</v>
+        <v>3243095.999032528</v>
       </c>
       <c r="H100" s="76" t="n">
-        <v>2789656.838001277</v>
+        <v>2791434.249879697</v>
       </c>
       <c r="I100" s="76" t="n">
-        <v>3202615.636816901</v>
+        <v>3204692.117988307</v>
       </c>
       <c r="J100" s="76" t="n">
-        <v>2972608.769587204</v>
+        <v>2974139.733454247</v>
       </c>
       <c r="K100" s="76" t="n">
-        <v>2550261.609460828</v>
+        <v>2551912.493799734</v>
       </c>
       <c r="L100" s="76" t="n">
-        <v>4579643.232704165</v>
+        <v>4582699.691086361</v>
       </c>
       <c r="M100" s="76" t="n">
-        <v>3846778.183627028</v>
+        <v>3849255.857970728</v>
       </c>
       <c r="N100" s="76" t="n">
-        <v>5036780.199761775</v>
+        <v>5040403.095731346</v>
       </c>
       <c r="O100" s="76" t="n">
-        <v>4515577.902268987</v>
+        <v>4518854.389221416</v>
       </c>
       <c r="P100" s="76" t="n">
-        <v>3424846.853554599</v>
+        <v>3427428.431926342</v>
       </c>
       <c r="Q100" s="76" t="n">
-        <v>3041504.210788532</v>
+        <v>3044197.334019308</v>
       </c>
       <c r="R100" s="76" t="n">
-        <v>3133850.566891208</v>
+        <v>3136501.531585923</v>
       </c>
       <c r="S100" s="76" t="n">
-        <v>3187645.746067597</v>
+        <v>3190297.098726255</v>
       </c>
       <c r="T100" s="76" t="n">
-        <v>2875929.20142276</v>
+        <v>2878149.099342488</v>
       </c>
       <c r="U100" s="76" t="n">
-        <v>3307381.32694268</v>
+        <v>3310017.663023004</v>
       </c>
       <c r="V100" s="76" t="n">
-        <v>3023002.062942487</v>
+        <v>3025193.802861132</v>
       </c>
       <c r="W100" s="76" t="n">
-        <v>2867739.417390428</v>
+        <v>2869990.353476701</v>
       </c>
     </row>
     <row r="101">
@@ -16393,67 +16399,67 @@
         </is>
       </c>
       <c r="C101" s="76" t="n">
-        <v>5403860.386534919</v>
+        <v>5408893.03030311</v>
       </c>
       <c r="D101" s="76" t="n">
-        <v>6566984.832291647</v>
+        <v>6573169.995732438</v>
       </c>
       <c r="E101" s="76" t="n">
-        <v>5022129.247479877</v>
+        <v>5027950.507842484</v>
       </c>
       <c r="F101" s="76" t="n">
-        <v>6525309.784219171</v>
+        <v>6532211.221590936</v>
       </c>
       <c r="G101" s="76" t="n">
-        <v>6882782.544901286</v>
+        <v>6890420.672068074</v>
       </c>
       <c r="H101" s="76" t="n">
-        <v>5764017.042221997</v>
+        <v>5770488.268645111</v>
       </c>
       <c r="I101" s="76" t="n">
-        <v>7560805.86426199</v>
+        <v>7568309.920955911</v>
       </c>
       <c r="J101" s="76" t="n">
-        <v>6162814.334491367</v>
+        <v>6168656.878366624</v>
       </c>
       <c r="K101" s="76" t="n">
-        <v>5648679.523335642</v>
+        <v>5654109.383272266</v>
       </c>
       <c r="L101" s="76" t="n">
-        <v>8168602.74564047</v>
+        <v>8175919.809398531</v>
       </c>
       <c r="M101" s="76" t="n">
-        <v>6221557.98841947</v>
+        <v>6228023.903375512</v>
       </c>
       <c r="N101" s="76" t="n">
-        <v>5607204.402308574</v>
+        <v>5613369.890612558</v>
       </c>
       <c r="O101" s="76" t="n">
-        <v>6665296.657571748</v>
+        <v>6673018.207534771</v>
       </c>
       <c r="P101" s="76" t="n">
-        <v>7150195.739359838</v>
+        <v>7158600.467593603</v>
       </c>
       <c r="Q101" s="76" t="n">
-        <v>5627495.210069119</v>
+        <v>5637280.871903848</v>
       </c>
       <c r="R101" s="76" t="n">
-        <v>7479462.882395333</v>
+        <v>7488714.992677576</v>
       </c>
       <c r="S101" s="76" t="n">
-        <v>7019227.666248845</v>
+        <v>7028126.701758579</v>
       </c>
       <c r="T101" s="76" t="n">
-        <v>6096388.265044122</v>
+        <v>6104198.055897282</v>
       </c>
       <c r="U101" s="76" t="n">
-        <v>7921444.02943242</v>
+        <v>7931135.607263052</v>
       </c>
       <c r="V101" s="76" t="n">
-        <v>6612488.80809573</v>
+        <v>6620416.41989641</v>
       </c>
       <c r="W101" s="76" t="n">
-        <v>5890888.165807996</v>
+        <v>5898096.852519864</v>
       </c>
     </row>
     <row r="102">
@@ -16468,67 +16474,67 @@
         </is>
       </c>
       <c r="C102" s="76" t="n">
-        <v>16025026.80001575</v>
+        <v>16032516.59510822</v>
       </c>
       <c r="D102" s="76" t="n">
-        <v>15810646.30899609</v>
+        <v>15818157.11878217</v>
       </c>
       <c r="E102" s="76" t="n">
-        <v>15227191.48532847</v>
+        <v>15234292.42467279</v>
       </c>
       <c r="F102" s="76" t="n">
-        <v>16444095.61313008</v>
+        <v>16453545.51550378</v>
       </c>
       <c r="G102" s="76" t="n">
-        <v>17100438.26764698</v>
+        <v>17108822.46853618</v>
       </c>
       <c r="H102" s="76" t="n">
-        <v>17195115.52441012</v>
+        <v>17203739.9848159</v>
       </c>
       <c r="I102" s="76" t="n">
-        <v>17911392.64745064</v>
+        <v>17919602.12999339</v>
       </c>
       <c r="J102" s="76" t="n">
-        <v>18933120.38895192</v>
+        <v>18942061.72196449</v>
       </c>
       <c r="K102" s="76" t="n">
-        <v>17791550.85491034</v>
+        <v>17800831.91046989</v>
       </c>
       <c r="L102" s="76" t="n">
-        <v>15824171.68587451</v>
+        <v>15831358.63060536</v>
       </c>
       <c r="M102" s="76" t="n">
-        <v>16666452.82486847</v>
+        <v>16674459.76879798</v>
       </c>
       <c r="N102" s="76" t="n">
-        <v>17037589.49567154</v>
+        <v>17045771.89024347</v>
       </c>
       <c r="O102" s="76" t="n">
-        <v>18408677.15284576</v>
+        <v>18418500.05097755</v>
       </c>
       <c r="P102" s="76" t="n">
-        <v>18222532.9671112</v>
+        <v>18232308.29259829</v>
       </c>
       <c r="Q102" s="76" t="n">
-        <v>16839725.26024588</v>
+        <v>16852222.23771417</v>
       </c>
       <c r="R102" s="76" t="n">
-        <v>18092270.03141209</v>
+        <v>18103223.74501987</v>
       </c>
       <c r="S102" s="76" t="n">
-        <v>17928195.4649823</v>
+        <v>17938465.68023253</v>
       </c>
       <c r="T102" s="76" t="n">
-        <v>18180534.43948592</v>
+        <v>18190978.10804148</v>
       </c>
       <c r="U102" s="76" t="n">
-        <v>18634153.94298622</v>
+        <v>18644470.57368288</v>
       </c>
       <c r="V102" s="76" t="n">
-        <v>19653899.33235851</v>
+        <v>19664790.82678575</v>
       </c>
       <c r="W102" s="76" t="n">
-        <v>18968218.5606668</v>
+        <v>18979147.94169832</v>
       </c>
     </row>
     <row r="103">
@@ -16543,67 +16549,67 @@
         </is>
       </c>
       <c r="C103" s="76" t="n">
-        <v>20362097.74474995</v>
+        <v>20294056.92833571</v>
       </c>
       <c r="D103" s="76" t="n">
-        <v>19209669.18613352</v>
+        <v>19141819.3421052</v>
       </c>
       <c r="E103" s="76" t="n">
-        <v>14300828.81545497</v>
+        <v>14251039.57608834</v>
       </c>
       <c r="F103" s="76" t="n">
-        <v>25413804.3786289</v>
+        <v>25304789.9265061</v>
       </c>
       <c r="G103" s="76" t="n">
-        <v>20212027.5897706</v>
+        <v>20130599.98732355</v>
       </c>
       <c r="H103" s="76" t="n">
-        <v>25780888.14774186</v>
+        <v>25669286.29466783</v>
       </c>
       <c r="I103" s="76" t="n">
-        <v>19747228.92972201</v>
+        <v>19677714.18600487</v>
       </c>
       <c r="J103" s="76" t="n">
-        <v>17988405.82891341</v>
+        <v>17914459.6976274</v>
       </c>
       <c r="K103" s="76" t="n">
-        <v>18112078.11916211</v>
+        <v>18036108.52985557</v>
       </c>
       <c r="L103" s="76" t="n">
-        <v>29653922.70187459</v>
+        <v>29527609.97487854</v>
       </c>
       <c r="M103" s="76" t="n">
-        <v>16718676.05280552</v>
+        <v>16645662.24725942</v>
       </c>
       <c r="N103" s="76" t="n">
-        <v>24337966.256085</v>
+        <v>24233976.15590999</v>
       </c>
       <c r="O103" s="76" t="n">
-        <v>22277205.44686606</v>
+        <v>22183478.06591325</v>
       </c>
       <c r="P103" s="76" t="n">
-        <v>19309166.02904082</v>
+        <v>19223824.69664919</v>
       </c>
       <c r="Q103" s="76" t="n">
-        <v>17476997.78534808</v>
+        <v>17404533.74611991</v>
       </c>
       <c r="R103" s="76" t="n">
-        <v>26014088.97266567</v>
+        <v>25885347.4462668</v>
       </c>
       <c r="S103" s="76" t="n">
-        <v>19681093.83653485</v>
+        <v>19585604.21543708</v>
       </c>
       <c r="T103" s="76" t="n">
-        <v>25831103.01130733</v>
+        <v>25701372.19271288</v>
       </c>
       <c r="U103" s="76" t="n">
-        <v>21803140.51386566</v>
+        <v>21705764.5202775</v>
       </c>
       <c r="V103" s="76" t="n">
-        <v>18277047.48204915</v>
+        <v>18187300.75222369</v>
       </c>
       <c r="W103" s="76" t="n">
-        <v>19245229.27223569</v>
+        <v>19150561.72752899</v>
       </c>
     </row>
     <row r="104">
@@ -16618,67 +16624,67 @@
         </is>
       </c>
       <c r="C104" s="76" t="n">
-        <v>33274412.52692628</v>
+        <v>33302738.9186836</v>
       </c>
       <c r="D104" s="76" t="n">
-        <v>36940891.69835559</v>
+        <v>36965745.6474869</v>
       </c>
       <c r="E104" s="76" t="n">
-        <v>36291297.43928792</v>
+        <v>36321276.55761991</v>
       </c>
       <c r="F104" s="76" t="n">
-        <v>37154817.50231797</v>
+        <v>37189568.35748542</v>
       </c>
       <c r="G104" s="76" t="n">
-        <v>41759880.23780507</v>
+        <v>41789403.05439518</v>
       </c>
       <c r="H104" s="76" t="n">
-        <v>35390769.11802962</v>
+        <v>35418338.12931582</v>
       </c>
       <c r="I104" s="76" t="n">
-        <v>41985102.73443897</v>
+        <v>42016510.14539304</v>
       </c>
       <c r="J104" s="76" t="n">
-        <v>40638756.68199038</v>
+        <v>40664378.2168544</v>
       </c>
       <c r="K104" s="76" t="n">
-        <v>34300846.58423409</v>
+        <v>34322073.18501453</v>
       </c>
       <c r="L104" s="76" t="n">
-        <v>49694147.55482363</v>
+        <v>49724311.96519301</v>
       </c>
       <c r="M104" s="76" t="n">
-        <v>38177817.30130677</v>
+        <v>38204296.4028147</v>
       </c>
       <c r="N104" s="76" t="n">
-        <v>35691725.03354281</v>
+        <v>35716487.65252549</v>
       </c>
       <c r="O104" s="76" t="n">
-        <v>42155905.66077378</v>
+        <v>42192182.45028742</v>
       </c>
       <c r="P104" s="76" t="n">
-        <v>41650858.65014748</v>
+        <v>41683671.74423522</v>
       </c>
       <c r="Q104" s="76" t="n">
-        <v>38960045.46467683</v>
+        <v>39014700.49335308</v>
       </c>
       <c r="R104" s="76" t="n">
-        <v>43391617.63727782</v>
+        <v>43431747.1456826</v>
       </c>
       <c r="S104" s="76" t="n">
-        <v>42714389.40839425</v>
+        <v>42749895.02822921</v>
       </c>
       <c r="T104" s="76" t="n">
-        <v>38077163.87119766</v>
+        <v>38109989.61867368</v>
       </c>
       <c r="U104" s="76" t="n">
-        <v>46106650.88589799</v>
+        <v>46145926.69733217</v>
       </c>
       <c r="V104" s="76" t="n">
-        <v>42048195.59953699</v>
+        <v>42081609.45645408</v>
       </c>
       <c r="W104" s="76" t="n">
-        <v>36624093.12877128</v>
+        <v>36653185.74021471</v>
       </c>
     </row>
     <row r="105">
@@ -16693,67 +16699,67 @@
         </is>
       </c>
       <c r="C105" s="76" t="n">
-        <v>672360.8622045576</v>
+        <v>672529.2155189293</v>
       </c>
       <c r="D105" s="76" t="n">
-        <v>838632.8654362205</v>
+        <v>838874.1557571278</v>
       </c>
       <c r="E105" s="76" t="n">
-        <v>805326.3016462778</v>
+        <v>805697.833487276</v>
       </c>
       <c r="F105" s="76" t="n">
-        <v>892710.4285513099</v>
+        <v>893024.447578301</v>
       </c>
       <c r="G105" s="76" t="n">
-        <v>1045874.812950365</v>
+        <v>1046258.22338133</v>
       </c>
       <c r="H105" s="76" t="n">
-        <v>831022.0641165081</v>
+        <v>831276.7500638404</v>
       </c>
       <c r="I105" s="76" t="n">
-        <v>992699.2683476215</v>
+        <v>992958.3683572829</v>
       </c>
       <c r="J105" s="76" t="n">
-        <v>963312.209141391</v>
+        <v>963555.7269798504</v>
       </c>
       <c r="K105" s="76" t="n">
-        <v>823772.7927955333</v>
+        <v>823964.2046108927</v>
       </c>
       <c r="L105" s="76" t="n">
-        <v>1073620.310777307</v>
+        <v>1073900.19813957</v>
       </c>
       <c r="M105" s="76" t="n">
-        <v>929582.2396357898</v>
+        <v>929825.7267071274</v>
       </c>
       <c r="N105" s="76" t="n">
-        <v>989874.0329781431</v>
+        <v>990136.6005823941</v>
       </c>
       <c r="O105" s="76" t="n">
-        <v>962708.1957657296</v>
+        <v>962964.819701471</v>
       </c>
       <c r="P105" s="76" t="n">
-        <v>1095417.548892103</v>
+        <v>1095725.203914228</v>
       </c>
       <c r="Q105" s="76" t="n">
-        <v>993502.8591419481</v>
+        <v>994179.5696161406</v>
       </c>
       <c r="R105" s="76" t="n">
-        <v>1086442.185393749</v>
+        <v>1086801.711260554</v>
       </c>
       <c r="S105" s="76" t="n">
-        <v>1103817.856758429</v>
+        <v>1104191.439268858</v>
       </c>
       <c r="T105" s="76" t="n">
-        <v>935236.8883327368</v>
+        <v>935525.3230193522</v>
       </c>
       <c r="U105" s="76" t="n">
-        <v>1135881.189684632</v>
+        <v>1136201.971196126</v>
       </c>
       <c r="V105" s="76" t="n">
-        <v>1048951.228689728</v>
+        <v>1049245.107658089</v>
       </c>
       <c r="W105" s="76" t="n">
-        <v>936489.1548201352</v>
+        <v>936743.2581168024</v>
       </c>
     </row>
     <row r="106">
@@ -16768,67 +16774,67 @@
         </is>
       </c>
       <c r="C106" s="76" t="n">
-        <v>6304674.88515194</v>
+        <v>6312103.347775399</v>
       </c>
       <c r="D106" s="76" t="n">
-        <v>5178756.444874451</v>
+        <v>5175159.829496345</v>
       </c>
       <c r="E106" s="76" t="n">
-        <v>5456926.955177926</v>
+        <v>5477159.392315876</v>
       </c>
       <c r="F106" s="76" t="n">
-        <v>4999725.80066989</v>
+        <v>4999901.529296051</v>
       </c>
       <c r="G106" s="76" t="n">
-        <v>5732959.748207083</v>
+        <v>5729482.812606436</v>
       </c>
       <c r="H106" s="76" t="n">
-        <v>4762217.827590077</v>
+        <v>4765421.306195159</v>
       </c>
       <c r="I106" s="76" t="n">
-        <v>5610933.497698098</v>
+        <v>5613401.969480188</v>
       </c>
       <c r="J106" s="76" t="n">
-        <v>5470472.570012952</v>
+        <v>5477943.282188078</v>
       </c>
       <c r="K106" s="76" t="n">
-        <v>4263512.362667838</v>
+        <v>4265972.028118506</v>
       </c>
       <c r="L106" s="76" t="n">
-        <v>6468110.863825871</v>
+        <v>6466783.45729899</v>
       </c>
       <c r="M106" s="76" t="n">
-        <v>5420252.210984505</v>
+        <v>5422734.745744053</v>
       </c>
       <c r="N106" s="76" t="n">
-        <v>13723473.0518009</v>
+        <v>13728906.20862861</v>
       </c>
       <c r="O106" s="76" t="n">
-        <v>7498175.075038539</v>
+        <v>7504149.802772737</v>
       </c>
       <c r="P106" s="76" t="n">
-        <v>5645659.092044001</v>
+        <v>5645467.931942819</v>
       </c>
       <c r="Q106" s="76" t="n">
-        <v>5366552.183003651</v>
+        <v>5384178.721613281</v>
       </c>
       <c r="R106" s="76" t="n">
-        <v>5866843.405741117</v>
+        <v>5868860.058312008</v>
       </c>
       <c r="S106" s="76" t="n">
-        <v>5641787.187912363</v>
+        <v>5641939.587860823</v>
       </c>
       <c r="T106" s="76" t="n">
-        <v>4939728.920055569</v>
+        <v>4942776.409812603</v>
       </c>
       <c r="U106" s="76" t="n">
-        <v>5945626.694658412</v>
+        <v>5948686.469752833</v>
       </c>
       <c r="V106" s="76" t="n">
-        <v>5587779.618609172</v>
+        <v>5592908.974920704</v>
       </c>
       <c r="W106" s="76" t="n">
-        <v>4610184.935314465</v>
+        <v>4612754.500461617</v>
       </c>
     </row>
     <row r="107">
@@ -16843,67 +16849,67 @@
         </is>
       </c>
       <c r="C107" s="76" t="n">
-        <v>9395526.044809863</v>
+        <v>9401713.608706877</v>
       </c>
       <c r="D107" s="76" t="n">
-        <v>9498887.809997626</v>
+        <v>9505630.837855896</v>
       </c>
       <c r="E107" s="76" t="n">
-        <v>8867866.140319001</v>
+        <v>8872298.581032153</v>
       </c>
       <c r="F107" s="76" t="n">
-        <v>8955605.212287575</v>
+        <v>8962617.226086397</v>
       </c>
       <c r="G107" s="76" t="n">
-        <v>9555436.100147439</v>
+        <v>9562412.186618458</v>
       </c>
       <c r="H107" s="76" t="n">
-        <v>8471393.731640007</v>
+        <v>8477057.477829153</v>
       </c>
       <c r="I107" s="76" t="n">
-        <v>11670379.01875012</v>
+        <v>11677339.46017193</v>
       </c>
       <c r="J107" s="76" t="n">
-        <v>9785173.619079033</v>
+        <v>9790528.20632668</v>
       </c>
       <c r="K107" s="76" t="n">
-        <v>9422583.150069101</v>
+        <v>9427635.266411854</v>
       </c>
       <c r="L107" s="76" t="n">
-        <v>13308835.82410071</v>
+        <v>13316296.27510047</v>
       </c>
       <c r="M107" s="76" t="n">
-        <v>10390651.60439394</v>
+        <v>10396745.35853747</v>
       </c>
       <c r="N107" s="76" t="n">
-        <v>15108635.36926766</v>
+        <v>15117695.88485196</v>
       </c>
       <c r="O107" s="76" t="n">
-        <v>12170061.61818919</v>
+        <v>12178627.15119711</v>
       </c>
       <c r="P107" s="76" t="n">
-        <v>11041981.41452051</v>
+        <v>11050118.67804988</v>
       </c>
       <c r="Q107" s="76" t="n">
-        <v>9831445.339413131</v>
+        <v>9842271.744135248</v>
       </c>
       <c r="R107" s="76" t="n">
-        <v>10705848.31614813</v>
+        <v>10714243.05236309</v>
       </c>
       <c r="S107" s="76" t="n">
-        <v>10102302.58236032</v>
+        <v>10110044.3517401</v>
       </c>
       <c r="T107" s="76" t="n">
-        <v>9302763.480341719</v>
+        <v>9309623.117782855</v>
       </c>
       <c r="U107" s="76" t="n">
-        <v>11952696.03957846</v>
+        <v>11961192.28815152</v>
       </c>
       <c r="V107" s="76" t="n">
-        <v>10031163.8817356</v>
+        <v>10038047.00026388</v>
       </c>
       <c r="W107" s="76" t="n">
-        <v>9624505.709319072</v>
+        <v>9631099.887103327</v>
       </c>
     </row>
     <row r="108">
@@ -16918,67 +16924,67 @@
         </is>
       </c>
       <c r="C108" s="76" t="n">
-        <v>10479296.32213631</v>
+        <v>10486743.921657</v>
       </c>
       <c r="D108" s="76" t="n">
-        <v>14332773.5524154</v>
+        <v>14342917.17587176</v>
       </c>
       <c r="E108" s="76" t="n">
-        <v>9933489.583108742</v>
+        <v>9926087.604856487</v>
       </c>
       <c r="F108" s="76" t="n">
-        <v>13948494.01798285</v>
+        <v>13959612.50571242</v>
       </c>
       <c r="G108" s="76" t="n">
-        <v>14364570.15107662</v>
+        <v>14375067.98772723</v>
       </c>
       <c r="H108" s="76" t="n">
-        <v>10521295.17925418</v>
+        <v>10528325.14222748</v>
       </c>
       <c r="I108" s="76" t="n">
-        <v>16610610.44788365</v>
+        <v>16619368.78356735</v>
       </c>
       <c r="J108" s="76" t="n">
-        <v>12000285.73036014</v>
+        <v>12005470.87989102</v>
       </c>
       <c r="K108" s="76" t="n">
-        <v>11418043.01195345</v>
+        <v>11422443.21363927</v>
       </c>
       <c r="L108" s="76" t="n">
-        <v>18591411.8038457</v>
+        <v>18599899.74936651</v>
       </c>
       <c r="M108" s="76" t="n">
-        <v>13801784.94697772</v>
+        <v>13808781.18550236</v>
       </c>
       <c r="N108" s="76" t="n">
-        <v>11682746.08985949</v>
+        <v>11689054.52954189</v>
       </c>
       <c r="O108" s="76" t="n">
-        <v>14944789.23787512</v>
+        <v>14954507.50723324</v>
       </c>
       <c r="P108" s="76" t="n">
-        <v>15991399.40505948</v>
+        <v>16002239.65933606</v>
       </c>
       <c r="Q108" s="76" t="n">
-        <v>11563739.3055424</v>
+        <v>11565667.95594649</v>
       </c>
       <c r="R108" s="76" t="n">
-        <v>16438056.46190163</v>
+        <v>16450047.33917986</v>
       </c>
       <c r="S108" s="76" t="n">
-        <v>14588191.92326335</v>
+        <v>14598533.46849403</v>
       </c>
       <c r="T108" s="76" t="n">
-        <v>11754080.17522668</v>
+        <v>11761924.82743095</v>
       </c>
       <c r="U108" s="76" t="n">
-        <v>17442625.92786405</v>
+        <v>17453266.34611658</v>
       </c>
       <c r="V108" s="76" t="n">
-        <v>13306269.4500366</v>
+        <v>13313803.84326616</v>
       </c>
       <c r="W108" s="76" t="n">
-        <v>12291009.38956492</v>
+        <v>12297742.89003666</v>
       </c>
     </row>
     <row r="109">
@@ -16993,67 +16999,67 @@
         </is>
       </c>
       <c r="C109" s="76" t="n">
-        <v>17994403.64708131</v>
+        <v>17996489.64590388</v>
       </c>
       <c r="D109" s="76" t="n">
-        <v>22794651.873447</v>
+        <v>22792206.39744514</v>
       </c>
       <c r="E109" s="76" t="n">
-        <v>17043645.18117139</v>
+        <v>17037814.1114444</v>
       </c>
       <c r="F109" s="76" t="n">
-        <v>20512681.02540333</v>
+        <v>20517180.46274391</v>
       </c>
       <c r="G109" s="76" t="n">
-        <v>21722243.79053454</v>
+        <v>21728044.50829331</v>
       </c>
       <c r="H109" s="76" t="n">
-        <v>18045256.64116163</v>
+        <v>18054071.35818364</v>
       </c>
       <c r="I109" s="76" t="n">
-        <v>25470565.83084162</v>
+        <v>25496167.49773746</v>
       </c>
       <c r="J109" s="76" t="n">
-        <v>19198256.34242461</v>
+        <v>19219935.93341026</v>
       </c>
       <c r="K109" s="76" t="n">
-        <v>19474863.97344309</v>
+        <v>19496516.92125776</v>
       </c>
       <c r="L109" s="76" t="n">
-        <v>40798227.10023832</v>
+        <v>40833482.79923813</v>
       </c>
       <c r="M109" s="76" t="n">
-        <v>21293079.15649709</v>
+        <v>21315753.69426744</v>
       </c>
       <c r="N109" s="76" t="n">
-        <v>20878482.59576917</v>
+        <v>20898755.41342659</v>
       </c>
       <c r="O109" s="76" t="n">
-        <v>22579500.2916858</v>
+        <v>22596347.90781927</v>
       </c>
       <c r="P109" s="76" t="n">
-        <v>23587916.54880335</v>
+        <v>23602570.92990648</v>
       </c>
       <c r="Q109" s="76" t="n">
-        <v>18411239.29170923</v>
+        <v>18380090.34511306</v>
       </c>
       <c r="R109" s="76" t="n">
-        <v>23621784.81362722</v>
+        <v>23641079.24952351</v>
       </c>
       <c r="S109" s="76" t="n">
-        <v>21568266.48054411</v>
+        <v>21586476.65071615</v>
       </c>
       <c r="T109" s="76" t="n">
-        <v>19367147.79955959</v>
+        <v>19385313.13124753</v>
       </c>
       <c r="U109" s="76" t="n">
-        <v>26537238.12119896</v>
+        <v>26567527.16323252</v>
       </c>
       <c r="V109" s="76" t="n">
-        <v>20910252.83657489</v>
+        <v>20935314.45672578</v>
       </c>
       <c r="W109" s="76" t="n">
-        <v>21141632.70108228</v>
+        <v>21167559.71386939</v>
       </c>
     </row>
     <row r="110">
@@ -17068,67 +17074,67 @@
         </is>
       </c>
       <c r="C110" s="76" t="n">
-        <v>1342126.815449403</v>
+        <v>1342849.433972999</v>
       </c>
       <c r="D110" s="76" t="n">
-        <v>1050870.321935364</v>
+        <v>1051491.612726689</v>
       </c>
       <c r="E110" s="76" t="n">
-        <v>990478.6477137407</v>
+        <v>991023.2026514389</v>
       </c>
       <c r="F110" s="76" t="n">
-        <v>1123829.739885993</v>
+        <v>1124633.586289054</v>
       </c>
       <c r="G110" s="76" t="n">
-        <v>1164240.456331079</v>
+        <v>1165016.517102002</v>
       </c>
       <c r="H110" s="76" t="n">
-        <v>1173272.363789194</v>
+        <v>1174036.965486676</v>
       </c>
       <c r="I110" s="76" t="n">
-        <v>1278545.452710772</v>
+        <v>1279262.780992925</v>
       </c>
       <c r="J110" s="76" t="n">
-        <v>1036002.916819421</v>
+        <v>1036576.987396872</v>
       </c>
       <c r="K110" s="76" t="n">
-        <v>1090604.2458263</v>
+        <v>1091152.568055524</v>
       </c>
       <c r="L110" s="76" t="n">
-        <v>1230743.795735257</v>
+        <v>1231323.179709201</v>
       </c>
       <c r="M110" s="76" t="n">
-        <v>1748113.113303944</v>
+        <v>1749098.147944191</v>
       </c>
       <c r="N110" s="76" t="n">
-        <v>2377849.078174645</v>
+        <v>2379172.944941582</v>
       </c>
       <c r="O110" s="76" t="n">
-        <v>1537676.990601857</v>
+        <v>1538588.281724358</v>
       </c>
       <c r="P110" s="76" t="n">
-        <v>1159231.426137703</v>
+        <v>1159948.031152464</v>
       </c>
       <c r="Q110" s="76" t="n">
-        <v>1038789.231999817</v>
+        <v>1039812.175061752</v>
       </c>
       <c r="R110" s="76" t="n">
-        <v>1198397.295342019</v>
+        <v>1199253.863135901</v>
       </c>
       <c r="S110" s="76" t="n">
-        <v>1205885.291314292</v>
+        <v>1206718.822493009</v>
       </c>
       <c r="T110" s="76" t="n">
-        <v>1206291.817107458</v>
+        <v>1207113.054928452</v>
       </c>
       <c r="U110" s="76" t="n">
-        <v>1253193.923830807</v>
+        <v>1253987.731926432</v>
       </c>
       <c r="V110" s="76" t="n">
-        <v>1106744.91268089</v>
+        <v>1107445.915211596</v>
       </c>
       <c r="W110" s="76" t="n">
-        <v>1137594.211199594</v>
+        <v>1138292.303762614</v>
       </c>
     </row>
     <row r="111">
@@ -17143,67 +17149,67 @@
         </is>
       </c>
       <c r="C111" s="76" t="n">
-        <v>2226256.940967058</v>
+        <v>2227736.631729744</v>
       </c>
       <c r="D111" s="76" t="n">
-        <v>2670200.243571741</v>
+        <v>2672025.43748287</v>
       </c>
       <c r="E111" s="76" t="n">
-        <v>2055519.468746069</v>
+        <v>2055437.759972882</v>
       </c>
       <c r="F111" s="76" t="n">
-        <v>2228485.453767328</v>
+        <v>2230198.499991889</v>
       </c>
       <c r="G111" s="76" t="n">
-        <v>2470015.843021884</v>
+        <v>2471806.523852487</v>
       </c>
       <c r="H111" s="76" t="n">
-        <v>1992862.999150177</v>
+        <v>1994165.985032216</v>
       </c>
       <c r="I111" s="76" t="n">
-        <v>2898609.928221871</v>
+        <v>2900701.187786068</v>
       </c>
       <c r="J111" s="76" t="n">
-        <v>2073774.840220195</v>
+        <v>2075147.114934784</v>
       </c>
       <c r="K111" s="76" t="n">
-        <v>2001000.977531551</v>
+        <v>2002515.084089892</v>
       </c>
       <c r="L111" s="76" t="n">
-        <v>3363767.216209329</v>
+        <v>3366652.962558917</v>
       </c>
       <c r="M111" s="76" t="n">
-        <v>2368271.799821763</v>
+        <v>2369872.316700542</v>
       </c>
       <c r="N111" s="76" t="n">
-        <v>2526636.824934989</v>
+        <v>2528401.668100996</v>
       </c>
       <c r="O111" s="76" t="n">
-        <v>2837263.275867068</v>
+        <v>2839562.772299116</v>
       </c>
       <c r="P111" s="76" t="n">
-        <v>2698527.521604252</v>
+        <v>2700788.415309499</v>
       </c>
       <c r="Q111" s="76" t="n">
-        <v>2146281.262338034</v>
+        <v>2146719.086936968</v>
       </c>
       <c r="R111" s="76" t="n">
-        <v>2627771.913091806</v>
+        <v>2630104.701165334</v>
       </c>
       <c r="S111" s="76" t="n">
-        <v>2396770.132406762</v>
+        <v>2398874.053471039</v>
       </c>
       <c r="T111" s="76" t="n">
-        <v>2134099.091666682</v>
+        <v>2135903.171058052</v>
       </c>
       <c r="U111" s="76" t="n">
-        <v>3016793.098853246</v>
+        <v>3019448.518889852</v>
       </c>
       <c r="V111" s="76" t="n">
-        <v>2277473.251269374</v>
+        <v>2279393.817591533</v>
       </c>
       <c r="W111" s="76" t="n">
-        <v>2199501.937359566</v>
+        <v>2201464.296976491</v>
       </c>
     </row>
     <row r="112">
@@ -17218,67 +17224,67 @@
         </is>
       </c>
       <c r="C112" s="76" t="n">
-        <v>2663516.569585781</v>
+        <v>2659202.668405973</v>
       </c>
       <c r="D112" s="76" t="n">
-        <v>2977639.675183928</v>
+        <v>2971689.705091199</v>
       </c>
       <c r="E112" s="76" t="n">
-        <v>2084799.425919927</v>
+        <v>2075227.87440995</v>
       </c>
       <c r="F112" s="76" t="n">
-        <v>2714333.032041351</v>
+        <v>2707860.488524527</v>
       </c>
       <c r="G112" s="76" t="n">
-        <v>3047062.093913811</v>
+        <v>3038350.610124944</v>
       </c>
       <c r="H112" s="76" t="n">
-        <v>2494151.523332357</v>
+        <v>2488590.542320207</v>
       </c>
       <c r="I112" s="76" t="n">
-        <v>3292578.343787188</v>
+        <v>3283021.341732331</v>
       </c>
       <c r="J112" s="76" t="n">
-        <v>2119840.270932802</v>
+        <v>2114818.801181888</v>
       </c>
       <c r="K112" s="76" t="n">
-        <v>2026902.156126989</v>
+        <v>2019936.593768372</v>
       </c>
       <c r="L112" s="76" t="n">
-        <v>4132221.896632234</v>
+        <v>4107919.327767462</v>
       </c>
       <c r="M112" s="76" t="n">
-        <v>3299496.666141808</v>
+        <v>3288157.276696031</v>
       </c>
       <c r="N112" s="76" t="n">
-        <v>3186867.19708666</v>
+        <v>3176691.558718098</v>
       </c>
       <c r="O112" s="76" t="n">
-        <v>3475292.550933162</v>
+        <v>3462651.038725426</v>
       </c>
       <c r="P112" s="76" t="n">
-        <v>3012671.592753599</v>
+        <v>3001631.737969747</v>
       </c>
       <c r="Q112" s="76" t="n">
-        <v>2310271.417461139</v>
+        <v>2299809.137842841</v>
       </c>
       <c r="R112" s="76" t="n">
-        <v>3112058.067224159</v>
+        <v>3099374.571164366</v>
       </c>
       <c r="S112" s="76" t="n">
-        <v>2968498.302883349</v>
+        <v>2955155.457061253</v>
       </c>
       <c r="T112" s="76" t="n">
-        <v>2613682.956044763</v>
+        <v>2602675.633679698</v>
       </c>
       <c r="U112" s="76" t="n">
-        <v>3410753.434392087</v>
+        <v>3394761.270345532</v>
       </c>
       <c r="V112" s="76" t="n">
-        <v>2432579.854559546</v>
+        <v>2421953.874072105</v>
       </c>
       <c r="W112" s="76" t="n">
-        <v>2321494.466224267</v>
+        <v>2310214.423392856</v>
       </c>
     </row>
     <row r="113">
@@ -17293,67 +17299,67 @@
         </is>
       </c>
       <c r="C113" s="76" t="n">
-        <v>1368198.189565192</v>
+        <v>1369600.98823614</v>
       </c>
       <c r="D113" s="76" t="n">
-        <v>1841087.237406519</v>
+        <v>1842297.683871269</v>
       </c>
       <c r="E113" s="76" t="n">
-        <v>2184049.298229416</v>
+        <v>2185195.607253461</v>
       </c>
       <c r="F113" s="76" t="n">
-        <v>3041103.211043261</v>
+        <v>3044256.886668244</v>
       </c>
       <c r="G113" s="76" t="n">
-        <v>3674617.442977774</v>
+        <v>3677045.539715804</v>
       </c>
       <c r="H113" s="76" t="n">
-        <v>2843232.018562463</v>
+        <v>2845288.618778581</v>
       </c>
       <c r="I113" s="76" t="n">
-        <v>4722930.635581714</v>
+        <v>4726406.784474993</v>
       </c>
       <c r="J113" s="76" t="n">
-        <v>3729747.373629797</v>
+        <v>3732658.982325414</v>
       </c>
       <c r="K113" s="76" t="n">
-        <v>3966901.48620567</v>
+        <v>3969629.104624931</v>
       </c>
       <c r="L113" s="76" t="n">
-        <v>5438112.62988655</v>
+        <v>5442550.875300896</v>
       </c>
       <c r="M113" s="76" t="n">
-        <v>4721775.069493495</v>
+        <v>4725043.823466415</v>
       </c>
       <c r="N113" s="76" t="n">
-        <v>3993584.961113832</v>
+        <v>3996515.80062418</v>
       </c>
       <c r="O113" s="76" t="n">
-        <v>4898544.835258744</v>
+        <v>4903426.445281035</v>
       </c>
       <c r="P113" s="76" t="n">
-        <v>5494330.899188587</v>
+        <v>5498990.106498631</v>
       </c>
       <c r="Q113" s="76" t="n">
-        <v>4267089.450969701</v>
+        <v>4271903.431286639</v>
       </c>
       <c r="R113" s="76" t="n">
-        <v>5745958.212887974</v>
+        <v>5751834.204569248</v>
       </c>
       <c r="S113" s="76" t="n">
-        <v>5169931.832872714</v>
+        <v>5174466.730493589</v>
       </c>
       <c r="T113" s="76" t="n">
-        <v>4186692.673359729</v>
+        <v>4190476.151391267</v>
       </c>
       <c r="U113" s="76" t="n">
-        <v>6345159.313913125</v>
+        <v>6350983.624050567</v>
       </c>
       <c r="V113" s="76" t="n">
-        <v>5180370.404324372</v>
+        <v>5185201.114712682</v>
       </c>
       <c r="W113" s="76" t="n">
-        <v>4914520.706538708</v>
+        <v>4918950.480336844</v>
       </c>
     </row>
     <row r="114">
@@ -17368,67 +17374,67 @@
         </is>
       </c>
       <c r="C114" s="76" t="n">
-        <v>6538056.841495642</v>
+        <v>6540735.959176794</v>
       </c>
       <c r="D114" s="76" t="n">
-        <v>7501867.998735135</v>
+        <v>7513891.765293334</v>
       </c>
       <c r="E114" s="76" t="n">
-        <v>6240971.957312846</v>
+        <v>6254172.415587544</v>
       </c>
       <c r="F114" s="76" t="n">
-        <v>7464818.860201649</v>
+        <v>7470655.03124608</v>
       </c>
       <c r="G114" s="76" t="n">
-        <v>7838013.042636292</v>
+        <v>7851884.401711795</v>
       </c>
       <c r="H114" s="76" t="n">
-        <v>6669740.992716484</v>
+        <v>6678938.267827487</v>
       </c>
       <c r="I114" s="76" t="n">
-        <v>9062721.969486158</v>
+        <v>9071643.201463463</v>
       </c>
       <c r="J114" s="76" t="n">
-        <v>7291438.634597452</v>
+        <v>7298874.86868664</v>
       </c>
       <c r="K114" s="76" t="n">
-        <v>6728631.08708816</v>
+        <v>6732587.108139761</v>
       </c>
       <c r="L114" s="76" t="n">
-        <v>11076320.88316545</v>
+        <v>11083378.82804215</v>
       </c>
       <c r="M114" s="76" t="n">
-        <v>7995693.289386543</v>
+        <v>8005362.157959606</v>
       </c>
       <c r="N114" s="76" t="n">
-        <v>7626832.381301056</v>
+        <v>7636088.095955854</v>
       </c>
       <c r="O114" s="76" t="n">
-        <v>9715476.174601298</v>
+        <v>9723971.554166459</v>
       </c>
       <c r="P114" s="76" t="n">
-        <v>9536880.526352534</v>
+        <v>9550942.981140971</v>
       </c>
       <c r="Q114" s="76" t="n">
-        <v>7636889.78698937</v>
+        <v>7661443.998126445</v>
       </c>
       <c r="R114" s="76" t="n">
-        <v>9412350.326700374</v>
+        <v>9422712.328930922</v>
       </c>
       <c r="S114" s="76" t="n">
-        <v>8588827.117829794</v>
+        <v>8602785.140099438</v>
       </c>
       <c r="T114" s="76" t="n">
-        <v>7734859.894138402</v>
+        <v>7745712.08713888</v>
       </c>
       <c r="U114" s="76" t="n">
-        <v>10148297.47712412</v>
+        <v>10160429.45402372</v>
       </c>
       <c r="V114" s="76" t="n">
-        <v>8281574.721314134</v>
+        <v>8291746.187990071</v>
       </c>
       <c r="W114" s="76" t="n">
-        <v>7632704.300206291</v>
+        <v>7640935.013688618</v>
       </c>
     </row>
     <row r="115">
@@ -17443,67 +17449,67 @@
         </is>
       </c>
       <c r="C115" s="76" t="n">
-        <v>5736976.678194956</v>
+        <v>5740184.004319064</v>
       </c>
       <c r="D115" s="76" t="n">
-        <v>2704781.466104079</v>
+        <v>2706714.937124379</v>
       </c>
       <c r="E115" s="76" t="n">
-        <v>6011079.239111057</v>
+        <v>6013399.479821321</v>
       </c>
       <c r="F115" s="76" t="n">
-        <v>3032466.126232042</v>
+        <v>3034783.294254287</v>
       </c>
       <c r="G115" s="76" t="n">
-        <v>3824241.412429346</v>
+        <v>3826823.26317088</v>
       </c>
       <c r="H115" s="76" t="n">
-        <v>4112454.28078196</v>
+        <v>4115082.091481162</v>
       </c>
       <c r="I115" s="76" t="n">
-        <v>3559716.952394641</v>
+        <v>3561717.183547904</v>
       </c>
       <c r="J115" s="76" t="n">
-        <v>3141306.905919217</v>
+        <v>3142963.765527735</v>
       </c>
       <c r="K115" s="76" t="n">
-        <v>4399518.211221993</v>
+        <v>4401773.788025524</v>
       </c>
       <c r="L115" s="76" t="n">
-        <v>7107916.58384604</v>
+        <v>7111690.34637653</v>
       </c>
       <c r="M115" s="76" t="n">
-        <v>6137043.126647693</v>
+        <v>6140450.181601939</v>
       </c>
       <c r="N115" s="76" t="n">
-        <v>7011425.481185837</v>
+        <v>7015367.087816145</v>
       </c>
       <c r="O115" s="76" t="n">
-        <v>6848761.555813396</v>
+        <v>6853113.022872327</v>
       </c>
       <c r="P115" s="76" t="n">
-        <v>3952846.828786009</v>
+        <v>3955530.791890582</v>
       </c>
       <c r="Q115" s="76" t="n">
-        <v>5162232.366417796</v>
+        <v>5166395.45905361</v>
       </c>
       <c r="R115" s="76" t="n">
-        <v>3766039.888062183</v>
+        <v>3768851.204856066</v>
       </c>
       <c r="S115" s="76" t="n">
-        <v>4075741.10470599</v>
+        <v>4078672.31679156</v>
       </c>
       <c r="T115" s="76" t="n">
-        <v>4249744.20236834</v>
+        <v>4252733.065314362</v>
       </c>
       <c r="U115" s="76" t="n">
-        <v>3684441.888713508</v>
+        <v>3686911.419470907</v>
       </c>
       <c r="V115" s="76" t="n">
-        <v>3562324.384353736</v>
+        <v>3564668.245553907</v>
       </c>
       <c r="W115" s="76" t="n">
-        <v>4641799.962045122</v>
+        <v>4644822.741137398</v>
       </c>
     </row>
     <row r="116">
@@ -17518,67 +17524,67 @@
         </is>
       </c>
       <c r="C116" s="76" t="n">
-        <v>1102229.295462709</v>
+        <v>1102743.565547749</v>
       </c>
       <c r="D116" s="76" t="n">
-        <v>1233041.87258713</v>
+        <v>1233661.790003621</v>
       </c>
       <c r="E116" s="76" t="n">
-        <v>1878335.81430162</v>
+        <v>1878950.416619356</v>
       </c>
       <c r="F116" s="76" t="n">
-        <v>1786480.50982872</v>
+        <v>1787502.330300394</v>
       </c>
       <c r="G116" s="76" t="n">
-        <v>1736011.713252308</v>
+        <v>1736992.708161755</v>
       </c>
       <c r="H116" s="76" t="n">
-        <v>2357133.513825181</v>
+        <v>2358345.30678013</v>
       </c>
       <c r="I116" s="76" t="n">
-        <v>2412707.896366842</v>
+        <v>2413876.773871853</v>
       </c>
       <c r="J116" s="76" t="n">
-        <v>2146026.99742461</v>
+        <v>2147025.44377505</v>
       </c>
       <c r="K116" s="76" t="n">
-        <v>1722054.620345202</v>
+        <v>1722807.289910048</v>
       </c>
       <c r="L116" s="76" t="n">
-        <v>3005731.790628347</v>
+        <v>3007122.118107311</v>
       </c>
       <c r="M116" s="76" t="n">
-        <v>1789566.132503243</v>
+        <v>1790439.740203167</v>
       </c>
       <c r="N116" s="76" t="n">
-        <v>1930643.562139414</v>
+        <v>1931594.411041957</v>
       </c>
       <c r="O116" s="76" t="n">
-        <v>1948828.703109311</v>
+        <v>1949844.355132484</v>
       </c>
       <c r="P116" s="76" t="n">
-        <v>1764210.938567503</v>
+        <v>1765169.696677877</v>
       </c>
       <c r="Q116" s="76" t="n">
-        <v>1978749.257575353</v>
+        <v>1980026.949668383</v>
       </c>
       <c r="R116" s="76" t="n">
-        <v>2211274.468154403</v>
+        <v>2212613.866108933</v>
       </c>
       <c r="S116" s="76" t="n">
-        <v>1915248.176311289</v>
+        <v>1916407.904295187</v>
       </c>
       <c r="T116" s="76" t="n">
-        <v>2855955.945118012</v>
+        <v>2857609.671085619</v>
       </c>
       <c r="U116" s="76" t="n">
-        <v>2797116.711226131</v>
+        <v>2798700.844355784</v>
       </c>
       <c r="V116" s="76" t="n">
-        <v>2422603.440181516</v>
+        <v>2423957.141322616</v>
       </c>
       <c r="W116" s="76" t="n">
-        <v>2239524.829034784</v>
+        <v>2240755.604069479</v>
       </c>
     </row>
     <row r="117">
@@ -17593,67 +17599,67 @@
         </is>
       </c>
       <c r="C117" s="76" t="n">
-        <v>7492023.682689624</v>
+        <v>7492591.142801269</v>
       </c>
       <c r="D117" s="76" t="n">
-        <v>4192253.25482689</v>
+        <v>4192432.91822804</v>
       </c>
       <c r="E117" s="76" t="n">
-        <v>5410063.420184861</v>
+        <v>5410572.438758451</v>
       </c>
       <c r="F117" s="76" t="n">
-        <v>4227593.730511311</v>
+        <v>4228701.656241273</v>
       </c>
       <c r="G117" s="76" t="n">
-        <v>4621814.629278847</v>
+        <v>4622917.441348501</v>
       </c>
       <c r="H117" s="76" t="n">
-        <v>3884532.423335043</v>
+        <v>3885771.684503499</v>
       </c>
       <c r="I117" s="76" t="n">
-        <v>3906235.214799214</v>
+        <v>3907185.079591301</v>
       </c>
       <c r="J117" s="76" t="n">
-        <v>5604513.981305832</v>
+        <v>5605709.40303167</v>
       </c>
       <c r="K117" s="76" t="n">
-        <v>2987383.430129266</v>
+        <v>2987649.721159226</v>
       </c>
       <c r="L117" s="76" t="n">
-        <v>6186891.289573093</v>
+        <v>6186666.508398511</v>
       </c>
       <c r="M117" s="76" t="n">
-        <v>4634487.369012951</v>
+        <v>4635359.131500307</v>
       </c>
       <c r="N117" s="76" t="n">
-        <v>11474743.93274423</v>
+        <v>11477076.61361886</v>
       </c>
       <c r="O117" s="76" t="n">
-        <v>8911222.55329721</v>
+        <v>8911857.453494275</v>
       </c>
       <c r="P117" s="76" t="n">
-        <v>5346523.575173081</v>
+        <v>5346810.595393429</v>
       </c>
       <c r="Q117" s="76" t="n">
-        <v>5271173.537649288</v>
+        <v>5272054.565558225</v>
       </c>
       <c r="R117" s="76" t="n">
-        <v>4869493.101415946</v>
+        <v>4870343.994266193</v>
       </c>
       <c r="S117" s="76" t="n">
-        <v>4802329.31827715</v>
+        <v>4803104.334518882</v>
       </c>
       <c r="T117" s="76" t="n">
-        <v>4194069.449031431</v>
+        <v>4194900.825297842</v>
       </c>
       <c r="U117" s="76" t="n">
-        <v>4672370.365729701</v>
+        <v>4673111.090943534</v>
       </c>
       <c r="V117" s="76" t="n">
-        <v>5594451.089516159</v>
+        <v>5595292.654750008</v>
       </c>
       <c r="W117" s="76" t="n">
-        <v>3632198.73586884</v>
+        <v>3632531.51631604</v>
       </c>
     </row>
     <row r="118">
@@ -17668,67 +17674,67 @@
         </is>
       </c>
       <c r="C118" s="76" t="n">
-        <v>5093502.870217774</v>
+        <v>5097024.336496819</v>
       </c>
       <c r="D118" s="76" t="n">
-        <v>5559554.862313904</v>
+        <v>5563762.57331268</v>
       </c>
       <c r="E118" s="76" t="n">
-        <v>5593030.878628724</v>
+        <v>5598721.814450967</v>
       </c>
       <c r="F118" s="76" t="n">
-        <v>5688935.262043719</v>
+        <v>5693545.750179107</v>
       </c>
       <c r="G118" s="76" t="n">
-        <v>6480867.446389708</v>
+        <v>6486315.051170532</v>
       </c>
       <c r="H118" s="76" t="n">
-        <v>5078249.451006775</v>
+        <v>5082086.725908522</v>
       </c>
       <c r="I118" s="76" t="n">
-        <v>6685670.012775667</v>
+        <v>6690288.498513321</v>
       </c>
       <c r="J118" s="76" t="n">
-        <v>6224980.989936137</v>
+        <v>6229191.545172594</v>
       </c>
       <c r="K118" s="76" t="n">
-        <v>5800066.384860555</v>
+        <v>5803629.152152955</v>
       </c>
       <c r="L118" s="76" t="n">
-        <v>7526198.709724904</v>
+        <v>7531199.229475697</v>
       </c>
       <c r="M118" s="76" t="n">
-        <v>6050014.193808514</v>
+        <v>6054289.514066785</v>
       </c>
       <c r="N118" s="76" t="n">
-        <v>6488585.216935075</v>
+        <v>6493228.694782317</v>
       </c>
       <c r="O118" s="76" t="n">
-        <v>6576443.345811279</v>
+        <v>6581756.633057307</v>
       </c>
       <c r="P118" s="76" t="n">
-        <v>6739056.068431462</v>
+        <v>6744758.705603527</v>
       </c>
       <c r="Q118" s="76" t="n">
-        <v>6091223.192721296</v>
+        <v>6100837.355412264</v>
       </c>
       <c r="R118" s="76" t="n">
-        <v>6757190.347868418</v>
+        <v>6763209.477968302</v>
       </c>
       <c r="S118" s="76" t="n">
-        <v>6580396.903236414</v>
+        <v>6586437.121090215</v>
       </c>
       <c r="T118" s="76" t="n">
-        <v>5787740.27080136</v>
+        <v>5792781.923879317</v>
       </c>
       <c r="U118" s="76" t="n">
-        <v>7099684.539849086</v>
+        <v>7105696.728719888</v>
       </c>
       <c r="V118" s="76" t="n">
-        <v>6395126.443029782</v>
+        <v>6400502.687340157</v>
       </c>
       <c r="W118" s="76" t="n">
-        <v>6358078.262526768</v>
+        <v>6363257.933934323</v>
       </c>
     </row>
     <row r="119">
@@ -17743,67 +17749,67 @@
         </is>
       </c>
       <c r="C119" s="76" t="n">
-        <v>416493.5912145479</v>
+        <v>404356.8342369649</v>
       </c>
       <c r="D119" s="76" t="n">
-        <v>474156.9006548212</v>
+        <v>460961.3178185846</v>
       </c>
       <c r="E119" s="76" t="n">
-        <v>138462.8662327443</v>
+        <v>121381.0498151917</v>
       </c>
       <c r="F119" s="76" t="n">
-        <v>257376.6359157447</v>
+        <v>249223.9707556704</v>
       </c>
       <c r="G119" s="76" t="n">
-        <v>315985.8075163212</v>
+        <v>307405.5106806993</v>
       </c>
       <c r="H119" s="76" t="n">
-        <v>129732.922557697</v>
+        <v>126020.0212505804</v>
       </c>
       <c r="I119" s="76" t="n">
-        <v>400320.3649180767</v>
+        <v>391057.4317267811</v>
       </c>
       <c r="J119" s="76" t="n">
-        <v>251852.4876930728</v>
+        <v>246937.6729514865</v>
       </c>
       <c r="K119" s="76" t="n">
-        <v>115936.0436319839</v>
+        <v>114859.2710492866</v>
       </c>
       <c r="L119" s="76" t="n">
-        <v>496846.0486693416</v>
+        <v>487127.0699960602</v>
       </c>
       <c r="M119" s="76" t="n">
-        <v>376908.9852468992</v>
+        <v>368652.615163272</v>
       </c>
       <c r="N119" s="76" t="n">
-        <v>251348.1683352592</v>
+        <v>245004.2032567431</v>
       </c>
       <c r="O119" s="76" t="n">
-        <v>469244.5226238818</v>
+        <v>455262.3015599301</v>
       </c>
       <c r="P119" s="76" t="n">
-        <v>406100.5281888042</v>
+        <v>393272.3548841983</v>
       </c>
       <c r="Q119" s="76" t="n">
-        <v>143300.3346250546</v>
+        <v>117983.7942450477</v>
       </c>
       <c r="R119" s="76" t="n">
-        <v>306886.2344063325</v>
+        <v>297146.6308158133</v>
       </c>
       <c r="S119" s="76" t="n">
-        <v>271202.7816779701</v>
+        <v>262700.4125748242</v>
       </c>
       <c r="T119" s="76" t="n">
-        <v>125476.6388888726</v>
+        <v>121439.2594689522</v>
       </c>
       <c r="U119" s="76" t="n">
-        <v>358736.7010166373</v>
+        <v>347869.6701528186</v>
       </c>
       <c r="V119" s="76" t="n">
-        <v>260847.405970694</v>
+        <v>253567.9916719396</v>
       </c>
       <c r="W119" s="76" t="n">
-        <v>132644.7041569011</v>
+        <v>129194.7038721877</v>
       </c>
     </row>
     <row r="120">
@@ -17818,67 +17824,67 @@
         </is>
       </c>
       <c r="C120" s="76" t="n">
-        <v>2522103.970945745</v>
+        <v>2517968.360058544</v>
       </c>
       <c r="D120" s="76" t="n">
-        <v>3644883.285888062</v>
+        <v>3639385.020428115</v>
       </c>
       <c r="E120" s="76" t="n">
-        <v>2446820.144348385</v>
+        <v>2454695.594557275</v>
       </c>
       <c r="F120" s="76" t="n">
-        <v>3256656.175765635</v>
+        <v>3252347.429438086</v>
       </c>
       <c r="G120" s="76" t="n">
-        <v>3538469.904221295</v>
+        <v>3534696.146234552</v>
       </c>
       <c r="H120" s="76" t="n">
-        <v>2716558.909946066</v>
+        <v>2714118.383255876</v>
       </c>
       <c r="I120" s="76" t="n">
-        <v>4240117.554906534</v>
+        <v>4237530.313603344</v>
       </c>
       <c r="J120" s="76" t="n">
-        <v>2757825.565681967</v>
+        <v>2756921.860221664</v>
       </c>
       <c r="K120" s="76" t="n">
-        <v>3096037.904126443</v>
+        <v>3095039.4919152</v>
       </c>
       <c r="L120" s="76" t="n">
-        <v>5565754.269604153</v>
+        <v>5562169.87933273</v>
       </c>
       <c r="M120" s="76" t="n">
-        <v>3457252.326948618</v>
+        <v>3455232.651088852</v>
       </c>
       <c r="N120" s="76" t="n">
-        <v>3177081.574301878</v>
+        <v>3174770.664813176</v>
       </c>
       <c r="O120" s="76" t="n">
-        <v>4040275.435522852</v>
+        <v>4035105.628525307</v>
       </c>
       <c r="P120" s="76" t="n">
-        <v>4245213.118423098</v>
+        <v>4239301.128268087</v>
       </c>
       <c r="Q120" s="76" t="n">
-        <v>3039544.347770394</v>
+        <v>3041370.260004932</v>
       </c>
       <c r="R120" s="76" t="n">
-        <v>4094797.039092343</v>
+        <v>4089900.976646987</v>
       </c>
       <c r="S120" s="76" t="n">
-        <v>3737988.029286799</v>
+        <v>3733710.858793011</v>
       </c>
       <c r="T120" s="76" t="n">
-        <v>3158639.324353086</v>
+        <v>3155319.5294884</v>
       </c>
       <c r="U120" s="76" t="n">
-        <v>4476688.255486701</v>
+        <v>4472387.405556676</v>
       </c>
       <c r="V120" s="76" t="n">
-        <v>3294225.823883844</v>
+        <v>3291512.083607644</v>
       </c>
       <c r="W120" s="76" t="n">
-        <v>3424903.306798447</v>
+        <v>3421962.102354392</v>
       </c>
     </row>
     <row r="121">
@@ -17893,67 +17899,67 @@
         </is>
       </c>
       <c r="C121" s="77" t="n">
-        <v>161445322.6253464</v>
+        <v>161437755.8009508</v>
       </c>
       <c r="D121" s="77" t="n">
-        <v>169633084.8483966</v>
+        <v>169615786.6907112</v>
       </c>
       <c r="E121" s="77" t="n">
-        <v>152161172.1262903</v>
+        <v>152173005.7518189</v>
       </c>
       <c r="F121" s="77" t="n">
-        <v>173761658.8819369</v>
+        <v>173731655.3159497</v>
       </c>
       <c r="G121" s="77" t="n">
-        <v>181850851.0991742</v>
+        <v>181846487.0748298</v>
       </c>
       <c r="H121" s="77" t="n">
-        <v>164151513.1557579</v>
+        <v>164120535.4055204</v>
       </c>
       <c r="I121" s="77" t="n">
-        <v>195053624.7249145</v>
+        <v>195080865.7618382</v>
       </c>
       <c r="J121" s="77" t="n">
-        <v>171824502.3189641</v>
+        <v>171842579.9170868</v>
       </c>
       <c r="K121" s="77" t="n">
-        <v>158987277.6367397</v>
+        <v>158989758.3009591</v>
       </c>
       <c r="L121" s="77" t="n">
-        <v>245194486.6382604</v>
+        <v>245154290.5692093</v>
       </c>
       <c r="M121" s="77" t="n">
-        <v>177564767.8688201</v>
+        <v>177577795.844156</v>
       </c>
       <c r="N121" s="77" t="n">
-        <v>201693719.0226398</v>
+        <v>201682941.5272565</v>
       </c>
       <c r="O121" s="77" t="n">
-        <v>205093578.5779454</v>
+        <v>205095442.9294337</v>
       </c>
       <c r="P121" s="77" t="n">
-        <v>193183379.0303304</v>
+        <v>193187999.1826446</v>
       </c>
       <c r="Q121" s="77" t="n">
-        <v>168694845.0444698</v>
+        <v>168716132.7993379</v>
       </c>
       <c r="R121" s="77" t="n">
-        <v>201610847.0878999</v>
+        <v>201591442.419507</v>
       </c>
       <c r="S121" s="77" t="n">
-        <v>186927207.0214215</v>
+        <v>186933215.3922938</v>
       </c>
       <c r="T121" s="77" t="n">
-        <v>177020638.4647664</v>
+        <v>176990742.24687</v>
       </c>
       <c r="U121" s="77" t="n">
-        <v>210076524.5210861</v>
+        <v>210096187.6158002</v>
       </c>
       <c r="V121" s="77" t="n">
-        <v>182877992.322566</v>
+        <v>182895427.6146961</v>
       </c>
       <c r="W121" s="77" t="n">
-        <v>172292693.3476308</v>
+        <v>172297857.0730698</v>
       </c>
     </row>
     <row r="122">
@@ -17968,67 +17974,67 @@
         </is>
       </c>
       <c r="C122" s="76" t="n">
-        <v>736252.8976108227</v>
+        <v>736688.1728215228</v>
       </c>
       <c r="D122" s="76" t="n">
-        <v>865439.7935329747</v>
+        <v>865970.3534985668</v>
       </c>
       <c r="E122" s="76" t="n">
-        <v>722697.8334707203</v>
+        <v>722995.9550591903</v>
       </c>
       <c r="F122" s="76" t="n">
-        <v>952387.8068518915</v>
+        <v>953057.2822038847</v>
       </c>
       <c r="G122" s="76" t="n">
-        <v>1176700.426002327</v>
+        <v>1177460.573532549</v>
       </c>
       <c r="H122" s="76" t="n">
-        <v>909969.9198215513</v>
+        <v>910518.6228211276</v>
       </c>
       <c r="I122" s="76" t="n">
-        <v>1484539.33294644</v>
+        <v>1485329.040987046</v>
       </c>
       <c r="J122" s="76" t="n">
-        <v>1103395.27459993</v>
+        <v>1103923.251887197</v>
       </c>
       <c r="K122" s="76" t="n">
-        <v>1049341.360759533</v>
+        <v>1049815.384988272</v>
       </c>
       <c r="L122" s="76" t="n">
-        <v>1628922.912680479</v>
+        <v>1629727.402756394</v>
       </c>
       <c r="M122" s="76" t="n">
-        <v>1319548.875389338</v>
+        <v>1320231.534969314</v>
       </c>
       <c r="N122" s="76" t="n">
-        <v>1367061.239593414</v>
+        <v>1367790.104861324</v>
       </c>
       <c r="O122" s="76" t="n">
-        <v>1475165.278039854</v>
+        <v>1476075.04576711</v>
       </c>
       <c r="P122" s="76" t="n">
-        <v>1537225.079976406</v>
+        <v>1538203.362915461</v>
       </c>
       <c r="Q122" s="76" t="n">
-        <v>1360776.62676015</v>
+        <v>1362048.837604407</v>
       </c>
       <c r="R122" s="76" t="n">
-        <v>1539198.565641901</v>
+        <v>1540267.34037828</v>
       </c>
       <c r="S122" s="76" t="n">
-        <v>1552687.48108278</v>
+        <v>1553739.703976554</v>
       </c>
       <c r="T122" s="76" t="n">
-        <v>1316227.91140685</v>
+        <v>1317082.703947327</v>
       </c>
       <c r="U122" s="76" t="n">
-        <v>1899850.53162014</v>
+        <v>1901032.207251621</v>
       </c>
       <c r="V122" s="76" t="n">
-        <v>1481424.570761591</v>
+        <v>1482306.442721902</v>
       </c>
       <c r="W122" s="76" t="n">
-        <v>1382520.528856572</v>
+        <v>1383331.97887484</v>
       </c>
     </row>
     <row r="123">
@@ -18043,67 +18049,67 @@
         </is>
       </c>
       <c r="C123" s="76" t="n">
-        <v>3721072.370713406</v>
+        <v>3723105.225546628</v>
       </c>
       <c r="D123" s="76" t="n">
-        <v>3138341.179208202</v>
+        <v>3140370.851257495</v>
       </c>
       <c r="E123" s="76" t="n">
-        <v>2773077.677466346</v>
+        <v>2774247.406803576</v>
       </c>
       <c r="F123" s="76" t="n">
-        <v>2736936.302787752</v>
+        <v>2739133.673358674</v>
       </c>
       <c r="G123" s="76" t="n">
-        <v>3157877.558712178</v>
+        <v>3160255.008729954</v>
       </c>
       <c r="H123" s="76" t="n">
-        <v>2730645.10692223</v>
+        <v>2732384.919856451</v>
       </c>
       <c r="I123" s="76" t="n">
-        <v>3146662.909154304</v>
+        <v>3148703.112233471</v>
       </c>
       <c r="J123" s="76" t="n">
-        <v>2929822.852410489</v>
+        <v>2931331.780517601</v>
       </c>
       <c r="K123" s="76" t="n">
-        <v>2520089.997372282</v>
+        <v>2521721.350443615</v>
       </c>
       <c r="L123" s="76" t="n">
-        <v>4535202.514630959</v>
+        <v>4538229.313234355</v>
       </c>
       <c r="M123" s="76" t="n">
-        <v>3816218.952498722</v>
+        <v>3818676.943923544</v>
       </c>
       <c r="N123" s="76" t="n">
-        <v>5004081.991472824</v>
+        <v>5007681.368010868</v>
       </c>
       <c r="O123" s="76" t="n">
-        <v>4491661.0590525</v>
+        <v>4494920.192030213</v>
       </c>
       <c r="P123" s="76" t="n">
-        <v>3410069.254640541</v>
+        <v>3412639.693965379</v>
       </c>
       <c r="Q123" s="76" t="n">
-        <v>3030827.69031697</v>
+        <v>3033511.359940808</v>
       </c>
       <c r="R123" s="76" t="n">
-        <v>3124912.292628713</v>
+        <v>3127555.696321717</v>
       </c>
       <c r="S123" s="76" t="n">
-        <v>3180267.047497152</v>
+        <v>3182912.262857744</v>
       </c>
       <c r="T123" s="76" t="n">
-        <v>2870532.06642699</v>
+        <v>2872747.79835795</v>
       </c>
       <c r="U123" s="76" t="n">
-        <v>3302354.164191562</v>
+        <v>3304986.493086372</v>
       </c>
       <c r="V123" s="76" t="n">
-        <v>3019283.777084668</v>
+        <v>3021472.821168056</v>
       </c>
       <c r="W123" s="76" t="n">
-        <v>2864887.397202395</v>
+        <v>2867136.094690865</v>
       </c>
     </row>
     <row r="124">
@@ -18118,67 +18124,67 @@
         </is>
       </c>
       <c r="C124" s="76" t="n">
-        <v>4803431.454697706</v>
+        <v>4807904.915824987</v>
       </c>
       <c r="D124" s="76" t="n">
-        <v>5837319.850925908</v>
+        <v>5842817.773984389</v>
       </c>
       <c r="E124" s="76" t="n">
-        <v>4257169.163426651</v>
+        <v>4262103.741747271</v>
       </c>
       <c r="F124" s="76" t="n">
-        <v>6115098.792629171</v>
+        <v>6121566.373898883</v>
       </c>
       <c r="G124" s="76" t="n">
-        <v>6525413.14924841</v>
+        <v>6532654.687844849</v>
       </c>
       <c r="H124" s="76" t="n">
-        <v>5517191.97304708</v>
+        <v>5523386.09048564</v>
       </c>
       <c r="I124" s="76" t="n">
-        <v>7294223.390941462</v>
+        <v>7301462.866051183</v>
       </c>
       <c r="J124" s="76" t="n">
-        <v>5984206.683045343</v>
+        <v>5989879.901189953</v>
       </c>
       <c r="K124" s="76" t="n">
-        <v>5514347.025910169</v>
+        <v>5519647.75714637</v>
       </c>
       <c r="L124" s="76" t="n">
-        <v>8009467.319444058</v>
+        <v>8016641.83690676</v>
       </c>
       <c r="M124" s="76" t="n">
-        <v>6122428.595242916</v>
+        <v>6128791.487414774</v>
       </c>
       <c r="N124" s="76" t="n">
-        <v>5534247.333083774</v>
+        <v>5540332.600314167</v>
       </c>
       <c r="O124" s="76" t="n">
-        <v>6594578.737606332</v>
+        <v>6602218.362940888</v>
       </c>
       <c r="P124" s="76" t="n">
-        <v>7088418.649128621</v>
+        <v>7096750.761216843</v>
       </c>
       <c r="Q124" s="76" t="n">
-        <v>5587951.822226384</v>
+        <v>5597668.721990816</v>
       </c>
       <c r="R124" s="76" t="n">
-        <v>7436768.938554765</v>
+        <v>7445968.236344586</v>
       </c>
       <c r="S124" s="76" t="n">
-        <v>6986715.429813815</v>
+        <v>6995573.246038424</v>
       </c>
       <c r="T124" s="76" t="n">
-        <v>6073497.989263946</v>
+        <v>6081278.456481759</v>
       </c>
       <c r="U124" s="76" t="n">
-        <v>7897356.320088764</v>
+        <v>7907018.427546444</v>
       </c>
       <c r="V124" s="76" t="n">
-        <v>6596218.674386104</v>
+        <v>6604126.780172069</v>
       </c>
       <c r="W124" s="76" t="n">
-        <v>5879169.111640593</v>
+        <v>5886363.457732222</v>
       </c>
     </row>
     <row r="125">
@@ -18193,67 +18199,67 @@
         </is>
       </c>
       <c r="C125" s="76" t="n">
-        <v>14244468.26668067</v>
+        <v>14251125.86231842</v>
       </c>
       <c r="D125" s="76" t="n">
-        <v>14053907.83021875</v>
+        <v>14060584.10558415</v>
       </c>
       <c r="E125" s="76" t="n">
-        <v>12907817.94782811</v>
+        <v>12913837.28713985</v>
       </c>
       <c r="F125" s="76" t="n">
-        <v>15410344.11468378</v>
+        <v>15419199.95272164</v>
       </c>
       <c r="G125" s="76" t="n">
-        <v>16212545.43517104</v>
+        <v>16220494.30968094</v>
       </c>
       <c r="H125" s="76" t="n">
-        <v>16458791.26518359</v>
+        <v>16467046.41144254</v>
       </c>
       <c r="I125" s="76" t="n">
-        <v>17279864.2841657</v>
+        <v>17287784.31288565</v>
       </c>
       <c r="J125" s="76" t="n">
-        <v>18384410.01351682</v>
+        <v>18393092.21321733</v>
       </c>
       <c r="K125" s="76" t="n">
-        <v>17368446.04793041</v>
+        <v>17377506.38865441</v>
       </c>
       <c r="L125" s="76" t="n">
-        <v>15515895.42568047</v>
+        <v>15522942.35901054</v>
       </c>
       <c r="M125" s="76" t="n">
-        <v>16400902.72342923</v>
+        <v>16408782.09103552</v>
       </c>
       <c r="N125" s="76" t="n">
-        <v>16815908.15376297</v>
+        <v>16823984.08467059</v>
       </c>
       <c r="O125" s="76" t="n">
-        <v>18213363.51199149</v>
+        <v>18223082.19046741</v>
       </c>
       <c r="P125" s="76" t="n">
-        <v>18065091.81383567</v>
+        <v>18074782.68133215</v>
       </c>
       <c r="Q125" s="76" t="n">
-        <v>16721395.56607937</v>
+        <v>16733804.72955431</v>
       </c>
       <c r="R125" s="76" t="n">
-        <v>17988996.52463561</v>
+        <v>17999887.71273307</v>
       </c>
       <c r="S125" s="76" t="n">
-        <v>17845154.17361435</v>
+        <v>17855376.81843628</v>
       </c>
       <c r="T125" s="76" t="n">
-        <v>18112271.48951323</v>
+        <v>18122675.94494079</v>
       </c>
       <c r="U125" s="76" t="n">
-        <v>18577490.77874801</v>
+        <v>18587776.03839656</v>
       </c>
       <c r="V125" s="76" t="n">
-        <v>19605540.60097412</v>
+        <v>19616405.29670637</v>
       </c>
       <c r="W125" s="76" t="n">
-        <v>18930484.08421522</v>
+        <v>18941391.72285327</v>
       </c>
     </row>
     <row r="126">
@@ -18268,67 +18274,67 @@
         </is>
       </c>
       <c r="C126" s="76" t="n">
-        <v>19942260.67784789</v>
+        <v>19875622.76486487</v>
       </c>
       <c r="D126" s="76" t="n">
-        <v>18813593.53281118</v>
+        <v>18747142.65463912</v>
       </c>
       <c r="E126" s="76" t="n">
-        <v>13818982.70787765</v>
+        <v>13770871.04618835</v>
       </c>
       <c r="F126" s="76" t="n">
-        <v>25080637.80880368</v>
+        <v>24973052.50009183</v>
       </c>
       <c r="G126" s="76" t="n">
-        <v>19987813.33663847</v>
+        <v>19907289.01957365</v>
       </c>
       <c r="H126" s="76" t="n">
-        <v>25540319.20032375</v>
+        <v>25429758.73652111</v>
       </c>
       <c r="I126" s="76" t="n">
-        <v>19593012.10703735</v>
+        <v>19524040.24166248</v>
       </c>
       <c r="J126" s="76" t="n">
-        <v>17871349.83973438</v>
+        <v>17797884.89825618</v>
       </c>
       <c r="K126" s="76" t="n">
-        <v>18014246.75841161</v>
+        <v>17938687.51452477</v>
       </c>
       <c r="L126" s="76" t="n">
-        <v>29521416.78484224</v>
+        <v>29395668.47503617</v>
       </c>
       <c r="M126" s="76" t="n">
-        <v>16657058.87009743</v>
+        <v>16584314.15912451</v>
       </c>
       <c r="N126" s="76" t="n">
-        <v>24264179.51463921</v>
+        <v>24160504.68693002</v>
       </c>
       <c r="O126" s="76" t="n">
-        <v>22221778.6983331</v>
+        <v>22128284.51556966</v>
       </c>
       <c r="P126" s="76" t="n">
-        <v>19269823.34603624</v>
+        <v>19184655.89774621</v>
       </c>
       <c r="Q126" s="76" t="n">
-        <v>17447892.02977484</v>
+        <v>17375548.6703476</v>
       </c>
       <c r="R126" s="76" t="n">
-        <v>25978739.4795312</v>
+        <v>25850172.89478446</v>
       </c>
       <c r="S126" s="76" t="n">
-        <v>19659306.27777938</v>
+        <v>19563922.36654446</v>
       </c>
       <c r="T126" s="76" t="n">
-        <v>25807839.65957968</v>
+        <v>25678225.67585913</v>
       </c>
       <c r="U126" s="76" t="n">
-        <v>21787186.88608258</v>
+        <v>21689882.1437142</v>
       </c>
       <c r="V126" s="76" t="n">
-        <v>18266194.52033808</v>
+        <v>18176501.08237081</v>
       </c>
       <c r="W126" s="76" t="n">
-        <v>19235965.19256544</v>
+        <v>19141343.21799271</v>
       </c>
     </row>
     <row r="127">
@@ -18343,67 +18349,67 @@
         </is>
       </c>
       <c r="C127" s="76" t="n">
-        <v>29577255.57949002</v>
+        <v>29602434.59438542</v>
       </c>
       <c r="D127" s="76" t="n">
-        <v>32836348.17631608</v>
+        <v>32858440.57554391</v>
       </c>
       <c r="E127" s="76" t="n">
-        <v>30763483.92204539</v>
+        <v>30788896.68460496</v>
       </c>
       <c r="F127" s="76" t="n">
-        <v>34819094.74983945</v>
+        <v>34851661.00638582</v>
       </c>
       <c r="G127" s="76" t="n">
-        <v>39591614.26895265</v>
+        <v>39619604.19516683</v>
       </c>
       <c r="H127" s="76" t="n">
-        <v>33875275.84801949</v>
+        <v>33901664.30708525</v>
       </c>
       <c r="I127" s="76" t="n">
-        <v>40504772.10163338</v>
+        <v>40535072.13522014</v>
       </c>
       <c r="J127" s="76" t="n">
-        <v>39460984.2399368</v>
+        <v>39485863.22408938</v>
       </c>
       <c r="K127" s="76" t="n">
-        <v>33485130.56309447</v>
+        <v>33505852.3693857</v>
       </c>
       <c r="L127" s="76" t="n">
-        <v>48726038.3693421</v>
+        <v>48755615.13621239</v>
       </c>
       <c r="M127" s="76" t="n">
-        <v>37569522.10114496</v>
+        <v>37595579.30555425</v>
       </c>
       <c r="N127" s="76" t="n">
-        <v>35227328.96962322</v>
+        <v>35251769.39451814</v>
       </c>
       <c r="O127" s="76" t="n">
-        <v>41708637.05207628</v>
+        <v>41744528.94962948</v>
       </c>
       <c r="P127" s="76" t="n">
-        <v>41290998.73206527</v>
+        <v>41323528.32377794</v>
       </c>
       <c r="Q127" s="76" t="n">
-        <v>38686280.29373118</v>
+        <v>38740551.27143701</v>
       </c>
       <c r="R127" s="76" t="n">
-        <v>43143931.49782016</v>
+        <v>43183831.94071515</v>
       </c>
       <c r="S127" s="76" t="n">
-        <v>42516541.38384572</v>
+        <v>42551882.54582839</v>
       </c>
       <c r="T127" s="76" t="n">
-        <v>37934194.50244267</v>
+        <v>37966896.99818673</v>
       </c>
       <c r="U127" s="76" t="n">
-        <v>45966448.72058287</v>
+        <v>46005605.10122557</v>
       </c>
       <c r="V127" s="76" t="n">
-        <v>41944735.34659632</v>
+        <v>41978066.98818789</v>
       </c>
       <c r="W127" s="76" t="n">
-        <v>36551234.8909084</v>
+        <v>36580269.62688725</v>
       </c>
     </row>
     <row r="128">
@@ -18418,67 +18424,67 @@
         </is>
       </c>
       <c r="C128" s="76" t="n">
-        <v>448240.5748030384</v>
+        <v>448352.8103459529</v>
       </c>
       <c r="D128" s="76" t="n">
-        <v>559088.5769574804</v>
+        <v>559249.4371714186</v>
       </c>
       <c r="E128" s="76" t="n">
-        <v>491427.1863592847</v>
+        <v>491653.9029670639</v>
       </c>
       <c r="F128" s="76" t="n">
-        <v>670216.6823575677</v>
+        <v>670452.437182129</v>
       </c>
       <c r="G128" s="76" t="n">
-        <v>808253.9890268614</v>
+        <v>808550.2893167472</v>
       </c>
       <c r="H128" s="76" t="n">
-        <v>658738.3850443971</v>
+        <v>658940.2706704034</v>
       </c>
       <c r="I128" s="76" t="n">
-        <v>804801.3303959548</v>
+        <v>805011.388002654</v>
       </c>
       <c r="J128" s="76" t="n">
-        <v>796796.2422854818</v>
+        <v>796997.6661818806</v>
       </c>
       <c r="K128" s="76" t="n">
-        <v>693727.7656771159</v>
+        <v>693888.9602348323</v>
       </c>
       <c r="L128" s="76" t="n">
-        <v>918854.6339764153</v>
+        <v>919094.1747127682</v>
       </c>
       <c r="M128" s="76" t="n">
-        <v>807251.3806868409</v>
+        <v>807462.825426355</v>
       </c>
       <c r="N128" s="76" t="n">
-        <v>870996.3932278783</v>
+        <v>871227.4281158155</v>
       </c>
       <c r="O128" s="76" t="n">
-        <v>857243.5377948337</v>
+        <v>857472.0485850454</v>
       </c>
       <c r="P128" s="76" t="n">
-        <v>986000.5478515889</v>
+        <v>986277.4724094174</v>
       </c>
       <c r="Q128" s="76" t="n">
-        <v>903063.961812115</v>
+        <v>903679.0711056624</v>
       </c>
       <c r="R128" s="76" t="n">
-        <v>996356.7715724356</v>
+        <v>996686.4863393715</v>
       </c>
       <c r="S128" s="76" t="n">
-        <v>1020491.162414904</v>
+        <v>1020836.543356145</v>
       </c>
       <c r="T128" s="76" t="n">
-        <v>870994.1666205383</v>
+        <v>871262.7883276449</v>
       </c>
       <c r="U128" s="76" t="n">
-        <v>1064918.618384266</v>
+        <v>1065219.359524384</v>
       </c>
       <c r="V128" s="76" t="n">
-        <v>989381.1589989725</v>
+        <v>989658.3485444639</v>
       </c>
       <c r="W128" s="76" t="n">
-        <v>888167.7873085568</v>
+        <v>888408.7792747607</v>
       </c>
     </row>
     <row r="129">
@@ -18493,67 +18499,67 @@
         </is>
       </c>
       <c r="C129" s="76" t="n">
-        <v>5972849.891196575</v>
+        <v>5979887.38210301</v>
       </c>
       <c r="D129" s="76" t="n">
-        <v>4906190.316196849</v>
+        <v>4902782.996364959</v>
       </c>
       <c r="E129" s="76" t="n">
-        <v>5053360.009939687</v>
+        <v>5072096.157514379</v>
       </c>
       <c r="F129" s="76" t="n">
-        <v>4845959.293523349</v>
+        <v>4846129.617617716</v>
       </c>
       <c r="G129" s="76" t="n">
-        <v>5586518.180320117</v>
+        <v>5583130.058861407</v>
       </c>
       <c r="H129" s="76" t="n">
-        <v>4661479.014861076</v>
+        <v>4664614.727848759</v>
       </c>
       <c r="I129" s="76" t="n">
-        <v>5512905.176621868</v>
+        <v>5515330.521864582</v>
       </c>
       <c r="J129" s="76" t="n">
-        <v>5391733.925125428</v>
+        <v>5399097.108427046</v>
       </c>
       <c r="K129" s="76" t="n">
-        <v>4213071.638993089</v>
+        <v>4215502.204655889</v>
       </c>
       <c r="L129" s="76" t="n">
-        <v>6405344.513531855</v>
+        <v>6404029.988117374</v>
       </c>
       <c r="M129" s="76" t="n">
-        <v>5377193.128245034</v>
+        <v>5379655.941474024</v>
       </c>
       <c r="N129" s="76" t="n">
-        <v>13634381.81444319</v>
+        <v>13639779.6998303</v>
       </c>
       <c r="O129" s="76" t="n">
-        <v>7458460.849847262</v>
+        <v>7464403.932323738</v>
       </c>
       <c r="P129" s="76" t="n">
-        <v>5621299.087280242</v>
+        <v>5621108.752000555</v>
       </c>
       <c r="Q129" s="76" t="n">
-        <v>5347714.101491117</v>
+        <v>5365278.766078137</v>
       </c>
       <c r="R129" s="76" t="n">
-        <v>5850110.171562807</v>
+        <v>5852121.072297934</v>
       </c>
       <c r="S129" s="76" t="n">
-        <v>5628727.69185338</v>
+        <v>5628879.739029489</v>
       </c>
       <c r="T129" s="76" t="n">
-        <v>4930458.73920033</v>
+        <v>4933500.509861913</v>
       </c>
       <c r="U129" s="76" t="n">
-        <v>5936589.444309333</v>
+        <v>5939644.568598221</v>
       </c>
       <c r="V129" s="76" t="n">
-        <v>5580906.662024996</v>
+        <v>5586029.709239597</v>
       </c>
       <c r="W129" s="76" t="n">
-        <v>4605600.020650899</v>
+        <v>4608167.03031772</v>
       </c>
     </row>
     <row r="130">
@@ -18568,67 +18574,67 @@
         </is>
       </c>
       <c r="C130" s="76" t="n">
-        <v>7737492.03690224</v>
+        <v>7742587.677758603</v>
       </c>
       <c r="D130" s="76" t="n">
-        <v>7822613.49058628</v>
+        <v>7828166.572351914</v>
       </c>
       <c r="E130" s="76" t="n">
-        <v>6779529.062905993</v>
+        <v>6782917.686522875</v>
       </c>
       <c r="F130" s="76" t="n">
-        <v>8092102.620642752</v>
+        <v>8098438.533614838</v>
       </c>
       <c r="G130" s="76" t="n">
-        <v>8798866.568436738</v>
+        <v>8805290.310208967</v>
       </c>
       <c r="H130" s="76" t="n">
-        <v>7920559.735161506</v>
+        <v>7925855.208543692</v>
       </c>
       <c r="I130" s="76" t="n">
-        <v>11047516.14626096</v>
+        <v>11054105.10013033</v>
       </c>
       <c r="J130" s="76" t="n">
-        <v>9356892.890914615</v>
+        <v>9362013.116809595</v>
       </c>
       <c r="K130" s="76" t="n">
-        <v>9084754.195447024</v>
+        <v>9089625.17768297</v>
       </c>
       <c r="L130" s="76" t="n">
-        <v>12918447.9538849</v>
+        <v>12925689.56759377</v>
       </c>
       <c r="M130" s="76" t="n">
-        <v>10141611.75864869</v>
+        <v>10147559.4596235</v>
       </c>
       <c r="N130" s="76" t="n">
-        <v>14813134.00997445</v>
+        <v>14822017.31599577</v>
       </c>
       <c r="O130" s="76" t="n">
-        <v>11976069.2662063</v>
+        <v>11984498.26351323</v>
       </c>
       <c r="P130" s="76" t="n">
-        <v>10898708.13312238</v>
+        <v>10906739.81302471</v>
       </c>
       <c r="Q130" s="76" t="n">
-        <v>9727727.098149499</v>
+        <v>9738439.288163785</v>
       </c>
       <c r="R130" s="76" t="n">
-        <v>10614120.95968382</v>
+        <v>10622443.77007483</v>
       </c>
       <c r="S130" s="76" t="n">
-        <v>10032078.34071016</v>
+        <v>10039766.29464743</v>
       </c>
       <c r="T130" s="76" t="n">
-        <v>9250349.755200304</v>
+        <v>9257170.744002014</v>
       </c>
       <c r="U130" s="76" t="n">
-        <v>11898161.60856775</v>
+        <v>11906619.09282519</v>
       </c>
       <c r="V130" s="76" t="n">
-        <v>9994133.292615883</v>
+        <v>10000991.00173633</v>
       </c>
       <c r="W130" s="76" t="n">
-        <v>9595781.348965202</v>
+        <v>9602355.846410057</v>
       </c>
     </row>
     <row r="131">
@@ -18643,67 +18649,67 @@
         </is>
       </c>
       <c r="C131" s="76" t="n">
-        <v>8630008.735876963</v>
+        <v>8636142.053129297</v>
       </c>
       <c r="D131" s="76" t="n">
-        <v>11803460.57257738</v>
+        <v>11811814.14483557</v>
       </c>
       <c r="E131" s="76" t="n">
-        <v>7594203.640328866</v>
+        <v>7588544.790060932</v>
       </c>
       <c r="F131" s="76" t="n">
-        <v>12603575.33872433</v>
+        <v>12613621.7779723</v>
       </c>
       <c r="G131" s="76" t="n">
-        <v>13227228.43286265</v>
+        <v>13236895.0836547</v>
       </c>
       <c r="H131" s="76" t="n">
-        <v>9837170.788946019</v>
+        <v>9843743.643830337</v>
       </c>
       <c r="I131" s="76" t="n">
-        <v>15724081.1825749</v>
+        <v>15732372.07481795</v>
       </c>
       <c r="J131" s="76" t="n">
-        <v>11475053.23977267</v>
+        <v>11480011.44395713</v>
       </c>
       <c r="K131" s="76" t="n">
-        <v>11008670.60598749</v>
+        <v>11012913.04673748</v>
       </c>
       <c r="L131" s="76" t="n">
-        <v>18046070.21617165</v>
+        <v>18054309.18492107</v>
       </c>
       <c r="M131" s="76" t="n">
-        <v>13470988.13797385</v>
+        <v>13477816.69287004</v>
       </c>
       <c r="N131" s="76" t="n">
-        <v>11454249.78523273</v>
+        <v>11460434.84166736</v>
       </c>
       <c r="O131" s="76" t="n">
-        <v>14706567.36972855</v>
+        <v>14716130.72861956</v>
       </c>
       <c r="P131" s="76" t="n">
-        <v>15783905.82388953</v>
+        <v>15794605.4223596</v>
       </c>
       <c r="Q131" s="76" t="n">
-        <v>11441745.98087895</v>
+        <v>11443654.28470927</v>
       </c>
       <c r="R131" s="76" t="n">
-        <v>16297215.73446605</v>
+        <v>16309103.87430191</v>
       </c>
       <c r="S131" s="76" t="n">
-        <v>14486784.87209792</v>
+        <v>14497054.53003702</v>
       </c>
       <c r="T131" s="76" t="n">
-        <v>11687855.21649303</v>
+        <v>11695655.67027763</v>
       </c>
       <c r="U131" s="76" t="n">
-        <v>17363043.57446369</v>
+        <v>17373635.44558065</v>
       </c>
       <c r="V131" s="76" t="n">
-        <v>13257148.62990748</v>
+        <v>13264655.20951309</v>
       </c>
       <c r="W131" s="76" t="n">
-        <v>12254326.84258728</v>
+        <v>12261040.24691073</v>
       </c>
     </row>
     <row r="132">
@@ -18718,67 +18724,67 @@
         </is>
       </c>
       <c r="C132" s="76" t="n">
-        <v>17047329.77091914</v>
+        <v>17049305.98033</v>
       </c>
       <c r="D132" s="76" t="n">
-        <v>21594933.3537919</v>
+        <v>21592616.5870533</v>
       </c>
       <c r="E132" s="76" t="n">
-        <v>15783182.67581145</v>
+        <v>15777782.84275237</v>
       </c>
       <c r="F132" s="76" t="n">
-        <v>19881813.76602987</v>
+        <v>19886174.82322891</v>
       </c>
       <c r="G132" s="76" t="n">
-        <v>21167375.17494664</v>
+        <v>21173027.72034056</v>
       </c>
       <c r="H132" s="76" t="n">
-        <v>17663531.61403479</v>
+        <v>17672159.86664894</v>
       </c>
       <c r="I132" s="76" t="n">
-        <v>25025570.9282495</v>
+        <v>25050725.30978301</v>
       </c>
       <c r="J132" s="76" t="n">
-        <v>18921928.35261033</v>
+        <v>18943295.90078906</v>
       </c>
       <c r="K132" s="76" t="n">
-        <v>19244460.92808331</v>
+        <v>19265857.70439792</v>
       </c>
       <c r="L132" s="76" t="n">
-        <v>40402322.35038781</v>
+        <v>40437235.9291612</v>
       </c>
       <c r="M132" s="76" t="n">
-        <v>21123924.58185947</v>
+        <v>21146418.99059524</v>
       </c>
       <c r="N132" s="76" t="n">
-        <v>20742941.84441655</v>
+        <v>20763083.05323101</v>
       </c>
       <c r="O132" s="76" t="n">
-        <v>22459907.54407502</v>
+        <v>22476665.92649304</v>
       </c>
       <c r="P132" s="76" t="n">
-        <v>23486138.92636318</v>
+        <v>23500730.07644444</v>
       </c>
       <c r="Q132" s="76" t="n">
-        <v>18346610.75280814</v>
+        <v>18315571.14762429</v>
       </c>
       <c r="R132" s="76" t="n">
-        <v>23554411.46996353</v>
+        <v>23573650.87485049</v>
       </c>
       <c r="S132" s="76" t="n">
-        <v>21518340.68899613</v>
+        <v>21536508.70663074</v>
       </c>
       <c r="T132" s="76" t="n">
-        <v>19330802.29039143</v>
+        <v>19348933.5319678</v>
       </c>
       <c r="U132" s="76" t="n">
-        <v>26496901.97552574</v>
+        <v>26527144.97873618</v>
       </c>
       <c r="V132" s="76" t="n">
-        <v>20884533.27178903</v>
+        <v>20909564.06620251</v>
       </c>
       <c r="W132" s="76" t="n">
-        <v>21120606.95414523</v>
+        <v>21146508.1820359</v>
       </c>
     </row>
     <row r="133">
@@ -18793,67 +18799,67 @@
         </is>
       </c>
       <c r="C133" s="76" t="n">
-        <v>1271488.562004698</v>
+        <v>1272173.14797442</v>
       </c>
       <c r="D133" s="76" t="n">
-        <v>995561.3576229761</v>
+        <v>996149.9488989688</v>
       </c>
       <c r="E133" s="76" t="n">
-        <v>917227.815246165</v>
+        <v>917732.0976322006</v>
       </c>
       <c r="F133" s="76" t="n">
-        <v>1089266.369689467</v>
+        <v>1090045.493806025</v>
       </c>
       <c r="G133" s="76" t="n">
-        <v>1134501.332857226</v>
+        <v>1135257.570088291</v>
       </c>
       <c r="H133" s="76" t="n">
-        <v>1148453.241855898</v>
+        <v>1149201.669352618</v>
       </c>
       <c r="I133" s="76" t="n">
-        <v>1256208.053024908</v>
+        <v>1256912.848902749</v>
       </c>
       <c r="J133" s="76" t="n">
-        <v>1021091.322852743</v>
+        <v>1021657.130608516</v>
       </c>
       <c r="K133" s="76" t="n">
-        <v>1077701.534933769</v>
+        <v>1078243.370077301</v>
       </c>
       <c r="L133" s="76" t="n">
-        <v>1218800.69552692</v>
+        <v>1219374.457176474</v>
       </c>
       <c r="M133" s="76" t="n">
-        <v>1734225.909488748</v>
+        <v>1735203.118904923</v>
       </c>
       <c r="N133" s="76" t="n">
-        <v>2362412.350472784</v>
+        <v>2363727.622846165</v>
       </c>
       <c r="O133" s="76" t="n">
-        <v>1529532.655524979</v>
+        <v>1530439.119976924</v>
       </c>
       <c r="P133" s="76" t="n">
-        <v>1154229.550784866</v>
+        <v>1154943.063777723</v>
       </c>
       <c r="Q133" s="76" t="n">
-        <v>1035142.794667346</v>
+        <v>1036162.146916386</v>
       </c>
       <c r="R133" s="76" t="n">
-        <v>1194979.262646279</v>
+        <v>1195833.387363281</v>
       </c>
       <c r="S133" s="76" t="n">
-        <v>1203093.932178441</v>
+        <v>1203925.53391587</v>
       </c>
       <c r="T133" s="76" t="n">
-        <v>1204028.0201482</v>
+        <v>1204847.716786823</v>
       </c>
       <c r="U133" s="76" t="n">
-        <v>1251289.090613515</v>
+        <v>1252081.692134484</v>
       </c>
       <c r="V133" s="76" t="n">
-        <v>1105383.618883747</v>
+        <v>1106083.759182889</v>
       </c>
       <c r="W133" s="76" t="n">
-        <v>1136462.852598302</v>
+        <v>1137160.250895283</v>
       </c>
     </row>
     <row r="134">
@@ -18868,67 +18874,67 @@
         </is>
       </c>
       <c r="C134" s="76" t="n">
-        <v>2109085.523021423</v>
+        <v>2110487.335322916</v>
       </c>
       <c r="D134" s="76" t="n">
-        <v>2529663.388646912</v>
+        <v>2531392.519720613</v>
       </c>
       <c r="E134" s="76" t="n">
-        <v>1903503.559481891</v>
+        <v>1903427.89347971</v>
       </c>
       <c r="F134" s="76" t="n">
-        <v>2159948.410314512</v>
+        <v>2161608.771822945</v>
       </c>
       <c r="G134" s="76" t="n">
-        <v>2406922.256350376</v>
+        <v>2408667.196390892</v>
       </c>
       <c r="H134" s="76" t="n">
-        <v>1950706.453663568</v>
+        <v>1951981.876495047</v>
       </c>
       <c r="I134" s="76" t="n">
-        <v>2847968.468144853</v>
+        <v>2850023.191424295</v>
       </c>
       <c r="J134" s="76" t="n">
-        <v>2043926.190285297</v>
+        <v>2045278.713314806</v>
       </c>
       <c r="K134" s="76" t="n">
-        <v>1977327.553182099</v>
+        <v>1978823.746662202</v>
       </c>
       <c r="L134" s="76" t="n">
-        <v>3331125.321868755</v>
+        <v>3333983.065023895</v>
       </c>
       <c r="M134" s="76" t="n">
-        <v>2349457.986846157</v>
+        <v>2351045.789041923</v>
       </c>
       <c r="N134" s="76" t="n">
-        <v>2510234.183982706</v>
+        <v>2511987.569986172</v>
       </c>
       <c r="O134" s="76" t="n">
-        <v>2822235.657608348</v>
+        <v>2824522.974714332</v>
       </c>
       <c r="P134" s="76" t="n">
-        <v>2686883.86012741</v>
+        <v>2689134.99848248</v>
       </c>
       <c r="Q134" s="76" t="n">
-        <v>2138747.221861022</v>
+        <v>2139183.509574596</v>
       </c>
       <c r="R134" s="76" t="n">
-        <v>2620277.061133439</v>
+        <v>2622603.195699037</v>
       </c>
       <c r="S134" s="76" t="n">
-        <v>2391222.136876992</v>
+        <v>2393321.1878269</v>
       </c>
       <c r="T134" s="76" t="n">
-        <v>2130094.117939798</v>
+        <v>2131894.811691489</v>
       </c>
       <c r="U134" s="76" t="n">
-        <v>3012207.625212561</v>
+        <v>3014859.009056368</v>
       </c>
       <c r="V134" s="76" t="n">
-        <v>2274671.964202599</v>
+        <v>2276590.168232426</v>
       </c>
       <c r="W134" s="76" t="n">
-        <v>2197314.491774056</v>
+        <v>2199274.899787843</v>
       </c>
     </row>
     <row r="135">
@@ -18943,67 +18949,67 @@
         </is>
       </c>
       <c r="C135" s="76" t="n">
-        <v>2523331.486976003</v>
+        <v>2519244.633226711</v>
       </c>
       <c r="D135" s="76" t="n">
-        <v>2820921.797542669</v>
+        <v>2815284.98377061</v>
       </c>
       <c r="E135" s="76" t="n">
-        <v>1930618.117893695</v>
+        <v>1921754.430321754</v>
       </c>
       <c r="F135" s="76" t="n">
-        <v>2630853.75213493</v>
+        <v>2624580.271616481</v>
       </c>
       <c r="G135" s="76" t="n">
-        <v>2969228.554157801</v>
+        <v>2960739.594754363</v>
       </c>
       <c r="H135" s="76" t="n">
-        <v>2441390.840742187</v>
+        <v>2435947.495387424</v>
       </c>
       <c r="I135" s="76" t="n">
-        <v>3235053.882450081</v>
+        <v>3225663.85027044</v>
       </c>
       <c r="J135" s="76" t="n">
-        <v>2089328.58329064</v>
+        <v>2084379.389511952</v>
       </c>
       <c r="K135" s="76" t="n">
-        <v>2002922.300347005</v>
+        <v>1996039.146100828</v>
       </c>
       <c r="L135" s="76" t="n">
-        <v>4092122.941540545</v>
+        <v>4068056.204061864</v>
       </c>
       <c r="M135" s="76" t="n">
-        <v>3273285.099886998</v>
+        <v>3262035.791804476</v>
       </c>
       <c r="N135" s="76" t="n">
-        <v>3166178.415113507</v>
+        <v>3156068.835840171</v>
       </c>
       <c r="O135" s="76" t="n">
-        <v>3456885.598629155</v>
+        <v>3444311.042428387</v>
       </c>
       <c r="P135" s="76" t="n">
-        <v>2999672.456044382</v>
+        <v>2988680.236250659</v>
       </c>
       <c r="Q135" s="76" t="n">
-        <v>2302161.726211691</v>
+        <v>2291736.172086696</v>
       </c>
       <c r="R135" s="76" t="n">
-        <v>3103181.948873292</v>
+        <v>3090534.628299206</v>
       </c>
       <c r="S135" s="76" t="n">
-        <v>2961626.882428026</v>
+        <v>2948314.922358373</v>
       </c>
       <c r="T135" s="76" t="n">
-        <v>2608777.967513425</v>
+        <v>2597791.30212584</v>
       </c>
       <c r="U135" s="76" t="n">
-        <v>3405569.147814985</v>
+        <v>3389601.291582818</v>
       </c>
       <c r="V135" s="76" t="n">
-        <v>2429587.786713446</v>
+        <v>2418974.876158526</v>
       </c>
       <c r="W135" s="76" t="n">
-        <v>2319185.696799846</v>
+        <v>2307916.87218083</v>
       </c>
     </row>
     <row r="136">
@@ -19018,67 +19024,67 @@
         </is>
       </c>
       <c r="C136" s="76" t="n">
-        <v>456066.0631883972</v>
+        <v>456533.66274538</v>
       </c>
       <c r="D136" s="76" t="n">
-        <v>613695.7458021729</v>
+        <v>614099.2279570893</v>
       </c>
       <c r="E136" s="76" t="n">
-        <v>441891.6131976562</v>
+        <v>442123.542185829</v>
       </c>
       <c r="F136" s="76" t="n">
-        <v>1834436.877419416</v>
+        <v>1836339.21958422</v>
       </c>
       <c r="G136" s="76" t="n">
-        <v>2371262.154657666</v>
+        <v>2372829.0263095</v>
       </c>
       <c r="H136" s="76" t="n">
-        <v>1932419.224510233</v>
+        <v>1933817.004842198</v>
       </c>
       <c r="I136" s="76" t="n">
-        <v>3347803.203219351</v>
+        <v>3350267.237374778</v>
       </c>
       <c r="J136" s="76" t="n">
-        <v>2738814.180407441</v>
+        <v>2740952.222045257</v>
       </c>
       <c r="K136" s="76" t="n">
-        <v>3002808.349163761</v>
+        <v>3004873.062742148</v>
       </c>
       <c r="L136" s="76" t="n">
-        <v>4227347.767570924</v>
+        <v>4230797.862874423</v>
       </c>
       <c r="M136" s="76" t="n">
-        <v>3757918.612164384</v>
+        <v>3760520.115034095</v>
       </c>
       <c r="N136" s="76" t="n">
-        <v>3245904.775315152</v>
+        <v>3248286.902164825</v>
       </c>
       <c r="O136" s="76" t="n">
-        <v>4057391.844474156</v>
+        <v>4061435.209464875</v>
       </c>
       <c r="P136" s="76" t="n">
-        <v>4629190.408387562</v>
+        <v>4633115.974245551</v>
       </c>
       <c r="Q136" s="76" t="n">
-        <v>3651196.126693316</v>
+        <v>3655315.277812398</v>
       </c>
       <c r="R136" s="76" t="n">
-        <v>4986111.041050067</v>
+        <v>4991209.989896129</v>
       </c>
       <c r="S136" s="76" t="n">
-        <v>4543905.869975716</v>
+        <v>4547891.637793428</v>
       </c>
       <c r="T136" s="76" t="n">
-        <v>3722761.938501739</v>
+        <v>3726126.166332597</v>
       </c>
       <c r="U136" s="76" t="n">
-        <v>5702152.380465622</v>
+        <v>5707386.465580233</v>
       </c>
       <c r="V136" s="76" t="n">
-        <v>4700599.625874208</v>
+        <v>4704982.948623685</v>
       </c>
       <c r="W136" s="76" t="n">
-        <v>4498839.865285301</v>
+        <v>4502894.959189114</v>
       </c>
     </row>
     <row r="137">
@@ -19093,67 +19099,67 @@
         </is>
       </c>
       <c r="C137" s="76" t="n">
-        <v>4358704.560997095</v>
+        <v>4360490.639451195</v>
       </c>
       <c r="D137" s="76" t="n">
-        <v>5001245.33249009</v>
+        <v>5009261.176862222</v>
       </c>
       <c r="E137" s="76" t="n">
-        <v>3808373.429328968</v>
+        <v>3816428.628886374</v>
       </c>
       <c r="F137" s="76" t="n">
-        <v>5604332.570644986</v>
+        <v>5608714.169727923</v>
       </c>
       <c r="G137" s="76" t="n">
-        <v>6057230.970009025</v>
+        <v>6067950.781947484</v>
       </c>
       <c r="H137" s="76" t="n">
-        <v>5287000.911194208</v>
+        <v>5294291.449454311</v>
       </c>
       <c r="I137" s="76" t="n">
-        <v>7347331.594382739</v>
+        <v>7354564.217185066</v>
       </c>
       <c r="J137" s="76" t="n">
-        <v>6031057.065165564</v>
+        <v>6037207.888670959</v>
       </c>
       <c r="K137" s="76" t="n">
-        <v>5666414.6363351</v>
+        <v>5669746.139474194</v>
       </c>
       <c r="L137" s="76" t="n">
-        <v>9479635.089557623</v>
+        <v>9485675.609927071</v>
       </c>
       <c r="M137" s="76" t="n">
-        <v>6943478.664066002</v>
+        <v>6951875.132041059</v>
       </c>
       <c r="N137" s="76" t="n">
-        <v>6710897.825939322</v>
+        <v>6719041.987532107</v>
       </c>
       <c r="O137" s="76" t="n">
-        <v>8651146.010710124</v>
+        <v>8658710.721663432</v>
       </c>
       <c r="P137" s="76" t="n">
-        <v>8584278.600693628</v>
+        <v>8596936.411534399</v>
       </c>
       <c r="Q137" s="76" t="n">
-        <v>6941701.15717376</v>
+        <v>6964020.190264183</v>
       </c>
       <c r="R137" s="76" t="n">
-        <v>8631898.789001042</v>
+        <v>8641401.596631538</v>
       </c>
       <c r="S137" s="76" t="n">
-        <v>7940460.571089462</v>
+        <v>7953364.908778646</v>
       </c>
       <c r="T137" s="76" t="n">
-        <v>7203541.617602257</v>
+        <v>7213648.358382453</v>
       </c>
       <c r="U137" s="76" t="n">
-        <v>9514296.940943319</v>
+        <v>9525670.98973955</v>
       </c>
       <c r="V137" s="76" t="n">
-        <v>7811263.071158468</v>
+        <v>7820856.898986982</v>
       </c>
       <c r="W137" s="76" t="n">
-        <v>7238868.762763992</v>
+        <v>7246674.784375607</v>
       </c>
     </row>
     <row r="138">
@@ -19168,67 +19174,67 @@
         </is>
       </c>
       <c r="C138" s="76" t="n">
-        <v>5099534.825062184</v>
+        <v>5102385.781616947</v>
       </c>
       <c r="D138" s="76" t="n">
-        <v>2404250.192092514</v>
+        <v>2405968.832999448</v>
       </c>
       <c r="E138" s="76" t="n">
-        <v>5095484.388120632</v>
+        <v>5097451.214682974</v>
       </c>
       <c r="F138" s="76" t="n">
-        <v>2841831.355203529</v>
+        <v>2844002.855384168</v>
       </c>
       <c r="G138" s="76" t="n">
-        <v>3625678.282841155</v>
+        <v>3628126.07814317</v>
       </c>
       <c r="H138" s="76" t="n">
-        <v>3936351.954071734</v>
+        <v>3938867.237421892</v>
       </c>
       <c r="I138" s="76" t="n">
-        <v>3434206.766506142</v>
+        <v>3436136.472562263</v>
       </c>
       <c r="J138" s="76" t="n">
-        <v>3050267.095455137</v>
+        <v>3051875.936774057</v>
       </c>
       <c r="K138" s="76" t="n">
-        <v>4294892.295317084</v>
+        <v>4297094.231749639</v>
       </c>
       <c r="L138" s="76" t="n">
-        <v>6969444.758227815</v>
+        <v>6973145.002761733</v>
       </c>
       <c r="M138" s="76" t="n">
-        <v>6039260.326555608</v>
+        <v>6042613.096186023</v>
       </c>
       <c r="N138" s="76" t="n">
-        <v>6920197.657569349</v>
+        <v>6924087.97873775</v>
       </c>
       <c r="O138" s="76" t="n">
-        <v>6776097.097433133</v>
+        <v>6780402.395999495</v>
       </c>
       <c r="P138" s="76" t="n">
-        <v>3918694.564412621</v>
+        <v>3921355.33830155</v>
       </c>
       <c r="Q138" s="76" t="n">
-        <v>5125958.296164598</v>
+        <v>5130092.135503772</v>
       </c>
       <c r="R138" s="76" t="n">
-        <v>3744542.743412837</v>
+        <v>3747338.0127708</v>
       </c>
       <c r="S138" s="76" t="n">
-        <v>4056862.751595813</v>
+        <v>4059780.386651986</v>
       </c>
       <c r="T138" s="76" t="n">
-        <v>4233787.571563641</v>
+        <v>4236765.212144201</v>
       </c>
       <c r="U138" s="76" t="n">
-        <v>3673238.153008355</v>
+        <v>3675700.174359782</v>
       </c>
       <c r="V138" s="76" t="n">
-        <v>3553559.228641179</v>
+        <v>3555897.32273365</v>
       </c>
       <c r="W138" s="76" t="n">
-        <v>4632565.784844951</v>
+        <v>4635582.550563537</v>
       </c>
     </row>
     <row r="139">
@@ -19243,67 +19249,67 @@
         </is>
       </c>
       <c r="C139" s="76" t="n">
-        <v>734819.5303084729</v>
+        <v>735162.3770318329</v>
       </c>
       <c r="D139" s="76" t="n">
-        <v>822027.9150580869</v>
+        <v>822441.1933357476</v>
       </c>
       <c r="E139" s="76" t="n">
-        <v>1146200.344348815</v>
+        <v>1146575.387715854</v>
       </c>
       <c r="F139" s="76" t="n">
-        <v>1341228.916006824</v>
+        <v>1341996.06412629</v>
       </c>
       <c r="G139" s="76" t="n">
-        <v>1341593.061482515</v>
+        <v>1342351.176162167</v>
       </c>
       <c r="H139" s="76" t="n">
-        <v>1868463.415447335</v>
+        <v>1869423.985050261</v>
       </c>
       <c r="I139" s="76" t="n">
-        <v>1956030.982157329</v>
+        <v>1956978.61473962</v>
       </c>
       <c r="J139" s="76" t="n">
-        <v>1775069.630764065</v>
+        <v>1775895.487939552</v>
       </c>
       <c r="K139" s="76" t="n">
-        <v>1450202.185109734</v>
+        <v>1450836.03437021</v>
       </c>
       <c r="L139" s="76" t="n">
-        <v>2572446.289051206</v>
+        <v>2573636.196538953</v>
       </c>
       <c r="M139" s="76" t="n">
-        <v>1554063.395036096</v>
+        <v>1554822.037996205</v>
       </c>
       <c r="N139" s="76" t="n">
-        <v>1698785.424416909</v>
+        <v>1699622.082352191</v>
       </c>
       <c r="O139" s="76" t="n">
-        <v>1735334.569039112</v>
+        <v>1736238.956409389</v>
       </c>
       <c r="P139" s="76" t="n">
-        <v>1587990.765450721</v>
+        <v>1588853.756940169</v>
       </c>
       <c r="Q139" s="76" t="n">
-        <v>1798623.051293574</v>
+        <v>1799784.434648326</v>
       </c>
       <c r="R139" s="76" t="n">
-        <v>2027920.417460948</v>
+        <v>2029148.755461595</v>
       </c>
       <c r="S139" s="76" t="n">
-        <v>1770666.986215168</v>
+        <v>1771739.166875343</v>
       </c>
       <c r="T139" s="76" t="n">
-        <v>2659776.361855853</v>
+        <v>2661316.49108829</v>
       </c>
       <c r="U139" s="76" t="n">
-        <v>2622370.799542411</v>
+        <v>2623855.966194599</v>
       </c>
       <c r="V139" s="76" t="n">
-        <v>2285023.491926969</v>
+        <v>2286300.316213254</v>
       </c>
       <c r="W139" s="76" t="n">
-        <v>2123968.870102318</v>
+        <v>2125136.139080944</v>
       </c>
     </row>
     <row r="140">
@@ -19318,67 +19324,67 @@
         </is>
       </c>
       <c r="C140" s="76" t="n">
-        <v>7097706.646758592</v>
+        <v>7098244.240548571</v>
       </c>
       <c r="D140" s="76" t="n">
-        <v>3971608.346678106</v>
+        <v>3971778.554110775</v>
       </c>
       <c r="E140" s="76" t="n">
-        <v>5009962.266923602</v>
+        <v>5010433.641036765</v>
       </c>
       <c r="F140" s="76" t="n">
-        <v>4097574.135939097</v>
+        <v>4098647.987426497</v>
       </c>
       <c r="G140" s="76" t="n">
-        <v>4503755.928272585</v>
+        <v>4504830.570333089</v>
       </c>
       <c r="H140" s="76" t="n">
-        <v>3802359.956954581</v>
+        <v>3803573.003089771</v>
       </c>
       <c r="I140" s="76" t="n">
-        <v>3837989.586867122</v>
+        <v>3838922.856621885</v>
       </c>
       <c r="J140" s="76" t="n">
-        <v>5523846.026116696</v>
+        <v>5525024.241671484</v>
       </c>
       <c r="K140" s="76" t="n">
-        <v>2952040.321140277</v>
+        <v>2952303.461736716</v>
       </c>
       <c r="L140" s="76" t="n">
-        <v>6126853.88543951</v>
+        <v>6126631.28553458</v>
       </c>
       <c r="M140" s="76" t="n">
-        <v>4597670.489039553</v>
+        <v>4598535.326149342</v>
       </c>
       <c r="N140" s="76" t="n">
-        <v>11400251.19089439</v>
+        <v>11402568.7282682</v>
       </c>
       <c r="O140" s="76" t="n">
-        <v>8864024.095583228</v>
+        <v>8864655.633019468</v>
       </c>
       <c r="P140" s="76" t="n">
-        <v>5323454.286426209</v>
+        <v>5323740.068205868</v>
       </c>
       <c r="Q140" s="76" t="n">
-        <v>5252670.261545231</v>
+        <v>5253548.196802686</v>
       </c>
       <c r="R140" s="76" t="n">
-        <v>4855604.479756823</v>
+        <v>4856452.945716094</v>
       </c>
       <c r="S140" s="76" t="n">
-        <v>4791212.98249257</v>
+        <v>4791986.204742218</v>
       </c>
       <c r="T140" s="76" t="n">
-        <v>4186198.615845808</v>
+        <v>4187028.431903456</v>
       </c>
       <c r="U140" s="76" t="n">
-        <v>4665268.443108719</v>
+        <v>4666008.042432963</v>
       </c>
       <c r="V140" s="76" t="n">
-        <v>5587569.927037508</v>
+        <v>5588410.457147978</v>
       </c>
       <c r="W140" s="76" t="n">
-        <v>3628586.446670308</v>
+        <v>3628918.896161164</v>
       </c>
     </row>
     <row r="141">
@@ -19393,67 +19399,67 @@
         </is>
       </c>
       <c r="C141" s="76" t="n">
-        <v>4194649.422532285</v>
+        <v>4197549.453585615</v>
       </c>
       <c r="D141" s="76" t="n">
-        <v>4578456.94543498</v>
+        <v>4581922.119198677</v>
       </c>
       <c r="E141" s="76" t="n">
-        <v>4275900.739975544</v>
+        <v>4280251.489546131</v>
       </c>
       <c r="F141" s="76" t="n">
-        <v>5140406.131289464</v>
+        <v>5144572.074543822</v>
       </c>
       <c r="G141" s="76" t="n">
-        <v>5967732.640442072</v>
+        <v>5972748.920921757</v>
       </c>
       <c r="H141" s="76" t="n">
-        <v>4748047.299055648</v>
+        <v>4751635.063482889</v>
       </c>
       <c r="I141" s="76" t="n">
-        <v>6328847.357574699</v>
+        <v>6333219.348893579</v>
       </c>
       <c r="J141" s="76" t="n">
-        <v>5952523.954939713</v>
+        <v>5956550.221196449</v>
       </c>
       <c r="K141" s="76" t="n">
-        <v>5592115.939390439</v>
+        <v>5595550.970378389</v>
       </c>
       <c r="L141" s="76" t="n">
-        <v>7305432.842300957</v>
+        <v>7310286.681885184</v>
       </c>
       <c r="M141" s="76" t="n">
-        <v>5905009.370343399</v>
+        <v>5909182.221080204</v>
       </c>
       <c r="N141" s="76" t="n">
-        <v>6361678.603291183</v>
+        <v>6366231.261949122</v>
       </c>
       <c r="O141" s="76" t="n">
-        <v>6471613.990598371</v>
+        <v>6476842.583360348</v>
       </c>
       <c r="P141" s="76" t="n">
-        <v>6651614.635575905</v>
+        <v>6657243.279185618</v>
       </c>
       <c r="Q141" s="76" t="n">
-        <v>6026962.960895504</v>
+        <v>6036475.69759964</v>
       </c>
       <c r="R141" s="76" t="n">
-        <v>6699294.963081281</v>
+        <v>6705262.521472321</v>
       </c>
       <c r="S141" s="76" t="n">
-        <v>6534654.521386387</v>
+        <v>6540652.751810616</v>
       </c>
       <c r="T141" s="76" t="n">
-        <v>5755130.925375698</v>
+        <v>5760144.172720322</v>
       </c>
       <c r="U141" s="76" t="n">
-        <v>7067292.077474556</v>
+        <v>7073276.835605205</v>
       </c>
       <c r="V141" s="76" t="n">
-        <v>6371518.484624114</v>
+        <v>6376874.882235102</v>
       </c>
       <c r="W141" s="76" t="n">
-        <v>6339102.562715598</v>
+        <v>6344266.775381424</v>
       </c>
     </row>
     <row r="142">
@@ -19468,67 +19474,67 @@
         </is>
       </c>
       <c r="C142" s="76" t="n">
-        <v>394572.8758874664</v>
+        <v>383074.8955929141</v>
       </c>
       <c r="D142" s="76" t="n">
-        <v>449201.2743045675</v>
+        <v>436700.1958281328</v>
       </c>
       <c r="E142" s="76" t="n">
-        <v>128222.8471865928</v>
+        <v>112404.316227573</v>
       </c>
       <c r="F142" s="76" t="n">
-        <v>249461.0205592809</v>
+        <v>241559.0905186069</v>
       </c>
       <c r="G142" s="76" t="n">
-        <v>307914.3297604917</v>
+        <v>299553.2062972168</v>
       </c>
       <c r="H142" s="76" t="n">
-        <v>126988.5834569928</v>
+        <v>123354.2239728252</v>
       </c>
       <c r="I142" s="76" t="n">
-        <v>393326.3890882718</v>
+        <v>384225.288110699</v>
       </c>
       <c r="J142" s="76" t="n">
-        <v>248227.4766289085</v>
+        <v>243383.4027324088</v>
       </c>
       <c r="K142" s="76" t="n">
-        <v>114564.4285307847</v>
+        <v>113500.3950194644</v>
       </c>
       <c r="L142" s="76" t="n">
-        <v>492024.6697861524</v>
+        <v>482400.0037851102</v>
       </c>
       <c r="M142" s="76" t="n">
-        <v>373914.7786031371</v>
+        <v>365723.9980361449</v>
       </c>
       <c r="N142" s="76" t="n">
-        <v>249716.4444093945</v>
+        <v>243413.6636357892</v>
       </c>
       <c r="O142" s="76" t="n">
-        <v>466759.1601917219</v>
+        <v>452850.9962243905</v>
       </c>
       <c r="P142" s="76" t="n">
-        <v>404348.2773638854</v>
+        <v>391575.4553225627</v>
       </c>
       <c r="Q142" s="76" t="n">
-        <v>142797.3108413691</v>
+        <v>117569.6385157537</v>
       </c>
       <c r="R142" s="76" t="n">
-        <v>306010.9427253929</v>
+        <v>296299.1181390865</v>
       </c>
       <c r="S142" s="76" t="n">
-        <v>270575.0069072206</v>
+        <v>262092.318917895</v>
       </c>
       <c r="T142" s="76" t="n">
-        <v>125241.1621745767</v>
+        <v>121211.359534275</v>
       </c>
       <c r="U142" s="76" t="n">
-        <v>358191.4273990719</v>
+        <v>347340.9142353227</v>
       </c>
       <c r="V142" s="76" t="n">
-        <v>260526.5642377163</v>
+        <v>253256.103602465</v>
       </c>
       <c r="W142" s="76" t="n">
-        <v>132512.7865315419</v>
+        <v>129066.2173362786</v>
       </c>
     </row>
     <row r="143">
@@ -19543,67 +19549,67 @@
         </is>
       </c>
       <c r="C143" s="76" t="n">
-        <v>1681402.647297163</v>
+        <v>1678645.573372363</v>
       </c>
       <c r="D143" s="76" t="n">
-        <v>2429922.190592041</v>
+        <v>2426256.68028541</v>
       </c>
       <c r="E143" s="76" t="n">
-        <v>1493101.537359808</v>
+        <v>1497907.304077666</v>
       </c>
       <c r="F143" s="76" t="n">
-        <v>2444986.89372651</v>
+        <v>2441752.033265143</v>
       </c>
       <c r="G143" s="76" t="n">
-        <v>2734536.083788534</v>
+        <v>2731619.71663958</v>
       </c>
       <c r="H143" s="76" t="n">
-        <v>2153374.388582965</v>
+        <v>2151439.820681615</v>
       </c>
       <c r="I143" s="76" t="n">
-        <v>3437548.871073666</v>
+        <v>3435451.34233636</v>
       </c>
       <c r="J143" s="76" t="n">
-        <v>2281114.084054649</v>
+        <v>2280366.591073589</v>
       </c>
       <c r="K143" s="76" t="n">
-        <v>2607281.372321798</v>
+        <v>2606440.574618125</v>
       </c>
       <c r="L143" s="76" t="n">
-        <v>4763433.637444085</v>
+        <v>4760365.948077728</v>
       </c>
       <c r="M143" s="76" t="n">
-        <v>3002285.968162998</v>
+        <v>3000532.076945181</v>
       </c>
       <c r="N143" s="76" t="n">
-        <v>2795534.07809091</v>
+        <v>2793500.694283802</v>
       </c>
       <c r="O143" s="76" t="n">
-        <v>3597663.365957256</v>
+        <v>3593059.91118271</v>
       </c>
       <c r="P143" s="76" t="n">
-        <v>3821175.281284652</v>
+        <v>3815853.816846156</v>
       </c>
       <c r="Q143" s="76" t="n">
-        <v>2762853.609874686</v>
+        <v>2764513.308708232</v>
       </c>
       <c r="R143" s="76" t="n">
-        <v>3755265.409392938</v>
+        <v>3750775.317755247</v>
       </c>
       <c r="S143" s="76" t="n">
-        <v>3455809.059206684</v>
+        <v>3451854.770315334</v>
       </c>
       <c r="T143" s="76" t="n">
-        <v>2941667.999082363</v>
+        <v>2938576.245540997</v>
       </c>
       <c r="U143" s="76" t="n">
-        <v>4197013.4863256</v>
+        <v>4192981.325913972</v>
       </c>
       <c r="V143" s="76" t="n">
-        <v>3107146.332923172</v>
+        <v>3104586.706292063</v>
       </c>
       <c r="W143" s="76" t="n">
-        <v>3248183.682734874</v>
+        <v>3245394.239814309</v>
       </c>
     </row>
     <row r="144">
@@ -19618,67 +19624,67 @@
         </is>
       </c>
       <c r="C144" s="77" t="n">
-        <v>142782024.4007722</v>
+        <v>142767149.1798976</v>
       </c>
       <c r="D144" s="77" t="n">
-        <v>148847791.1593881</v>
+        <v>148821211.4852525</v>
       </c>
       <c r="E144" s="77" t="n">
-        <v>127095418.4865235</v>
+        <v>127092437.4471536</v>
       </c>
       <c r="F144" s="77" t="n">
-        <v>160642493.7098016</v>
+        <v>160606306.0100988</v>
       </c>
       <c r="G144" s="77" t="n">
-        <v>169660562.1149375</v>
+        <v>169649325.0948987</v>
       </c>
       <c r="H144" s="77" t="n">
-        <v>155169229.1209008</v>
+        <v>155133605.6349851</v>
       </c>
       <c r="I144" s="77" t="n">
-        <v>184840264.044471</v>
+        <v>184862301.3720603</v>
       </c>
       <c r="J144" s="77" t="n">
-        <v>164431839.1639131</v>
+        <v>164445961.7308613</v>
       </c>
       <c r="K144" s="77" t="n">
-        <v>152934557.8034383</v>
+        <v>152934468.9917814</v>
       </c>
       <c r="L144" s="77" t="n">
-        <v>237206650.8928874</v>
+        <v>237163535.6853098</v>
       </c>
       <c r="M144" s="77" t="n">
-        <v>172337219.7054095</v>
+        <v>172347378.1352307</v>
       </c>
       <c r="N144" s="77" t="n">
-        <v>197150301.9989658</v>
+        <v>197137141.9057417</v>
       </c>
       <c r="O144" s="77" t="n">
-        <v>200592116.9505011</v>
+        <v>200591749.7003832</v>
       </c>
       <c r="P144" s="77" t="n">
-        <v>189199212.0807415</v>
+        <v>189201454.6562854</v>
       </c>
       <c r="Q144" s="77" t="n">
-        <v>165780800.4412508</v>
+        <v>165798156.8569888</v>
       </c>
       <c r="R144" s="77" t="n">
-        <v>198449849.4645953</v>
+        <v>198428549.3683461</v>
       </c>
       <c r="S144" s="77" t="n">
-        <v>184347185.2500582</v>
+        <v>184351376.5473693</v>
       </c>
       <c r="T144" s="77" t="n">
-        <v>174956030.0841423</v>
+        <v>174924781.0904615</v>
       </c>
       <c r="U144" s="77" t="n">
-        <v>207659192.1944734</v>
+        <v>207677326.5633207</v>
       </c>
       <c r="V144" s="77" t="n">
-        <v>181106350.6017004</v>
+        <v>181122592.1859721</v>
       </c>
       <c r="W144" s="77" t="n">
-        <v>170804335.9618669</v>
+        <v>170808602.7687467</v>
       </c>
     </row>
     <row r="145">
@@ -19698,7 +19704,9 @@
       <c r="D145" s="142" t="n">
         <v>835270.6437529958</v>
       </c>
-      <c r="E145" s="142" t="inlineStr"/>
+      <c r="E145" s="142" t="n">
+        <v>718404.8371598427</v>
+      </c>
       <c r="F145" s="142" t="inlineStr"/>
       <c r="G145" s="142" t="inlineStr"/>
       <c r="H145" s="142" t="inlineStr"/>
@@ -19735,7 +19743,9 @@
       <c r="D146" s="142" t="n">
         <v>2954101.731758048</v>
       </c>
-      <c r="E146" s="142" t="inlineStr"/>
+      <c r="E146" s="142" t="n">
+        <v>2897471.969812693</v>
+      </c>
       <c r="F146" s="142" t="inlineStr"/>
       <c r="G146" s="142" t="inlineStr"/>
       <c r="H146" s="142" t="inlineStr"/>
@@ -19772,7 +19782,9 @@
       <c r="D147" s="142" t="n">
         <v>3514222.217315792</v>
       </c>
-      <c r="E147" s="142" t="inlineStr"/>
+      <c r="E147" s="142" t="n">
+        <v>4302033.955099371</v>
+      </c>
       <c r="F147" s="142" t="inlineStr"/>
       <c r="G147" s="142" t="inlineStr"/>
       <c r="H147" s="142" t="inlineStr"/>
@@ -19809,7 +19821,9 @@
       <c r="D148" s="142" t="n">
         <v>14433399.03141358</v>
       </c>
-      <c r="E148" s="142" t="inlineStr"/>
+      <c r="E148" s="142" t="n">
+        <v>14051874.13313056</v>
+      </c>
       <c r="F148" s="142" t="inlineStr"/>
       <c r="G148" s="142" t="inlineStr"/>
       <c r="H148" s="142" t="inlineStr"/>
@@ -19846,7 +19860,9 @@
       <c r="D149" s="142" t="n">
         <v>15664426.79520496</v>
       </c>
-      <c r="E149" s="142" t="inlineStr"/>
+      <c r="E149" s="142" t="n">
+        <v>16836112.83181437</v>
+      </c>
       <c r="F149" s="142" t="inlineStr"/>
       <c r="G149" s="142" t="inlineStr"/>
       <c r="H149" s="142" t="inlineStr"/>
@@ -19883,7 +19899,9 @@
       <c r="D150" s="142" t="n">
         <v>32181996.40934461</v>
       </c>
-      <c r="E150" s="142" t="inlineStr"/>
+      <c r="E150" s="142" t="n">
+        <v>31127061.709466</v>
+      </c>
       <c r="F150" s="142" t="inlineStr"/>
       <c r="G150" s="142" t="inlineStr"/>
       <c r="H150" s="142" t="inlineStr"/>
@@ -19920,7 +19938,9 @@
       <c r="D151" s="142" t="n">
         <v>255270.1036511827</v>
       </c>
-      <c r="E151" s="142" t="inlineStr"/>
+      <c r="E151" s="142" t="n">
+        <v>199994.047971055</v>
+      </c>
       <c r="F151" s="142" t="inlineStr"/>
       <c r="G151" s="142" t="inlineStr"/>
       <c r="H151" s="142" t="inlineStr"/>
@@ -19957,7 +19977,9 @@
       <c r="D152" s="142" t="n">
         <v>3884357.362490644</v>
       </c>
-      <c r="E152" s="142" t="inlineStr"/>
+      <c r="E152" s="142" t="n">
+        <v>3911194.782169435</v>
+      </c>
       <c r="F152" s="142" t="inlineStr"/>
       <c r="G152" s="142" t="inlineStr"/>
       <c r="H152" s="142" t="inlineStr"/>
@@ -19994,7 +20016,9 @@
       <c r="D153" s="142" t="n">
         <v>7368446.022947022</v>
       </c>
-      <c r="E153" s="142" t="inlineStr"/>
+      <c r="E153" s="142" t="n">
+        <v>7475390.742186077</v>
+      </c>
       <c r="F153" s="142" t="inlineStr"/>
       <c r="G153" s="142" t="inlineStr"/>
       <c r="H153" s="142" t="inlineStr"/>
@@ -20031,7 +20055,9 @@
       <c r="D154" s="142" t="n">
         <v>9547951.947112856</v>
       </c>
-      <c r="E154" s="142" t="inlineStr"/>
+      <c r="E154" s="142" t="n">
+        <v>8831895.216363268</v>
+      </c>
       <c r="F154" s="142" t="inlineStr"/>
       <c r="G154" s="142" t="inlineStr"/>
       <c r="H154" s="142" t="inlineStr"/>
@@ -20068,7 +20094,9 @@
       <c r="D155" s="142" t="n">
         <v>15723423.61789861</v>
       </c>
-      <c r="E155" s="142" t="inlineStr"/>
+      <c r="E155" s="142" t="n">
+        <v>14172905.62818664</v>
+      </c>
       <c r="F155" s="142" t="inlineStr"/>
       <c r="G155" s="142" t="inlineStr"/>
       <c r="H155" s="142" t="inlineStr"/>
@@ -20105,7 +20133,9 @@
       <c r="D156" s="142" t="n">
         <v>1049133.35769629</v>
       </c>
-      <c r="E156" s="142" t="inlineStr"/>
+      <c r="E156" s="142" t="n">
+        <v>906362.3647455756</v>
+      </c>
       <c r="F156" s="142" t="inlineStr"/>
       <c r="G156" s="142" t="inlineStr"/>
       <c r="H156" s="142" t="inlineStr"/>
@@ -20142,7 +20172,9 @@
       <c r="D157" s="142" t="n">
         <v>1800520.743372813</v>
       </c>
-      <c r="E157" s="142" t="inlineStr"/>
+      <c r="E157" s="142" t="n">
+        <v>1811676.981542232</v>
+      </c>
       <c r="F157" s="142" t="inlineStr"/>
       <c r="G157" s="142" t="inlineStr"/>
       <c r="H157" s="142" t="inlineStr"/>
@@ -20179,7 +20211,9 @@
       <c r="D158" s="142" t="n">
         <v>1785973.862278007</v>
       </c>
-      <c r="E158" s="142" t="inlineStr"/>
+      <c r="E158" s="142" t="n">
+        <v>1693158.672488496</v>
+      </c>
       <c r="F158" s="142" t="inlineStr"/>
       <c r="G158" s="142" t="inlineStr"/>
       <c r="H158" s="142" t="inlineStr"/>
@@ -20216,7 +20250,9 @@
       <c r="D159" s="142" t="n">
         <v>2060653.807908294</v>
       </c>
-      <c r="E159" s="142" t="inlineStr"/>
+      <c r="E159" s="142" t="n">
+        <v>1905595.859645415</v>
+      </c>
       <c r="F159" s="142" t="inlineStr"/>
       <c r="G159" s="142" t="inlineStr"/>
       <c r="H159" s="142" t="inlineStr"/>
@@ -20253,7 +20289,9 @@
       <c r="D160" s="142" t="n">
         <v>7073901.389196357</v>
       </c>
-      <c r="E160" s="142" t="inlineStr"/>
+      <c r="E160" s="142" t="n">
+        <v>6356848.849721549</v>
+      </c>
       <c r="F160" s="142" t="inlineStr"/>
       <c r="G160" s="142" t="inlineStr"/>
       <c r="H160" s="142" t="inlineStr"/>
@@ -20290,7 +20328,9 @@
       <c r="D161" s="142" t="n">
         <v>3452220.746576293</v>
       </c>
-      <c r="E161" s="142" t="inlineStr"/>
+      <c r="E161" s="142" t="n">
+        <v>5333609.748357096</v>
+      </c>
       <c r="F161" s="142" t="inlineStr"/>
       <c r="G161" s="142" t="inlineStr"/>
       <c r="H161" s="142" t="inlineStr"/>
@@ -20327,7 +20367,9 @@
       <c r="D162" s="142" t="n">
         <v>771931.2697240734</v>
       </c>
-      <c r="E162" s="142" t="inlineStr"/>
+      <c r="E162" s="142" t="n">
+        <v>584854.7167544232</v>
+      </c>
       <c r="F162" s="142" t="inlineStr"/>
       <c r="G162" s="142" t="inlineStr"/>
       <c r="H162" s="142" t="inlineStr"/>
@@ -20364,7 +20406,9 @@
       <c r="D163" s="142" t="n">
         <v>3195900.603972844</v>
       </c>
-      <c r="E163" s="142" t="inlineStr"/>
+      <c r="E163" s="142" t="n">
+        <v>2666430.966048842</v>
+      </c>
       <c r="F163" s="142" t="inlineStr"/>
       <c r="G163" s="142" t="inlineStr"/>
       <c r="H163" s="142" t="inlineStr"/>
@@ -20401,7 +20445,9 @@
       <c r="D164" s="142" t="n">
         <v>4305975.149173906</v>
       </c>
-      <c r="E164" s="142" t="inlineStr"/>
+      <c r="E164" s="142" t="n">
+        <v>5072261.553202425</v>
+      </c>
       <c r="F164" s="142" t="inlineStr"/>
       <c r="G164" s="142" t="inlineStr"/>
       <c r="H164" s="142" t="inlineStr"/>
@@ -20438,7 +20484,9 @@
       <c r="D165" s="142" t="n">
         <v>356291.0218568806</v>
       </c>
-      <c r="E165" s="142" t="inlineStr"/>
+      <c r="E165" s="142" t="n">
+        <v>309135.9690400375</v>
+      </c>
       <c r="F165" s="142" t="inlineStr"/>
       <c r="G165" s="142" t="inlineStr"/>
       <c r="H165" s="142" t="inlineStr"/>
@@ -20475,7 +20523,9 @@
       <c r="D166" s="142" t="n">
         <v>2592336.165353939</v>
       </c>
-      <c r="E166" s="142" t="inlineStr"/>
+      <c r="E166" s="142" t="n">
+        <v>2560925.465094599</v>
+      </c>
       <c r="F166" s="142" t="inlineStr"/>
       <c r="G166" s="142" t="inlineStr"/>
       <c r="H166" s="142" t="inlineStr"/>
@@ -20513,7 +20563,7 @@
         <v>134807704</v>
       </c>
       <c r="E167" s="146" t="n">
-        <v>0</v>
+        <v>133725201</v>
       </c>
       <c r="F167" s="146" t="n">
         <v>0</v>
@@ -26914,7 +26964,9 @@
       <c r="D100" s="142" t="n">
         <v>673606.8248661296</v>
       </c>
-      <c r="E100" s="142" t="inlineStr"/>
+      <c r="E100" s="142" t="n">
+        <v>714366.4914858241</v>
+      </c>
       <c r="F100" s="142" t="inlineStr"/>
       <c r="G100" s="142" t="inlineStr"/>
       <c r="H100" s="142" t="inlineStr"/>
@@ -26951,7 +27003,9 @@
       <c r="D101" s="142" t="n">
         <v>84170.76788884448</v>
       </c>
-      <c r="E101" s="142" t="inlineStr"/>
+      <c r="E101" s="142" t="n">
+        <v>108279.068288033</v>
+      </c>
       <c r="F101" s="142" t="inlineStr"/>
       <c r="G101" s="142" t="inlineStr"/>
       <c r="H101" s="142" t="inlineStr"/>
@@ -26988,7 +27042,9 @@
       <c r="D102" s="142" t="n">
         <v>-160516.3203715592</v>
       </c>
-      <c r="E102" s="142" t="inlineStr"/>
+      <c r="E102" s="142" t="n">
+        <v>-143320.3461998284</v>
+      </c>
       <c r="F102" s="142" t="inlineStr"/>
       <c r="G102" s="142" t="inlineStr"/>
       <c r="H102" s="142" t="inlineStr"/>
@@ -27025,7 +27081,9 @@
       <c r="D103" s="142" t="n">
         <v>462091.6039104101</v>
       </c>
-      <c r="E103" s="142" t="inlineStr"/>
+      <c r="E103" s="142" t="n">
+        <v>496876.0381640932</v>
+      </c>
       <c r="F103" s="142" t="inlineStr"/>
       <c r="G103" s="142" t="inlineStr"/>
       <c r="H103" s="142" t="inlineStr"/>
@@ -27062,7 +27120,9 @@
       <c r="D104" s="142" t="n">
         <v>317455.471632855</v>
       </c>
-      <c r="E104" s="142" t="inlineStr"/>
+      <c r="E104" s="142" t="n">
+        <v>348153.9848120422</v>
+      </c>
       <c r="F104" s="142" t="inlineStr"/>
       <c r="G104" s="142" t="inlineStr"/>
       <c r="H104" s="142" t="inlineStr"/>
@@ -27099,7 +27159,9 @@
       <c r="D105" s="142" t="n">
         <v>580226.2678390504</v>
       </c>
-      <c r="E105" s="142" t="inlineStr"/>
+      <c r="E105" s="142" t="n">
+        <v>618347.9657859316</v>
+      </c>
       <c r="F105" s="142" t="inlineStr"/>
       <c r="G105" s="142" t="inlineStr"/>
       <c r="H105" s="142" t="inlineStr"/>
@@ -27136,7 +27198,9 @@
       <c r="D106" s="142" t="n">
         <v>-204506.1079619591</v>
       </c>
-      <c r="E106" s="142" t="inlineStr"/>
+      <c r="E106" s="142" t="n">
+        <v>-188552.8301852985</v>
+      </c>
       <c r="F106" s="142" t="inlineStr"/>
       <c r="G106" s="142" t="inlineStr"/>
       <c r="H106" s="142" t="inlineStr"/>
@@ -27173,7 +27237,9 @@
       <c r="D107" s="142" t="n">
         <v>-184203.0622710723</v>
       </c>
-      <c r="E107" s="142" t="inlineStr"/>
+      <c r="E107" s="142" t="n">
+        <v>-167676.2304249095</v>
+      </c>
       <c r="F107" s="142" t="inlineStr"/>
       <c r="G107" s="142" t="inlineStr"/>
       <c r="H107" s="142" t="inlineStr"/>
@@ -27210,7 +27276,9 @@
       <c r="D108" s="142" t="n">
         <v>3127766.172364263</v>
       </c>
-      <c r="E108" s="142" t="inlineStr"/>
+      <c r="E108" s="142" t="n">
+        <v>3237854.997889221</v>
+      </c>
       <c r="F108" s="142" t="inlineStr"/>
       <c r="G108" s="142" t="inlineStr"/>
       <c r="H108" s="142" t="inlineStr"/>
@@ -27247,7 +27315,9 @@
       <c r="D109" s="142" t="n">
         <v>1075431.795417933</v>
       </c>
-      <c r="E109" s="142" t="inlineStr"/>
+      <c r="E109" s="142" t="n">
+        <v>1127542.879484864</v>
+      </c>
       <c r="F109" s="142" t="inlineStr"/>
       <c r="G109" s="142" t="inlineStr"/>
       <c r="H109" s="142" t="inlineStr"/>
@@ -27284,7 +27354,9 @@
       <c r="D110" s="142" t="n">
         <v>1813375.015316824</v>
       </c>
-      <c r="E110" s="142" t="inlineStr"/>
+      <c r="E110" s="142" t="n">
+        <v>1886332.741965292</v>
+      </c>
       <c r="F110" s="142" t="inlineStr"/>
       <c r="G110" s="142" t="inlineStr"/>
       <c r="H110" s="142" t="inlineStr"/>
@@ -27321,7 +27393,9 @@
       <c r="D111" s="142" t="n">
         <v>8474772.448315213</v>
       </c>
-      <c r="E111" s="142" t="inlineStr"/>
+      <c r="E111" s="142" t="n">
+        <v>8735912.365184646</v>
+      </c>
       <c r="F111" s="142" t="inlineStr"/>
       <c r="G111" s="142" t="inlineStr"/>
       <c r="H111" s="142" t="inlineStr"/>
@@ -27358,7 +27432,9 @@
       <c r="D112" s="142" t="n">
         <v>1669197.123053071</v>
       </c>
-      <c r="E112" s="142" t="inlineStr"/>
+      <c r="E112" s="142" t="n">
+        <v>1738081.873750092</v>
+      </c>
       <c r="F112" s="142" t="inlineStr"/>
       <c r="G112" s="142" t="inlineStr"/>
       <c r="H112" s="142" t="inlineStr"/>
@@ -27396,7 +27472,7 @@
         <v>17728868</v>
       </c>
       <c r="E113" s="146" t="n">
-        <v>0</v>
+        <v>18512199</v>
       </c>
       <c r="F113" s="146" t="n">
         <v>0</v>
@@ -28526,7 +28602,9 @@
       <c r="C35" s="142" t="n">
         <v>14964177</v>
       </c>
-      <c r="D35" s="142" t="inlineStr"/>
+      <c r="D35" s="142" t="n">
+        <v>13055296</v>
+      </c>
       <c r="E35" s="142" t="inlineStr"/>
       <c r="F35" s="142" t="inlineStr"/>
       <c r="G35" s="142" t="inlineStr"/>
@@ -37747,7 +37825,9 @@
       <c r="D135" s="142" t="n">
         <v>604972.0905551288</v>
       </c>
-      <c r="E135" s="142" t="inlineStr"/>
+      <c r="E135" s="142" t="n">
+        <v>609048.3931967367</v>
+      </c>
       <c r="F135" s="142" t="inlineStr"/>
       <c r="G135" s="142" t="inlineStr"/>
       <c r="H135" s="142" t="inlineStr"/>
@@ -37784,7 +37864,9 @@
       <c r="D136" s="142" t="n">
         <v>221690.4851829857</v>
       </c>
-      <c r="E136" s="142" t="inlineStr"/>
+      <c r="E136" s="142" t="n">
+        <v>223184.2359269936</v>
+      </c>
       <c r="F136" s="142" t="inlineStr"/>
       <c r="G136" s="142" t="inlineStr"/>
       <c r="H136" s="142" t="inlineStr"/>
@@ -37821,7 +37903,9 @@
       <c r="D137" s="142" t="n">
         <v>569312.1967623892</v>
       </c>
-      <c r="E137" s="142" t="inlineStr"/>
+      <c r="E137" s="142" t="n">
+        <v>573148.2229986287</v>
+      </c>
       <c r="F137" s="142" t="inlineStr"/>
       <c r="G137" s="142" t="inlineStr"/>
       <c r="H137" s="142" t="inlineStr"/>
@@ -37858,7 +37942,9 @@
       <c r="D138" s="142" t="n">
         <v>1704205.177458667</v>
       </c>
-      <c r="E138" s="142" t="inlineStr"/>
+      <c r="E138" s="142" t="n">
+        <v>1715688.113903458</v>
+      </c>
       <c r="F138" s="142" t="inlineStr"/>
       <c r="G138" s="142" t="inlineStr"/>
       <c r="H138" s="142" t="inlineStr"/>
@@ -37895,7 +37981,9 @@
       <c r="D139" s="142" t="n">
         <v>138913.2440318456</v>
       </c>
-      <c r="E139" s="142" t="inlineStr"/>
+      <c r="E139" s="142" t="n">
+        <v>139849.2416298203</v>
+      </c>
       <c r="F139" s="142" t="inlineStr"/>
       <c r="G139" s="142" t="inlineStr"/>
       <c r="H139" s="142" t="inlineStr"/>
@@ -37932,7 +38020,9 @@
       <c r="D140" s="142" t="n">
         <v>1158273.539428927</v>
       </c>
-      <c r="E140" s="142" t="inlineStr"/>
+      <c r="E140" s="142" t="n">
+        <v>1166077.987869096</v>
+      </c>
       <c r="F140" s="142" t="inlineStr"/>
       <c r="G140" s="142" t="inlineStr"/>
       <c r="H140" s="142" t="inlineStr"/>
@@ -37969,7 +38059,9 @@
       <c r="D141" s="142" t="n">
         <v>1552278.297639939</v>
       </c>
-      <c r="E141" s="142" t="inlineStr"/>
+      <c r="E141" s="142" t="n">
+        <v>1562737.550593863</v>
+      </c>
       <c r="F141" s="142" t="inlineStr"/>
       <c r="G141" s="142" t="inlineStr"/>
       <c r="H141" s="142" t="inlineStr"/>
@@ -38006,7 +38098,9 @@
       <c r="D142" s="142" t="n">
         <v>237618.2205260819</v>
       </c>
-      <c r="E142" s="142" t="inlineStr"/>
+      <c r="E142" s="142" t="n">
+        <v>239219.2923691414</v>
+      </c>
       <c r="F142" s="142" t="inlineStr"/>
       <c r="G142" s="142" t="inlineStr"/>
       <c r="H142" s="142" t="inlineStr"/>
@@ -38043,7 +38137,9 @@
       <c r="D143" s="142" t="n">
         <v>1077700.976171529</v>
       </c>
-      <c r="E143" s="142" t="inlineStr"/>
+      <c r="E143" s="142" t="n">
+        <v>1084962.526587847</v>
+      </c>
       <c r="F143" s="142" t="inlineStr"/>
       <c r="G143" s="142" t="inlineStr"/>
       <c r="H143" s="142" t="inlineStr"/>
@@ -38080,7 +38176,9 @@
       <c r="D144" s="142" t="n">
         <v>993551.81480099</v>
       </c>
-      <c r="E144" s="142" t="inlineStr"/>
+      <c r="E144" s="142" t="n">
+        <v>1000246.36807126</v>
+      </c>
       <c r="F144" s="142" t="inlineStr"/>
       <c r="G144" s="142" t="inlineStr"/>
       <c r="H144" s="142" t="inlineStr"/>
@@ -38117,7 +38215,9 @@
       <c r="D145" s="142" t="n">
         <v>1589174.23170129</v>
       </c>
-      <c r="E145" s="142" t="inlineStr"/>
+      <c r="E145" s="142" t="n">
+        <v>1599882.089501333</v>
+      </c>
       <c r="F145" s="142" t="inlineStr"/>
       <c r="G145" s="142" t="inlineStr"/>
       <c r="H145" s="142" t="inlineStr"/>
@@ -38154,7 +38254,9 @@
       <c r="D146" s="142" t="n">
         <v>497518.9327953149</v>
       </c>
-      <c r="E146" s="142" t="inlineStr"/>
+      <c r="E146" s="142" t="n">
+        <v>500871.2159364141</v>
+      </c>
       <c r="F146" s="142" t="inlineStr"/>
       <c r="G146" s="142" t="inlineStr"/>
       <c r="H146" s="142" t="inlineStr"/>
@@ -38191,7 +38293,9 @@
       <c r="D147" s="142" t="n">
         <v>7078014.202623614</v>
       </c>
-      <c r="E147" s="142" t="inlineStr"/>
+      <c r="E147" s="142" t="n">
+        <v>7125705.870457444</v>
+      </c>
       <c r="F147" s="142" t="inlineStr"/>
       <c r="G147" s="142" t="inlineStr"/>
       <c r="H147" s="142" t="inlineStr"/>
@@ -38228,7 +38332,9 @@
       <c r="D148" s="142" t="n">
         <v>3824362.08958842</v>
       </c>
-      <c r="E148" s="142" t="inlineStr"/>
+      <c r="E148" s="142" t="n">
+        <v>3850130.645744373</v>
+      </c>
       <c r="F148" s="142" t="inlineStr"/>
       <c r="G148" s="142" t="inlineStr"/>
       <c r="H148" s="142" t="inlineStr"/>
@@ -38265,7 +38371,9 @@
       <c r="D149" s="142" t="n">
         <v>731920.2145793394</v>
       </c>
-      <c r="E149" s="142" t="inlineStr"/>
+      <c r="E149" s="142" t="n">
+        <v>736851.893826556</v>
+      </c>
       <c r="F149" s="142" t="inlineStr"/>
       <c r="G149" s="142" t="inlineStr"/>
       <c r="H149" s="142" t="inlineStr"/>
@@ -38302,7 +38410,9 @@
       <c r="D150" s="142" t="n">
         <v>2382518.960193055</v>
       </c>
-      <c r="E150" s="142" t="inlineStr"/>
+      <c r="E150" s="142" t="n">
+        <v>2398572.375685667</v>
+      </c>
       <c r="F150" s="142" t="inlineStr"/>
       <c r="G150" s="142" t="inlineStr"/>
       <c r="H150" s="142" t="inlineStr"/>
@@ -38339,7 +38449,9 @@
       <c r="D151" s="142" t="n">
         <v>168934.3909912622</v>
       </c>
-      <c r="E151" s="142" t="inlineStr"/>
+      <c r="E151" s="142" t="n">
+        <v>170072.6711119604</v>
+      </c>
       <c r="F151" s="142" t="inlineStr"/>
       <c r="G151" s="142" t="inlineStr"/>
       <c r="H151" s="142" t="inlineStr"/>
@@ -38376,7 +38488,9 @@
       <c r="D152" s="142" t="n">
         <v>274487.4786102968</v>
       </c>
-      <c r="E152" s="142" t="inlineStr"/>
+      <c r="E152" s="142" t="n">
+        <v>276336.9755567109</v>
+      </c>
       <c r="F152" s="142" t="inlineStr"/>
       <c r="G152" s="142" t="inlineStr"/>
       <c r="H152" s="142" t="inlineStr"/>
@@ -38413,7 +38527,9 @@
       <c r="D153" s="142" t="n">
         <v>482642.5574147715</v>
       </c>
-      <c r="E153" s="142" t="inlineStr"/>
+      <c r="E153" s="142" t="n">
+        <v>485894.6035214554</v>
+      </c>
       <c r="F153" s="142" t="inlineStr"/>
       <c r="G153" s="142" t="inlineStr"/>
       <c r="H153" s="142" t="inlineStr"/>
@@ -38450,7 +38566,9 @@
       <c r="D154" s="142" t="n">
         <v>1595402.898944153</v>
       </c>
-      <c r="E154" s="142" t="inlineStr"/>
+      <c r="E154" s="142" t="n">
+        <v>1606152.725511239</v>
+      </c>
       <c r="F154" s="142" t="inlineStr"/>
       <c r="G154" s="142" t="inlineStr"/>
       <c r="H154" s="142" t="inlineStr"/>
@@ -38488,7 +38606,7 @@
         <v>26883492</v>
       </c>
       <c r="E155" s="146" t="n">
-        <v>0</v>
+        <v>27064633</v>
       </c>
       <c r="F155" s="146" t="n">
         <v>0</v>
@@ -39599,6 +39717,9 @@
       </c>
       <c r="C35" s="142" t="n">
         <v>4592305</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5072139</v>
       </c>
     </row>
   </sheetData>
@@ -40655,6 +40776,9 @@
       <c r="C35" s="142" t="n">
         <v>1943079</v>
       </c>
+      <c r="D35" t="n">
+        <v>1252335</v>
+      </c>
     </row>
     <row customHeight="1" ht="26" r="37" s="126"/>
   </sheetData>

--- a/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
+++ b/covid19_forecaster/data/templates/Budget Impact Analysis Template.xlsx
@@ -2822,6 +2822,18 @@
       <c r="D35" t="n">
         <v>3407</v>
       </c>
+      <c r="E35" t="n">
+        <v>2448</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20447</v>
+      </c>
+      <c r="G35" t="n">
+        <v>22100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>167484</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3885,6 +3897,18 @@
       <c r="D35" t="n">
         <v>5440406</v>
       </c>
+      <c r="E35" t="n">
+        <v>24146425</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7604059</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3111273</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5644521</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4682,25 +4706,25 @@
         </is>
       </c>
       <c r="B6" s="40" t="n">
-        <v>0.228432804707738</v>
+        <v>0.2284476542456257</v>
       </c>
       <c r="C6" s="40" t="n">
-        <v>0.1325365767988044</v>
+        <v>0.132564389532147</v>
       </c>
       <c r="D6" s="40" t="n">
-        <v>0.08274790929430176</v>
+        <v>0.08275119675077047</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.05028268220142973</v>
+        <v>0.05027741874445424</v>
       </c>
       <c r="F6" s="40" t="n">
-        <v>0.03066373475852013</v>
+        <v>0.03066465701531973</v>
       </c>
       <c r="G6" s="40" t="n">
-        <v>0.01889642883934195</v>
+        <v>0.01889984337719708</v>
       </c>
       <c r="H6" s="40" t="n">
-        <v>0.01171564341937181</v>
+        <v>0.01171142898103372</v>
       </c>
       <c r="I6" s="40" t="n"/>
       <c r="K6" s="144" t="inlineStr">
@@ -4712,22 +4736,22 @@
         <v>0.5</v>
       </c>
       <c r="M6" s="40" t="n">
-        <v>0.3307527148226869</v>
+        <v>0.330797159203559</v>
       </c>
       <c r="N6" s="40" t="n">
-        <v>0.2436707673566622</v>
+        <v>0.2436769415558576</v>
       </c>
       <c r="O6" s="40" t="n">
-        <v>0.176412651438144</v>
+        <v>0.1764006982719288</v>
       </c>
       <c r="P6" s="40" t="n">
-        <v>0.1280348028616939</v>
+        <v>0.1280373138630677</v>
       </c>
       <c r="Q6" s="40" t="n">
-        <v>0.09354758309287703</v>
+        <v>0.09355839907461572</v>
       </c>
       <c r="R6" s="40" t="n">
-        <v>0.06861260790097323</v>
+        <v>0.06859660485164576</v>
       </c>
       <c r="S6" s="40" t="n"/>
     </row>
@@ -4738,25 +4762,25 @@
         </is>
       </c>
       <c r="B7" s="40" t="n">
-        <v>0.04370321610419226</v>
+        <v>0.04370435668115646</v>
       </c>
       <c r="C7" s="40" t="n">
-        <v>0.01627009146631186</v>
+        <v>0.01627174052483427</v>
       </c>
       <c r="D7" s="40" t="n">
-        <v>0.00700564003667592</v>
+        <v>0.007006891467511878</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.002872058503589736</v>
+        <v>0.002872126727926694</v>
       </c>
       <c r="F7" s="40" t="n">
-        <v>0.001268491574116015</v>
+        <v>0.0012685024408845</v>
       </c>
       <c r="G7" s="40" t="n">
-        <v>0.0005188897748266141</v>
+        <v>0.0005189255380962932</v>
       </c>
       <c r="H7" s="40" t="n">
-        <v>0.0002202782598301756</v>
+        <v>0.0002203144748866848</v>
       </c>
       <c r="I7" s="40" t="n"/>
       <c r="K7" s="144" t="inlineStr">
@@ -4768,22 +4792,22 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="M7" s="40" t="n">
-        <v>0.04167280283308894</v>
+        <v>0.0416760734506515</v>
       </c>
       <c r="N7" s="40" t="n">
-        <v>0.02167614838862886</v>
+        <v>0.02167913956285006</v>
       </c>
       <c r="O7" s="40" t="n">
-        <v>0.01084850106867075</v>
+        <v>0.0108486989065234</v>
       </c>
       <c r="P7" s="40" t="n">
-        <v>0.005758398634493345</v>
+        <v>0.005758438162627333</v>
       </c>
       <c r="Q7" s="40" t="n">
-        <v>0.002878565924769649</v>
+        <v>0.002878719645860395</v>
       </c>
       <c r="R7" s="40" t="n">
-        <v>0.001480853965106999</v>
+        <v>0.001481042155523804</v>
       </c>
       <c r="S7" s="40" t="n"/>
     </row>
@@ -4794,25 +4818,25 @@
         </is>
       </c>
       <c r="B8" s="40" t="n">
-        <v>0.08749619734681113</v>
+        <v>0.08750073056916463</v>
       </c>
       <c r="C8" s="40" t="n">
-        <v>0.03290907347724503</v>
+        <v>0.0329102865016011</v>
       </c>
       <c r="D8" s="40" t="n">
-        <v>0.01412250596993536</v>
+        <v>0.01412360842670923</v>
       </c>
       <c r="E8" s="40" t="n">
-        <v>0.006005119436292117</v>
+        <v>0.006005011020023043</v>
       </c>
       <c r="F8" s="40" t="n">
-        <v>0.002475488514739332</v>
+        <v>0.002475554111711853</v>
       </c>
       <c r="G8" s="40" t="n">
-        <v>0.001049471332369656</v>
+        <v>0.001049542237758883</v>
       </c>
       <c r="H8" s="40" t="n">
-        <v>0.0004470133769352014</v>
+        <v>0.0004470054994051287</v>
       </c>
       <c r="I8" s="40" t="n"/>
       <c r="K8" s="144" t="inlineStr">
@@ -4821,25 +4845,25 @@
         </is>
       </c>
       <c r="L8" s="40" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M8" s="40" t="n">
-        <v>0.08407810745943012</v>
+        <v>0.08408041097592112</v>
       </c>
       <c r="N8" s="40" t="n">
-        <v>0.04361511327295409</v>
+        <v>0.04361773693413051</v>
       </c>
       <c r="O8" s="40" t="n">
-        <v>0.02246870200640372</v>
+        <v>0.02246838656121797</v>
       </c>
       <c r="P8" s="40" t="n">
-        <v>0.01130163036248455</v>
+        <v>0.01130186446378456</v>
       </c>
       <c r="Q8" s="40" t="n">
-        <v>0.005807559856527367</v>
+        <v>0.005807863261417023</v>
       </c>
       <c r="R8" s="40" t="n">
-        <v>0.002995561137436931</v>
+        <v>0.002995519612748354</v>
       </c>
       <c r="S8" s="40" t="n"/>
     </row>
@@ -4850,25 +4874,25 @@
         </is>
       </c>
       <c r="B9" s="40" t="n">
-        <v>0.08629538189469954</v>
+        <v>0.08629432265429871</v>
       </c>
       <c r="C9" s="40" t="n">
-        <v>0.03243701071251592</v>
+        <v>0.03243745641041096</v>
       </c>
       <c r="D9" s="40" t="n">
-        <v>0.01373042106929911</v>
+        <v>0.01372975905822715</v>
       </c>
       <c r="E9" s="40" t="n">
-        <v>0.005748584435666393</v>
+        <v>0.005748833655801477</v>
       </c>
       <c r="F9" s="40" t="n">
-        <v>0.002461587933747733</v>
+        <v>0.002461544128412929</v>
       </c>
       <c r="G9" s="40" t="n">
-        <v>0.001029791831594573</v>
+        <v>0.001029772817563113</v>
       </c>
       <c r="H9" s="40" t="n">
-        <v>0.0004336882030785416</v>
+        <v>0.0004336816382415343</v>
       </c>
       <c r="I9" s="40" t="n"/>
       <c r="K9" s="144" t="inlineStr">
@@ -4880,22 +4904,22 @@
         <v>0.2</v>
       </c>
       <c r="M9" s="40" t="n">
-        <v>0.08312250685400679</v>
+        <v>0.08312336674684984</v>
       </c>
       <c r="N9" s="40" t="n">
-        <v>0.04267325803205335</v>
+        <v>0.04267162948881442</v>
       </c>
       <c r="O9" s="40" t="n">
-        <v>0.021717931874077</v>
+        <v>0.02171865707534293</v>
       </c>
       <c r="P9" s="40" t="n">
-        <v>0.01124988792959725</v>
+        <v>0.01124973220670467</v>
       </c>
       <c r="Q9" s="40" t="n">
-        <v>0.005721885230554724</v>
+        <v>0.005721800356385587</v>
       </c>
       <c r="R9" s="40" t="n">
-        <v>0.002925891066428266</v>
+        <v>0.002925855671907951</v>
       </c>
       <c r="S9" s="40" t="n"/>
     </row>
@@ -4906,25 +4930,25 @@
         </is>
       </c>
       <c r="B10" s="40" t="n">
-        <v>0.02655029322884317</v>
+        <v>0.02654921558904266</v>
       </c>
       <c r="C10" s="40" t="n">
-        <v>0.009767109787224504</v>
+        <v>0.009766312859405546</v>
       </c>
       <c r="D10" s="40" t="n">
-        <v>0.004153042715363542</v>
+        <v>0.004151725628947278</v>
       </c>
       <c r="E10" s="40" t="n">
-        <v>0.00178038913676748</v>
+        <v>0.00178045787806913</v>
       </c>
       <c r="F10" s="40" t="n">
-        <v>0.0007496285616316323</v>
+        <v>0.0007496067460484035</v>
       </c>
       <c r="G10" s="40" t="n">
-        <v>0.0003099908251654737</v>
+        <v>0.0003099769711389921</v>
       </c>
       <c r="H10" s="40" t="n">
-        <v>0.0001321078529953335</v>
+        <v>0.0001321030870213846</v>
       </c>
       <c r="I10" s="40" t="n"/>
       <c r="K10" s="144" t="inlineStr">
@@ -4933,25 +4957,25 @@
         </is>
       </c>
       <c r="L10" s="40" t="n">
-        <v>0.04999999999999993</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="M10" s="40" t="n">
-        <v>0.02083270045869079</v>
+        <v>0.02083137634516319</v>
       </c>
       <c r="N10" s="40" t="n">
-        <v>0.01073499698294977</v>
+        <v>0.01073236498259555</v>
       </c>
       <c r="O10" s="40" t="n">
-        <v>0.005562473007443947</v>
+        <v>0.005562641004334457</v>
       </c>
       <c r="P10" s="40" t="n">
-        <v>0.002845379478164878</v>
+        <v>0.002845315363520395</v>
       </c>
       <c r="Q10" s="40" t="n">
-        <v>0.001433715789127543</v>
+        <v>0.00143366588092142</v>
       </c>
       <c r="R10" s="40" t="n">
-        <v>0.0007400619207063031</v>
+        <v>0.0007400413678548823</v>
       </c>
       <c r="S10" s="40" t="n"/>
     </row>
@@ -4962,25 +4986,25 @@
         </is>
       </c>
       <c r="B11" s="40" t="n">
-        <v>0.08555477184380944</v>
+        <v>0.08555293171988987</v>
       </c>
       <c r="C11" s="40" t="n">
-        <v>0.03267676161390554</v>
+        <v>0.03267680889697488</v>
       </c>
       <c r="D11" s="40" t="n">
-        <v>0.01397743977391053</v>
+        <v>0.01397771505573331</v>
       </c>
       <c r="E11" s="40" t="n">
-        <v>0.005981447946542984</v>
+        <v>0.005981574665678391</v>
       </c>
       <c r="F11" s="40" t="n">
-        <v>0.002459376165691474</v>
+        <v>0.002459339870478749</v>
       </c>
       <c r="G11" s="40" t="n">
-        <v>0.001042229971607078</v>
+        <v>0.001042225238836458</v>
       </c>
       <c r="H11" s="40" t="n">
-        <v>0.0004438939977066125</v>
+        <v>0.0004439149570309997</v>
       </c>
       <c r="I11" s="40" t="n"/>
       <c r="K11" s="144" t="inlineStr">
@@ -4992,22 +5016,22 @@
         <v>0.2000000000000001</v>
       </c>
       <c r="M11" s="40" t="n">
-        <v>0.08361784428215169</v>
+        <v>0.08361797175306029</v>
       </c>
       <c r="N11" s="40" t="n">
-        <v>0.04327230345126742</v>
+        <v>0.04327296896920474</v>
       </c>
       <c r="O11" s="40" t="n">
-        <v>0.02239873696341832</v>
+        <v>0.02239910623427877</v>
       </c>
       <c r="P11" s="40" t="n">
-        <v>0.01124186749072265</v>
+        <v>0.01124173947654672</v>
       </c>
       <c r="Q11" s="40" t="n">
-        <v>0.005776309046362504</v>
+        <v>0.005776289901689102</v>
       </c>
       <c r="R11" s="40" t="n">
-        <v>0.002979429956167179</v>
+        <v>0.002979539200865577</v>
       </c>
       <c r="S11" s="40" t="n"/>
     </row>
@@ -5018,25 +5042,25 @@
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>0.2272497251338144</v>
+        <v>0.227247284281229</v>
       </c>
       <c r="C12" s="40" t="n">
-        <v>0.132378513038393</v>
+        <v>0.1323792435438229</v>
       </c>
       <c r="D12" s="40" t="n">
-        <v>0.08175455000446108</v>
+        <v>0.08175592894050754</v>
       </c>
       <c r="E12" s="40" t="n">
-        <v>0.04993948136308723</v>
+        <v>0.04993786048627891</v>
       </c>
       <c r="F12" s="40" t="n">
-        <v>0.03044851873550769</v>
+        <v>0.03044857488419261</v>
       </c>
       <c r="G12" s="40" t="n">
-        <v>0.01887436988568514</v>
+        <v>0.01887478899187989</v>
       </c>
       <c r="H12" s="40" t="n">
-        <v>0.01162124629809791</v>
+        <v>0.01162138183806571</v>
       </c>
       <c r="I12" s="40" t="n"/>
       <c r="K12" s="144" t="inlineStr">
@@ -5048,22 +5072,22 @@
         <v>0.5</v>
       </c>
       <c r="M12" s="40" t="n">
-        <v>0.3304870965164365</v>
+        <v>0.3304881571299038</v>
       </c>
       <c r="N12" s="40" t="n">
-        <v>0.2417858807120404</v>
+        <v>0.2417885901755906</v>
       </c>
       <c r="O12" s="40" t="n">
-        <v>0.1756293416107834</v>
+        <v>0.1756256841173128</v>
       </c>
       <c r="P12" s="40" t="n">
-        <v>0.1274525885269926</v>
+        <v>0.1274527261882511</v>
       </c>
       <c r="Q12" s="40" t="n">
-        <v>0.09347671221138387</v>
+        <v>0.09347803582805092</v>
       </c>
       <c r="R12" s="40" t="n">
-        <v>0.06825609069991545</v>
+        <v>0.06825661315923059</v>
       </c>
       <c r="S12" s="40" t="n"/>
     </row>
@@ -5074,25 +5098,25 @@
         </is>
       </c>
       <c r="B13" s="40" t="n">
-        <v>0.04304583346955282</v>
+        <v>0.04304735682064853</v>
       </c>
       <c r="C13" s="40" t="n">
-        <v>0.01631935778577676</v>
+        <v>0.01632002635582985</v>
       </c>
       <c r="D13" s="40" t="n">
-        <v>0.007026363995120244</v>
+        <v>0.00702631156357103</v>
       </c>
       <c r="E13" s="40" t="n">
-        <v>0.002675833053824239</v>
+        <v>0.002676104107985244</v>
       </c>
       <c r="F13" s="40" t="n">
-        <v>0.001261994576426173</v>
+        <v>0.001261982836658238</v>
       </c>
       <c r="G13" s="40" t="n">
-        <v>0.0005230912112210717</v>
+        <v>0.000523106391776329</v>
       </c>
       <c r="H13" s="40" t="n">
-        <v>0.0002222751225856578</v>
+        <v>0.0002222752567552222</v>
       </c>
       <c r="I13" s="40" t="n"/>
       <c r="K13" s="144" t="inlineStr">
@@ -5101,25 +5125,25 @@
         </is>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M13" s="40" t="n">
-        <v>0.04177229422861684</v>
+        <v>0.04177368302859619</v>
       </c>
       <c r="N13" s="40" t="n">
-        <v>0.02172878459178773</v>
+        <v>0.02172863283940207</v>
       </c>
       <c r="O13" s="40" t="n">
-        <v>0.01026557011070939</v>
+        <v>0.01026635929528574</v>
       </c>
       <c r="P13" s="40" t="n">
-        <v>0.005734918095061214</v>
+        <v>0.005734880356044414</v>
       </c>
       <c r="Q13" s="40" t="n">
-        <v>0.002896696499995799</v>
+        <v>0.002896763867307084</v>
       </c>
       <c r="R13" s="40" t="n">
-        <v>0.001491535630712137</v>
+        <v>0.001491535539896449</v>
       </c>
       <c r="S13" s="40" t="n"/>
     </row>
@@ -5130,25 +5154,25 @@
         </is>
       </c>
       <c r="B14" s="40" t="n">
-        <v>0.1300869864047445</v>
+        <v>0.1300857003956981</v>
       </c>
       <c r="C14" s="40" t="n">
-        <v>0.04911870928572348</v>
+        <v>0.04911766136049545</v>
       </c>
       <c r="D14" s="40" t="n">
-        <v>0.02104172515450509</v>
+        <v>0.02104233808178468</v>
       </c>
       <c r="E14" s="40" t="n">
-        <v>0.008594931695635966</v>
+        <v>0.008594996423396783</v>
       </c>
       <c r="F14" s="40" t="n">
-        <v>0.003736617056000924</v>
+        <v>0.003736597315734613</v>
       </c>
       <c r="G14" s="40" t="n">
-        <v>0.001565582591742776</v>
+        <v>0.001565597888619097</v>
       </c>
       <c r="H14" s="40" t="n">
-        <v>0.0006659334055711952</v>
+        <v>0.0006659702290942038</v>
       </c>
       <c r="I14" s="40" t="n"/>
       <c r="K14" s="144" t="inlineStr">
@@ -5160,22 +5184,22 @@
         <v>0.3</v>
       </c>
       <c r="M14" s="40" t="n">
-        <v>0.1256236220804599</v>
+        <v>0.1256215332889654</v>
       </c>
       <c r="N14" s="40" t="n">
-        <v>0.06507779742710851</v>
+        <v>0.0650792720336768</v>
       </c>
       <c r="O14" s="40" t="n">
-        <v>0.03247886807414324</v>
+        <v>0.0324790569794392</v>
       </c>
       <c r="P14" s="40" t="n">
-        <v>0.01703197721096461</v>
+        <v>0.01703190684807954</v>
       </c>
       <c r="Q14" s="40" t="n">
-        <v>0.008673649399794647</v>
+        <v>0.008673714272012689</v>
       </c>
       <c r="R14" s="40" t="n">
-        <v>0.004469024903313468</v>
+        <v>0.004469216638938289</v>
       </c>
       <c r="S14" s="40" t="n"/>
     </row>
@@ -5186,25 +5210,25 @@
         </is>
       </c>
       <c r="B15" s="40" t="n">
-        <v>0.1322375034580657</v>
+        <v>0.1322359368092787</v>
       </c>
       <c r="C15" s="40" t="n">
-        <v>0.05005763146703746</v>
+        <v>0.05005581787117319</v>
       </c>
       <c r="D15" s="40" t="n">
-        <v>0.02138894227559507</v>
+        <v>0.02138914576642481</v>
       </c>
       <c r="E15" s="40" t="n">
-        <v>0.009079047641197047</v>
+        <v>0.009079046935637436</v>
       </c>
       <c r="F15" s="40" t="n">
-        <v>0.003739712424835839</v>
+        <v>0.003739693344478878</v>
       </c>
       <c r="G15" s="40" t="n">
-        <v>0.001592815554661398</v>
+        <v>0.001592775248093425</v>
       </c>
       <c r="H15" s="40" t="n">
-        <v>0.0006746686472365315</v>
+        <v>0.0006746672948892973</v>
       </c>
       <c r="I15" s="40" t="n"/>
       <c r="K15" s="144" t="inlineStr">
@@ -5216,22 +5240,22 @@
         <v>0.3</v>
       </c>
       <c r="M15" s="40" t="n">
-        <v>0.1275124038150153</v>
+        <v>0.1275088735510194</v>
       </c>
       <c r="N15" s="40" t="n">
-        <v>0.065911711947925</v>
+        <v>0.06591220467784376</v>
       </c>
       <c r="O15" s="40" t="n">
-        <v>0.0339134478492269</v>
+        <v>0.03391344521353323</v>
       </c>
       <c r="P15" s="40" t="n">
-        <v>0.01704799786012812</v>
+        <v>0.01704792970240487</v>
       </c>
       <c r="Q15" s="40" t="n">
-        <v>0.008791980040035452</v>
+        <v>0.008791808531754319</v>
       </c>
       <c r="R15" s="40" t="n">
-        <v>0.004514706951203817</v>
+        <v>0.00451470003653609</v>
       </c>
       <c r="S15" s="40" t="n"/>
     </row>
@@ -5242,25 +5266,25 @@
         </is>
       </c>
       <c r="B16" s="40" t="n">
-        <v>0.04365783042954652</v>
+        <v>0.04366093262294857</v>
       </c>
       <c r="C16" s="40" t="n">
-        <v>0.0164444588835112</v>
+        <v>0.01644884222918774</v>
       </c>
       <c r="D16" s="40" t="n">
-        <v>0.007053618300149167</v>
+        <v>0.007056446564283281</v>
       </c>
       <c r="E16" s="40" t="n">
-        <v>0.003100490700414626</v>
+        <v>0.003100392383528328</v>
       </c>
       <c r="F16" s="40" t="n">
-        <v>0.001241965092009578</v>
+        <v>0.001242010653375925</v>
       </c>
       <c r="G16" s="40" t="n">
-        <v>0.0005246757504173694</v>
+        <v>0.0005247871524011183</v>
       </c>
       <c r="H16" s="40" t="n">
-        <v>0.0002223890578526566</v>
+        <v>0.000222413612688821</v>
       </c>
       <c r="I16" s="40" t="n"/>
       <c r="K16" s="144" t="inlineStr">
@@ -5272,22 +5296,22 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="M16" s="40" t="n">
-        <v>0.04201938575694519</v>
+        <v>0.04202821763472098</v>
       </c>
       <c r="N16" s="40" t="n">
-        <v>0.02178625431165648</v>
+        <v>0.02179302233229141</v>
       </c>
       <c r="O16" s="40" t="n">
-        <v>0.01151827042743458</v>
+        <v>0.01151798331006226</v>
       </c>
       <c r="P16" s="40" t="n">
-        <v>0.005665798496595431</v>
+        <v>0.005665961212904636</v>
       </c>
       <c r="Q16" s="40" t="n">
-        <v>0.00290338509805621</v>
+        <v>0.002903869990887875</v>
       </c>
       <c r="R16" s="40" t="n">
-        <v>0.001491709119606499</v>
+        <v>0.001491836409572511</v>
       </c>
       <c r="S16" s="40" t="n"/>
     </row>
@@ -5298,25 +5322,25 @@
         </is>
       </c>
       <c r="B17" s="40" t="n">
-        <v>0.04369898246887716</v>
+        <v>0.04369901131539977</v>
       </c>
       <c r="C17" s="40" t="n">
-        <v>0.01620640014296926</v>
+        <v>0.01620592491473505</v>
       </c>
       <c r="D17" s="40" t="n">
-        <v>0.006977834679359085</v>
+        <v>0.006977793129774756</v>
       </c>
       <c r="E17" s="40" t="n">
-        <v>0.002719240115019117</v>
+        <v>0.002719247841363903</v>
       </c>
       <c r="F17" s="40" t="n">
-        <v>0.001268308164090959</v>
+        <v>0.001268306743027581</v>
       </c>
       <c r="G17" s="40" t="n">
-        <v>0.0005147328337614665</v>
+        <v>0.0005147312712672214</v>
       </c>
       <c r="H17" s="40" t="n">
-        <v>0.0002194766618485167</v>
+        <v>0.0002194755101022627</v>
       </c>
       <c r="I17" s="40" t="n"/>
       <c r="K17" s="144" t="inlineStr">
@@ -5325,25 +5349,25 @@
         </is>
       </c>
       <c r="L17" s="40" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="M17" s="40" t="n">
-        <v>0.0415369248899139</v>
+        <v>0.04153598163116512</v>
       </c>
       <c r="N17" s="40" t="n">
-        <v>0.02160329938882166</v>
+        <v>0.02160319844681768</v>
       </c>
       <c r="O17" s="40" t="n">
-        <v>0.01040206024424606</v>
+        <v>0.01040208282595678</v>
       </c>
       <c r="P17" s="40" t="n">
-        <v>0.005757682140817622</v>
+        <v>0.005757677151871143</v>
       </c>
       <c r="Q17" s="40" t="n">
-        <v>0.002860300757546397</v>
+        <v>0.002860293952229309</v>
       </c>
       <c r="R17" s="40" t="n">
-        <v>0.001476513069216367</v>
+        <v>0.001476507029723129</v>
       </c>
       <c r="S17" s="40" t="n"/>
     </row>
@@ -5354,25 +5378,25 @@
         </is>
       </c>
       <c r="B18" s="40" t="n">
-        <v>0.04363857487384559</v>
+        <v>0.04363287861753118</v>
       </c>
       <c r="C18" s="40" t="n">
-        <v>0.01641263108986457</v>
+        <v>0.01639197412832549</v>
       </c>
       <c r="D18" s="40" t="n">
-        <v>0.00712281840174156</v>
+        <v>0.007112808815686988</v>
       </c>
       <c r="E18" s="40" t="n">
-        <v>0.002983131670633243</v>
+        <v>0.002983829282049988</v>
       </c>
       <c r="F18" s="40" t="n">
-        <v>0.001251273529670804</v>
+        <v>0.001251206767125979</v>
       </c>
       <c r="G18" s="40" t="n">
-        <v>0.0005251152418448424</v>
+        <v>0.000524721086160862</v>
       </c>
       <c r="H18" s="40" t="n">
-        <v>0.0002242735286395181</v>
+        <v>0.000224148588382822</v>
       </c>
       <c r="I18" s="40" t="n"/>
       <c r="K18" s="144" t="inlineStr">
@@ -5384,22 +5408,22 @@
         <v>0.09999999999999987</v>
       </c>
       <c r="M18" s="40" t="n">
-        <v>0.04195839318820294</v>
+        <v>0.04191749694666014</v>
       </c>
       <c r="N18" s="40" t="n">
-        <v>0.02195369825318616</v>
+        <v>0.02192970829420426</v>
       </c>
       <c r="O18" s="40" t="n">
-        <v>0.01117533200184584</v>
+        <v>0.01117735542293607</v>
       </c>
       <c r="P18" s="40" t="n">
-        <v>0.005698476556586951</v>
+        <v>0.005698235062259194</v>
       </c>
       <c r="Q18" s="40" t="n">
-        <v>0.002905303883335209</v>
+        <v>0.002903613359472756</v>
       </c>
       <c r="R18" s="40" t="n">
-        <v>0.001501608941137045</v>
+        <v>0.00150095936342387</v>
       </c>
       <c r="S18" s="40" t="n"/>
     </row>
@@ -5410,25 +5434,25 @@
         </is>
       </c>
       <c r="B19" s="40" t="n">
-        <v>0.0442066245079229</v>
+        <v>0.04420220440773404</v>
       </c>
       <c r="C19" s="40" t="n">
-        <v>0.01637295818836204</v>
+        <v>0.01637846113000097</v>
       </c>
       <c r="D19" s="40" t="n">
-        <v>0.007207157673029596</v>
+        <v>0.007208313945644695</v>
       </c>
       <c r="E19" s="40" t="n">
-        <v>0.002969310897272814</v>
+        <v>0.002971299866196042</v>
       </c>
       <c r="F19" s="40" t="n">
-        <v>0.001266454319505672</v>
+        <v>0.001266439251181639</v>
       </c>
       <c r="G19" s="40" t="n">
-        <v>0.0005232828049545057</v>
+        <v>0.0005233704207147083</v>
       </c>
       <c r="H19" s="40" t="n">
-        <v>0.0002258294302662778</v>
+        <v>0.0002258536042305526</v>
       </c>
       <c r="I19" s="40" t="n"/>
       <c r="K19" s="144" t="inlineStr">
@@ -5437,25 +5461,25 @@
         </is>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M19" s="40" t="n">
-        <v>0.04187910885762869</v>
+        <v>0.04189017044463472</v>
       </c>
       <c r="N19" s="40" t="n">
-        <v>0.02215629350420134</v>
+        <v>0.02215898602847477</v>
       </c>
       <c r="O19" s="40" t="n">
-        <v>0.01113653503850087</v>
+        <v>0.01114232247210623</v>
       </c>
       <c r="P19" s="40" t="n">
-        <v>0.005752328139687291</v>
+        <v>0.005752265864935047</v>
       </c>
       <c r="Q19" s="40" t="n">
-        <v>0.002897495537515726</v>
+        <v>0.002897875368078395</v>
       </c>
       <c r="R19" s="40" t="n">
-        <v>0.00150973018590983</v>
+        <v>0.001509853823542406</v>
       </c>
       <c r="S19" s="40" t="n"/>
     </row>
@@ -5466,25 +5490,25 @@
         </is>
       </c>
       <c r="B20" s="40" t="n">
-        <v>0.6432278083884118</v>
+        <v>0.6432366266452304</v>
       </c>
       <c r="C20" s="40" t="n">
-        <v>0.3731436902119273</v>
+        <v>0.373169017870054</v>
       </c>
       <c r="D20" s="40" t="n">
-        <v>0.2299302569577114</v>
+        <v>0.2299439062687489</v>
       </c>
       <c r="E20" s="40" t="n">
-        <v>0.1417142992537378</v>
+        <v>0.1417131756736065</v>
       </c>
       <c r="F20" s="40" t="n">
-        <v>0.08605989798767433</v>
+        <v>0.08605990444252332</v>
       </c>
       <c r="G20" s="40" t="n">
-        <v>0.05335422943169121</v>
+        <v>0.05335706763583348</v>
       </c>
       <c r="H20" s="40" t="n">
-        <v>0.03268156694688473</v>
+        <v>0.03268212799246495</v>
       </c>
       <c r="I20" s="40" t="n"/>
       <c r="K20" s="144" t="inlineStr">
@@ -5496,22 +5520,22 @@
         <v>0.9</v>
       </c>
       <c r="M20" s="40" t="n">
-        <v>0.5974774036874894</v>
+        <v>0.5975040576681003</v>
       </c>
       <c r="N20" s="40" t="n">
-        <v>0.4364150295994019</v>
+        <v>0.4364317152866354</v>
       </c>
       <c r="O20" s="40" t="n">
-        <v>0.3189270762170844</v>
+        <v>0.3189254386477985</v>
       </c>
       <c r="P20" s="40" t="n">
-        <v>0.2308305784044746</v>
+        <v>0.2308306160592217</v>
       </c>
       <c r="Q20" s="40" t="n">
-        <v>0.1693023112652238</v>
+        <v>0.169308210538047</v>
       </c>
       <c r="R20" s="40" t="n">
-        <v>0.1232031842864102</v>
+        <v>0.123204541901852</v>
       </c>
       <c r="S20" s="40" t="n"/>
     </row>
@@ -5522,25 +5546,25 @@
         </is>
       </c>
       <c r="B21" s="40" t="n">
-        <v>0.2299210440635692</v>
+        <v>0.2299116445178818</v>
       </c>
       <c r="C21" s="40" t="n">
-        <v>0.1327168695015178</v>
+        <v>0.1327179878706037</v>
       </c>
       <c r="D21" s="40" t="n">
-        <v>0.08232115580559485</v>
+        <v>0.08233504353321774</v>
       </c>
       <c r="E21" s="40" t="n">
-        <v>0.05075820769261374</v>
+        <v>0.05076007968713703</v>
       </c>
       <c r="F21" s="40" t="n">
-        <v>0.03087859032768625</v>
+        <v>0.03087723548525489</v>
       </c>
       <c r="G21" s="40" t="n">
-        <v>0.01892986049069145</v>
+        <v>0.0189303479624453</v>
       </c>
       <c r="H21" s="40" t="n">
-        <v>0.01168485689216714</v>
+        <v>0.01168638112551468</v>
       </c>
       <c r="I21" s="40" t="n"/>
       <c r="K21" s="144" t="inlineStr">
@@ -5552,22 +5576,22 @@
         <v>0.5</v>
       </c>
       <c r="M21" s="40" t="n">
-        <v>0.3310165619194004</v>
+        <v>0.3310186457008748</v>
       </c>
       <c r="N21" s="40" t="n">
-        <v>0.2428571009405751</v>
+        <v>0.2428836697042939</v>
       </c>
       <c r="O21" s="40" t="n">
-        <v>0.1774987402586277</v>
+        <v>0.1775029778841866</v>
       </c>
       <c r="P21" s="40" t="n">
-        <v>0.1286202212829037</v>
+        <v>0.1286166066211252</v>
       </c>
       <c r="Q21" s="40" t="n">
-        <v>0.09365042253808187</v>
+        <v>0.09365201894178343</v>
       </c>
       <c r="R21" s="40" t="n">
-        <v>0.06849608925277528</v>
+        <v>0.06850187687043263</v>
       </c>
       <c r="S21" s="40" t="n"/>
     </row>
@@ -5578,25 +5602,25 @@
         </is>
       </c>
       <c r="B22" s="40" t="n">
-        <v>0.08230866842926965</v>
+        <v>0.08230794831217747</v>
       </c>
       <c r="C22" s="40" t="n">
-        <v>0.03164725056564222</v>
+        <v>0.03164774363974099</v>
       </c>
       <c r="D22" s="40" t="n">
-        <v>0.01346361342964497</v>
+        <v>0.01346370581393275</v>
       </c>
       <c r="E22" s="40" t="n">
-        <v>0.005804612841101786</v>
+        <v>0.00580460236682323</v>
       </c>
       <c r="F22" s="40" t="n">
-        <v>0.002523728621940169</v>
+        <v>0.00252371041302335</v>
       </c>
       <c r="G22" s="40" t="n">
-        <v>0.001018310647872167</v>
+        <v>0.001018343208819883</v>
       </c>
       <c r="H22" s="40" t="n">
-        <v>0.0004252473088851572</v>
+        <v>0.0004252483121890416</v>
       </c>
       <c r="I22" s="40" t="n"/>
       <c r="K22" s="144" t="inlineStr">
@@ -5608,22 +5632,22 @@
         <v>0.2</v>
       </c>
       <c r="M22" s="40" t="n">
-        <v>0.08155208834371597</v>
+        <v>0.08155301915859547</v>
       </c>
       <c r="N22" s="40" t="n">
-        <v>0.04200751848110029</v>
+        <v>0.04200774624691339</v>
       </c>
       <c r="O22" s="40" t="n">
-        <v>0.02187760987225118</v>
+        <v>0.02187757911745847</v>
       </c>
       <c r="P22" s="40" t="n">
-        <v>0.01146442857054908</v>
+        <v>0.01146436387757277</v>
       </c>
       <c r="Q22" s="40" t="n">
-        <v>0.005672391310474367</v>
+        <v>0.005672528835615087</v>
       </c>
       <c r="R22" s="40" t="n">
-        <v>0.002880605725543828</v>
+        <v>0.002880611115586906</v>
       </c>
       <c r="S22" s="40" t="n"/>
     </row>
@@ -5634,25 +5658,25 @@
         </is>
       </c>
       <c r="B23" s="40" t="n">
-        <v>0.220584909964996</v>
+        <v>0.220580545426253</v>
       </c>
       <c r="C23" s="40" t="n">
-        <v>0.130014600902402</v>
+        <v>0.1300149520833529</v>
       </c>
       <c r="D23" s="40" t="n">
-        <v>0.08240314360714873</v>
+        <v>0.08239916985525031</v>
       </c>
       <c r="E23" s="40" t="n">
-        <v>0.05102947272461877</v>
+        <v>0.05102883910716338</v>
       </c>
       <c r="F23" s="40" t="n">
-        <v>0.0304936450151444</v>
+        <v>0.0304933641335039</v>
       </c>
       <c r="G23" s="40" t="n">
-        <v>0.01846801765217276</v>
+        <v>0.01846742474016605</v>
       </c>
       <c r="H23" s="40" t="n">
-        <v>0.01164321765412513</v>
+        <v>0.01164257840599781</v>
       </c>
       <c r="I23" s="40" t="n"/>
       <c r="K23" s="144" t="inlineStr">
@@ -5664,22 +5688,22 @@
         <v>0.5</v>
       </c>
       <c r="M23" s="40" t="n">
-        <v>0.3265643389286468</v>
+        <v>0.3265652175995323</v>
       </c>
       <c r="N23" s="40" t="n">
-        <v>0.2430337334200582</v>
+        <v>0.2430261656787924</v>
       </c>
       <c r="O23" s="40" t="n">
-        <v>0.1781025391683927</v>
+        <v>0.1781011058103336</v>
       </c>
       <c r="P23" s="40" t="n">
-        <v>0.1275565949023909</v>
+        <v>0.1275558271174342</v>
       </c>
       <c r="Q23" s="40" t="n">
-        <v>0.09214327943801282</v>
+        <v>0.09214144079698117</v>
       </c>
       <c r="R23" s="40" t="n">
-        <v>0.06833798007435921</v>
+        <v>0.0683355566919458</v>
       </c>
       <c r="S23" s="40" t="n"/>
     </row>
@@ -5690,25 +5714,25 @@
         </is>
       </c>
       <c r="B24" s="40" t="n">
-        <v>0.04318407183676853</v>
+        <v>0.04318347855206173</v>
       </c>
       <c r="C24" s="40" t="n">
-        <v>0.01637842318432403</v>
+        <v>0.01637801624522162</v>
       </c>
       <c r="D24" s="40" t="n">
-        <v>0.006972913099178912</v>
+        <v>0.006972559885123575</v>
       </c>
       <c r="E24" s="40" t="n">
-        <v>0.002714261639070514</v>
+        <v>0.00271433246195929</v>
       </c>
       <c r="F24" s="40" t="n">
-        <v>0.001288460407369629</v>
+        <v>0.001288443522966642</v>
       </c>
       <c r="G24" s="40" t="n">
-        <v>0.0005219113943937259</v>
+        <v>0.0005218974215689398</v>
       </c>
       <c r="H24" s="40" t="n">
-        <v>0.0002212955114822002</v>
+        <v>0.0002212895483386657</v>
       </c>
       <c r="I24" s="40" t="n"/>
       <c r="K24" s="144" t="inlineStr">
@@ -5717,25 +5741,25 @@
         </is>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="M24" s="40" t="n">
-        <v>0.04188826199219031</v>
+        <v>0.04188744030918379</v>
       </c>
       <c r="N24" s="40" t="n">
-        <v>0.02161296214073383</v>
+        <v>0.02161211631752857</v>
       </c>
       <c r="O24" s="40" t="n">
-        <v>0.01037832707914466</v>
+        <v>0.01037853390811661</v>
       </c>
       <c r="P24" s="40" t="n">
-        <v>0.005828196612071235</v>
+        <v>0.00582813646316005</v>
       </c>
       <c r="Q24" s="40" t="n">
-        <v>0.002891653466003397</v>
+        <v>0.002891594029293065</v>
       </c>
       <c r="R24" s="40" t="n">
-        <v>0.001486963727831858</v>
+        <v>0.001486932764925619</v>
       </c>
       <c r="S24" s="40" t="n"/>
     </row>
@@ -5746,25 +5770,25 @@
         </is>
       </c>
       <c r="B25" s="40" t="n">
-        <v>0.1284917717886628</v>
+        <v>0.1284884050770203</v>
       </c>
       <c r="C25" s="40" t="n">
-        <v>0.04931324116840707</v>
+        <v>0.04931103089594036</v>
       </c>
       <c r="D25" s="40" t="n">
-        <v>0.02087934057674934</v>
+        <v>0.02087991225510388</v>
       </c>
       <c r="E25" s="40" t="n">
-        <v>0.008824538224610157</v>
+        <v>0.008824540354193555</v>
       </c>
       <c r="F25" s="40" t="n">
-        <v>0.00368696699237514</v>
+        <v>0.003686911669068649</v>
       </c>
       <c r="G25" s="40" t="n">
-        <v>0.001566834184959731</v>
+        <v>0.001566812974828302</v>
       </c>
       <c r="H25" s="40" t="n">
-        <v>0.0006590920022595537</v>
+        <v>0.0006591187007370936</v>
       </c>
       <c r="I25" s="40" t="n"/>
       <c r="K25" s="144" t="inlineStr">
@@ -5773,25 +5797,25 @@
         </is>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.2999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="M25" s="40" t="n">
-        <v>0.1260310357275793</v>
+        <v>0.1260267032067846</v>
       </c>
       <c r="N25" s="40" t="n">
-        <v>0.06469130429087144</v>
+        <v>0.06469269879869921</v>
       </c>
       <c r="O25" s="40" t="n">
-        <v>0.03316207995937026</v>
+        <v>0.03316208669674936</v>
       </c>
       <c r="P25" s="40" t="n">
-        <v>0.01685625245919098</v>
+        <v>0.01685605476701513</v>
       </c>
       <c r="Q25" s="40" t="n">
-        <v>0.008679589446911606</v>
+        <v>0.008679499025648241</v>
       </c>
       <c r="R25" s="40" t="n">
-        <v>0.004433196042514242</v>
+        <v>0.004433335773133429</v>
       </c>
       <c r="S25" s="40" t="n"/>
     </row>
@@ -5802,25 +5826,25 @@
         </is>
       </c>
       <c r="B26" s="40" t="n">
-        <v>0.04736226267464927</v>
+        <v>0.04738689134819218</v>
       </c>
       <c r="C26" s="40" t="n">
-        <v>0.01702724428163294</v>
+        <v>0.01709098117018759</v>
       </c>
       <c r="D26" s="40" t="n">
-        <v>0.007577429931169388</v>
+        <v>0.007531863524348981</v>
       </c>
       <c r="E26" s="40" t="n">
-        <v>0.00307477513721921</v>
+        <v>0.003074622615739542</v>
       </c>
       <c r="F26" s="40" t="n">
-        <v>0.001338182105249497</v>
+        <v>0.001338551921363673</v>
       </c>
       <c r="G26" s="40" t="n">
-        <v>0.0005516674219266937</v>
+        <v>0.0005523625938756993</v>
       </c>
       <c r="H26" s="40" t="n">
-        <v>0.0002356234574709681</v>
+        <v>0.0002340381841590133</v>
       </c>
       <c r="I26" s="40" t="n"/>
       <c r="K26" s="144" t="inlineStr">
@@ -5832,22 +5856,22 @@
         <v>0.09999999999999998</v>
       </c>
       <c r="M26" s="40" t="n">
-        <v>0.04320960543973784</v>
+        <v>0.04333257726974826</v>
       </c>
       <c r="N26" s="40" t="n">
-        <v>0.0230602259801983</v>
+        <v>0.02295120134548301</v>
       </c>
       <c r="O26" s="40" t="n">
-        <v>0.01144861944904574</v>
+        <v>0.01144830189409385</v>
       </c>
       <c r="P26" s="40" t="n">
-        <v>0.006010942238473316</v>
+        <v>0.006012260705916206</v>
       </c>
       <c r="Q26" s="40" t="n">
-        <v>0.003021374394910015</v>
+        <v>0.003024324438300696</v>
       </c>
       <c r="R26" s="40" t="n">
-        <v>0.001561737955657394</v>
+        <v>0.001553523401605195</v>
       </c>
       <c r="S26" s="40" t="n"/>
     </row>
@@ -5858,25 +5882,25 @@
         </is>
       </c>
       <c r="B27" s="40" t="n">
-        <v>0.2314526411883987</v>
+        <v>0.231460795671426</v>
       </c>
       <c r="C27" s="40" t="n">
-        <v>0.1331226449241464</v>
+        <v>0.1331029579003268</v>
       </c>
       <c r="D27" s="40" t="n">
-        <v>0.08253067760275001</v>
+        <v>0.08251825805632651</v>
       </c>
       <c r="E27" s="40" t="n">
-        <v>0.05130537845770278</v>
+        <v>0.05130383227618551</v>
       </c>
       <c r="F27" s="40" t="n">
-        <v>0.03092553728536729</v>
+        <v>0.03092611996662509</v>
       </c>
       <c r="G27" s="40" t="n">
-        <v>0.0189890058718446</v>
+        <v>0.01898725488704567</v>
       </c>
       <c r="H27" s="40" t="n">
-        <v>0.01168355387023079</v>
+        <v>0.01168206710358866</v>
       </c>
       <c r="I27" s="41" t="n"/>
       <c r="K27" s="144" t="inlineStr">
@@ -5888,22 +5912,22 @@
         <v>0.5</v>
       </c>
       <c r="M27" s="40" t="n">
-        <v>0.3316908702127864</v>
+        <v>0.3316590772470976</v>
       </c>
       <c r="N27" s="40" t="n">
-        <v>0.2432307665110599</v>
+        <v>0.2432069668927384</v>
       </c>
       <c r="O27" s="40" t="n">
-        <v>0.1787435153453468</v>
+        <v>0.1787400260556345</v>
       </c>
       <c r="P27" s="40" t="n">
-        <v>0.1287555132133593</v>
+        <v>0.1287570920427054</v>
       </c>
       <c r="Q27" s="40" t="n">
-        <v>0.09384305481903132</v>
+        <v>0.09383743413451706</v>
       </c>
       <c r="R27" s="40" t="n">
-        <v>0.0684863281104946</v>
+        <v>0.06848068210573099</v>
       </c>
     </row>
     <row r="28">
@@ -5913,25 +5937,25 @@
         </is>
       </c>
       <c r="B28" s="40" t="n">
-        <v>0.1063451020354635</v>
+        <v>0.1063120790831412</v>
       </c>
       <c r="C28" s="40" t="n">
-        <v>0.04761704853231974</v>
+        <v>0.04759346574790391</v>
       </c>
       <c r="D28" s="40" t="n">
-        <v>0.02551208285983464</v>
+        <v>0.02550074410207592</v>
       </c>
       <c r="E28" s="40" t="n">
-        <v>0.01268966306319352</v>
+        <v>0.01268190395535929</v>
       </c>
       <c r="F28" s="40" t="n">
-        <v>0.007219347303638268</v>
+        <v>0.007214849227855424</v>
       </c>
       <c r="G28" s="40" t="n">
-        <v>0.004046502565074994</v>
+        <v>0.004043550942400831</v>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0.002426977795352281</v>
+        <v>0.002424821442503999</v>
       </c>
       <c r="I28" s="42" t="n"/>
       <c r="K28" s="144" t="inlineStr">
@@ -5940,25 +5964,25 @@
         </is>
       </c>
       <c r="L28" s="40" t="n">
-        <v>0.2257127691414889</v>
+        <v>0.2256425405960005</v>
       </c>
       <c r="M28" s="40" t="n">
-        <v>0.1104914181092798</v>
+        <v>0.1104345082509892</v>
       </c>
       <c r="N28" s="40" t="n">
-        <v>0.06937215077704384</v>
+        <v>0.06933885512212679</v>
       </c>
       <c r="O28" s="40" t="n">
-        <v>0.04078238110865795</v>
+        <v>0.04075700744722388</v>
       </c>
       <c r="P28" s="40" t="n">
-        <v>0.0271944131451427</v>
+        <v>0.02717706519573448</v>
       </c>
       <c r="Q28" s="40" t="n">
-        <v>0.01780225008709624</v>
+        <v>0.01778877162685033</v>
       </c>
       <c r="R28" s="40" t="n">
-        <v>0.01245221888293147</v>
+        <v>0.012440540786957</v>
       </c>
       <c r="S28" s="43" t="n"/>
     </row>
@@ -14524,67 +14548,67 @@
         </is>
       </c>
       <c r="C76" s="76" t="n">
-        <v>1473376.345643046</v>
+        <v>1469830.657889659</v>
       </c>
       <c r="D76" s="76" t="n">
-        <v>1731940.706997134</v>
+        <v>1727038.039929359</v>
       </c>
       <c r="E76" s="76" t="n">
-        <v>1445991.910118381</v>
+        <v>1440740.180435176</v>
       </c>
       <c r="F76" s="76" t="n">
-        <v>1499696.74619022</v>
+        <v>1499053.988050538</v>
       </c>
       <c r="G76" s="76" t="n">
-        <v>1752303.852269587</v>
+        <v>1742690.105431142</v>
       </c>
       <c r="H76" s="76" t="n">
-        <v>1291964.757711726</v>
+        <v>1286417.808847825</v>
       </c>
       <c r="I76" s="76" t="n">
-        <v>2022838.770505027</v>
+        <v>2009973.258948925</v>
       </c>
       <c r="J76" s="76" t="n">
-        <v>1450904.912906068</v>
+        <v>1439749.599280219</v>
       </c>
       <c r="K76" s="76" t="n">
-        <v>1337742.532907862</v>
+        <v>1328503.392269303</v>
       </c>
       <c r="L76" s="76" t="n">
-        <v>2021267.654263771</v>
+        <v>2010752.279712043</v>
       </c>
       <c r="M76" s="76" t="n">
-        <v>1598999.936813354</v>
+        <v>1593432.799275512</v>
       </c>
       <c r="N76" s="76" t="n">
-        <v>1622344.561873821</v>
+        <v>1616811.255894268</v>
       </c>
       <c r="O76" s="76" t="n">
-        <v>1718794.165501532</v>
+        <v>1711854.921691175</v>
       </c>
       <c r="P76" s="76" t="n">
-        <v>1762162.379770773</v>
+        <v>1754635.038299818</v>
       </c>
       <c r="Q76" s="76" t="n">
-        <v>1537967.674008009</v>
+        <v>1530867.723904483</v>
       </c>
       <c r="R76" s="76" t="n">
-        <v>1717027.73218725</v>
+        <v>1715770.448986163</v>
       </c>
       <c r="S76" s="76" t="n">
-        <v>1712394.811859604</v>
+        <v>1703213.147782806</v>
       </c>
       <c r="T76" s="76" t="n">
-        <v>1436899.908215006</v>
+        <v>1431384.539593085</v>
       </c>
       <c r="U76" s="76" t="n">
-        <v>2055275.089768529</v>
+        <v>2029987.852967375</v>
       </c>
       <c r="V76" s="76" t="n">
-        <v>1589677.362506276</v>
+        <v>1579433.348535914</v>
       </c>
       <c r="W76" s="76" t="n">
-        <v>1472864.977168735</v>
+        <v>1463846.005735302</v>
       </c>
     </row>
     <row r="77">
@@ -14599,67 +14623,67 @@
         </is>
       </c>
       <c r="C77" s="76" t="n">
-        <v>4136783.583940698</v>
+        <v>4136092.126314491</v>
       </c>
       <c r="D77" s="76" t="n">
-        <v>3489300.945841661</v>
+        <v>3489064.739478295</v>
       </c>
       <c r="E77" s="76" t="n">
-        <v>3082497.11867064</v>
+        <v>3081338.264456423</v>
       </c>
       <c r="F77" s="76" t="n">
-        <v>2886945.271246495</v>
+        <v>2888299.32080416</v>
       </c>
       <c r="G77" s="76" t="n">
-        <v>3295227.528288657</v>
+        <v>3293880.834366121</v>
       </c>
       <c r="H77" s="76" t="n">
-        <v>2824952.979074773</v>
+        <v>2823201.90870599</v>
       </c>
       <c r="I77" s="76" t="n">
-        <v>3233466.496355533</v>
+        <v>3238061.966200682</v>
       </c>
       <c r="J77" s="76" t="n">
-        <v>2994123.09284159</v>
+        <v>2992295.834684333</v>
       </c>
       <c r="K77" s="76" t="n">
-        <v>2564750.727383078</v>
+        <v>2563901.10876936</v>
       </c>
       <c r="L77" s="76" t="n">
-        <v>4599969.052747361</v>
+        <v>4599394.25741713</v>
       </c>
       <c r="M77" s="76" t="n">
-        <v>3860124.71747362</v>
+        <v>3858485.666046174</v>
       </c>
       <c r="N77" s="76" t="n">
-        <v>5051069.726581837</v>
+        <v>5049312.298562108</v>
       </c>
       <c r="O77" s="76" t="n">
-        <v>4526022.7837698</v>
+        <v>4524635.691969698</v>
       </c>
       <c r="P77" s="76" t="n">
-        <v>3431504.589952476</v>
+        <v>3430593.46650913</v>
       </c>
       <c r="Q77" s="76" t="n">
-        <v>3046911.819839696</v>
+        <v>3045631.430510434</v>
       </c>
       <c r="R77" s="76" t="n">
-        <v>3138598.658625978</v>
+        <v>3139094.127494781</v>
       </c>
       <c r="S77" s="76" t="n">
-        <v>3191896.65321902</v>
+        <v>3190439.685311946</v>
       </c>
       <c r="T77" s="76" t="n">
-        <v>2879231.25075195</v>
+        <v>2877627.270526183</v>
       </c>
       <c r="U77" s="76" t="n">
-        <v>3310950.97211207</v>
+        <v>3314867.236880212</v>
       </c>
       <c r="V77" s="76" t="n">
-        <v>3025833.506817268</v>
+        <v>3024139.535549195</v>
       </c>
       <c r="W77" s="76" t="n">
-        <v>2870445.493027579</v>
+        <v>2869194.802895417</v>
       </c>
     </row>
     <row r="78">
@@ -14674,67 +14698,67 @@
         </is>
       </c>
       <c r="C78" s="76" t="n">
-        <v>6009881.144781234</v>
+        <v>6004307.286727847</v>
       </c>
       <c r="D78" s="76" t="n">
-        <v>7303522.217480486</v>
+        <v>7294720.377308048</v>
       </c>
       <c r="E78" s="76" t="n">
-        <v>5327629.677184089</v>
+        <v>5319175.805283025</v>
       </c>
       <c r="F78" s="76" t="n">
-        <v>6819926.88714225</v>
+        <v>6817428.153569137</v>
       </c>
       <c r="G78" s="76" t="n">
-        <v>7115561.484668927</v>
+        <v>7105746.682986254</v>
       </c>
       <c r="H78" s="76" t="n">
-        <v>5910753.213056511</v>
+        <v>5906962.965325166</v>
       </c>
       <c r="I78" s="76" t="n">
-        <v>7705450.383096471</v>
+        <v>7695931.233023181</v>
       </c>
       <c r="J78" s="76" t="n">
-        <v>6252112.506118585</v>
+        <v>6237835.517292081</v>
       </c>
       <c r="K78" s="76" t="n">
-        <v>5711286.739685654</v>
+        <v>5700200.063876817</v>
       </c>
       <c r="L78" s="76" t="n">
-        <v>8237772.868546018</v>
+        <v>8225870.83944392</v>
       </c>
       <c r="M78" s="76" t="n">
-        <v>6263294.717294726</v>
+        <v>6255357.405954338</v>
       </c>
       <c r="N78" s="76" t="n">
-        <v>5637178.591075693</v>
+        <v>5630024.479937568</v>
       </c>
       <c r="O78" s="76" t="n">
-        <v>6694223.064165592</v>
+        <v>6684422.209486301</v>
       </c>
       <c r="P78" s="76" t="n">
-        <v>7175647.843625765</v>
+        <v>7164118.510855562</v>
       </c>
       <c r="Q78" s="76" t="n">
-        <v>5647343.278799477</v>
+        <v>5637379.723187027</v>
       </c>
       <c r="R78" s="76" t="n">
-        <v>7498735.899158965</v>
+        <v>7493154.880106783</v>
       </c>
       <c r="S78" s="76" t="n">
-        <v>7035177.776051814</v>
+        <v>7024845.403446008</v>
       </c>
       <c r="T78" s="76" t="n">
-        <v>6108790.000853287</v>
+        <v>6100141.970555846</v>
       </c>
       <c r="U78" s="76" t="n">
-        <v>7935609.473841926</v>
+        <v>7918362.903665144</v>
       </c>
       <c r="V78" s="76" t="n">
-        <v>6623216.903165406</v>
+        <v>6609232.442558658</v>
       </c>
       <c r="W78" s="76" t="n">
-        <v>5899967.857370726</v>
+        <v>5888307.217172142</v>
       </c>
     </row>
     <row r="79">
@@ -14749,67 +14773,67 @@
         </is>
       </c>
       <c r="C79" s="76" t="n">
-        <v>17813907.32789802</v>
+        <v>17801558.59685974</v>
       </c>
       <c r="D79" s="76" t="n">
-        <v>17575730.13198019</v>
+        <v>17568036.31621353</v>
       </c>
       <c r="E79" s="76" t="n">
-        <v>16142296.60892481</v>
+        <v>16134970.36710135</v>
       </c>
       <c r="F79" s="76" t="n">
-        <v>17178253.06675762</v>
+        <v>17172081.15445234</v>
       </c>
       <c r="G79" s="76" t="n">
-        <v>17667844.09820597</v>
+        <v>17656282.07695682</v>
       </c>
       <c r="H79" s="76" t="n">
-        <v>17621916.31934729</v>
+        <v>17613377.39424719</v>
       </c>
       <c r="I79" s="76" t="n">
-        <v>18244311.68115457</v>
+        <v>18226796.38539696</v>
       </c>
       <c r="J79" s="76" t="n">
-        <v>19198328.47226257</v>
+        <v>19178454.99243486</v>
       </c>
       <c r="K79" s="76" t="n">
-        <v>17980843.37498292</v>
+        <v>17973586.69556463</v>
       </c>
       <c r="L79" s="76" t="n">
-        <v>15951127.16853039</v>
+        <v>15945202.03801375</v>
       </c>
       <c r="M79" s="76" t="n">
-        <v>16768891.28942685</v>
+        <v>16754943.96095879</v>
       </c>
       <c r="N79" s="76" t="n">
-        <v>17118070.29298662</v>
+        <v>17104166.22123473</v>
       </c>
       <c r="O79" s="76" t="n">
-        <v>18477028.53700726</v>
+        <v>18460688.60597439</v>
       </c>
       <c r="P79" s="76" t="n">
-        <v>18275726.41836258</v>
+        <v>18261894.29234098</v>
       </c>
       <c r="Q79" s="76" t="n">
-        <v>16882303.03750128</v>
+        <v>16870532.61587669</v>
       </c>
       <c r="R79" s="76" t="n">
-        <v>18127448.2898634</v>
+        <v>18114999.31013931</v>
       </c>
       <c r="S79" s="76" t="n">
-        <v>17956462.71693739</v>
+        <v>17941098.93294821</v>
       </c>
       <c r="T79" s="76" t="n">
-        <v>18204662.45599401</v>
+        <v>18196169.9780191</v>
       </c>
       <c r="U79" s="76" t="n">
-        <v>18654987.71497397</v>
+        <v>18635373.27665184</v>
       </c>
       <c r="V79" s="76" t="n">
-        <v>19673109.17327725</v>
+        <v>19650508.00265196</v>
       </c>
       <c r="W79" s="76" t="n">
-        <v>18985168.54101231</v>
+        <v>18968609.93341582</v>
       </c>
     </row>
     <row r="80">
@@ -14824,67 +14848,67 @@
         </is>
       </c>
       <c r="C80" s="76" t="n">
-        <v>20921708.17354197</v>
+        <v>20990819.95109316</v>
       </c>
       <c r="D80" s="76" t="n">
-        <v>19733834.37330433</v>
+        <v>19806288.12055383</v>
       </c>
       <c r="E80" s="76" t="n">
-        <v>14495653.73282984</v>
+        <v>14552293.490879</v>
       </c>
       <c r="F80" s="76" t="n">
-        <v>25629158.96971657</v>
+        <v>25747947.55669526</v>
       </c>
       <c r="G80" s="76" t="n">
-        <v>20323514.598552</v>
+        <v>20427467.87098537</v>
       </c>
       <c r="H80" s="76" t="n">
-        <v>25853339.85673383</v>
+        <v>25993874.54732371</v>
       </c>
       <c r="I80" s="76" t="n">
-        <v>19783344.49462239</v>
+        <v>19827214.85683649</v>
       </c>
       <c r="J80" s="76" t="n">
-        <v>17986486.88295398</v>
+        <v>18084772.0395927</v>
       </c>
       <c r="K80" s="76" t="n">
-        <v>18090441.13374282</v>
+        <v>18187282.02714421</v>
       </c>
       <c r="L80" s="76" t="n">
-        <v>29594272.27436007</v>
+        <v>29736465.68327319</v>
       </c>
       <c r="M80" s="76" t="n">
-        <v>16673831.10826077</v>
+        <v>16749961.89257086</v>
       </c>
       <c r="N80" s="76" t="n">
-        <v>24264720.86951114</v>
+        <v>24372524.19822146</v>
       </c>
       <c r="O80" s="76" t="n">
-        <v>22204578.86761596</v>
+        <v>22301139.18082069</v>
       </c>
       <c r="P80" s="76" t="n">
-        <v>19237535.63304192</v>
+        <v>19327148.7137761</v>
       </c>
       <c r="Q80" s="76" t="n">
-        <v>17413842.11412508</v>
+        <v>17494543.67393705</v>
       </c>
       <c r="R80" s="76" t="n">
-        <v>25895729.14326888</v>
+        <v>26030214.94617166</v>
       </c>
       <c r="S80" s="76" t="n">
-        <v>19591494.94446056</v>
+        <v>19698611.77284589</v>
       </c>
       <c r="T80" s="76" t="n">
-        <v>25707169.37546415</v>
+        <v>25851822.12902852</v>
       </c>
       <c r="U80" s="76" t="n">
-        <v>21709436.26552938</v>
+        <v>21822835.398815</v>
       </c>
       <c r="V80" s="76" t="n">
-        <v>18189608.07631553</v>
+        <v>18293038.73451817</v>
       </c>
       <c r="W80" s="76" t="n">
-        <v>19152383.81557544</v>
+        <v>19258882.75717229</v>
       </c>
     </row>
     <row r="81">
@@ -14899,67 +14923,67 @@
         </is>
       </c>
       <c r="C81" s="76" t="n">
-        <v>37003043.24298178</v>
+        <v>36984633.37615263</v>
       </c>
       <c r="D81" s="76" t="n">
-        <v>41073050.71942988</v>
+        <v>41068629.82210305</v>
       </c>
       <c r="E81" s="76" t="n">
-        <v>38486120.8557562</v>
+        <v>38482184.43430423</v>
       </c>
       <c r="F81" s="76" t="n">
-        <v>38827608.07306798</v>
+        <v>38826319.20428254</v>
       </c>
       <c r="G81" s="76" t="n">
-        <v>43154849.46319147</v>
+        <v>43162936.87114765</v>
       </c>
       <c r="H81" s="76" t="n">
-        <v>36279262.02302631</v>
+        <v>36276330.11439704</v>
       </c>
       <c r="I81" s="76" t="n">
-        <v>42777864.22299469</v>
+        <v>42772975.28647738</v>
       </c>
       <c r="J81" s="76" t="n">
-        <v>41214525.72516084</v>
+        <v>41204791.95238404</v>
       </c>
       <c r="K81" s="76" t="n">
-        <v>34669156.21406803</v>
+        <v>34657756.51079189</v>
       </c>
       <c r="L81" s="76" t="n">
-        <v>50100489.92201637</v>
+        <v>50085547.38516732</v>
       </c>
       <c r="M81" s="76" t="n">
-        <v>38420656.62400907</v>
+        <v>38401737.73378958</v>
       </c>
       <c r="N81" s="76" t="n">
-        <v>35867976.53935911</v>
+        <v>35849801.79109625</v>
       </c>
       <c r="O81" s="76" t="n">
-        <v>42326256.5906501</v>
+        <v>42303927.22667354</v>
       </c>
       <c r="P81" s="76" t="n">
-        <v>41782936.56978904</v>
+        <v>41767578.30695619</v>
       </c>
       <c r="Q81" s="76" t="n">
-        <v>39084340.76854884</v>
+        <v>39069492.61810292</v>
       </c>
       <c r="R81" s="76" t="n">
-        <v>43489864.65675036</v>
+        <v>43482322.11778795</v>
       </c>
       <c r="S81" s="76" t="n">
-        <v>42792784.50627414</v>
+        <v>42792345.84801633</v>
       </c>
       <c r="T81" s="76" t="n">
-        <v>38138658.24524844</v>
+        <v>38133109.67475726</v>
       </c>
       <c r="U81" s="76" t="n">
-        <v>46171957.10828786</v>
+        <v>46169140.68107571</v>
       </c>
       <c r="V81" s="76" t="n">
-        <v>42099410.27678632</v>
+        <v>42078961.92821496</v>
       </c>
       <c r="W81" s="76" t="n">
-        <v>36664812.92946478</v>
+        <v>36644899.05060742</v>
       </c>
     </row>
     <row r="82">
@@ -14974,67 +14998,67 @@
         </is>
       </c>
       <c r="C82" s="76" t="n">
-        <v>896705.6206919057</v>
+        <v>897086.8319652986</v>
       </c>
       <c r="D82" s="76" t="n">
-        <v>1118498.874342837</v>
+        <v>1118464.564710689</v>
       </c>
       <c r="E82" s="76" t="n">
-        <v>983307.8059341279</v>
+        <v>983634.0851193492</v>
       </c>
       <c r="F82" s="76" t="n">
-        <v>1054999.901152052</v>
+        <v>1055524.207136168</v>
       </c>
       <c r="G82" s="76" t="n">
-        <v>1203289.36575154</v>
+        <v>1203198.155111933</v>
       </c>
       <c r="H82" s="76" t="n">
-        <v>934991.9768861567</v>
+        <v>935408.1757378319</v>
       </c>
       <c r="I82" s="76" t="n">
-        <v>1096328.28916326</v>
+        <v>1096480.788034834</v>
       </c>
       <c r="J82" s="76" t="n">
-        <v>1047507.448965413</v>
+        <v>1047796.172007089</v>
       </c>
       <c r="K82" s="76" t="n">
-        <v>884198.1061572244</v>
+        <v>883997.879067898</v>
       </c>
       <c r="L82" s="76" t="n">
-        <v>1139905.559314487</v>
+        <v>1139206.009473807</v>
       </c>
       <c r="M82" s="76" t="n">
-        <v>977959.5265203865</v>
+        <v>978094.7040610034</v>
       </c>
       <c r="N82" s="76" t="n">
-        <v>1033368.405821529</v>
+        <v>1033298.998253854</v>
       </c>
       <c r="O82" s="76" t="n">
-        <v>998470.8829100798</v>
+        <v>998650.9189358939</v>
       </c>
       <c r="P82" s="76" t="n">
-        <v>1129877.296979229</v>
+        <v>1129872.574435485</v>
       </c>
       <c r="Q82" s="76" t="n">
-        <v>1020396.009795469</v>
+        <v>1020552.558703252</v>
       </c>
       <c r="R82" s="76" t="n">
-        <v>1111065.782204196</v>
+        <v>1111777.710984411</v>
       </c>
       <c r="S82" s="76" t="n">
-        <v>1125075.967438966</v>
+        <v>1125085.580537258</v>
       </c>
       <c r="T82" s="76" t="n">
-        <v>950523.0133438989</v>
+        <v>950772.1515364299</v>
       </c>
       <c r="U82" s="76" t="n">
-        <v>1151647.408401784</v>
+        <v>1151757.157539829</v>
       </c>
       <c r="V82" s="76" t="n">
-        <v>1061344.286143427</v>
+        <v>1061409.599252818</v>
       </c>
       <c r="W82" s="76" t="n">
-        <v>945909.0054921764</v>
+        <v>945781.5654757669</v>
       </c>
     </row>
     <row r="83">
@@ -15049,67 +15073,67 @@
         </is>
       </c>
       <c r="C83" s="76" t="n">
-        <v>6644319.313447788</v>
+        <v>6635876.01832521</v>
       </c>
       <c r="D83" s="76" t="n">
-        <v>5447536.662627731</v>
+        <v>5447133.779495993</v>
       </c>
       <c r="E83" s="76" t="n">
-        <v>5635662.3972382</v>
+        <v>5629731.058341518</v>
       </c>
       <c r="F83" s="76" t="n">
-        <v>5107640.828011927</v>
+        <v>5103674.119893549</v>
       </c>
       <c r="G83" s="76" t="n">
-        <v>5821582.060040673</v>
+        <v>5820043.232022027</v>
       </c>
       <c r="H83" s="76" t="n">
-        <v>4822643.096846215</v>
+        <v>4816200.995698918</v>
       </c>
       <c r="I83" s="76" t="n">
-        <v>5663803.738589461</v>
+        <v>5657741.002216024</v>
       </c>
       <c r="J83" s="76" t="n">
-        <v>5514749.79402749</v>
+        <v>5505445.071506825</v>
       </c>
       <c r="K83" s="76" t="n">
-        <v>4287433.400908547</v>
+        <v>4283837.602170608</v>
       </c>
       <c r="L83" s="76" t="n">
-        <v>6491152.765749354</v>
+        <v>6492057.246975806</v>
       </c>
       <c r="M83" s="76" t="n">
-        <v>5438046.521382687</v>
+        <v>5431524.544652415</v>
       </c>
       <c r="N83" s="76" t="n">
-        <v>13757959.67354543</v>
+        <v>13745737.15450082</v>
       </c>
       <c r="O83" s="76" t="n">
-        <v>7516053.861169655</v>
+        <v>7507083.283328685</v>
       </c>
       <c r="P83" s="76" t="n">
-        <v>5652181.950887085</v>
+        <v>5648278.270719651</v>
       </c>
       <c r="Q83" s="76" t="n">
-        <v>5388979.749664559</v>
+        <v>5382566.54445561</v>
       </c>
       <c r="R83" s="76" t="n">
-        <v>5872784.094375322</v>
+        <v>5867263.531656085</v>
       </c>
       <c r="S83" s="76" t="n">
-        <v>5644768.349426408</v>
+        <v>5640478.153178426</v>
       </c>
       <c r="T83" s="76" t="n">
-        <v>4944634.837668115</v>
+        <v>4938139.679745147</v>
       </c>
       <c r="U83" s="76" t="n">
-        <v>5950363.791059074</v>
+        <v>5943403.019523595</v>
       </c>
       <c r="V83" s="76" t="n">
-        <v>5594091.644934831</v>
+        <v>5585779.689821176</v>
       </c>
       <c r="W83" s="76" t="n">
-        <v>4613486.017558566</v>
+        <v>4608356.522554533</v>
       </c>
     </row>
     <row r="84">
@@ -15124,67 +15148,67 @@
         </is>
       </c>
       <c r="C84" s="76" t="n">
-        <v>11060839.53965515</v>
+        <v>11060348.67136801</v>
       </c>
       <c r="D84" s="76" t="n">
-        <v>11183095.10335988</v>
+        <v>11183105.10050854</v>
       </c>
       <c r="E84" s="76" t="n">
-        <v>9689882.409318393</v>
+        <v>9690571.328223934</v>
       </c>
       <c r="F84" s="76" t="n">
-        <v>9568098.456539271</v>
+        <v>9567491.93626372</v>
       </c>
       <c r="G84" s="76" t="n">
-        <v>10038866.18730501</v>
+        <v>10039555.39643993</v>
       </c>
       <c r="H84" s="76" t="n">
-        <v>8789941.630597997</v>
+        <v>8791422.592247967</v>
       </c>
       <c r="I84" s="76" t="n">
-        <v>11997637.72311696</v>
+        <v>11999484.43851586</v>
       </c>
       <c r="J84" s="76" t="n">
-        <v>9990565.125854049</v>
+        <v>9989665.232568547</v>
       </c>
       <c r="K84" s="76" t="n">
-        <v>9571367.897582598</v>
+        <v>9570042.855270557</v>
       </c>
       <c r="L84" s="76" t="n">
-        <v>13467982.15736562</v>
+        <v>13465406.56962929</v>
       </c>
       <c r="M84" s="76" t="n">
-        <v>10485315.10045895</v>
+        <v>10482566.54384108</v>
       </c>
       <c r="N84" s="76" t="n">
-        <v>15214081.20323527</v>
+        <v>15210098.67302942</v>
       </c>
       <c r="O84" s="76" t="n">
-        <v>12236769.5843458</v>
+        <v>12234909.65331485</v>
       </c>
       <c r="P84" s="76" t="n">
-        <v>11089637.59528223</v>
+        <v>11088282.60047079</v>
       </c>
       <c r="Q84" s="76" t="n">
-        <v>9868647.601624707</v>
+        <v>9867709.682037957</v>
       </c>
       <c r="R84" s="76" t="n">
-        <v>10735763.09509343</v>
+        <v>10736849.15758089</v>
       </c>
       <c r="S84" s="76" t="n">
-        <v>10125266.56980519</v>
+        <v>10124804.57431406</v>
       </c>
       <c r="T84" s="76" t="n">
-        <v>9320131.95822316</v>
+        <v>9320231.850681907</v>
       </c>
       <c r="U84" s="76" t="n">
-        <v>11971315.90946801</v>
+        <v>11975121.53568396</v>
       </c>
       <c r="V84" s="76" t="n">
-        <v>10044417.59566368</v>
+        <v>10042312.79213371</v>
       </c>
       <c r="W84" s="76" t="n">
-        <v>9635683.406241976</v>
+        <v>9633502.942941634</v>
       </c>
     </row>
     <row r="85">
@@ -15199,67 +15223,67 @@
         </is>
       </c>
       <c r="C85" s="76" t="n">
-        <v>12337345.79018471</v>
+        <v>12334513.99267885</v>
       </c>
       <c r="D85" s="76" t="n">
-        <v>16874020.20690795</v>
+        <v>16870732.32620657</v>
       </c>
       <c r="E85" s="76" t="n">
-        <v>10840778.27151562</v>
+        <v>10839817.93287174</v>
       </c>
       <c r="F85" s="76" t="n">
-        <v>14902672.23295404</v>
+        <v>14894310.58216739</v>
       </c>
       <c r="G85" s="76" t="n">
-        <v>15091315.99285696</v>
+        <v>15091709.90187046</v>
       </c>
       <c r="H85" s="76" t="n">
-        <v>10916920.60720058</v>
+        <v>10914333.30154476</v>
       </c>
       <c r="I85" s="76" t="n">
-        <v>17075222.18842684</v>
+        <v>17068047.97250405</v>
       </c>
       <c r="J85" s="76" t="n">
-        <v>12250762.79486012</v>
+        <v>12245041.79809195</v>
       </c>
       <c r="K85" s="76" t="n">
-        <v>11596588.45484774</v>
+        <v>11590532.88365882</v>
       </c>
       <c r="L85" s="76" t="n">
-        <v>18811771.13952185</v>
+        <v>18802059.838308</v>
       </c>
       <c r="M85" s="76" t="n">
-        <v>13926418.01738319</v>
+        <v>13919090.80164443</v>
       </c>
       <c r="N85" s="76" t="n">
-        <v>11763579.98970535</v>
+        <v>11757550.41787702</v>
       </c>
       <c r="O85" s="76" t="n">
-        <v>15025902.37319114</v>
+        <v>15019170.8613417</v>
       </c>
       <c r="P85" s="76" t="n">
-        <v>16059469.01614703</v>
+        <v>16052674.00001783</v>
       </c>
       <c r="Q85" s="76" t="n">
-        <v>11596662.26475109</v>
+        <v>11592163.99910514</v>
       </c>
       <c r="R85" s="76" t="n">
-        <v>16483088.00476166</v>
+        <v>16475184.31485836</v>
       </c>
       <c r="S85" s="76" t="n">
-        <v>14620513.79342205</v>
+        <v>14618329.34370659</v>
       </c>
       <c r="T85" s="76" t="n">
-        <v>11775201.86235691</v>
+        <v>11772341.49110496</v>
       </c>
       <c r="U85" s="76" t="n">
-        <v>17468038.30655058</v>
+        <v>17456634.08987423</v>
       </c>
       <c r="V85" s="76" t="n">
-        <v>13322253.38106126</v>
+        <v>13314040.01279953</v>
       </c>
       <c r="W85" s="76" t="n">
-        <v>12303595.48637139</v>
+        <v>12295757.24908766</v>
       </c>
     </row>
     <row r="86">
@@ -15274,67 +15298,67 @@
         </is>
       </c>
       <c r="C86" s="76" t="n">
-        <v>18943673.31147777</v>
+        <v>18926263.79625325</v>
       </c>
       <c r="D86" s="76" t="n">
-        <v>23991796.20783699</v>
+        <v>23960372.45616566</v>
       </c>
       <c r="E86" s="76" t="n">
-        <v>17530869.82528041</v>
+        <v>17498870.73902558</v>
       </c>
       <c r="F86" s="76" t="n">
-        <v>20959290.49665779</v>
+        <v>20925074.16528032</v>
       </c>
       <c r="G86" s="76" t="n">
-        <v>22077314.5232113</v>
+        <v>22034061.46795776</v>
       </c>
       <c r="H86" s="76" t="n">
-        <v>18270859.38704358</v>
+        <v>18183487.67153519</v>
       </c>
       <c r="I86" s="76" t="n">
-        <v>25725093.19277571</v>
+        <v>25747075.22952844</v>
       </c>
       <c r="J86" s="76" t="n">
-        <v>19349075.4230041</v>
+        <v>19280402.63796647</v>
       </c>
       <c r="K86" s="76" t="n">
-        <v>19594600.55026341</v>
+        <v>19537964.82594272</v>
       </c>
       <c r="L86" s="76" t="n">
-        <v>40987358.94864192</v>
+        <v>40905929.66564007</v>
       </c>
       <c r="M86" s="76" t="n">
-        <v>21375941.41382926</v>
+        <v>21338870.28432022</v>
       </c>
       <c r="N86" s="76" t="n">
-        <v>20942981.89789537</v>
+        <v>20908088.65898197</v>
       </c>
       <c r="O86" s="76" t="n">
-        <v>22632193.17372166</v>
+        <v>22592288.55004396</v>
       </c>
       <c r="P86" s="76" t="n">
-        <v>23630640.89864373</v>
+        <v>23584665.89857552</v>
       </c>
       <c r="Q86" s="76" t="n">
-        <v>18396479.72107818</v>
+        <v>18356332.51767966</v>
       </c>
       <c r="R86" s="76" t="n">
-        <v>23656886.1433034</v>
+        <v>23616468.28882671</v>
       </c>
       <c r="S86" s="76" t="n">
-        <v>21597299.70093408</v>
+        <v>21547747.5543156</v>
       </c>
       <c r="T86" s="76" t="n">
-        <v>19392601.78906329</v>
+        <v>19313208.25794112</v>
       </c>
       <c r="U86" s="76" t="n">
-        <v>26575018.2756977</v>
+        <v>26530082.57686757</v>
       </c>
       <c r="V86" s="76" t="n">
-        <v>20939741.41392379</v>
+        <v>20877249.72989558</v>
       </c>
       <c r="W86" s="76" t="n">
-        <v>21170916.58704134</v>
+        <v>21113415.77323901</v>
       </c>
     </row>
     <row r="87">
@@ -15349,67 +15373,67 @@
         </is>
       </c>
       <c r="C87" s="76" t="n">
-        <v>1413525.719971578</v>
+        <v>1413300.051060307</v>
       </c>
       <c r="D87" s="76" t="n">
-        <v>1106833.27655441</v>
+        <v>1106683.168113746</v>
       </c>
       <c r="E87" s="76" t="n">
-        <v>1019702.330702445</v>
+        <v>1019543.740391278</v>
       </c>
       <c r="F87" s="76" t="n">
-        <v>1148867.510335187</v>
+        <v>1148343.103838848</v>
       </c>
       <c r="G87" s="76" t="n">
-        <v>1183743.712554525</v>
+        <v>1183492.617448953</v>
       </c>
       <c r="H87" s="76" t="n">
-        <v>1188134.459315468</v>
+        <v>1187951.717865163</v>
       </c>
       <c r="I87" s="76" t="n">
-        <v>1290749.061089781</v>
+        <v>1290157.455123363</v>
       </c>
       <c r="J87" s="76" t="n">
-        <v>1043541.788088245</v>
+        <v>1043086.075077819</v>
       </c>
       <c r="K87" s="76" t="n">
-        <v>1096641.969270416</v>
+        <v>1096208.104238067</v>
       </c>
       <c r="L87" s="76" t="n">
-        <v>1235963.27544869</v>
+        <v>1235530.097284248</v>
       </c>
       <c r="M87" s="76" t="n">
-        <v>1754036.94721559</v>
+        <v>1753369.700033362</v>
       </c>
       <c r="N87" s="76" t="n">
-        <v>2384207.812005024</v>
+        <v>2383295.538852938</v>
       </c>
       <c r="O87" s="76" t="n">
-        <v>1541028.990563578</v>
+        <v>1540535.214816876</v>
       </c>
       <c r="P87" s="76" t="n">
-        <v>1161327.52938882</v>
+        <v>1160971.867333089</v>
       </c>
       <c r="Q87" s="76" t="n">
-        <v>1040739.367058647</v>
+        <v>1040416.477019489</v>
       </c>
       <c r="R87" s="76" t="n">
-        <v>1200055.708019108</v>
+        <v>1199630.125000841</v>
       </c>
       <c r="S87" s="76" t="n">
-        <v>1207323.84843708</v>
+        <v>1206906.09566389</v>
       </c>
       <c r="T87" s="76" t="n">
-        <v>1207566.915742705</v>
+        <v>1207178.304723553</v>
       </c>
       <c r="U87" s="76" t="n">
-        <v>1254341.312561623</v>
+        <v>1253687.848015203</v>
       </c>
       <c r="V87" s="76" t="n">
-        <v>1107680.094434262</v>
+        <v>1107139.900438998</v>
       </c>
       <c r="W87" s="76" t="n">
-        <v>1138472.820692671</v>
+        <v>1137940.991502631</v>
       </c>
     </row>
     <row r="88">
@@ -15424,67 +15448,67 @@
         </is>
       </c>
       <c r="C88" s="76" t="n">
-        <v>2344985.928136573</v>
+        <v>2359601.210119114</v>
       </c>
       <c r="D88" s="76" t="n">
-        <v>2812658.355245126</v>
+        <v>2828805.448630363</v>
       </c>
       <c r="E88" s="76" t="n">
-        <v>2114919.881644122</v>
+        <v>2130221.405042578</v>
       </c>
       <c r="F88" s="76" t="n">
-        <v>2278255.450909512</v>
+        <v>2269726.791478467</v>
       </c>
       <c r="G88" s="76" t="n">
-        <v>2511539.869443289</v>
+        <v>2531461.525297492</v>
       </c>
       <c r="H88" s="76" t="n">
-        <v>2018111.349185145</v>
+        <v>2037803.750280762</v>
       </c>
       <c r="I88" s="76" t="n">
-        <v>2926746.083967862</v>
+        <v>2914762.835863334</v>
       </c>
       <c r="J88" s="76" t="n">
-        <v>2089090.108302882</v>
+        <v>2110277.500532277</v>
       </c>
       <c r="K88" s="76" t="n">
-        <v>2012589.393638585</v>
+        <v>2031408.559393076</v>
       </c>
       <c r="L88" s="76" t="n">
-        <v>3379339.795979531</v>
+        <v>3405822.362736496</v>
       </c>
       <c r="M88" s="76" t="n">
-        <v>2376563.950148777</v>
+        <v>2388617.697555433</v>
       </c>
       <c r="N88" s="76" t="n">
-        <v>2533752.336831884</v>
+        <v>2548192.035216978</v>
       </c>
       <c r="O88" s="76" t="n">
-        <v>2844067.256078301</v>
+        <v>2868088.949474399</v>
       </c>
       <c r="P88" s="76" t="n">
-        <v>2704000.397877365</v>
+        <v>2726677.860698598</v>
       </c>
       <c r="Q88" s="76" t="n">
-        <v>2148633.298757839</v>
+        <v>2168247.708233545</v>
       </c>
       <c r="R88" s="76" t="n">
-        <v>2631863.241255763</v>
+        <v>2635939.220959478</v>
       </c>
       <c r="S88" s="76" t="n">
-        <v>2400076.80345045</v>
+        <v>2421315.996303466</v>
       </c>
       <c r="T88" s="76" t="n">
-        <v>2136706.246419076</v>
+        <v>2156247.703106505</v>
       </c>
       <c r="U88" s="76" t="n">
-        <v>3020299.897653817</v>
+        <v>3033913.261197091</v>
       </c>
       <c r="V88" s="76" t="n">
-        <v>2279875.815551904</v>
+        <v>2303161.345315387</v>
       </c>
       <c r="W88" s="76" t="n">
-        <v>2201813.417826387</v>
+        <v>2223566.873519273</v>
       </c>
     </row>
     <row r="89">
@@ -15499,67 +15523,67 @@
         </is>
       </c>
       <c r="C89" s="76" t="n">
-        <v>2799160.703585235</v>
+        <v>2821248.831716098</v>
       </c>
       <c r="D89" s="76" t="n">
-        <v>3128094.426411789</v>
+        <v>3146270.074274546</v>
       </c>
       <c r="E89" s="76" t="n">
-        <v>2135282.700357505</v>
+        <v>2152019.339461395</v>
       </c>
       <c r="F89" s="76" t="n">
-        <v>2766210.235683475</v>
+        <v>2794109.599769126</v>
       </c>
       <c r="G89" s="76" t="n">
-        <v>3087190.935471267</v>
+        <v>3115721.802296105</v>
       </c>
       <c r="H89" s="76" t="n">
-        <v>2518472.812507676</v>
+        <v>2533885.103216308</v>
       </c>
       <c r="I89" s="76" t="n">
-        <v>3312499.024703631</v>
+        <v>3341466.815156529</v>
       </c>
       <c r="J89" s="76" t="n">
-        <v>2129028.350137426</v>
+        <v>2139145.017400834</v>
       </c>
       <c r="K89" s="76" t="n">
-        <v>2030098.547940919</v>
+        <v>2045956.834121859</v>
       </c>
       <c r="L89" s="76" t="n">
-        <v>4123399.53579493</v>
+        <v>4184912.906853415</v>
       </c>
       <c r="M89" s="76" t="n">
-        <v>3297441.803571483</v>
+        <v>3324296.498731352</v>
       </c>
       <c r="N89" s="76" t="n">
-        <v>3183414.155212695</v>
+        <v>3210044.774338492</v>
       </c>
       <c r="O89" s="76" t="n">
-        <v>3468143.946150849</v>
+        <v>3505872.526114362</v>
       </c>
       <c r="P89" s="76" t="n">
-        <v>3005201.50625032</v>
+        <v>3035435.419202668</v>
       </c>
       <c r="Q89" s="76" t="n">
-        <v>2301859.858807776</v>
+        <v>2327771.220268091</v>
       </c>
       <c r="R89" s="76" t="n">
-        <v>3101446.874383411</v>
+        <v>3143551.863995906</v>
       </c>
       <c r="S89" s="76" t="n">
-        <v>2956637.115992031</v>
+        <v>2994389.268647035</v>
       </c>
       <c r="T89" s="76" t="n">
-        <v>2603654.210191249</v>
+        <v>2634146.907920083</v>
       </c>
       <c r="U89" s="76" t="n">
-        <v>3395718.474164779</v>
+        <v>3439325.541175556</v>
       </c>
       <c r="V89" s="76" t="n">
-        <v>2422466.017615887</v>
+        <v>2448788.966091574</v>
       </c>
       <c r="W89" s="76" t="n">
-        <v>2310580.790462286</v>
+        <v>2338322.050963689</v>
       </c>
     </row>
     <row r="90">
@@ -15574,67 +15598,67 @@
         </is>
       </c>
       <c r="C90" s="76" t="n">
-        <v>4565336.627453801</v>
+        <v>4563120.90183568</v>
       </c>
       <c r="D90" s="76" t="n">
-        <v>6140992.279570894</v>
+        <v>6139961.117545817</v>
       </c>
       <c r="E90" s="76" t="n">
-        <v>4421235.421858291</v>
+        <v>4418924.629524676</v>
       </c>
       <c r="F90" s="76" t="n">
-        <v>5339747.657994244</v>
+        <v>5339679.104207268</v>
       </c>
       <c r="G90" s="76" t="n">
-        <v>5794312.779442504</v>
+        <v>5793137.497953494</v>
       </c>
       <c r="H90" s="76" t="n">
-        <v>4127157.956291947</v>
+        <v>4121064.600716489</v>
       </c>
       <c r="I90" s="76" t="n">
-        <v>6421789.016348147</v>
+        <v>6423063.856648575</v>
       </c>
       <c r="J90" s="76" t="n">
-        <v>4812632.863588517</v>
+        <v>4807217.366835702</v>
       </c>
       <c r="K90" s="76" t="n">
-        <v>4905278.431263348</v>
+        <v>4901531.742562004</v>
       </c>
       <c r="L90" s="76" t="n">
-        <v>6495712.906423664</v>
+        <v>6491659.205814617</v>
       </c>
       <c r="M90" s="76" t="n">
-        <v>5480294.644024149</v>
+        <v>5477631.911594306</v>
       </c>
       <c r="N90" s="76" t="n">
-        <v>4526784.570026852</v>
+        <v>4524593.479172795</v>
       </c>
       <c r="O90" s="76" t="n">
-        <v>5445645.138554686</v>
+        <v>5442473.906308867</v>
       </c>
       <c r="P90" s="76" t="n">
-        <v>6007421.270101958</v>
+        <v>6004847.034841037</v>
       </c>
       <c r="Q90" s="76" t="n">
-        <v>4603040.496769859</v>
+        <v>4600259.287243188</v>
       </c>
       <c r="R90" s="76" t="n">
-        <v>6126454.349458753</v>
+        <v>6125998.169646082</v>
       </c>
       <c r="S90" s="76" t="n">
-        <v>5458158.677975526</v>
+        <v>5455840.741025269</v>
       </c>
       <c r="T90" s="76" t="n">
-        <v>4384165.956682355</v>
+        <v>4379189.213162888</v>
       </c>
       <c r="U90" s="76" t="n">
-        <v>6598784.388102422</v>
+        <v>6595604.151464254</v>
       </c>
       <c r="V90" s="76" t="n">
-        <v>5356167.926560177</v>
+        <v>5351295.126888359</v>
       </c>
       <c r="W90" s="76" t="n">
-        <v>5056131.78839051</v>
+        <v>5052291.147614712</v>
       </c>
     </row>
     <row r="91">
@@ -15649,67 +15673,67 @@
         </is>
       </c>
       <c r="C91" s="76" t="n">
-        <v>8720981.278902391</v>
+        <v>8716320.274417961</v>
       </c>
       <c r="D91" s="76" t="n">
-        <v>10018522.35372444</v>
+        <v>10039024.05012684</v>
       </c>
       <c r="E91" s="76" t="n">
-        <v>7632857.257772747</v>
+        <v>7644343.161650818</v>
       </c>
       <c r="F91" s="76" t="n">
-        <v>8825671.39217612</v>
+        <v>8840685.23171732</v>
       </c>
       <c r="G91" s="76" t="n">
-        <v>9030360.565440113</v>
+        <v>9055124.311438737</v>
       </c>
       <c r="H91" s="76" t="n">
-        <v>7512243.899588241</v>
+        <v>7522763.010580046</v>
       </c>
       <c r="I91" s="76" t="n">
-        <v>10016028.25243666</v>
+        <v>10046864.74406388</v>
       </c>
       <c r="J91" s="76" t="n">
-        <v>7934803.955740063</v>
+        <v>7937683.084603815</v>
       </c>
       <c r="K91" s="76" t="n">
-        <v>7224756.533406601</v>
+        <v>7225645.112831405</v>
       </c>
       <c r="L91" s="76" t="n">
-        <v>11764598.94873</v>
+        <v>11777938.706289</v>
       </c>
       <c r="M91" s="76" t="n">
-        <v>8419771.534336472</v>
+        <v>8423379.281330114</v>
       </c>
       <c r="N91" s="76" t="n">
-        <v>7969498.529585986</v>
+        <v>7973648.580236893</v>
       </c>
       <c r="O91" s="76" t="n">
-        <v>10082510.04028476</v>
+        <v>10085574.22368691</v>
       </c>
       <c r="P91" s="76" t="n">
-        <v>9848631.390958712</v>
+        <v>9862653.601320181</v>
       </c>
       <c r="Q91" s="76" t="n">
-        <v>7863475.697834083</v>
+        <v>7871746.189866767</v>
       </c>
       <c r="R91" s="76" t="n">
-        <v>9633084.98298713</v>
+        <v>9657573.918777632</v>
       </c>
       <c r="S91" s="76" t="n">
-        <v>8765497.059618359</v>
+        <v>8788947.843747765</v>
       </c>
       <c r="T91" s="76" t="n">
-        <v>7869885.947928756</v>
+        <v>7885683.512353048</v>
       </c>
       <c r="U91" s="76" t="n">
-        <v>10298549.50582175</v>
+        <v>10326698.68203603</v>
       </c>
       <c r="V91" s="76" t="n">
-        <v>8387360.946020758</v>
+        <v>8392124.410171699</v>
       </c>
       <c r="W91" s="76" t="n">
-        <v>7715699.234770834</v>
+        <v>7719183.596278904</v>
       </c>
     </row>
     <row r="92">
@@ -15724,67 +15748,67 @@
         </is>
       </c>
       <c r="C92" s="76" t="n">
-        <v>6377982.227021183</v>
+        <v>6375569.126905199</v>
       </c>
       <c r="D92" s="76" t="n">
-        <v>3007461.04124931</v>
+        <v>3006757.319323755</v>
       </c>
       <c r="E92" s="76" t="n">
-        <v>6371814.018353717</v>
+        <v>6370133.306356052</v>
       </c>
       <c r="F92" s="76" t="n">
-        <v>3168452.378993057</v>
+        <v>3166885.565047767</v>
       </c>
       <c r="G92" s="76" t="n">
-        <v>3951862.667897318</v>
+        <v>3947927.063443324</v>
       </c>
       <c r="H92" s="76" t="n">
-        <v>4215108.594254986</v>
+        <v>4212320.384271478</v>
       </c>
       <c r="I92" s="76" t="n">
-        <v>3626256.763145886</v>
+        <v>3624412.530851732</v>
       </c>
       <c r="J92" s="76" t="n">
-        <v>3185484.855487149</v>
+        <v>3183945.48172906</v>
       </c>
       <c r="K92" s="76" t="n">
-        <v>4446286.861910095</v>
+        <v>4443721.781499182</v>
       </c>
       <c r="L92" s="76" t="n">
-        <v>7165492.219913424</v>
+        <v>7161101.023841993</v>
       </c>
       <c r="M92" s="76" t="n">
-        <v>6175225.04423824</v>
+        <v>6171507.319933963</v>
       </c>
       <c r="N92" s="76" t="n">
-        <v>7045122.257507008</v>
+        <v>7040932.496021738</v>
       </c>
       <c r="O92" s="76" t="n">
-        <v>6874890.166977934</v>
+        <v>6870897.297450932</v>
       </c>
       <c r="P92" s="76" t="n">
-        <v>3964950.429307338</v>
+        <v>3962849.62052747</v>
       </c>
       <c r="Q92" s="76" t="n">
-        <v>5175617.347136538</v>
+        <v>5172963.949111345</v>
       </c>
       <c r="R92" s="76" t="n">
-        <v>3773894.433968545</v>
+        <v>3771969.202057983</v>
       </c>
       <c r="S92" s="76" t="n">
-        <v>4082764.306413241</v>
+        <v>4078383.848548037</v>
       </c>
       <c r="T92" s="76" t="n">
-        <v>4255932.226935541</v>
+        <v>4252421.339056705</v>
       </c>
       <c r="U92" s="76" t="n">
-        <v>3688991.165751343</v>
+        <v>3686378.029313089</v>
       </c>
       <c r="V92" s="76" t="n">
-        <v>3566176.125594683</v>
+        <v>3563696.399883849</v>
       </c>
       <c r="W92" s="76" t="n">
-        <v>4646296.180129224</v>
+        <v>4642893.532975877</v>
       </c>
     </row>
     <row r="93">
@@ -15799,67 +15823,67 @@
         </is>
       </c>
       <c r="C93" s="76" t="n">
-        <v>1470324.754063666</v>
+        <v>1468742.317528503</v>
       </c>
       <c r="D93" s="76" t="n">
-        <v>1644882.386671495</v>
+        <v>1643194.210578163</v>
       </c>
       <c r="E93" s="76" t="n">
-        <v>2293150.775431709</v>
+        <v>2291333.389353855</v>
       </c>
       <c r="F93" s="76" t="n">
-        <v>2111716.859364736</v>
+        <v>2106228.548595337</v>
       </c>
       <c r="G93" s="76" t="n">
-        <v>1997695.031121612</v>
+        <v>1995475.138971977</v>
       </c>
       <c r="H93" s="76" t="n">
-        <v>2652587.04805253</v>
+        <v>2645644.711126511</v>
       </c>
       <c r="I93" s="76" t="n">
-        <v>2665168.528795397</v>
+        <v>2660075.128751223</v>
       </c>
       <c r="J93" s="76" t="n">
-        <v>2334089.334430024</v>
+        <v>2331872.598347993</v>
       </c>
       <c r="K93" s="76" t="n">
-        <v>1848748.931674388</v>
+        <v>1846763.813850884</v>
       </c>
       <c r="L93" s="76" t="n">
-        <v>3191949.51812699</v>
+        <v>3188152.800043923</v>
       </c>
       <c r="M93" s="76" t="n">
-        <v>1883124.493439498</v>
+        <v>1881358.079624539</v>
       </c>
       <c r="N93" s="76" t="n">
-        <v>2015932.585522175</v>
+        <v>2013929.618654191</v>
       </c>
       <c r="O93" s="76" t="n">
-        <v>2021738.255619675</v>
+        <v>2019263.57994804</v>
       </c>
       <c r="P93" s="76" t="n">
-        <v>1820187.359446891</v>
+        <v>1818021.130904324</v>
       </c>
       <c r="Q93" s="76" t="n">
-        <v>2032240.110817411</v>
+        <v>2030092.397071453</v>
       </c>
       <c r="R93" s="76" t="n">
-        <v>2262012.960039217</v>
+        <v>2255048.782158151</v>
       </c>
       <c r="S93" s="76" t="n">
-        <v>1952654.585295696</v>
+        <v>1949916.618767094</v>
       </c>
       <c r="T93" s="76" t="n">
-        <v>2903420.87882188</v>
+        <v>2896162.676764413</v>
       </c>
       <c r="U93" s="76" t="n">
-        <v>2836746.156056318</v>
+        <v>2830357.2864499</v>
       </c>
       <c r="V93" s="76" t="n">
-        <v>2451908.560757042</v>
+        <v>2448843.508555313</v>
       </c>
       <c r="W93" s="76" t="n">
-        <v>2262680.714945797</v>
+        <v>2259745.824006208</v>
       </c>
     </row>
     <row r="94">
@@ -15874,67 +15898,67 @@
         </is>
       </c>
       <c r="C94" s="76" t="n">
-        <v>7886938.045053967</v>
+        <v>7891803.913530845</v>
       </c>
       <c r="D94" s="76" t="n">
-        <v>4413087.282345305</v>
+        <v>4416529.9503746</v>
       </c>
       <c r="E94" s="76" t="n">
-        <v>5567148.49004085</v>
+        <v>5571613.458931435</v>
       </c>
       <c r="F94" s="76" t="n">
-        <v>4319822.92098071</v>
+        <v>4321418.658824706</v>
       </c>
       <c r="G94" s="76" t="n">
-        <v>4697229.073170138</v>
+        <v>4699007.098156741</v>
       </c>
       <c r="H94" s="76" t="n">
-        <v>3932430.898781028</v>
+        <v>3935046.384064247</v>
       </c>
       <c r="I94" s="76" t="n">
-        <v>3942267.021223034</v>
+        <v>3942830.714458297</v>
       </c>
       <c r="J94" s="76" t="n">
-        <v>5643374.380356621</v>
+        <v>5647221.999418259</v>
       </c>
       <c r="K94" s="76" t="n">
-        <v>3002680.073915696</v>
+        <v>3004909.075401896</v>
       </c>
       <c r="L94" s="76" t="n">
-        <v>6209980.229264257</v>
+        <v>6215339.087576925</v>
       </c>
       <c r="M94" s="76" t="n">
-        <v>4648447.652763813</v>
+        <v>4651151.990633439</v>
       </c>
       <c r="N94" s="76" t="n">
-        <v>11501364.69874919</v>
+        <v>11508439.60786891</v>
       </c>
       <c r="O94" s="76" t="n">
-        <v>8925994.600851355</v>
+        <v>8933995.359575214</v>
       </c>
       <c r="P94" s="76" t="n">
-        <v>5353169.428365583</v>
+        <v>5358336.911246635</v>
       </c>
       <c r="Q94" s="76" t="n">
-        <v>5276755.613418228</v>
+        <v>5282223.305208686</v>
       </c>
       <c r="R94" s="76" t="n">
-        <v>4873600.402714232</v>
+        <v>4876730.194320127</v>
       </c>
       <c r="S94" s="76" t="n">
-        <v>4805512.519988684</v>
+        <v>4810340.932988031</v>
       </c>
       <c r="T94" s="76" t="n">
-        <v>4196478.06041804</v>
+        <v>4200253.605916156</v>
       </c>
       <c r="U94" s="76" t="n">
-        <v>4674428.744654</v>
+        <v>4677485.345699281</v>
       </c>
       <c r="V94" s="76" t="n">
-        <v>5596475.828814294</v>
+        <v>5601748.870398739</v>
       </c>
       <c r="W94" s="76" t="n">
-        <v>3633107.584023335</v>
+        <v>3636551.859540634</v>
       </c>
     </row>
     <row r="95">
@@ -15949,67 +15973,67 @@
         </is>
       </c>
       <c r="C95" s="76" t="n">
-        <v>5996499.219408022</v>
+        <v>5994305.176728202</v>
       </c>
       <c r="D95" s="76" t="n">
-        <v>6545603.027426682</v>
+        <v>6544133.457851545</v>
       </c>
       <c r="E95" s="76" t="n">
-        <v>6114644.985065903</v>
+        <v>6114282.323089612</v>
       </c>
       <c r="F95" s="76" t="n">
-        <v>6078180.617372191</v>
+        <v>6076509.167185334</v>
       </c>
       <c r="G95" s="76" t="n">
-        <v>6809500.32027745</v>
+        <v>6811763.814533886</v>
       </c>
       <c r="H95" s="76" t="n">
-        <v>5269664.125695233</v>
+        <v>5270582.403330984</v>
       </c>
       <c r="I95" s="76" t="n">
-        <v>6873796.719027394</v>
+        <v>6872211.449024744</v>
       </c>
       <c r="J95" s="76" t="n">
-        <v>6356464.380874865</v>
+        <v>6354654.581311952</v>
       </c>
       <c r="K95" s="76" t="n">
-        <v>5892110.607449609</v>
+        <v>5888937.891613971</v>
       </c>
       <c r="L95" s="76" t="n">
-        <v>7616987.092409753</v>
+        <v>7613002.568749075</v>
       </c>
       <c r="M95" s="76" t="n">
-        <v>6105865.929693665</v>
+        <v>6102720.745636546</v>
       </c>
       <c r="N95" s="76" t="n">
-        <v>6534627.325886505</v>
+        <v>6531184.26492731</v>
       </c>
       <c r="O95" s="76" t="n">
-        <v>6613178.840198353</v>
+        <v>6609812.382904136</v>
       </c>
       <c r="P95" s="76" t="n">
-        <v>6768880.216765976</v>
+        <v>6765924.036119085</v>
       </c>
       <c r="Q95" s="76" t="n">
-        <v>6117186.712637502</v>
+        <v>6115076.314167452</v>
       </c>
       <c r="R95" s="76" t="n">
-        <v>6776793.690707249</v>
+        <v>6776217.276472812</v>
       </c>
       <c r="S95" s="76" t="n">
-        <v>6596354.009546991</v>
+        <v>6596911.683635191</v>
       </c>
       <c r="T95" s="76" t="n">
-        <v>5799320.901899518</v>
+        <v>5799591.7616168</v>
       </c>
       <c r="U95" s="76" t="n">
-        <v>7111710.79329961</v>
+        <v>7110179.691113765</v>
       </c>
       <c r="V95" s="76" t="n">
-        <v>6404564.733769638</v>
+        <v>6401299.931759072</v>
       </c>
       <c r="W95" s="76" t="n">
-        <v>6366286.260383663</v>
+        <v>6362278.199249079</v>
       </c>
     </row>
     <row r="96">
@@ -16024,67 +16048,67 @@
         </is>
       </c>
       <c r="C96" s="76" t="n">
-        <v>425638.7728810157</v>
+        <v>392095.6755675544</v>
       </c>
       <c r="D96" s="76" t="n">
-        <v>485222.4398090364</v>
+        <v>449927.6453236787</v>
       </c>
       <c r="E96" s="76" t="n">
-        <v>124893.6846973034</v>
+        <v>114230.6529026995</v>
       </c>
       <c r="F96" s="76" t="n">
-        <v>254594.3196865587</v>
+        <v>222394.6863029702</v>
       </c>
       <c r="G96" s="76" t="n">
-        <v>312346.9368297639</v>
+        <v>254663.9783973476</v>
       </c>
       <c r="H96" s="76" t="n">
-        <v>127533.2329501352</v>
+        <v>108424.8819702461</v>
       </c>
       <c r="I96" s="76" t="n">
-        <v>394568.6690280684</v>
+        <v>340839.0597063888</v>
       </c>
       <c r="J96" s="76" t="n">
-        <v>248596.8566843007</v>
+        <v>227903.5945741648</v>
       </c>
       <c r="K96" s="76" t="n">
-        <v>115437.1083201672</v>
+        <v>107070.0737534538</v>
       </c>
       <c r="L96" s="76" t="n">
-        <v>488962.7507331131</v>
+        <v>450479.1872031519</v>
       </c>
       <c r="M96" s="76" t="n">
-        <v>369693.5523281233</v>
+        <v>342975.7721482914</v>
       </c>
       <c r="N96" s="76" t="n">
-        <v>245522.6874619393</v>
+        <v>225720.3610671753</v>
       </c>
       <c r="O96" s="76" t="n">
-        <v>455984.4978334749</v>
+        <v>414468.9659402529</v>
       </c>
       <c r="P96" s="76" t="n">
-        <v>393740.0642172031</v>
+        <v>357429.3704738514</v>
       </c>
       <c r="Q96" s="76" t="n">
-        <v>118088.9994276864</v>
+        <v>106766.3477158019</v>
       </c>
       <c r="R96" s="76" t="n">
-        <v>297345.3089379406</v>
+        <v>245723.6844073516</v>
       </c>
       <c r="S96" s="76" t="n">
-        <v>262832.1255821655</v>
+        <v>213648.7241313042</v>
       </c>
       <c r="T96" s="76" t="n">
-        <v>121484.9192528141</v>
+        <v>99206.99864764349</v>
       </c>
       <c r="U96" s="76" t="n">
-        <v>347967.7572200239</v>
+        <v>291295.5735401959</v>
       </c>
       <c r="V96" s="76" t="n">
-        <v>253621.6108639626</v>
+        <v>228141.9929747115</v>
       </c>
       <c r="W96" s="76" t="n">
-        <v>129215.192310215</v>
+        <v>116275.7888339571</v>
       </c>
     </row>
     <row r="97">
@@ -16099,67 +16123,67 @@
         </is>
       </c>
       <c r="C97" s="76" t="n">
-        <v>3357291.146744725</v>
+        <v>3346048.963623197</v>
       </c>
       <c r="D97" s="76" t="n">
-        <v>4852513.36057082</v>
+        <v>4835683.61386116</v>
       </c>
       <c r="E97" s="76" t="n">
-        <v>2995814.608155332</v>
+        <v>2983779.638192834</v>
       </c>
       <c r="F97" s="76" t="n">
-        <v>3842253.396168596</v>
+        <v>3814955.860419141</v>
       </c>
       <c r="G97" s="76" t="n">
-        <v>4065212.763806205</v>
+        <v>4045090.251948425</v>
       </c>
       <c r="H97" s="76" t="n">
-        <v>3052748.573166015</v>
+        <v>3039693.324531976</v>
       </c>
       <c r="I97" s="76" t="n">
-        <v>4678669.828500401</v>
+        <v>4650308.586614174</v>
       </c>
       <c r="J97" s="76" t="n">
-        <v>2997124.197320213</v>
+        <v>2985536.283282775</v>
       </c>
       <c r="K97" s="76" t="n">
-        <v>3321294.835284232</v>
+        <v>3309506.638462641</v>
       </c>
       <c r="L97" s="76" t="n">
-        <v>5904038.734965334</v>
+        <v>5882355.04772269</v>
       </c>
       <c r="M97" s="76" t="n">
-        <v>3634097.864169939</v>
+        <v>3623149.687380529</v>
       </c>
       <c r="N97" s="76" t="n">
-        <v>3313388.97967942</v>
+        <v>3302782.663153135</v>
       </c>
       <c r="O97" s="76" t="n">
-        <v>4183886.469287743</v>
+        <v>4166804.539503006</v>
       </c>
       <c r="P97" s="76" t="n">
-        <v>4371433.716024561</v>
+        <v>4352622.532998607</v>
       </c>
       <c r="Q97" s="76" t="n">
-        <v>3121570.964104487</v>
+        <v>3107660.360524203</v>
       </c>
       <c r="R97" s="76" t="n">
-        <v>4181212.617419738</v>
+        <v>4147925.482083658</v>
       </c>
       <c r="S97" s="76" t="n">
-        <v>3804329.763120991</v>
+        <v>3778704.491228998</v>
       </c>
       <c r="T97" s="76" t="n">
-        <v>3205903.414300337</v>
+        <v>3185822.367229759</v>
       </c>
       <c r="U97" s="76" t="n">
-        <v>4533184.676273586</v>
+        <v>4503262.320533856</v>
       </c>
       <c r="V97" s="76" t="n">
-        <v>3329467.554541507</v>
+        <v>3314522.538049631</v>
       </c>
       <c r="W97" s="76" t="n">
-        <v>3455444.958928496</v>
+        <v>3440031.302969011</v>
       </c>
     </row>
     <row r="98">
@@ -16174,67 +16198,67 @@
         </is>
       </c>
       <c r="C98" s="77" t="n">
-        <v>182600247.8174662</v>
+        <v>182583487.7486608</v>
       </c>
       <c r="D98" s="77" t="n">
-        <v>193678196.3796884</v>
+        <v>193690555.6986778</v>
       </c>
       <c r="E98" s="77" t="n">
-        <v>164452154.7668507</v>
+        <v>164463752.7309385</v>
       </c>
       <c r="F98" s="77" t="n">
-        <v>184568063.6691006</v>
+        <v>184598140.7059814</v>
       </c>
       <c r="G98" s="77" t="n">
-        <v>190982663.8097962</v>
+        <v>191010437.695162</v>
       </c>
       <c r="H98" s="77" t="n">
-        <v>170131738.7973133</v>
+        <v>170156197.7475658</v>
       </c>
       <c r="I98" s="77" t="n">
-        <v>201473900.1490672</v>
+        <v>201446775.593945</v>
       </c>
       <c r="J98" s="77" t="n">
-        <v>176023373.2499651</v>
+        <v>175974794.4309238</v>
       </c>
       <c r="K98" s="77" t="n">
-        <v>162184332.426604</v>
+        <v>162179265.4722552</v>
       </c>
       <c r="L98" s="77" t="n">
-        <v>248979494.5188469</v>
+        <v>249014184.8071699</v>
       </c>
       <c r="M98" s="77" t="n">
-        <v>179934042.3887826</v>
+        <v>179904225.0217162</v>
       </c>
       <c r="N98" s="77" t="n">
-        <v>203526947.6900598</v>
+        <v>203540177.5671</v>
       </c>
       <c r="O98" s="77" t="n">
-        <v>206813362.0864493</v>
+        <v>206796558.0493039</v>
       </c>
       <c r="P98" s="77" t="n">
-        <v>194626263.5011865</v>
+        <v>194615511.0586226</v>
       </c>
       <c r="Q98" s="77" t="n">
-        <v>169683082.5065064</v>
+        <v>169690996.6439302</v>
       </c>
       <c r="R98" s="77" t="n">
-        <v>202584756.0694839</v>
+        <v>202619406.7544731</v>
       </c>
       <c r="S98" s="77" t="n">
-        <v>187685276.6052504</v>
+        <v>187702306.2410892</v>
       </c>
       <c r="T98" s="77" t="n">
-        <v>177543024.3757744</v>
+        <v>177580853.3839871</v>
       </c>
       <c r="U98" s="77" t="n">
-        <v>210715323.1872502</v>
+        <v>210695753.4600827</v>
       </c>
       <c r="V98" s="77" t="n">
-        <v>183318468.8351191</v>
+        <v>183276868.806459</v>
       </c>
       <c r="W98" s="77" t="n">
-        <v>172630963.0591884</v>
+        <v>172619634.987751</v>
       </c>
     </row>
     <row r="99">
@@ -16249,67 +16273,67 @@
         </is>
       </c>
       <c r="C99" s="76" t="n">
-        <v>1105032.259232284</v>
+        <v>1102372.993417244</v>
       </c>
       <c r="D99" s="76" t="n">
-        <v>1298955.53024785</v>
+        <v>1295278.52994702</v>
       </c>
       <c r="E99" s="76" t="n">
-        <v>1184809.621353248</v>
+        <v>1180506.485344072</v>
       </c>
       <c r="F99" s="76" t="n">
-        <v>1269446.430126703</v>
+        <v>1268902.355447654</v>
       </c>
       <c r="G99" s="76" t="n">
-        <v>1523625.461573637</v>
+        <v>1515266.323719088</v>
       </c>
       <c r="H99" s="76" t="n">
-        <v>1148651.851071859</v>
+        <v>1143720.204877727</v>
       </c>
       <c r="I99" s="76" t="n">
-        <v>1832110.604884167</v>
+        <v>1820458.148690978</v>
       </c>
       <c r="J99" s="76" t="n">
-        <v>1334623.194817971</v>
+        <v>1324361.915682381</v>
       </c>
       <c r="K99" s="76" t="n">
-        <v>1246611.991618075</v>
+        <v>1238002.245550394</v>
       </c>
       <c r="L99" s="76" t="n">
-        <v>1904227.693838374</v>
+        <v>1894321.20402232</v>
       </c>
       <c r="M99" s="76" t="n">
-        <v>1520299.396788108</v>
+        <v>1515006.265971928</v>
       </c>
       <c r="N99" s="76" t="n">
-        <v>1554472.461532278</v>
+        <v>1549170.645895461</v>
       </c>
       <c r="O99" s="76" t="n">
-        <v>1657673.089937447</v>
+        <v>1650980.608685285</v>
       </c>
       <c r="P99" s="76" t="n">
-        <v>1708898.601703479</v>
+        <v>1701598.78446647</v>
       </c>
       <c r="Q99" s="76" t="n">
-        <v>1498453.566606262</v>
+        <v>1491536.031384193</v>
       </c>
       <c r="R99" s="76" t="n">
-        <v>1679530.328007148</v>
+        <v>1678300.502054116</v>
       </c>
       <c r="S99" s="76" t="n">
-        <v>1680608.01814821</v>
+        <v>1671596.791204202</v>
       </c>
       <c r="T99" s="76" t="n">
-        <v>1414227.990178045</v>
+        <v>1408799.645004747</v>
       </c>
       <c r="U99" s="76" t="n">
-        <v>2027710.55733631</v>
+        <v>2002762.462902228</v>
       </c>
       <c r="V99" s="76" t="n">
-        <v>1571555.259816155</v>
+        <v>1561428.026192239</v>
       </c>
       <c r="W99" s="76" t="n">
-        <v>1458593.088202269</v>
+        <v>1449661.509544742</v>
       </c>
     </row>
     <row r="100">
@@ -16324,67 +16348,67 @@
         </is>
       </c>
       <c r="C100" s="76" t="n">
-        <v>3929944.404743663</v>
+        <v>3929287.519998766</v>
       </c>
       <c r="D100" s="76" t="n">
-        <v>3314835.898549578</v>
+        <v>3314611.50250438</v>
       </c>
       <c r="E100" s="76" t="n">
-        <v>2995801.887208028</v>
+        <v>2994675.625768586</v>
       </c>
       <c r="F100" s="76" t="n">
-        <v>2826048.769431139</v>
+        <v>2827374.257005947</v>
       </c>
       <c r="G100" s="76" t="n">
-        <v>3243095.999032528</v>
+        <v>3241770.610228688</v>
       </c>
       <c r="H100" s="76" t="n">
-        <v>2791434.249879697</v>
+        <v>2789703.956371246</v>
       </c>
       <c r="I100" s="76" t="n">
-        <v>3204692.117988307</v>
+        <v>3209246.693088374</v>
       </c>
       <c r="J100" s="76" t="n">
-        <v>2974139.733454247</v>
+        <v>2972324.670773033</v>
       </c>
       <c r="K100" s="76" t="n">
-        <v>2551912.493799734</v>
+        <v>2551067.128075821</v>
       </c>
       <c r="L100" s="76" t="n">
-        <v>4582699.691086361</v>
+        <v>4582127.053672482</v>
       </c>
       <c r="M100" s="76" t="n">
-        <v>3849255.857970728</v>
+        <v>3847621.421580615</v>
       </c>
       <c r="N100" s="76" t="n">
-        <v>5040403.095731346</v>
+        <v>5038649.37897219</v>
       </c>
       <c r="O100" s="76" t="n">
-        <v>4518854.389221416</v>
+        <v>4517469.494321721</v>
       </c>
       <c r="P100" s="76" t="n">
-        <v>3427428.431926342</v>
+        <v>3426518.390773006</v>
       </c>
       <c r="Q100" s="76" t="n">
-        <v>3044197.334019308</v>
+        <v>3042918.085385572</v>
       </c>
       <c r="R100" s="76" t="n">
-        <v>3136501.531585923</v>
+        <v>3136996.669395781</v>
       </c>
       <c r="S100" s="76" t="n">
-        <v>3190297.098726255</v>
+        <v>3188840.860949199</v>
       </c>
       <c r="T100" s="76" t="n">
-        <v>2878149.099342488</v>
+        <v>2876545.721968424</v>
       </c>
       <c r="U100" s="76" t="n">
-        <v>3310017.663023004</v>
+        <v>3313932.823852872</v>
       </c>
       <c r="V100" s="76" t="n">
-        <v>3025193.802861132</v>
+        <v>3023500.189722519</v>
       </c>
       <c r="W100" s="76" t="n">
-        <v>2869990.353476701</v>
+        <v>2868739.861654713</v>
       </c>
     </row>
     <row r="101">
@@ -16399,67 +16423,67 @@
         </is>
       </c>
       <c r="C101" s="76" t="n">
-        <v>5408893.03030311</v>
+        <v>5403876.558055062</v>
       </c>
       <c r="D101" s="76" t="n">
-        <v>6573169.995732438</v>
+        <v>6565248.339577244</v>
       </c>
       <c r="E101" s="76" t="n">
-        <v>5027950.507842484</v>
+        <v>5019972.166235855</v>
       </c>
       <c r="F101" s="76" t="n">
-        <v>6532211.221590936</v>
+        <v>6529817.903340438</v>
       </c>
       <c r="G101" s="76" t="n">
-        <v>6890420.672068074</v>
+        <v>6880916.416844892</v>
       </c>
       <c r="H101" s="76" t="n">
-        <v>5770488.268645111</v>
+        <v>5766787.965269109</v>
       </c>
       <c r="I101" s="76" t="n">
-        <v>7568309.920955911</v>
+        <v>7558960.191302626</v>
       </c>
       <c r="J101" s="76" t="n">
-        <v>6168656.878366624</v>
+        <v>6154570.464336039</v>
       </c>
       <c r="K101" s="76" t="n">
-        <v>5654109.383272266</v>
+        <v>5643133.699406762</v>
       </c>
       <c r="L101" s="76" t="n">
-        <v>8175919.809398531</v>
+        <v>8164107.146308554</v>
       </c>
       <c r="M101" s="76" t="n">
-        <v>6228023.903375512</v>
+        <v>6220131.289825016</v>
       </c>
       <c r="N101" s="76" t="n">
-        <v>5613369.890612558</v>
+        <v>5606245.994960144</v>
       </c>
       <c r="O101" s="76" t="n">
-        <v>6673018.207534771</v>
+        <v>6663248.398387776</v>
       </c>
       <c r="P101" s="76" t="n">
-        <v>7158600.467593603</v>
+        <v>7147098.525363657</v>
       </c>
       <c r="Q101" s="76" t="n">
-        <v>5637280.871903848</v>
+        <v>5627335.069302992</v>
       </c>
       <c r="R101" s="76" t="n">
-        <v>7488714.992677576</v>
+        <v>7483141.431798445</v>
       </c>
       <c r="S101" s="76" t="n">
-        <v>7028126.701758579</v>
+        <v>7017804.684872158</v>
       </c>
       <c r="T101" s="76" t="n">
-        <v>6104198.055897282</v>
+        <v>6095556.526278224</v>
       </c>
       <c r="U101" s="76" t="n">
-        <v>7931135.607263052</v>
+        <v>7913898.760202581</v>
       </c>
       <c r="V101" s="76" t="n">
-        <v>6620416.41989641</v>
+        <v>6606437.872314787</v>
       </c>
       <c r="W101" s="76" t="n">
-        <v>5898096.852519864</v>
+        <v>5886439.910157422</v>
       </c>
     </row>
     <row r="102">
@@ -16474,67 +16498,67 @@
         </is>
       </c>
       <c r="C102" s="76" t="n">
-        <v>16032516.59510822</v>
+        <v>16021402.73717377</v>
       </c>
       <c r="D102" s="76" t="n">
-        <v>15818157.11878217</v>
+        <v>15811232.68459217</v>
       </c>
       <c r="E102" s="76" t="n">
-        <v>15234292.42467279</v>
+        <v>15227378.28395189</v>
       </c>
       <c r="F102" s="76" t="n">
-        <v>16453545.51550378</v>
+        <v>16447633.98074888</v>
       </c>
       <c r="G102" s="76" t="n">
-        <v>17108822.46853618</v>
+        <v>17097626.27686561</v>
       </c>
       <c r="H102" s="76" t="n">
-        <v>17203739.9848159</v>
+        <v>17195403.69241105</v>
       </c>
       <c r="I102" s="76" t="n">
-        <v>17919602.12999339</v>
+        <v>17902398.56886975</v>
       </c>
       <c r="J102" s="76" t="n">
-        <v>18942061.72196449</v>
+        <v>18922453.52106978</v>
       </c>
       <c r="K102" s="76" t="n">
-        <v>17800831.91046989</v>
+        <v>17793647.8797846</v>
       </c>
       <c r="L102" s="76" t="n">
-        <v>15831358.63060536</v>
+        <v>15825477.98874533</v>
       </c>
       <c r="M102" s="76" t="n">
-        <v>16674459.76879798</v>
+        <v>16660590.98263861</v>
       </c>
       <c r="N102" s="76" t="n">
-        <v>17045771.89024347</v>
+        <v>17031926.54252777</v>
       </c>
       <c r="O102" s="76" t="n">
-        <v>18418500.05097755</v>
+        <v>18402211.87888542</v>
       </c>
       <c r="P102" s="76" t="n">
-        <v>18232308.29259829</v>
+        <v>18218509.02792368</v>
       </c>
       <c r="Q102" s="76" t="n">
-        <v>16852222.23771417</v>
+        <v>16840472.78856564</v>
       </c>
       <c r="R102" s="76" t="n">
-        <v>18103223.74501987</v>
+        <v>18090791.40144129</v>
       </c>
       <c r="S102" s="76" t="n">
-        <v>17938465.68023253</v>
+        <v>17923117.29474298</v>
       </c>
       <c r="T102" s="76" t="n">
-        <v>18190978.10804148</v>
+        <v>18182492.01381711</v>
       </c>
       <c r="U102" s="76" t="n">
-        <v>18644470.57368288</v>
+        <v>18624867.19341248</v>
       </c>
       <c r="V102" s="76" t="n">
-        <v>19664790.82678575</v>
+        <v>19642199.21257408</v>
       </c>
       <c r="W102" s="76" t="n">
-        <v>18979147.94169832</v>
+        <v>18962594.58518724</v>
       </c>
     </row>
     <row r="103">
@@ -16549,67 +16573,67 @@
         </is>
       </c>
       <c r="C103" s="76" t="n">
-        <v>20294056.92833571</v>
+        <v>20361095.35256037</v>
       </c>
       <c r="D103" s="76" t="n">
-        <v>19141819.3421052</v>
+        <v>19212099.47693721</v>
       </c>
       <c r="E103" s="76" t="n">
-        <v>14251039.57608834</v>
+        <v>14306723.53822041</v>
       </c>
       <c r="F103" s="76" t="n">
-        <v>25304789.9265061</v>
+        <v>25422075.09543083</v>
       </c>
       <c r="G103" s="76" t="n">
-        <v>20130599.98732355</v>
+        <v>20233566.51580375</v>
       </c>
       <c r="H103" s="76" t="n">
-        <v>25669286.29466783</v>
+        <v>25808820.4990327</v>
       </c>
       <c r="I103" s="76" t="n">
-        <v>19677714.18600487</v>
+        <v>19721350.30876056</v>
       </c>
       <c r="J103" s="76" t="n">
-        <v>17914459.6976274</v>
+        <v>18012351.26972468</v>
       </c>
       <c r="K103" s="76" t="n">
-        <v>18036108.52985557</v>
+        <v>18132658.57253296</v>
       </c>
       <c r="L103" s="76" t="n">
-        <v>29527609.97487854</v>
+        <v>29669483.08736669</v>
       </c>
       <c r="M103" s="76" t="n">
-        <v>16645662.24725942</v>
+        <v>16721664.41580825</v>
       </c>
       <c r="N103" s="76" t="n">
-        <v>24233976.15590999</v>
+        <v>24341642.89197273</v>
       </c>
       <c r="O103" s="76" t="n">
-        <v>22183478.06591325</v>
+        <v>22279946.6187638</v>
       </c>
       <c r="P103" s="76" t="n">
-        <v>19223824.69664919</v>
+        <v>19313373.90853482</v>
       </c>
       <c r="Q103" s="76" t="n">
-        <v>17404533.74611991</v>
+        <v>17485192.16784596</v>
       </c>
       <c r="R103" s="76" t="n">
-        <v>25885347.4462668</v>
+        <v>26019779.33329608</v>
       </c>
       <c r="S103" s="76" t="n">
-        <v>19585604.21543708</v>
+        <v>19692688.83616233</v>
       </c>
       <c r="T103" s="76" t="n">
-        <v>25701372.19271288</v>
+        <v>25845992.32586559</v>
       </c>
       <c r="U103" s="76" t="n">
-        <v>21705764.5202775</v>
+        <v>21819144.4742199</v>
       </c>
       <c r="V103" s="76" t="n">
-        <v>18187300.75222369</v>
+        <v>18290718.2904048</v>
       </c>
       <c r="W103" s="76" t="n">
-        <v>19150561.72752899</v>
+        <v>19257050.53720439</v>
       </c>
     </row>
     <row r="104">
@@ -16624,67 +16648,67 @@
         </is>
       </c>
       <c r="C104" s="76" t="n">
-        <v>33302738.9186836</v>
+        <v>33286170.03853736</v>
       </c>
       <c r="D104" s="76" t="n">
-        <v>36965745.6474869</v>
+        <v>36961766.83989275</v>
       </c>
       <c r="E104" s="76" t="n">
-        <v>36321276.55761991</v>
+        <v>36317561.55987462</v>
       </c>
       <c r="F104" s="76" t="n">
-        <v>37189568.35748542</v>
+        <v>37188333.86285187</v>
       </c>
       <c r="G104" s="76" t="n">
-        <v>41789403.05439518</v>
+        <v>41797234.571709</v>
       </c>
       <c r="H104" s="76" t="n">
-        <v>35418338.12931582</v>
+        <v>35415475.79625266</v>
       </c>
       <c r="I104" s="76" t="n">
-        <v>42016510.14539304</v>
+        <v>42011708.22144217</v>
       </c>
       <c r="J104" s="76" t="n">
-        <v>40664378.2168544</v>
+        <v>40654774.37425987</v>
       </c>
       <c r="K104" s="76" t="n">
-        <v>34322073.18501453</v>
+        <v>34310787.60749095</v>
       </c>
       <c r="L104" s="76" t="n">
-        <v>49724311.96519301</v>
+        <v>49709481.6239131</v>
       </c>
       <c r="M104" s="76" t="n">
-        <v>38204296.4028147</v>
+        <v>38185484.05151547</v>
       </c>
       <c r="N104" s="76" t="n">
-        <v>35716487.65252549</v>
+        <v>35698389.66555915</v>
       </c>
       <c r="O104" s="76" t="n">
-        <v>42192182.45028742</v>
+        <v>42169923.81759024</v>
       </c>
       <c r="P104" s="76" t="n">
-        <v>41683671.74423522</v>
+        <v>41668349.96843287</v>
       </c>
       <c r="Q104" s="76" t="n">
-        <v>39014700.49335308</v>
+        <v>38999878.79926442</v>
       </c>
       <c r="R104" s="76" t="n">
-        <v>43431747.1456826</v>
+        <v>43424214.68616273</v>
       </c>
       <c r="S104" s="76" t="n">
-        <v>42749895.02822921</v>
+        <v>42749456.80962084</v>
       </c>
       <c r="T104" s="76" t="n">
-        <v>38109989.61867368</v>
+        <v>38104445.21901344</v>
       </c>
       <c r="U104" s="76" t="n">
-        <v>46145926.69733217</v>
+        <v>46143111.85794003</v>
       </c>
       <c r="V104" s="76" t="n">
-        <v>42081609.45645408</v>
+        <v>42061169.75402233</v>
       </c>
       <c r="W104" s="76" t="n">
-        <v>36653185.74021471</v>
+        <v>36633278.17647039</v>
       </c>
     </row>
     <row r="105">
@@ -16699,67 +16723,67 @@
         </is>
       </c>
       <c r="C105" s="76" t="n">
-        <v>672529.2155189293</v>
+        <v>672815.123973974</v>
       </c>
       <c r="D105" s="76" t="n">
-        <v>838874.1557571278</v>
+        <v>838848.4235330169</v>
       </c>
       <c r="E105" s="76" t="n">
-        <v>805697.833487276</v>
+        <v>805965.1784946667</v>
       </c>
       <c r="F105" s="76" t="n">
-        <v>893024.447578301</v>
+        <v>893468.2562092935</v>
       </c>
       <c r="G105" s="76" t="n">
-        <v>1046258.22338133</v>
+        <v>1046178.915872708</v>
       </c>
       <c r="H105" s="76" t="n">
-        <v>831276.7500638404</v>
+        <v>831646.7815051294</v>
       </c>
       <c r="I105" s="76" t="n">
-        <v>992958.3683572829</v>
+        <v>993096.4885099705</v>
       </c>
       <c r="J105" s="76" t="n">
-        <v>963555.7269798504</v>
+        <v>963821.3105235205</v>
       </c>
       <c r="K105" s="76" t="n">
-        <v>823964.2046108927</v>
+        <v>823777.6175177408</v>
       </c>
       <c r="L105" s="76" t="n">
-        <v>1073900.19813957</v>
+        <v>1073241.155198358</v>
       </c>
       <c r="M105" s="76" t="n">
-        <v>929825.7267071274</v>
+        <v>929954.2509982971</v>
       </c>
       <c r="N105" s="76" t="n">
-        <v>990136.6005823941</v>
+        <v>990070.0967365967</v>
       </c>
       <c r="O105" s="76" t="n">
-        <v>962964.819701471</v>
+        <v>963138.4535671202</v>
       </c>
       <c r="P105" s="76" t="n">
-        <v>1095725.203914228</v>
+        <v>1095720.624115855</v>
       </c>
       <c r="Q105" s="76" t="n">
-        <v>994179.5696161406</v>
+        <v>994332.096404044</v>
       </c>
       <c r="R105" s="76" t="n">
-        <v>1086801.711260554</v>
+        <v>1087498.092545106</v>
       </c>
       <c r="S105" s="76" t="n">
-        <v>1104191.439268858</v>
+        <v>1104200.873921402</v>
       </c>
       <c r="T105" s="76" t="n">
-        <v>935525.3230193522</v>
+        <v>935770.5302208317</v>
       </c>
       <c r="U105" s="76" t="n">
-        <v>1136201.971196126</v>
+        <v>1136310.248422363</v>
       </c>
       <c r="V105" s="76" t="n">
-        <v>1049245.107658089</v>
+        <v>1049309.676207041</v>
       </c>
       <c r="W105" s="76" t="n">
-        <v>936743.2581168024</v>
+        <v>936617.0529792123</v>
       </c>
     </row>
     <row r="106">
@@ -16774,67 +16798,67 @@
         </is>
       </c>
       <c r="C106" s="76" t="n">
-        <v>6312103.347775399</v>
+        <v>6304082.217408949</v>
       </c>
       <c r="D106" s="76" t="n">
-        <v>5175159.829496345</v>
+        <v>5174777.090521193</v>
       </c>
       <c r="E106" s="76" t="n">
-        <v>5477159.392315876</v>
+        <v>5471394.872325663</v>
       </c>
       <c r="F106" s="76" t="n">
-        <v>4999901.529296051</v>
+        <v>4996018.493927045</v>
       </c>
       <c r="G106" s="76" t="n">
-        <v>5729482.812606436</v>
+        <v>5727968.329327929</v>
       </c>
       <c r="H106" s="76" t="n">
-        <v>4765421.306195159</v>
+        <v>4759055.642087841</v>
       </c>
       <c r="I106" s="76" t="n">
-        <v>5613401.969480188</v>
+        <v>5607393.184947769</v>
       </c>
       <c r="J106" s="76" t="n">
-        <v>5477943.282188078</v>
+        <v>5468700.661193759</v>
       </c>
       <c r="K106" s="76" t="n">
-        <v>4265972.028118506</v>
+        <v>4262394.228675245</v>
       </c>
       <c r="L106" s="76" t="n">
-        <v>6466783.45729899</v>
+        <v>6467684.542890985</v>
       </c>
       <c r="M106" s="76" t="n">
-        <v>5422734.745744053</v>
+        <v>5416231.132785408</v>
       </c>
       <c r="N106" s="76" t="n">
-        <v>13728906.20862861</v>
+        <v>13716709.50057172</v>
       </c>
       <c r="O106" s="76" t="n">
-        <v>7504149.802772737</v>
+        <v>7495193.432690845</v>
       </c>
       <c r="P106" s="76" t="n">
-        <v>5645467.931942819</v>
+        <v>5641568.888813403</v>
       </c>
       <c r="Q106" s="76" t="n">
-        <v>5384178.721613281</v>
+        <v>5377771.229912183</v>
       </c>
       <c r="R106" s="76" t="n">
-        <v>5868860.058312008</v>
+        <v>5863343.184284004</v>
       </c>
       <c r="S106" s="76" t="n">
-        <v>5641939.587860823</v>
+        <v>5637651.541557977</v>
       </c>
       <c r="T106" s="76" t="n">
-        <v>4942776.409812603</v>
+        <v>4936283.693077469</v>
       </c>
       <c r="U106" s="76" t="n">
-        <v>5948686.469752833</v>
+        <v>5941727.66035796</v>
       </c>
       <c r="V106" s="76" t="n">
-        <v>5592908.974920704</v>
+        <v>5584598.777071802</v>
       </c>
       <c r="W106" s="76" t="n">
-        <v>4612754.500461617</v>
+        <v>4607625.818793373</v>
       </c>
     </row>
     <row r="107">
@@ -16849,67 +16873,67 @@
         </is>
       </c>
       <c r="C107" s="76" t="n">
-        <v>9401713.608706877</v>
+        <v>9401296.370662808</v>
       </c>
       <c r="D107" s="76" t="n">
-        <v>9505630.837855896</v>
+        <v>9505639.335432263</v>
       </c>
       <c r="E107" s="76" t="n">
-        <v>8872298.581032153</v>
+        <v>8872929.372405041</v>
       </c>
       <c r="F107" s="76" t="n">
-        <v>8962617.226086397</v>
+        <v>8962049.087172031</v>
       </c>
       <c r="G107" s="76" t="n">
-        <v>9562412.186618458</v>
+        <v>9563068.68524171</v>
       </c>
       <c r="H107" s="76" t="n">
-        <v>8477057.477829153</v>
+        <v>8478485.72360789</v>
       </c>
       <c r="I107" s="76" t="n">
-        <v>11677339.46017193</v>
+        <v>11679136.87422101</v>
       </c>
       <c r="J107" s="76" t="n">
-        <v>9790528.20632668</v>
+        <v>9789646.331229186</v>
       </c>
       <c r="K107" s="76" t="n">
-        <v>9427635.266411854</v>
+        <v>9426330.122177074</v>
       </c>
       <c r="L107" s="76" t="n">
-        <v>13316296.27510047</v>
+        <v>13313749.69544372</v>
       </c>
       <c r="M107" s="76" t="n">
-        <v>10396745.35853747</v>
+        <v>10394020.01905214</v>
       </c>
       <c r="N107" s="76" t="n">
-        <v>15117695.88485196</v>
+        <v>15113738.58505185</v>
       </c>
       <c r="O107" s="76" t="n">
-        <v>12178627.15119711</v>
+        <v>12176776.05754067</v>
       </c>
       <c r="P107" s="76" t="n">
-        <v>11050118.67804988</v>
+        <v>11048768.51188385</v>
       </c>
       <c r="Q107" s="76" t="n">
-        <v>9842271.744135248</v>
+        <v>9841336.331318863</v>
       </c>
       <c r="R107" s="76" t="n">
-        <v>10714243.05236309</v>
+        <v>10715326.9378175</v>
       </c>
       <c r="S107" s="76" t="n">
-        <v>10110044.3517401</v>
+        <v>10109583.05080807</v>
       </c>
       <c r="T107" s="76" t="n">
-        <v>9309623.117782855</v>
+        <v>9309722.897608656</v>
       </c>
       <c r="U107" s="76" t="n">
-        <v>11961192.28815152</v>
+        <v>11964994.69611485</v>
       </c>
       <c r="V107" s="76" t="n">
-        <v>10038047.00026388</v>
+        <v>10035943.53168952</v>
       </c>
       <c r="W107" s="76" t="n">
-        <v>9631099.887103327</v>
+        <v>9628920.461009672</v>
       </c>
     </row>
     <row r="108">
@@ -16924,67 +16948,67 @@
         </is>
       </c>
       <c r="C108" s="76" t="n">
-        <v>10486743.921657</v>
+        <v>10484336.89377702</v>
       </c>
       <c r="D108" s="76" t="n">
-        <v>14342917.17587176</v>
+        <v>14340122.47727559</v>
       </c>
       <c r="E108" s="76" t="n">
-        <v>9926087.604856487</v>
+        <v>9925208.294785686</v>
       </c>
       <c r="F108" s="76" t="n">
-        <v>13959612.50571242</v>
+        <v>13951779.99063961</v>
       </c>
       <c r="G108" s="76" t="n">
-        <v>14375067.98772723</v>
+        <v>14375443.20144965</v>
       </c>
       <c r="H108" s="76" t="n">
-        <v>10528325.14222748</v>
+        <v>10525829.93353567</v>
       </c>
       <c r="I108" s="76" t="n">
-        <v>16619368.78356735</v>
+        <v>16612386.09608967</v>
       </c>
       <c r="J108" s="76" t="n">
-        <v>12005470.87989102</v>
+        <v>11999864.43225552</v>
       </c>
       <c r="K108" s="76" t="n">
-        <v>11422443.21363927</v>
+        <v>11416478.57858294</v>
       </c>
       <c r="L108" s="76" t="n">
-        <v>18599899.74936651</v>
+        <v>18590297.82365341</v>
       </c>
       <c r="M108" s="76" t="n">
-        <v>13808781.18550236</v>
+        <v>13801515.8629543</v>
       </c>
       <c r="N108" s="76" t="n">
-        <v>11689054.52954189</v>
+        <v>11683063.15668152</v>
       </c>
       <c r="O108" s="76" t="n">
-        <v>14954507.50723324</v>
+        <v>14947807.97984466</v>
       </c>
       <c r="P108" s="76" t="n">
-        <v>16002239.65933606</v>
+        <v>15995468.8578557</v>
       </c>
       <c r="Q108" s="76" t="n">
-        <v>11565667.95594649</v>
+        <v>11561181.71278006</v>
       </c>
       <c r="R108" s="76" t="n">
-        <v>16450047.33917986</v>
+        <v>16442159.49237434</v>
       </c>
       <c r="S108" s="76" t="n">
-        <v>14598533.46849403</v>
+        <v>14596352.30285704</v>
       </c>
       <c r="T108" s="76" t="n">
-        <v>11761924.82743095</v>
+        <v>11759067.68136778</v>
       </c>
       <c r="U108" s="76" t="n">
-        <v>17453266.34611658</v>
+        <v>17441871.77349039</v>
       </c>
       <c r="V108" s="76" t="n">
-        <v>13313803.84326616</v>
+        <v>13305595.68427073</v>
       </c>
       <c r="W108" s="76" t="n">
-        <v>12297742.89003666</v>
+        <v>12289908.38125968</v>
       </c>
     </row>
     <row r="109">
@@ -16999,67 +17023,67 @@
         </is>
       </c>
       <c r="C109" s="76" t="n">
-        <v>17996489.64590388</v>
+        <v>17979950.60644059</v>
       </c>
       <c r="D109" s="76" t="n">
-        <v>22792206.39744514</v>
+        <v>22762353.83335737</v>
       </c>
       <c r="E109" s="76" t="n">
-        <v>17037814.1114444</v>
+        <v>17006714.99949049</v>
       </c>
       <c r="F109" s="76" t="n">
-        <v>20517180.46274391</v>
+        <v>20483685.88210643</v>
       </c>
       <c r="G109" s="76" t="n">
-        <v>21728044.50829331</v>
+        <v>21685475.72989045</v>
       </c>
       <c r="H109" s="76" t="n">
-        <v>18054071.35818364</v>
+        <v>17967736.3285575</v>
       </c>
       <c r="I109" s="76" t="n">
-        <v>25496167.49773746</v>
+        <v>25517953.91797661</v>
       </c>
       <c r="J109" s="76" t="n">
-        <v>19219935.93341026</v>
+        <v>19151721.48388555</v>
       </c>
       <c r="K109" s="76" t="n">
-        <v>19496516.92125776</v>
+        <v>19440164.69530993</v>
       </c>
       <c r="L109" s="76" t="n">
-        <v>40833482.79923813</v>
+        <v>40752359.22084469</v>
       </c>
       <c r="M109" s="76" t="n">
-        <v>21315753.69426744</v>
+        <v>21278786.94503824</v>
       </c>
       <c r="N109" s="76" t="n">
-        <v>20898755.41342659</v>
+        <v>20863935.8605478</v>
       </c>
       <c r="O109" s="76" t="n">
-        <v>22596347.90781927</v>
+        <v>22556506.48578692</v>
       </c>
       <c r="P109" s="76" t="n">
-        <v>23602570.92990648</v>
+        <v>23556650.54184901</v>
       </c>
       <c r="Q109" s="76" t="n">
-        <v>18380090.34511306</v>
+        <v>18339978.90875369</v>
       </c>
       <c r="R109" s="76" t="n">
-        <v>23641079.24952351</v>
+        <v>23600688.40116794</v>
       </c>
       <c r="S109" s="76" t="n">
-        <v>21586476.65071615</v>
+        <v>21536949.3361544</v>
       </c>
       <c r="T109" s="76" t="n">
-        <v>19385313.13124753</v>
+        <v>19305949.43997291</v>
       </c>
       <c r="U109" s="76" t="n">
-        <v>26567527.16323252</v>
+        <v>26522604.13112458</v>
       </c>
       <c r="V109" s="76" t="n">
-        <v>20935314.45672578</v>
+        <v>20872835.98432255</v>
       </c>
       <c r="W109" s="76" t="n">
-        <v>21167559.71386939</v>
+        <v>21110068.01743042</v>
       </c>
     </row>
     <row r="110">
@@ -17074,67 +17098,67 @@
         </is>
       </c>
       <c r="C110" s="76" t="n">
-        <v>1342849.433972999</v>
+        <v>1342635.048507291</v>
       </c>
       <c r="D110" s="76" t="n">
-        <v>1051491.612726689</v>
+        <v>1051349.009708058</v>
       </c>
       <c r="E110" s="76" t="n">
-        <v>991023.2026514389</v>
+        <v>990869.0726927738</v>
       </c>
       <c r="F110" s="76" t="n">
-        <v>1124633.586289054</v>
+        <v>1124120.241492247</v>
       </c>
       <c r="G110" s="76" t="n">
-        <v>1165016.517102002</v>
+        <v>1164769.394399468</v>
       </c>
       <c r="H110" s="76" t="n">
-        <v>1174036.965486676</v>
+        <v>1173856.392306509</v>
       </c>
       <c r="I110" s="76" t="n">
-        <v>1279262.780992925</v>
+        <v>1278676.439684094</v>
       </c>
       <c r="J110" s="76" t="n">
-        <v>1036576.987396872</v>
+        <v>1036124.31590364</v>
       </c>
       <c r="K110" s="76" t="n">
-        <v>1091152.568055524</v>
+        <v>1090720.874797831</v>
       </c>
       <c r="L110" s="76" t="n">
-        <v>1231323.179709201</v>
+        <v>1230891.627797087</v>
       </c>
       <c r="M110" s="76" t="n">
-        <v>1749098.147944191</v>
+        <v>1748432.779513663</v>
       </c>
       <c r="N110" s="76" t="n">
-        <v>2379172.944941582</v>
+        <v>2378262.59828853</v>
       </c>
       <c r="O110" s="76" t="n">
-        <v>1538588.281724358</v>
+        <v>1538095.288028375</v>
       </c>
       <c r="P110" s="76" t="n">
-        <v>1159948.031152464</v>
+        <v>1159592.791574601</v>
       </c>
       <c r="Q110" s="76" t="n">
-        <v>1039812.175061752</v>
+        <v>1039489.572684491</v>
       </c>
       <c r="R110" s="76" t="n">
-        <v>1199253.863135901</v>
+        <v>1198828.564480738</v>
       </c>
       <c r="S110" s="76" t="n">
-        <v>1206718.822493009</v>
+        <v>1206301.279068178</v>
       </c>
       <c r="T110" s="76" t="n">
-        <v>1207113.054928452</v>
+        <v>1206724.589967717</v>
       </c>
       <c r="U110" s="76" t="n">
-        <v>1253987.731926432</v>
+        <v>1253334.451582196</v>
       </c>
       <c r="V110" s="76" t="n">
-        <v>1107445.915211596</v>
+        <v>1106905.835420975</v>
       </c>
       <c r="W110" s="76" t="n">
-        <v>1138292.303762614</v>
+        <v>1137760.558899728</v>
       </c>
     </row>
     <row r="111">
@@ -17149,67 +17173,67 @@
         </is>
       </c>
       <c r="C111" s="76" t="n">
-        <v>2227736.631729744</v>
+        <v>2241621.149613158</v>
       </c>
       <c r="D111" s="76" t="n">
-        <v>2672025.43748287</v>
+        <v>2687365.176198844</v>
       </c>
       <c r="E111" s="76" t="n">
-        <v>2055437.759972882</v>
+        <v>2070308.928025755</v>
       </c>
       <c r="F111" s="76" t="n">
-        <v>2230198.499991889</v>
+        <v>2221849.741970718</v>
       </c>
       <c r="G111" s="76" t="n">
-        <v>2471806.523852487</v>
+        <v>2491413.012885559</v>
       </c>
       <c r="H111" s="76" t="n">
-        <v>1994165.985032216</v>
+        <v>2013624.731173427</v>
       </c>
       <c r="I111" s="76" t="n">
-        <v>2900701.187786068</v>
+        <v>2888824.577717041</v>
       </c>
       <c r="J111" s="76" t="n">
-        <v>2075147.114934784</v>
+        <v>2096193.098390969</v>
       </c>
       <c r="K111" s="76" t="n">
-        <v>2002515.084089892</v>
+        <v>2021240.047767268</v>
       </c>
       <c r="L111" s="76" t="n">
-        <v>3366652.962558917</v>
+        <v>3393036.107555042</v>
       </c>
       <c r="M111" s="76" t="n">
-        <v>2369872.316700542</v>
+        <v>2381892.124663103</v>
       </c>
       <c r="N111" s="76" t="n">
-        <v>2528401.668100996</v>
+        <v>2542810.873354812</v>
       </c>
       <c r="O111" s="76" t="n">
-        <v>2839562.772299116</v>
+        <v>2863546.419714403</v>
       </c>
       <c r="P111" s="76" t="n">
-        <v>2700788.415309499</v>
+        <v>2723438.940407157</v>
       </c>
       <c r="Q111" s="76" t="n">
-        <v>2146719.086936968</v>
+        <v>2166316.021986255</v>
       </c>
       <c r="R111" s="76" t="n">
-        <v>2630104.701165334</v>
+        <v>2634177.957409256</v>
       </c>
       <c r="S111" s="76" t="n">
-        <v>2398874.053471039</v>
+        <v>2420102.602731846</v>
       </c>
       <c r="T111" s="76" t="n">
-        <v>2135903.171058052</v>
+        <v>2155437.283140948</v>
       </c>
       <c r="U111" s="76" t="n">
-        <v>3019448.518889852</v>
+        <v>3033058.04502326</v>
       </c>
       <c r="V111" s="76" t="n">
-        <v>2279393.817591533</v>
+        <v>2302674.424465016</v>
       </c>
       <c r="W111" s="76" t="n">
-        <v>2201464.296976491</v>
+        <v>2223214.303428457</v>
       </c>
     </row>
     <row r="112">
@@ -17224,67 +17248,67 @@
         </is>
       </c>
       <c r="C112" s="76" t="n">
-        <v>2659202.668405973</v>
+        <v>2680186.390130293</v>
       </c>
       <c r="D112" s="76" t="n">
-        <v>2971689.705091199</v>
+        <v>2988956.570560819</v>
       </c>
       <c r="E112" s="76" t="n">
-        <v>2075227.87440995</v>
+        <v>2091493.795539043</v>
       </c>
       <c r="F112" s="76" t="n">
-        <v>2707860.488524527</v>
+        <v>2735171.350398996</v>
       </c>
       <c r="G112" s="76" t="n">
-        <v>3038350.610124944</v>
+        <v>3066430.109720718</v>
       </c>
       <c r="H112" s="76" t="n">
-        <v>2488590.542320207</v>
+        <v>2503819.962587325</v>
       </c>
       <c r="I112" s="76" t="n">
-        <v>3283021.341732331</v>
+        <v>3311731.349967941</v>
       </c>
       <c r="J112" s="76" t="n">
-        <v>2114818.801181888</v>
+        <v>2124867.947841949</v>
       </c>
       <c r="K112" s="76" t="n">
-        <v>2019936.593768372</v>
+        <v>2035715.498986458</v>
       </c>
       <c r="L112" s="76" t="n">
-        <v>4107919.327767462</v>
+        <v>4169201.763217552</v>
       </c>
       <c r="M112" s="76" t="n">
-        <v>3288157.276696031</v>
+        <v>3314936.357742355</v>
       </c>
       <c r="N112" s="76" t="n">
-        <v>3176691.558718098</v>
+        <v>3203265.940452825</v>
       </c>
       <c r="O112" s="76" t="n">
-        <v>3462651.038725426</v>
+        <v>3500319.863499925</v>
       </c>
       <c r="P112" s="76" t="n">
-        <v>3001631.737969747</v>
+        <v>3031829.737169479</v>
       </c>
       <c r="Q112" s="76" t="n">
-        <v>2299809.137842841</v>
+        <v>2325697.414938583</v>
       </c>
       <c r="R112" s="76" t="n">
-        <v>3099374.571164366</v>
+        <v>3141451.42735751</v>
       </c>
       <c r="S112" s="76" t="n">
-        <v>2955155.457061253</v>
+        <v>2992888.690988005</v>
       </c>
       <c r="T112" s="76" t="n">
-        <v>2602675.633679698</v>
+        <v>2633156.870809174</v>
       </c>
       <c r="U112" s="76" t="n">
-        <v>3394761.270345532</v>
+        <v>3438356.045156173</v>
       </c>
       <c r="V112" s="76" t="n">
-        <v>2421953.874072105</v>
+        <v>2448271.257504561</v>
       </c>
       <c r="W112" s="76" t="n">
-        <v>2310214.423392856</v>
+        <v>2337951.285223434</v>
       </c>
     </row>
     <row r="113">
@@ -17299,67 +17323,67 @@
         </is>
       </c>
       <c r="C113" s="76" t="n">
-        <v>1369600.98823614</v>
+        <v>1368936.270550704</v>
       </c>
       <c r="D113" s="76" t="n">
-        <v>1842297.683871269</v>
+        <v>1841988.335263745</v>
       </c>
       <c r="E113" s="76" t="n">
-        <v>2185195.607253461</v>
+        <v>2184053.498142572</v>
       </c>
       <c r="F113" s="76" t="n">
-        <v>3044256.886668244</v>
+        <v>3044217.803297366</v>
       </c>
       <c r="G113" s="76" t="n">
-        <v>3677045.539715804</v>
+        <v>3676299.711224734</v>
       </c>
       <c r="H113" s="76" t="n">
-        <v>2845288.618778581</v>
+        <v>2841087.821170971</v>
       </c>
       <c r="I113" s="76" t="n">
-        <v>4726406.784474993</v>
+        <v>4727345.060994157</v>
       </c>
       <c r="J113" s="76" t="n">
-        <v>3732658.982325414</v>
+        <v>3728458.74449903</v>
       </c>
       <c r="K113" s="76" t="n">
-        <v>3969629.104624931</v>
+        <v>3966597.071943558</v>
       </c>
       <c r="L113" s="76" t="n">
-        <v>5442550.875300896</v>
+        <v>5439154.408721199</v>
       </c>
       <c r="M113" s="76" t="n">
-        <v>4725043.823466415</v>
+        <v>4722748.047739303</v>
       </c>
       <c r="N113" s="76" t="n">
-        <v>3996515.80062418</v>
+        <v>3994581.374745639</v>
       </c>
       <c r="O113" s="76" t="n">
-        <v>4903426.445281035</v>
+        <v>4900570.970188069</v>
       </c>
       <c r="P113" s="76" t="n">
-        <v>5498990.106498631</v>
+        <v>5496633.738667053</v>
       </c>
       <c r="Q113" s="76" t="n">
-        <v>4271903.431286639</v>
+        <v>4269322.298548734</v>
       </c>
       <c r="R113" s="76" t="n">
-        <v>5751834.204569248</v>
+        <v>5751405.919218491</v>
       </c>
       <c r="S113" s="76" t="n">
-        <v>5174466.730493589</v>
+        <v>5172269.270078801</v>
       </c>
       <c r="T113" s="76" t="n">
-        <v>4190476.151391267</v>
+        <v>4185719.277396082</v>
       </c>
       <c r="U113" s="76" t="n">
-        <v>6350983.624050567</v>
+        <v>6347922.813206978</v>
       </c>
       <c r="V113" s="76" t="n">
-        <v>5185201.114712682</v>
+        <v>5180483.852924679</v>
       </c>
       <c r="W113" s="76" t="n">
-        <v>4918950.480336844</v>
+        <v>4915214.042565919</v>
       </c>
     </row>
     <row r="114">
@@ -17374,67 +17398,67 @@
         </is>
       </c>
       <c r="C114" s="76" t="n">
-        <v>6540735.959176794</v>
+        <v>6537240.205813471</v>
       </c>
       <c r="D114" s="76" t="n">
-        <v>7513891.765293334</v>
+        <v>7529268.03759513</v>
       </c>
       <c r="E114" s="76" t="n">
-        <v>6254172.415587544</v>
+        <v>6263583.678077638</v>
       </c>
       <c r="F114" s="76" t="n">
-        <v>7470655.03124608</v>
+        <v>7483363.77723522</v>
       </c>
       <c r="G114" s="76" t="n">
-        <v>7851884.401711795</v>
+        <v>7873416.440164246</v>
       </c>
       <c r="H114" s="76" t="n">
-        <v>6678938.267827487</v>
+        <v>6688290.53246183</v>
       </c>
       <c r="I114" s="76" t="n">
-        <v>9071643.201463463</v>
+        <v>9099572.201120485</v>
       </c>
       <c r="J114" s="76" t="n">
-        <v>7298874.86868664</v>
+        <v>7301523.25186341</v>
       </c>
       <c r="K114" s="76" t="n">
-        <v>6732587.108139761</v>
+        <v>6733415.155196064</v>
       </c>
       <c r="L114" s="76" t="n">
-        <v>11083378.82804215</v>
+        <v>11095946.15712365</v>
       </c>
       <c r="M114" s="76" t="n">
-        <v>8005362.157959606</v>
+        <v>8008792.336693152</v>
       </c>
       <c r="N114" s="76" t="n">
-        <v>7636088.095955854</v>
+        <v>7640064.525872411</v>
       </c>
       <c r="O114" s="76" t="n">
-        <v>9723971.554166459</v>
+        <v>9726926.773860784</v>
       </c>
       <c r="P114" s="76" t="n">
-        <v>9550942.981140971</v>
+        <v>9564541.350936281</v>
       </c>
       <c r="Q114" s="76" t="n">
-        <v>7661443.998126445</v>
+        <v>7669502.001225865</v>
       </c>
       <c r="R114" s="76" t="n">
-        <v>9422712.328930922</v>
+        <v>9446666.461755773</v>
       </c>
       <c r="S114" s="76" t="n">
-        <v>8602785.140099438</v>
+        <v>8625800.612680169</v>
       </c>
       <c r="T114" s="76" t="n">
-        <v>7745712.08713888</v>
+        <v>7761260.391970515</v>
       </c>
       <c r="U114" s="76" t="n">
-        <v>10160429.45402372</v>
+        <v>10188201.10467727</v>
       </c>
       <c r="V114" s="76" t="n">
-        <v>8291746.187990071</v>
+        <v>8296455.349306651</v>
       </c>
       <c r="W114" s="76" t="n">
-        <v>7640935.013688618</v>
+        <v>7644385.612142143</v>
       </c>
     </row>
     <row r="115">
@@ -17449,67 +17473,67 @@
         </is>
       </c>
       <c r="C115" s="76" t="n">
-        <v>5740184.004319064</v>
+        <v>5738012.21421468</v>
       </c>
       <c r="D115" s="76" t="n">
-        <v>2706714.937124379</v>
+        <v>2706081.58739138</v>
       </c>
       <c r="E115" s="76" t="n">
-        <v>6013399.479821321</v>
+        <v>6011813.307873524</v>
       </c>
       <c r="F115" s="76" t="n">
-        <v>3034783.294254287</v>
+        <v>3033282.580272314</v>
       </c>
       <c r="G115" s="76" t="n">
-        <v>3826823.26317088</v>
+        <v>3823012.183701562</v>
       </c>
       <c r="H115" s="76" t="n">
-        <v>4115082.091481162</v>
+        <v>4112360.047027536</v>
       </c>
       <c r="I115" s="76" t="n">
-        <v>3561717.183547904</v>
+        <v>3559905.774626368</v>
       </c>
       <c r="J115" s="76" t="n">
-        <v>3142963.765527735</v>
+        <v>3141444.93992888</v>
       </c>
       <c r="K115" s="76" t="n">
-        <v>4401773.788025524</v>
+        <v>4399234.387382336</v>
       </c>
       <c r="L115" s="76" t="n">
-        <v>7111690.34637653</v>
+        <v>7107332.121463041</v>
       </c>
       <c r="M115" s="76" t="n">
-        <v>6140450.181601939</v>
+        <v>6136753.393109891</v>
       </c>
       <c r="N115" s="76" t="n">
-        <v>7015367.087816145</v>
+        <v>7011195.021845504</v>
       </c>
       <c r="O115" s="76" t="n">
-        <v>6853113.022872327</v>
+        <v>6849132.801299398</v>
       </c>
       <c r="P115" s="76" t="n">
-        <v>3955530.791890582</v>
+        <v>3953434.974057597</v>
       </c>
       <c r="Q115" s="76" t="n">
-        <v>5166395.45905361</v>
+        <v>5163746.788839225</v>
       </c>
       <c r="R115" s="76" t="n">
-        <v>3768851.204856066</v>
+        <v>3766928.545721661</v>
       </c>
       <c r="S115" s="76" t="n">
-        <v>4078672.31679156</v>
+        <v>4074296.249282198</v>
       </c>
       <c r="T115" s="76" t="n">
-        <v>4252733.065314362</v>
+        <v>4249224.816551273</v>
       </c>
       <c r="U115" s="76" t="n">
-        <v>3686911.419470907</v>
+        <v>3684299.756243225</v>
       </c>
       <c r="V115" s="76" t="n">
-        <v>3564668.245553907</v>
+        <v>3562189.568341176</v>
       </c>
       <c r="W115" s="76" t="n">
-        <v>4644822.741137398</v>
+        <v>4641421.17303558</v>
       </c>
     </row>
     <row r="116">
@@ -17524,67 +17548,67 @@
         </is>
       </c>
       <c r="C116" s="76" t="n">
-        <v>1102743.565547749</v>
+        <v>1101556.738146377</v>
       </c>
       <c r="D116" s="76" t="n">
-        <v>1233661.790003621</v>
+        <v>1232395.657933622</v>
       </c>
       <c r="E116" s="76" t="n">
-        <v>1878950.416619356</v>
+        <v>1877461.295901815</v>
       </c>
       <c r="F116" s="76" t="n">
-        <v>1787502.330300394</v>
+        <v>1782856.646743809</v>
       </c>
       <c r="G116" s="76" t="n">
-        <v>1736992.708161755</v>
+        <v>1735062.515406229</v>
       </c>
       <c r="H116" s="76" t="n">
-        <v>2358345.30678013</v>
+        <v>2352173.057797921</v>
       </c>
       <c r="I116" s="76" t="n">
-        <v>2413876.773871853</v>
+        <v>2409263.617167565</v>
       </c>
       <c r="J116" s="76" t="n">
-        <v>2147025.44377505</v>
+        <v>2144986.366392685</v>
       </c>
       <c r="K116" s="76" t="n">
-        <v>1722807.289910048</v>
+        <v>1720957.403536042</v>
       </c>
       <c r="L116" s="76" t="n">
-        <v>3007122.118107311</v>
+        <v>3003545.246086319</v>
       </c>
       <c r="M116" s="76" t="n">
-        <v>1790439.740203167</v>
+        <v>1788760.266805118</v>
       </c>
       <c r="N116" s="76" t="n">
-        <v>1931594.411041957</v>
+        <v>1929675.239917147</v>
       </c>
       <c r="O116" s="76" t="n">
-        <v>1949844.355132484</v>
+        <v>1947457.680014819</v>
       </c>
       <c r="P116" s="76" t="n">
-        <v>1765169.696677877</v>
+        <v>1763068.945368088</v>
       </c>
       <c r="Q116" s="76" t="n">
-        <v>1980026.949668383</v>
+        <v>1977934.415880404</v>
       </c>
       <c r="R116" s="76" t="n">
-        <v>2212613.866108933</v>
+        <v>2205801.775807988</v>
       </c>
       <c r="S116" s="76" t="n">
-        <v>1916407.904295187</v>
+        <v>1913720.762013791</v>
       </c>
       <c r="T116" s="76" t="n">
-        <v>2857609.671085619</v>
+        <v>2850465.991522865</v>
       </c>
       <c r="U116" s="76" t="n">
-        <v>2798700.844355784</v>
+        <v>2792397.659728642</v>
       </c>
       <c r="V116" s="76" t="n">
-        <v>2423957.141322616</v>
+        <v>2420927.030293266</v>
       </c>
       <c r="W116" s="76" t="n">
-        <v>2240755.604069479</v>
+        <v>2237849.15187904</v>
       </c>
     </row>
     <row r="117">
@@ -17599,67 +17623,67 @@
         </is>
       </c>
       <c r="C117" s="76" t="n">
-        <v>7492591.142801269</v>
+        <v>7497213.717854302</v>
       </c>
       <c r="D117" s="76" t="n">
-        <v>4192432.91822804</v>
+        <v>4195703.45285587</v>
       </c>
       <c r="E117" s="76" t="n">
-        <v>5410572.438758451</v>
+        <v>5414911.830398989</v>
       </c>
       <c r="F117" s="76" t="n">
-        <v>4228701.656241273</v>
+        <v>4230263.733990122</v>
       </c>
       <c r="G117" s="76" t="n">
-        <v>4622917.441348501</v>
+        <v>4624667.337424183</v>
       </c>
       <c r="H117" s="76" t="n">
-        <v>3885771.684503499</v>
+        <v>3888356.136440829</v>
       </c>
       <c r="I117" s="76" t="n">
-        <v>3907185.079591301</v>
+        <v>3907743.7565623</v>
       </c>
       <c r="J117" s="76" t="n">
-        <v>5605709.40303167</v>
+        <v>5609531.34233596</v>
       </c>
       <c r="K117" s="76" t="n">
-        <v>2987649.721159226</v>
+        <v>2989867.565053605</v>
       </c>
       <c r="L117" s="76" t="n">
-        <v>6186666.508398511</v>
+        <v>6192005.248301417</v>
       </c>
       <c r="M117" s="76" t="n">
-        <v>4635359.131500307</v>
+        <v>4638055.854831413</v>
       </c>
       <c r="N117" s="76" t="n">
-        <v>11477076.61361886</v>
+        <v>11484136.58225113</v>
       </c>
       <c r="O117" s="76" t="n">
-        <v>8911857.453494275</v>
+        <v>8919845.540475644</v>
       </c>
       <c r="P117" s="76" t="n">
-        <v>5346810.595393429</v>
+        <v>5351971.940011726</v>
       </c>
       <c r="Q117" s="76" t="n">
-        <v>5272054.565558225</v>
+        <v>5277517.386196279</v>
       </c>
       <c r="R117" s="76" t="n">
-        <v>4870343.994266193</v>
+        <v>4873471.694629684</v>
       </c>
       <c r="S117" s="76" t="n">
-        <v>4803104.334518882</v>
+        <v>4807930.327856648</v>
       </c>
       <c r="T117" s="76" t="n">
-        <v>4194900.825297842</v>
+        <v>4198674.951767222</v>
       </c>
       <c r="U117" s="76" t="n">
-        <v>4673111.090943534</v>
+        <v>4676166.830377284</v>
       </c>
       <c r="V117" s="76" t="n">
-        <v>5595292.654750008</v>
+        <v>5600564.581538958</v>
       </c>
       <c r="W117" s="76" t="n">
-        <v>3632531.51631604</v>
+        <v>3635975.245706958</v>
       </c>
     </row>
     <row r="118">
@@ -17674,67 +17698,67 @@
         </is>
       </c>
       <c r="C118" s="76" t="n">
-        <v>5097024.336496819</v>
+        <v>5095159.400218972</v>
       </c>
       <c r="D118" s="76" t="n">
-        <v>5563762.57331268</v>
+        <v>5562513.439173813</v>
       </c>
       <c r="E118" s="76" t="n">
-        <v>5598721.814450967</v>
+        <v>5598389.752078926</v>
       </c>
       <c r="F118" s="76" t="n">
-        <v>5693545.750179107</v>
+        <v>5691980.071449388</v>
       </c>
       <c r="G118" s="76" t="n">
-        <v>6486315.051170532</v>
+        <v>6488471.117867532</v>
       </c>
       <c r="H118" s="76" t="n">
-        <v>5082086.725908522</v>
+        <v>5082972.316806165</v>
       </c>
       <c r="I118" s="76" t="n">
-        <v>6690288.498513321</v>
+        <v>6688745.550110961</v>
       </c>
       <c r="J118" s="76" t="n">
-        <v>6229191.545172594</v>
+        <v>6227417.982471658</v>
       </c>
       <c r="K118" s="76" t="n">
-        <v>5803629.152152955</v>
+        <v>5800504.08079195</v>
       </c>
       <c r="L118" s="76" t="n">
-        <v>7531199.229475697</v>
+        <v>7527259.582321374</v>
       </c>
       <c r="M118" s="76" t="n">
-        <v>6054289.514066785</v>
+        <v>6051170.897464965</v>
       </c>
       <c r="N118" s="76" t="n">
-        <v>6493228.694782317</v>
+        <v>6489807.446545319</v>
       </c>
       <c r="O118" s="76" t="n">
-        <v>6581756.633057307</v>
+        <v>6578406.171326037</v>
       </c>
       <c r="P118" s="76" t="n">
-        <v>6744758.705603527</v>
+        <v>6741813.059571253</v>
       </c>
       <c r="Q118" s="76" t="n">
-        <v>6100837.355412264</v>
+        <v>6098732.597387749</v>
       </c>
       <c r="R118" s="76" t="n">
-        <v>6763209.477968302</v>
+        <v>6762634.219167236</v>
       </c>
       <c r="S118" s="76" t="n">
-        <v>6586437.121090215</v>
+        <v>6586993.956777123</v>
       </c>
       <c r="T118" s="76" t="n">
-        <v>5792781.923879317</v>
+        <v>5793052.478190886</v>
       </c>
       <c r="U118" s="76" t="n">
-        <v>7105696.728719888</v>
+        <v>7104166.921320586</v>
       </c>
       <c r="V118" s="76" t="n">
-        <v>6400502.687340157</v>
+        <v>6397239.956005413</v>
       </c>
       <c r="W118" s="76" t="n">
-        <v>6363257.933934323</v>
+        <v>6359251.779361437</v>
       </c>
     </row>
     <row r="119">
@@ -17749,67 +17773,67 @@
         </is>
       </c>
       <c r="C119" s="76" t="n">
-        <v>404356.8342369649</v>
+        <v>372490.8917891766</v>
       </c>
       <c r="D119" s="76" t="n">
-        <v>460961.3178185846</v>
+        <v>427431.2630574947</v>
       </c>
       <c r="E119" s="76" t="n">
-        <v>121381.0498151917</v>
+        <v>111017.9157898111</v>
       </c>
       <c r="F119" s="76" t="n">
-        <v>249223.9707556704</v>
+        <v>217703.5483887669</v>
       </c>
       <c r="G119" s="76" t="n">
-        <v>307405.5106806993</v>
+        <v>250635.1146766083</v>
       </c>
       <c r="H119" s="76" t="n">
-        <v>126020.0212505804</v>
+        <v>107138.3953335875</v>
       </c>
       <c r="I119" s="76" t="n">
-        <v>391057.4317267811</v>
+        <v>337805.9582107106</v>
       </c>
       <c r="J119" s="76" t="n">
-        <v>246937.6729514865</v>
+        <v>226382.5216941181</v>
       </c>
       <c r="K119" s="76" t="n">
-        <v>114859.2710492866</v>
+        <v>106534.1188936086</v>
       </c>
       <c r="L119" s="76" t="n">
-        <v>487127.0699960602</v>
+        <v>448787.9827808269</v>
       </c>
       <c r="M119" s="76" t="n">
-        <v>368652.615163272</v>
+        <v>342010.0635887982</v>
       </c>
       <c r="N119" s="76" t="n">
-        <v>245004.2032567431</v>
+        <v>225243.6945594309</v>
       </c>
       <c r="O119" s="76" t="n">
-        <v>455262.3015599301</v>
+        <v>413812.522696844</v>
       </c>
       <c r="P119" s="76" t="n">
-        <v>393272.3548841983</v>
+        <v>357004.7932777437</v>
       </c>
       <c r="Q119" s="76" t="n">
-        <v>117983.7942450477</v>
+        <v>106671.229854142</v>
       </c>
       <c r="R119" s="76" t="n">
-        <v>297146.6308158133</v>
+        <v>245559.4984635591</v>
       </c>
       <c r="S119" s="76" t="n">
-        <v>262700.4125748242</v>
+        <v>213541.6583914993</v>
       </c>
       <c r="T119" s="76" t="n">
-        <v>121439.2594689522</v>
+        <v>99169.71196100205</v>
       </c>
       <c r="U119" s="76" t="n">
-        <v>347869.6701528186</v>
+        <v>291213.4615401453</v>
       </c>
       <c r="V119" s="76" t="n">
-        <v>253567.9916719396</v>
+        <v>228093.7605339186</v>
       </c>
       <c r="W119" s="76" t="n">
-        <v>129194.7038721877</v>
+        <v>116257.3520754692</v>
       </c>
     </row>
     <row r="120">
@@ -17824,67 +17848,67 @@
         </is>
       </c>
       <c r="C120" s="76" t="n">
-        <v>2517968.360058544</v>
+        <v>2509536.722717398</v>
       </c>
       <c r="D120" s="76" t="n">
-        <v>3639385.020428115</v>
+        <v>3626762.71039587</v>
       </c>
       <c r="E120" s="76" t="n">
-        <v>2454695.594557275</v>
+        <v>2444834.441044253</v>
       </c>
       <c r="F120" s="76" t="n">
-        <v>3252347.429438086</v>
+        <v>3229240.918474165</v>
       </c>
       <c r="G120" s="76" t="n">
-        <v>3534696.146234552</v>
+        <v>3517199.653615637</v>
       </c>
       <c r="H120" s="76" t="n">
-        <v>2714118.383255876</v>
+        <v>2702511.305415569</v>
       </c>
       <c r="I120" s="76" t="n">
-        <v>4237530.313603344</v>
+        <v>4211843.178877096</v>
       </c>
       <c r="J120" s="76" t="n">
-        <v>2756921.860221664</v>
+        <v>2746262.651119571</v>
       </c>
       <c r="K120" s="76" t="n">
-        <v>3095039.4919152</v>
+        <v>3084054.338078904</v>
       </c>
       <c r="L120" s="76" t="n">
-        <v>5562169.87933273</v>
+        <v>5541741.769445911</v>
       </c>
       <c r="M120" s="76" t="n">
-        <v>3455232.651088852</v>
+        <v>3444823.32824545</v>
       </c>
       <c r="N120" s="76" t="n">
-        <v>3174770.664813176</v>
+        <v>3164608.072139668</v>
       </c>
       <c r="O120" s="76" t="n">
-        <v>4035105.628525307</v>
+        <v>4018631.139667535</v>
       </c>
       <c r="P120" s="76" t="n">
-        <v>4239301.128268087</v>
+        <v>4221058.539084211</v>
       </c>
       <c r="Q120" s="76" t="n">
-        <v>3041370.260004932</v>
+        <v>3027817.053457877</v>
       </c>
       <c r="R120" s="76" t="n">
-        <v>4089900.976646987</v>
+        <v>4057340.784239258</v>
       </c>
       <c r="S120" s="76" t="n">
-        <v>3733710.858793011</v>
+        <v>3708561.262969286</v>
       </c>
       <c r="T120" s="76" t="n">
-        <v>3155319.5294884</v>
+        <v>3135555.328323842</v>
       </c>
       <c r="U120" s="76" t="n">
-        <v>4472387.405556676</v>
+        <v>4442866.356556536</v>
       </c>
       <c r="V120" s="76" t="n">
-        <v>3291512.083607644</v>
+        <v>3276737.438242614</v>
       </c>
       <c r="W120" s="76" t="n">
-        <v>3421962.102354392</v>
+        <v>3406697.802914228</v>
       </c>
     </row>
     <row r="121">
@@ -17899,67 +17923,67 @@
         </is>
       </c>
       <c r="C121" s="77" t="n">
-        <v>161437755.8009508</v>
+        <v>161431275.1615617</v>
       </c>
       <c r="D121" s="77" t="n">
-        <v>169615786.6907112</v>
+        <v>169631793.7737049</v>
       </c>
       <c r="E121" s="77" t="n">
-        <v>152173005.7518189</v>
+        <v>152187767.892462</v>
       </c>
       <c r="F121" s="77" t="n">
-        <v>173731655.3159497</v>
+        <v>173765189.5785932</v>
       </c>
       <c r="G121" s="77" t="n">
-        <v>181846487.0748298</v>
+        <v>181875892.1680399</v>
       </c>
       <c r="H121" s="77" t="n">
-        <v>164120535.4055204</v>
+        <v>164148857.2220302</v>
       </c>
       <c r="I121" s="77" t="n">
-        <v>195080865.7618382</v>
+        <v>195055546.1589382</v>
       </c>
       <c r="J121" s="77" t="n">
-        <v>171842579.9170868</v>
+        <v>171797783.5973752</v>
       </c>
       <c r="K121" s="77" t="n">
-        <v>158989758.3009591</v>
+        <v>158987282.9175321</v>
       </c>
       <c r="L121" s="77" t="n">
-        <v>245154290.5692093</v>
+        <v>245191232.556873</v>
       </c>
       <c r="M121" s="77" t="n">
-        <v>177577795.844156</v>
+        <v>177549382.0885655</v>
       </c>
       <c r="N121" s="77" t="n">
-        <v>201682941.5272565</v>
+        <v>201697193.6894494</v>
       </c>
       <c r="O121" s="77" t="n">
-        <v>205095442.9294337</v>
+        <v>205079948.3968363</v>
       </c>
       <c r="P121" s="77" t="n">
-        <v>193187999.1826446</v>
+        <v>193178014.8401375</v>
       </c>
       <c r="Q121" s="77" t="n">
-        <v>168716132.7993379</v>
+        <v>168724680.0019172</v>
       </c>
       <c r="R121" s="77" t="n">
-        <v>201591442.419507</v>
+        <v>201626506.9805885</v>
       </c>
       <c r="S121" s="77" t="n">
-        <v>186933215.3922938</v>
+        <v>186950649.0556882</v>
       </c>
       <c r="T121" s="77" t="n">
-        <v>176990742.24687</v>
+        <v>177029067.3857968</v>
       </c>
       <c r="U121" s="77" t="n">
-        <v>210096187.6158002</v>
+        <v>210077209.5274525</v>
       </c>
       <c r="V121" s="77" t="n">
-        <v>182895427.6146961</v>
+        <v>182854280.0533696</v>
       </c>
       <c r="W121" s="77" t="n">
-        <v>172297857.0730698</v>
+        <v>172286882.6189236</v>
       </c>
     </row>
     <row r="122">
@@ -17974,67 +17998,67 @@
         </is>
       </c>
       <c r="C122" s="76" t="n">
-        <v>736688.1728215228</v>
+        <v>734915.3289448295</v>
       </c>
       <c r="D122" s="76" t="n">
-        <v>865970.3534985668</v>
+        <v>863519.0199646797</v>
       </c>
       <c r="E122" s="76" t="n">
-        <v>722995.9550591903</v>
+        <v>720370.090217588</v>
       </c>
       <c r="F122" s="76" t="n">
-        <v>953057.2822038847</v>
+        <v>952648.809406117</v>
       </c>
       <c r="G122" s="76" t="n">
-        <v>1177460.573532549</v>
+        <v>1171000.616344456</v>
       </c>
       <c r="H122" s="76" t="n">
-        <v>910518.6228211276</v>
+        <v>906609.3828745488</v>
       </c>
       <c r="I122" s="76" t="n">
-        <v>1485329.040987046</v>
+        <v>1475882.159594387</v>
       </c>
       <c r="J122" s="76" t="n">
-        <v>1103923.251887197</v>
+        <v>1095435.714224233</v>
       </c>
       <c r="K122" s="76" t="n">
-        <v>1049815.384988272</v>
+        <v>1042564.817896452</v>
       </c>
       <c r="L122" s="76" t="n">
-        <v>1629727.402756394</v>
+        <v>1621248.963980091</v>
       </c>
       <c r="M122" s="76" t="n">
-        <v>1320231.534969314</v>
+        <v>1315634.967847731</v>
       </c>
       <c r="N122" s="76" t="n">
-        <v>1367790.104861324</v>
+        <v>1363125.003905667</v>
       </c>
       <c r="O122" s="76" t="n">
-        <v>1476075.04576711</v>
+        <v>1470115.725663196</v>
       </c>
       <c r="P122" s="76" t="n">
-        <v>1538203.362915461</v>
+        <v>1531632.696047665</v>
       </c>
       <c r="Q122" s="76" t="n">
-        <v>1362048.837604407</v>
+        <v>1355761.007925676</v>
       </c>
       <c r="R122" s="76" t="n">
-        <v>1540267.34037828</v>
+        <v>1539139.488908011</v>
       </c>
       <c r="S122" s="76" t="n">
-        <v>1553739.703976554</v>
+        <v>1545408.730344835</v>
       </c>
       <c r="T122" s="76" t="n">
-        <v>1317082.703947327</v>
+        <v>1312027.239348648</v>
       </c>
       <c r="U122" s="76" t="n">
-        <v>1901032.207251621</v>
+        <v>1877642.709743137</v>
       </c>
       <c r="V122" s="76" t="n">
-        <v>1482306.442721902</v>
+        <v>1472754.335944927</v>
       </c>
       <c r="W122" s="76" t="n">
-        <v>1383331.97887484</v>
+        <v>1374861.255628769</v>
       </c>
     </row>
     <row r="123">
@@ -18049,67 +18073,67 @@
         </is>
       </c>
       <c r="C123" s="76" t="n">
-        <v>3723105.225546628</v>
+        <v>3722482.913683042</v>
       </c>
       <c r="D123" s="76" t="n">
-        <v>3140370.851257495</v>
+        <v>3140158.265530465</v>
       </c>
       <c r="E123" s="76" t="n">
-        <v>2774247.406803576</v>
+        <v>2773204.43801078</v>
       </c>
       <c r="F123" s="76" t="n">
-        <v>2739133.673358674</v>
+        <v>2740418.395578986</v>
       </c>
       <c r="G123" s="76" t="n">
-        <v>3160255.008729954</v>
+        <v>3158963.475390485</v>
       </c>
       <c r="H123" s="76" t="n">
-        <v>2732384.919856451</v>
+        <v>2730691.228561512</v>
       </c>
       <c r="I123" s="76" t="n">
-        <v>3148703.112233471</v>
+        <v>3153178.114593911</v>
       </c>
       <c r="J123" s="76" t="n">
-        <v>2931331.780517601</v>
+        <v>2929542.842741333</v>
       </c>
       <c r="K123" s="76" t="n">
-        <v>2521721.350443615</v>
+        <v>2520885.986064897</v>
       </c>
       <c r="L123" s="76" t="n">
-        <v>4538229.313234355</v>
+        <v>4537662.232676453</v>
       </c>
       <c r="M123" s="76" t="n">
-        <v>3818676.943923544</v>
+        <v>3817055.491676791</v>
       </c>
       <c r="N123" s="76" t="n">
-        <v>5007681.368010868</v>
+        <v>5005939.036182879</v>
       </c>
       <c r="O123" s="76" t="n">
-        <v>4494920.192030213</v>
+        <v>4493542.632252379</v>
       </c>
       <c r="P123" s="76" t="n">
-        <v>3412639.693965379</v>
+        <v>3411733.579476134</v>
       </c>
       <c r="Q123" s="76" t="n">
-        <v>3033511.359940808</v>
+        <v>3032236.60182337</v>
       </c>
       <c r="R123" s="76" t="n">
-        <v>3127555.696321717</v>
+        <v>3128049.421914416</v>
       </c>
       <c r="S123" s="76" t="n">
-        <v>3182912.262857744</v>
+        <v>3181459.395950747</v>
       </c>
       <c r="T123" s="76" t="n">
-        <v>2872747.79835795</v>
+        <v>2871147.429974556</v>
       </c>
       <c r="U123" s="76" t="n">
-        <v>3304986.493086372</v>
+        <v>3308895.702939093</v>
       </c>
       <c r="V123" s="76" t="n">
-        <v>3021472.821168056</v>
+        <v>3019781.291169861</v>
       </c>
       <c r="W123" s="76" t="n">
-        <v>2867136.094690865</v>
+        <v>2865886.846506252</v>
       </c>
     </row>
     <row r="124">
@@ -18124,67 +18148,67 @@
         </is>
       </c>
       <c r="C124" s="76" t="n">
-        <v>4807904.915824987</v>
+        <v>4803445.829382277</v>
       </c>
       <c r="D124" s="76" t="n">
-        <v>5842817.773984389</v>
+        <v>5835776.301846439</v>
       </c>
       <c r="E124" s="76" t="n">
-        <v>4262103.741747271</v>
+        <v>4255340.64422642</v>
       </c>
       <c r="F124" s="76" t="n">
-        <v>6121566.373898883</v>
+        <v>6119323.510643656</v>
       </c>
       <c r="G124" s="76" t="n">
-        <v>6532654.687844849</v>
+        <v>6523643.91471602</v>
       </c>
       <c r="H124" s="76" t="n">
-        <v>5523386.09048564</v>
+        <v>5519844.240429616</v>
       </c>
       <c r="I124" s="76" t="n">
-        <v>7301462.866051183</v>
+        <v>7292442.793593255</v>
       </c>
       <c r="J124" s="76" t="n">
-        <v>5989879.901189953</v>
+        <v>5976201.732676879</v>
       </c>
       <c r="K124" s="76" t="n">
-        <v>5519647.75714637</v>
+        <v>5508933.088447067</v>
       </c>
       <c r="L124" s="76" t="n">
-        <v>8016641.83690676</v>
+        <v>8005059.300465597</v>
       </c>
       <c r="M124" s="76" t="n">
-        <v>6128791.487414774</v>
+        <v>6121024.628537511</v>
       </c>
       <c r="N124" s="76" t="n">
-        <v>5540332.600314167</v>
+        <v>5533301.395869523</v>
       </c>
       <c r="O124" s="76" t="n">
-        <v>6602218.362940888</v>
+        <v>6592552.210182622</v>
       </c>
       <c r="P124" s="76" t="n">
-        <v>7096750.761216843</v>
+        <v>7085348.194801053</v>
       </c>
       <c r="Q124" s="76" t="n">
-        <v>5597668.721990816</v>
+        <v>5587792.806740365</v>
       </c>
       <c r="R124" s="76" t="n">
-        <v>7445968.236344586</v>
+        <v>7440426.490222598</v>
       </c>
       <c r="S124" s="76" t="n">
-        <v>6995573.246038424</v>
+        <v>6985299.03951939</v>
       </c>
       <c r="T124" s="76" t="n">
-        <v>6081278.456481759</v>
+        <v>6072669.373450343</v>
       </c>
       <c r="U124" s="76" t="n">
-        <v>7907018.427546444</v>
+        <v>7889833.994687279</v>
       </c>
       <c r="V124" s="76" t="n">
-        <v>6604126.780172069</v>
+        <v>6590182.627028731</v>
       </c>
       <c r="W124" s="76" t="n">
-        <v>5886363.457732222</v>
+        <v>5874729.705139323</v>
       </c>
     </row>
     <row r="125">
@@ -18199,67 +18223,67 @@
         </is>
       </c>
       <c r="C125" s="76" t="n">
-        <v>14251125.86231842</v>
+        <v>14241246.87748779</v>
       </c>
       <c r="D125" s="76" t="n">
-        <v>14060584.10558415</v>
+        <v>14054429.05297082</v>
       </c>
       <c r="E125" s="76" t="n">
-        <v>12913837.28713985</v>
+        <v>12907976.29368108</v>
       </c>
       <c r="F125" s="76" t="n">
-        <v>15419199.95272164</v>
+        <v>15413660.04423642</v>
       </c>
       <c r="G125" s="76" t="n">
-        <v>16220494.30968094</v>
+        <v>16209879.44921252</v>
       </c>
       <c r="H125" s="76" t="n">
-        <v>16467046.41144254</v>
+        <v>16459067.0933378</v>
       </c>
       <c r="I125" s="76" t="n">
-        <v>17287784.31288565</v>
+        <v>17271187.32306626</v>
       </c>
       <c r="J125" s="76" t="n">
-        <v>18393092.21321733</v>
+        <v>18374052.28754897</v>
       </c>
       <c r="K125" s="76" t="n">
-        <v>17377506.38865441</v>
+        <v>17370493.2029922</v>
       </c>
       <c r="L125" s="76" t="n">
-        <v>15522942.35901054</v>
+        <v>15517176.28000512</v>
       </c>
       <c r="M125" s="76" t="n">
-        <v>16408782.09103552</v>
+        <v>16395134.27916564</v>
       </c>
       <c r="N125" s="76" t="n">
-        <v>16823984.08467059</v>
+        <v>16810318.88305253</v>
       </c>
       <c r="O125" s="76" t="n">
-        <v>18223082.19046741</v>
+        <v>18206966.83373664</v>
       </c>
       <c r="P125" s="76" t="n">
-        <v>18074782.68133215</v>
+        <v>18061102.64114453</v>
       </c>
       <c r="Q125" s="76" t="n">
-        <v>16733804.72955431</v>
+        <v>16722137.84165324</v>
       </c>
       <c r="R125" s="76" t="n">
-        <v>17999887.71273307</v>
+        <v>17987526.33491593</v>
       </c>
       <c r="S125" s="76" t="n">
-        <v>17855376.81843628</v>
+        <v>17840099.52486191</v>
       </c>
       <c r="T125" s="76" t="n">
-        <v>18122675.94494079</v>
+        <v>18114221.71368652</v>
       </c>
       <c r="U125" s="76" t="n">
-        <v>18587776.03839656</v>
+        <v>18568232.26853613</v>
       </c>
       <c r="V125" s="76" t="n">
-        <v>19616405.29670637</v>
+        <v>19593869.26952019</v>
       </c>
       <c r="W125" s="76" t="n">
-        <v>18941391.72285327</v>
+        <v>18924871.29680635</v>
       </c>
     </row>
     <row r="126">
@@ -18274,67 +18298,67 @@
         </is>
       </c>
       <c r="C126" s="76" t="n">
-        <v>19875622.76486487</v>
+        <v>19941278.9535385</v>
       </c>
       <c r="D126" s="76" t="n">
-        <v>18747142.65463912</v>
+        <v>18815973.71452613</v>
       </c>
       <c r="E126" s="76" t="n">
-        <v>13770871.04618835</v>
+        <v>13824678.81633505</v>
       </c>
       <c r="F126" s="76" t="n">
-        <v>24973052.50009183</v>
+        <v>25088800.09924386</v>
       </c>
       <c r="G126" s="76" t="n">
-        <v>19907289.01957365</v>
+        <v>20009113.32898759</v>
       </c>
       <c r="H126" s="76" t="n">
-        <v>25429758.73652111</v>
+        <v>25567990.90674036</v>
       </c>
       <c r="I126" s="76" t="n">
-        <v>19524040.24166248</v>
+        <v>19567335.58626496</v>
       </c>
       <c r="J126" s="76" t="n">
-        <v>17797884.89825618</v>
+        <v>17895139.46033082</v>
       </c>
       <c r="K126" s="76" t="n">
-        <v>17938687.51452477</v>
+        <v>18034716.04763306</v>
       </c>
       <c r="L126" s="76" t="n">
-        <v>29395668.47503617</v>
+        <v>29536907.64013525</v>
       </c>
       <c r="M126" s="76" t="n">
-        <v>16584314.15912451</v>
+        <v>16660036.21939857</v>
       </c>
       <c r="N126" s="76" t="n">
-        <v>24160504.68693002</v>
+        <v>24267845.00386913</v>
       </c>
       <c r="O126" s="76" t="n">
-        <v>22128284.51556966</v>
+        <v>22224513.05006456</v>
       </c>
       <c r="P126" s="76" t="n">
-        <v>19184655.89774621</v>
+        <v>19274022.65191972</v>
       </c>
       <c r="Q126" s="76" t="n">
-        <v>17375548.6703476</v>
+        <v>17456072.76555279</v>
       </c>
       <c r="R126" s="76" t="n">
-        <v>25850172.89478446</v>
+        <v>25984422.10776074</v>
       </c>
       <c r="S126" s="76" t="n">
-        <v>19563922.36654446</v>
+        <v>19670888.44139592</v>
       </c>
       <c r="T126" s="76" t="n">
-        <v>25678225.67585913</v>
+        <v>25822715.56490173</v>
       </c>
       <c r="U126" s="76" t="n">
-        <v>21689882.1437142</v>
+        <v>21803179.13614094</v>
       </c>
       <c r="V126" s="76" t="n">
-        <v>18176501.08237081</v>
+        <v>18279857.21092965</v>
       </c>
       <c r="W126" s="76" t="n">
-        <v>19141343.21799271</v>
+        <v>19247780.76712957</v>
       </c>
     </row>
     <row r="127">
@@ -18349,67 +18373,67 @@
         </is>
       </c>
       <c r="C127" s="76" t="n">
-        <v>29602434.59438542</v>
+        <v>29587706.7009221</v>
       </c>
       <c r="D127" s="76" t="n">
-        <v>32858440.57554391</v>
+        <v>32854903.85768244</v>
       </c>
       <c r="E127" s="76" t="n">
-        <v>30788896.68460496</v>
+        <v>30785747.54744339</v>
       </c>
       <c r="F127" s="76" t="n">
-        <v>34851661.00638582</v>
+        <v>34850504.117764</v>
       </c>
       <c r="G127" s="76" t="n">
-        <v>39619604.19516683</v>
+        <v>39627029.08266324</v>
       </c>
       <c r="H127" s="76" t="n">
-        <v>33901664.30708525</v>
+        <v>33898924.54401992</v>
       </c>
       <c r="I127" s="76" t="n">
-        <v>40535072.13522014</v>
+        <v>40530439.51977772</v>
       </c>
       <c r="J127" s="76" t="n">
-        <v>39485863.22408938</v>
+        <v>39476537.71533351</v>
       </c>
       <c r="K127" s="76" t="n">
-        <v>33505852.3693857</v>
+        <v>33494835.17667797</v>
       </c>
       <c r="L127" s="76" t="n">
-        <v>48755615.13621239</v>
+        <v>48741073.71003261</v>
       </c>
       <c r="M127" s="76" t="n">
-        <v>37595579.30555425</v>
+        <v>37577066.6954086</v>
       </c>
       <c r="N127" s="76" t="n">
-        <v>35251769.39451814</v>
+        <v>35233906.88605288</v>
       </c>
       <c r="O127" s="76" t="n">
-        <v>41744528.94962948</v>
+        <v>41722506.47809458</v>
       </c>
       <c r="P127" s="76" t="n">
-        <v>41323528.32377794</v>
+        <v>41308338.92683077</v>
       </c>
       <c r="Q127" s="76" t="n">
-        <v>38740551.27143701</v>
+        <v>38725833.72670361</v>
       </c>
       <c r="R127" s="76" t="n">
-        <v>43183831.94071515</v>
+        <v>43176342.47765221</v>
       </c>
       <c r="S127" s="76" t="n">
-        <v>42551882.54582839</v>
+        <v>42551446.35699704</v>
       </c>
       <c r="T127" s="76" t="n">
-        <v>37966896.99818673</v>
+        <v>37961373.41623555</v>
       </c>
       <c r="U127" s="76" t="n">
-        <v>46005605.10122557</v>
+        <v>46002798.82126186</v>
       </c>
       <c r="V127" s="76" t="n">
-        <v>41978066.98818789</v>
+        <v>41957677.57796853</v>
       </c>
       <c r="W127" s="76" t="n">
-        <v>36580269.62688725</v>
+        <v>36560401.66630824</v>
       </c>
     </row>
     <row r="128">
@@ -18424,67 +18448,67 @@
         </is>
       </c>
       <c r="C128" s="76" t="n">
-        <v>448352.8103459529</v>
+        <v>448543.4159826493</v>
       </c>
       <c r="D128" s="76" t="n">
-        <v>559249.4371714186</v>
+        <v>559232.2823553446</v>
       </c>
       <c r="E128" s="76" t="n">
-        <v>491653.9029670639</v>
+        <v>491817.0425596746</v>
       </c>
       <c r="F128" s="76" t="n">
-        <v>670452.437182129</v>
+        <v>670785.6336350349</v>
       </c>
       <c r="G128" s="76" t="n">
-        <v>808550.2893167472</v>
+        <v>808489.0003274633</v>
       </c>
       <c r="H128" s="76" t="n">
-        <v>658940.2706704034</v>
+        <v>659233.5888921157</v>
       </c>
       <c r="I128" s="76" t="n">
-        <v>805011.388002654</v>
+        <v>805123.3647978242</v>
       </c>
       <c r="J128" s="76" t="n">
-        <v>796997.6661818806</v>
+        <v>797217.3415556599</v>
       </c>
       <c r="K128" s="76" t="n">
-        <v>693888.9602348323</v>
+        <v>693731.8287437602</v>
       </c>
       <c r="L128" s="76" t="n">
-        <v>919094.1747127682</v>
+        <v>918530.1348427666</v>
       </c>
       <c r="M128" s="76" t="n">
-        <v>807462.825426355</v>
+        <v>807574.4362199724</v>
       </c>
       <c r="N128" s="76" t="n">
-        <v>871227.4281158155</v>
+        <v>871168.9109632329</v>
       </c>
       <c r="O128" s="76" t="n">
-        <v>857472.0485850454</v>
+        <v>857626.6608651993</v>
       </c>
       <c r="P128" s="76" t="n">
-        <v>986277.4724094174</v>
+        <v>986273.3500693016</v>
       </c>
       <c r="Q128" s="76" t="n">
-        <v>903679.0711056624</v>
+        <v>903817.7133290833</v>
       </c>
       <c r="R128" s="76" t="n">
-        <v>996686.4863393715</v>
+        <v>997325.125208322</v>
       </c>
       <c r="S128" s="76" t="n">
-        <v>1020836.543356145</v>
+        <v>1020845.265791176</v>
       </c>
       <c r="T128" s="76" t="n">
-        <v>871262.7883276449</v>
+        <v>871491.1519056502</v>
       </c>
       <c r="U128" s="76" t="n">
-        <v>1065219.359524384</v>
+        <v>1065320.872284004</v>
       </c>
       <c r="V128" s="76" t="n">
-        <v>989658.3485444639</v>
+        <v>989719.2502375544</v>
       </c>
       <c r="W128" s="76" t="n">
-        <v>888408.7792747607</v>
+        <v>888289.0861237792</v>
       </c>
     </row>
     <row r="129">
@@ -18499,67 +18523,67 @@
         </is>
       </c>
       <c r="C129" s="76" t="n">
-        <v>5979887.38210301</v>
+        <v>5972288.416492688</v>
       </c>
       <c r="D129" s="76" t="n">
-        <v>4902782.996364959</v>
+        <v>4902420.401546394</v>
       </c>
       <c r="E129" s="76" t="n">
-        <v>5072096.157514379</v>
+        <v>5066757.952507366</v>
       </c>
       <c r="F129" s="76" t="n">
-        <v>4846129.617617716</v>
+        <v>4842366.004954999</v>
       </c>
       <c r="G129" s="76" t="n">
-        <v>5583130.058861407</v>
+        <v>5581654.261238405</v>
       </c>
       <c r="H129" s="76" t="n">
-        <v>4664614.727848759</v>
+        <v>4658383.721471855</v>
       </c>
       <c r="I129" s="76" t="n">
-        <v>5515330.521864582</v>
+        <v>5509426.716487532</v>
       </c>
       <c r="J129" s="76" t="n">
-        <v>5399097.108427046</v>
+        <v>5389987.520080819</v>
       </c>
       <c r="K129" s="76" t="n">
-        <v>4215502.204655889</v>
+        <v>4211966.73341007</v>
       </c>
       <c r="L129" s="76" t="n">
-        <v>6404029.988117374</v>
+        <v>6404922.329602303</v>
       </c>
       <c r="M129" s="76" t="n">
-        <v>5379655.941474024</v>
+        <v>5373203.993935656</v>
       </c>
       <c r="N129" s="76" t="n">
-        <v>13639779.6998303</v>
+        <v>13627662.17142483</v>
       </c>
       <c r="O129" s="76" t="n">
-        <v>7464403.932323738</v>
+        <v>7455494.999824293</v>
       </c>
       <c r="P129" s="76" t="n">
-        <v>5621108.752000555</v>
+        <v>5617226.532541797</v>
       </c>
       <c r="Q129" s="76" t="n">
-        <v>5365278.766078137</v>
+        <v>5358893.766443982</v>
       </c>
       <c r="R129" s="76" t="n">
-        <v>5852121.072297934</v>
+        <v>5846619.933331982</v>
       </c>
       <c r="S129" s="76" t="n">
-        <v>5628879.739029489</v>
+        <v>5624601.618610398</v>
       </c>
       <c r="T129" s="76" t="n">
-        <v>4933500.509861913</v>
+        <v>4927019.977734345</v>
       </c>
       <c r="U129" s="76" t="n">
-        <v>5939644.568598221</v>
+        <v>5932696.33647398</v>
       </c>
       <c r="V129" s="76" t="n">
-        <v>5586029.709239597</v>
+        <v>5577729.732915687</v>
       </c>
       <c r="W129" s="76" t="n">
-        <v>4608167.03031772</v>
+        <v>4603043.449218784</v>
       </c>
     </row>
     <row r="130">
@@ -18574,67 +18598,67 @@
         </is>
       </c>
       <c r="C130" s="76" t="n">
-        <v>7742587.677758603</v>
+        <v>7742244.069957606</v>
       </c>
       <c r="D130" s="76" t="n">
-        <v>7828166.572351914</v>
+        <v>7828173.570355981</v>
       </c>
       <c r="E130" s="76" t="n">
-        <v>6782917.686522875</v>
+        <v>6783399.929756754</v>
       </c>
       <c r="F130" s="76" t="n">
-        <v>8098438.533614838</v>
+        <v>8097925.174853612</v>
       </c>
       <c r="G130" s="76" t="n">
-        <v>8805290.310208967</v>
+        <v>8805894.829325395</v>
       </c>
       <c r="H130" s="76" t="n">
-        <v>7925855.208543692</v>
+        <v>7927190.585739622</v>
       </c>
       <c r="I130" s="76" t="n">
-        <v>11054105.10013033</v>
+        <v>11055806.58392077</v>
       </c>
       <c r="J130" s="76" t="n">
-        <v>9362013.116809595</v>
+        <v>9361169.839914199</v>
       </c>
       <c r="K130" s="76" t="n">
-        <v>9089625.17768297</v>
+        <v>9088366.826934164</v>
       </c>
       <c r="L130" s="76" t="n">
-        <v>12925689.56759377</v>
+        <v>12923217.68671772</v>
       </c>
       <c r="M130" s="76" t="n">
-        <v>10147559.4596235</v>
+        <v>10144899.44021152</v>
       </c>
       <c r="N130" s="76" t="n">
-        <v>14822017.31599577</v>
+        <v>14818137.41481185</v>
       </c>
       <c r="O130" s="76" t="n">
-        <v>11984498.26351323</v>
+        <v>11982676.67652844</v>
       </c>
       <c r="P130" s="76" t="n">
-        <v>10906739.81302471</v>
+        <v>10905407.16570153</v>
       </c>
       <c r="Q130" s="76" t="n">
-        <v>9738439.288163785</v>
+        <v>9737513.743618933</v>
       </c>
       <c r="R130" s="76" t="n">
-        <v>10622443.77007483</v>
+        <v>10623518.36883429</v>
       </c>
       <c r="S130" s="76" t="n">
-        <v>10039766.29464743</v>
+        <v>10039308.20036141</v>
       </c>
       <c r="T130" s="76" t="n">
-        <v>9257170.744002014</v>
+        <v>9257269.9616473</v>
       </c>
       <c r="U130" s="76" t="n">
-        <v>11906619.09282519</v>
+        <v>11910404.15222097</v>
       </c>
       <c r="V130" s="76" t="n">
-        <v>10000991.00173633</v>
+        <v>9998895.29823106</v>
       </c>
       <c r="W130" s="76" t="n">
-        <v>9602355.846410057</v>
+        <v>9600182.924818801</v>
       </c>
     </row>
     <row r="131">
@@ -18649,67 +18673,67 @@
         </is>
       </c>
       <c r="C131" s="76" t="n">
-        <v>8636142.053129297</v>
+        <v>8634159.794875193</v>
       </c>
       <c r="D131" s="76" t="n">
-        <v>11811814.14483557</v>
+        <v>11809512.6283446</v>
       </c>
       <c r="E131" s="76" t="n">
-        <v>7588544.790060932</v>
+        <v>7587872.553010216</v>
       </c>
       <c r="F131" s="76" t="n">
-        <v>12613621.7779723</v>
+        <v>12606544.47674648</v>
       </c>
       <c r="G131" s="76" t="n">
-        <v>13236895.0836547</v>
+        <v>13237240.58912862</v>
       </c>
       <c r="H131" s="76" t="n">
-        <v>9843743.643830337</v>
+        <v>9841410.680669703</v>
       </c>
       <c r="I131" s="76" t="n">
-        <v>15732372.07481795</v>
+        <v>15725762.06219282</v>
       </c>
       <c r="J131" s="76" t="n">
-        <v>11480011.44395713</v>
+        <v>11474650.38118338</v>
       </c>
       <c r="K131" s="76" t="n">
-        <v>11012913.04673748</v>
+        <v>11007162.26242608</v>
       </c>
       <c r="L131" s="76" t="n">
-        <v>18054309.18492107</v>
+        <v>18044988.91234268</v>
       </c>
       <c r="M131" s="76" t="n">
-        <v>13477816.69287004</v>
+        <v>13470725.50327105</v>
       </c>
       <c r="N131" s="76" t="n">
-        <v>11460434.84166736</v>
+        <v>11454560.6507219</v>
       </c>
       <c r="O131" s="76" t="n">
-        <v>14716130.72861956</v>
+        <v>14709537.99256171</v>
       </c>
       <c r="P131" s="76" t="n">
-        <v>15794605.4223596</v>
+        <v>15787922.47421908</v>
       </c>
       <c r="Q131" s="76" t="n">
-        <v>11443654.28470927</v>
+        <v>11439215.36980791</v>
       </c>
       <c r="R131" s="76" t="n">
-        <v>16309103.87430191</v>
+        <v>16301283.61030854</v>
       </c>
       <c r="S131" s="76" t="n">
-        <v>14497054.53003702</v>
+        <v>14494888.52635954</v>
       </c>
       <c r="T131" s="76" t="n">
-        <v>11695655.67027763</v>
+        <v>11692814.62197603</v>
       </c>
       <c r="U131" s="76" t="n">
-        <v>17373635.44558065</v>
+        <v>17362292.86093547</v>
       </c>
       <c r="V131" s="76" t="n">
-        <v>13264655.20951309</v>
+        <v>13256477.35138471</v>
       </c>
       <c r="W131" s="76" t="n">
-        <v>12261040.24691073</v>
+        <v>12253229.12024396</v>
       </c>
     </row>
     <row r="132">
@@ -18724,67 +18748,67 @@
         </is>
       </c>
       <c r="C132" s="76" t="n">
-        <v>17049305.98033</v>
+        <v>17033637.41662792</v>
       </c>
       <c r="D132" s="76" t="n">
-        <v>21592616.5870533</v>
+        <v>21564335.21054909</v>
       </c>
       <c r="E132" s="76" t="n">
-        <v>15777782.84275237</v>
+        <v>15748983.66512302</v>
       </c>
       <c r="F132" s="76" t="n">
-        <v>19886174.82322891</v>
+        <v>19853710.36801796</v>
       </c>
       <c r="G132" s="76" t="n">
-        <v>21173027.72034056</v>
+        <v>21131546.31023021</v>
       </c>
       <c r="H132" s="76" t="n">
-        <v>17672159.86664894</v>
+        <v>17587651.14751432</v>
       </c>
       <c r="I132" s="76" t="n">
-        <v>25050725.30978301</v>
+        <v>25072131.10063149</v>
       </c>
       <c r="J132" s="76" t="n">
-        <v>18943295.90078906</v>
+        <v>18876063.2884363</v>
       </c>
       <c r="K132" s="76" t="n">
-        <v>19265857.70439792</v>
+        <v>19210172.16985748</v>
       </c>
       <c r="L132" s="76" t="n">
-        <v>40437235.9291612</v>
+        <v>40356899.57149507</v>
       </c>
       <c r="M132" s="76" t="n">
-        <v>21146418.99059524</v>
+        <v>21109745.90930836</v>
       </c>
       <c r="N132" s="76" t="n">
-        <v>20763083.05323101</v>
+        <v>20728489.54495758</v>
       </c>
       <c r="O132" s="76" t="n">
-        <v>22476665.92649304</v>
+        <v>22437035.52530118</v>
       </c>
       <c r="P132" s="76" t="n">
-        <v>23500730.07644444</v>
+        <v>23455007.82661204</v>
       </c>
       <c r="Q132" s="76" t="n">
-        <v>18315571.14762429</v>
+        <v>18275600.51349361</v>
       </c>
       <c r="R132" s="76" t="n">
-        <v>23573650.87485049</v>
+        <v>23533375.22805689</v>
       </c>
       <c r="S132" s="76" t="n">
-        <v>21536508.70663074</v>
+        <v>21487096.03690542</v>
       </c>
       <c r="T132" s="76" t="n">
-        <v>19348933.5319678</v>
+        <v>19269718.77918422</v>
       </c>
       <c r="U132" s="76" t="n">
-        <v>26527144.97873618</v>
+        <v>26482290.22886465</v>
       </c>
       <c r="V132" s="76" t="n">
-        <v>20909564.06620251</v>
+        <v>20847162.44218228</v>
       </c>
       <c r="W132" s="76" t="n">
-        <v>21146508.1820359</v>
+        <v>21089073.66215834</v>
       </c>
     </row>
     <row r="133">
@@ -18799,67 +18823,67 @@
         </is>
       </c>
       <c r="C133" s="76" t="n">
-        <v>1272173.14797442</v>
+        <v>1271970.045954276</v>
       </c>
       <c r="D133" s="76" t="n">
-        <v>996149.9488989688</v>
+        <v>996014.851302371</v>
       </c>
       <c r="E133" s="76" t="n">
-        <v>917732.0976322006</v>
+        <v>917589.3663521506</v>
       </c>
       <c r="F133" s="76" t="n">
-        <v>1090045.493806025</v>
+        <v>1089547.936922299</v>
       </c>
       <c r="G133" s="76" t="n">
-        <v>1135257.570088291</v>
+        <v>1135016.759838244</v>
       </c>
       <c r="H133" s="76" t="n">
-        <v>1149201.669352618</v>
+        <v>1149024.915974158</v>
       </c>
       <c r="I133" s="76" t="n">
-        <v>1256912.848902749</v>
+        <v>1256336.751531777</v>
       </c>
       <c r="J133" s="76" t="n">
-        <v>1021657.130608516</v>
+        <v>1021210.974592603</v>
       </c>
       <c r="K133" s="76" t="n">
-        <v>1078243.370077301</v>
+        <v>1077816.784092315</v>
       </c>
       <c r="L133" s="76" t="n">
-        <v>1219374.457176474</v>
+        <v>1218947.093030937</v>
       </c>
       <c r="M133" s="76" t="n">
-        <v>1735203.118904923</v>
+        <v>1734543.03623476</v>
       </c>
       <c r="N133" s="76" t="n">
-        <v>2363727.622846165</v>
+        <v>2362823.186060786</v>
       </c>
       <c r="O133" s="76" t="n">
-        <v>1530439.119976924</v>
+        <v>1529948.737431316</v>
       </c>
       <c r="P133" s="76" t="n">
-        <v>1154943.063777723</v>
+        <v>1154589.356994821</v>
       </c>
       <c r="Q133" s="76" t="n">
-        <v>1036162.146916386</v>
+        <v>1035840.676962638</v>
       </c>
       <c r="R133" s="76" t="n">
-        <v>1195833.387363281</v>
+        <v>1195409.30173214</v>
       </c>
       <c r="S133" s="76" t="n">
-        <v>1203925.53391587</v>
+        <v>1203508.9570122</v>
       </c>
       <c r="T133" s="76" t="n">
-        <v>1204847.716786823</v>
+        <v>1204459.980841891</v>
       </c>
       <c r="U133" s="76" t="n">
-        <v>1252081.692134484</v>
+        <v>1251429.404765139</v>
       </c>
       <c r="V133" s="76" t="n">
-        <v>1106083.759182889</v>
+        <v>1105544.343689217</v>
       </c>
       <c r="W133" s="76" t="n">
-        <v>1137160.250895283</v>
+        <v>1136629.034862554</v>
       </c>
     </row>
     <row r="134">
@@ -18874,67 +18898,67 @@
         </is>
       </c>
       <c r="C134" s="76" t="n">
-        <v>2110487.335322916</v>
+        <v>2123641.089107202</v>
       </c>
       <c r="D134" s="76" t="n">
-        <v>2531392.519720613</v>
+        <v>2545924.903767326</v>
       </c>
       <c r="E134" s="76" t="n">
-        <v>1903427.89347971</v>
+        <v>1917199.26453832</v>
       </c>
       <c r="F134" s="76" t="n">
-        <v>2161608.771822945</v>
+        <v>2153516.77975477</v>
       </c>
       <c r="G134" s="76" t="n">
-        <v>2408667.196390892</v>
+        <v>2427772.861221306</v>
       </c>
       <c r="H134" s="76" t="n">
-        <v>1951981.876495047</v>
+        <v>1971028.996991562</v>
       </c>
       <c r="I134" s="76" t="n">
-        <v>2850023.191424295</v>
+        <v>2838354.076978879</v>
       </c>
       <c r="J134" s="76" t="n">
-        <v>2045278.713314806</v>
+        <v>2066021.773724315</v>
       </c>
       <c r="K134" s="76" t="n">
-        <v>1978823.746662202</v>
+        <v>1997327.179207889</v>
       </c>
       <c r="L134" s="76" t="n">
-        <v>3333983.065023895</v>
+        <v>3360110.188786687</v>
       </c>
       <c r="M134" s="76" t="n">
-        <v>2351045.789041923</v>
+        <v>2362970.110321314</v>
       </c>
       <c r="N134" s="76" t="n">
-        <v>2511987.569986172</v>
+        <v>2526303.232306608</v>
       </c>
       <c r="O134" s="76" t="n">
-        <v>2824522.974714332</v>
+        <v>2848379.592290381</v>
       </c>
       <c r="P134" s="76" t="n">
-        <v>2689134.99848248</v>
+        <v>2711687.79063341</v>
       </c>
       <c r="Q134" s="76" t="n">
-        <v>2139183.509574596</v>
+        <v>2158711.653965139</v>
       </c>
       <c r="R134" s="76" t="n">
-        <v>2622603.195699037</v>
+        <v>2626664.834324099</v>
       </c>
       <c r="S134" s="76" t="n">
-        <v>2393321.1878269</v>
+        <v>2414500.59766678</v>
       </c>
       <c r="T134" s="76" t="n">
-        <v>2131894.811691489</v>
+        <v>2151392.264930391</v>
       </c>
       <c r="U134" s="76" t="n">
-        <v>3014859.009056368</v>
+        <v>3028447.84894405</v>
       </c>
       <c r="V134" s="76" t="n">
-        <v>2276590.168232426</v>
+        <v>2299842.140010895</v>
       </c>
       <c r="W134" s="76" t="n">
-        <v>2199274.899787843</v>
+        <v>2221003.275453862</v>
       </c>
     </row>
     <row r="135">
@@ -18949,67 +18973,67 @@
         </is>
       </c>
       <c r="C135" s="76" t="n">
-        <v>2519244.633226711</v>
+        <v>2539123.948544489</v>
       </c>
       <c r="D135" s="76" t="n">
-        <v>2815284.98377061</v>
+        <v>2831643.066847092</v>
       </c>
       <c r="E135" s="76" t="n">
-        <v>1921754.430321754</v>
+        <v>1936817.405515255</v>
       </c>
       <c r="F135" s="76" t="n">
-        <v>2624580.271616481</v>
+        <v>2651051.188260947</v>
       </c>
       <c r="G135" s="76" t="n">
-        <v>2960739.594754363</v>
+        <v>2988101.837274057</v>
       </c>
       <c r="H135" s="76" t="n">
-        <v>2435947.495387424</v>
+        <v>2450854.756154116</v>
       </c>
       <c r="I135" s="76" t="n">
-        <v>3225663.85027044</v>
+        <v>3253872.267477289</v>
       </c>
       <c r="J135" s="76" t="n">
-        <v>2084379.389511952</v>
+        <v>2094283.894885512</v>
       </c>
       <c r="K135" s="76" t="n">
-        <v>1996039.146100828</v>
+        <v>2011631.374389121</v>
       </c>
       <c r="L135" s="76" t="n">
-        <v>4068056.204061864</v>
+        <v>4128743.956629841</v>
       </c>
       <c r="M135" s="76" t="n">
-        <v>3262035.791804476</v>
+        <v>3288602.136870706</v>
       </c>
       <c r="N135" s="76" t="n">
-        <v>3156068.835840171</v>
+        <v>3182470.699689533</v>
       </c>
       <c r="O135" s="76" t="n">
-        <v>3444311.042428387</v>
+        <v>3481780.353564593</v>
       </c>
       <c r="P135" s="76" t="n">
-        <v>2988680.236250659</v>
+        <v>3018747.936508785</v>
       </c>
       <c r="Q135" s="76" t="n">
-        <v>2291736.172086696</v>
+        <v>2317533.574174142</v>
       </c>
       <c r="R135" s="76" t="n">
-        <v>3090534.628299206</v>
+        <v>3132491.474149568</v>
       </c>
       <c r="S135" s="76" t="n">
-        <v>2948314.922358373</v>
+        <v>2985960.812150484</v>
       </c>
       <c r="T135" s="76" t="n">
-        <v>2597791.30212584</v>
+        <v>2628215.336403609</v>
       </c>
       <c r="U135" s="76" t="n">
-        <v>3389601.291582818</v>
+        <v>3433129.803085298</v>
       </c>
       <c r="V135" s="76" t="n">
-        <v>2418974.876158526</v>
+        <v>2445259.889267511</v>
       </c>
       <c r="W135" s="76" t="n">
-        <v>2307916.87218083</v>
+        <v>2335626.149186436</v>
       </c>
     </row>
     <row r="136">
@@ -19024,67 +19048,67 @@
         </is>
       </c>
       <c r="C136" s="76" t="n">
-        <v>456533.66274538</v>
+        <v>456312.0901835679</v>
       </c>
       <c r="D136" s="76" t="n">
-        <v>614099.2279570893</v>
+        <v>613996.1117545816</v>
       </c>
       <c r="E136" s="76" t="n">
-        <v>442123.542185829</v>
+        <v>441892.4629524675</v>
       </c>
       <c r="F136" s="76" t="n">
-        <v>1836339.21958422</v>
+        <v>1836315.643936879</v>
       </c>
       <c r="G136" s="76" t="n">
-        <v>2372829.0263095</v>
+        <v>2372347.736786935</v>
       </c>
       <c r="H136" s="76" t="n">
-        <v>1933817.004842198</v>
+        <v>1930961.908247117</v>
       </c>
       <c r="I136" s="76" t="n">
-        <v>3350267.237374778</v>
+        <v>3350932.325511516</v>
       </c>
       <c r="J136" s="76" t="n">
-        <v>2740952.222045257</v>
+        <v>2737867.919070391</v>
       </c>
       <c r="K136" s="76" t="n">
-        <v>3004873.062742148</v>
+        <v>3002577.91800961</v>
       </c>
       <c r="L136" s="76" t="n">
-        <v>4230797.862874423</v>
+        <v>4228157.600270371</v>
       </c>
       <c r="M136" s="76" t="n">
-        <v>3760520.115034095</v>
+        <v>3758692.97625529</v>
       </c>
       <c r="N136" s="76" t="n">
-        <v>3248286.902164825</v>
+        <v>3246714.640085067</v>
       </c>
       <c r="O136" s="76" t="n">
-        <v>4061435.209464875</v>
+        <v>4059070.06190699</v>
       </c>
       <c r="P136" s="76" t="n">
-        <v>4633115.974245551</v>
+        <v>4631130.641442574</v>
       </c>
       <c r="Q136" s="76" t="n">
-        <v>3655315.277812398</v>
+        <v>3653106.694663765</v>
       </c>
       <c r="R136" s="76" t="n">
-        <v>4991209.989896129</v>
+        <v>4990838.341123721</v>
       </c>
       <c r="S136" s="76" t="n">
-        <v>4547891.637793428</v>
+        <v>4545960.26740005</v>
       </c>
       <c r="T136" s="76" t="n">
-        <v>3726126.166332597</v>
+        <v>3721896.405316651</v>
       </c>
       <c r="U136" s="76" t="n">
-        <v>5707386.465580233</v>
+        <v>5704635.831754593</v>
       </c>
       <c r="V136" s="76" t="n">
-        <v>4704982.948623685</v>
+        <v>4700702.567634456</v>
       </c>
       <c r="W136" s="76" t="n">
-        <v>4502894.959189114</v>
+        <v>4499474.557444622</v>
       </c>
     </row>
     <row r="137">
@@ -19099,67 +19123,67 @@
         </is>
       </c>
       <c r="C137" s="76" t="n">
-        <v>4360490.639451195</v>
+        <v>4358160.137208981</v>
       </c>
       <c r="D137" s="76" t="n">
-        <v>5009261.176862222</v>
+        <v>5019512.02506342</v>
       </c>
       <c r="E137" s="76" t="n">
-        <v>3816428.628886374</v>
+        <v>3822171.580825409</v>
       </c>
       <c r="F137" s="76" t="n">
-        <v>5608714.169727923</v>
+        <v>5618255.464756357</v>
       </c>
       <c r="G137" s="76" t="n">
-        <v>6067950.781947484</v>
+        <v>6084590.78107126</v>
       </c>
       <c r="H137" s="76" t="n">
-        <v>5294291.449454311</v>
+        <v>5301704.84552134</v>
       </c>
       <c r="I137" s="76" t="n">
-        <v>7354564.217185066</v>
+        <v>7377206.820838854</v>
       </c>
       <c r="J137" s="76" t="n">
-        <v>6037207.888670959</v>
+        <v>6039398.478329593</v>
       </c>
       <c r="K137" s="76" t="n">
-        <v>5669746.139474194</v>
+        <v>5670443.466746069</v>
       </c>
       <c r="L137" s="76" t="n">
-        <v>9485675.609927071</v>
+        <v>9496431.319787744</v>
       </c>
       <c r="M137" s="76" t="n">
-        <v>6951875.132041059</v>
+        <v>6954853.907237693</v>
       </c>
       <c r="N137" s="76" t="n">
-        <v>6719041.987532107</v>
+        <v>6722540.873248732</v>
       </c>
       <c r="O137" s="76" t="n">
-        <v>8658710.721663432</v>
+        <v>8661342.197116604</v>
       </c>
       <c r="P137" s="76" t="n">
-        <v>8596936.411534399</v>
+        <v>8609176.493028095</v>
       </c>
       <c r="Q137" s="76" t="n">
-        <v>6964020.190264183</v>
+        <v>6971344.670648206</v>
       </c>
       <c r="R137" s="76" t="n">
-        <v>8641401.596631538</v>
+        <v>8663369.50506519</v>
       </c>
       <c r="S137" s="76" t="n">
-        <v>7953364.908778646</v>
+        <v>7974642.954086241</v>
       </c>
       <c r="T137" s="76" t="n">
-        <v>7213648.358382453</v>
+        <v>7228128.628545165</v>
       </c>
       <c r="U137" s="76" t="n">
-        <v>9525670.98973955</v>
+        <v>9551707.645784926</v>
       </c>
       <c r="V137" s="76" t="n">
-        <v>7820856.898986982</v>
+        <v>7825298.626451405</v>
       </c>
       <c r="W137" s="76" t="n">
-        <v>7246674.784375607</v>
+        <v>7249947.337375909</v>
       </c>
     </row>
     <row r="138">
@@ -19174,67 +19198,67 @@
         </is>
       </c>
       <c r="C138" s="76" t="n">
-        <v>5102385.781616947</v>
+        <v>5100455.301524159</v>
       </c>
       <c r="D138" s="76" t="n">
-        <v>2405968.832999448</v>
+        <v>2405405.855459004</v>
       </c>
       <c r="E138" s="76" t="n">
-        <v>5097451.214682974</v>
+        <v>5096106.645084842</v>
       </c>
       <c r="F138" s="76" t="n">
-        <v>2844002.855384168</v>
+        <v>2842596.483186875</v>
       </c>
       <c r="G138" s="76" t="n">
-        <v>3628126.07814317</v>
+        <v>3624512.878406046</v>
       </c>
       <c r="H138" s="76" t="n">
-        <v>3938867.237421892</v>
+        <v>3936261.755567863</v>
       </c>
       <c r="I138" s="76" t="n">
-        <v>3436136.472562263</v>
+        <v>3434388.931154213</v>
       </c>
       <c r="J138" s="76" t="n">
-        <v>3051875.936774057</v>
+        <v>3050401.129031079</v>
       </c>
       <c r="K138" s="76" t="n">
-        <v>4297094.231749639</v>
+        <v>4294615.221154949</v>
       </c>
       <c r="L138" s="76" t="n">
-        <v>6973145.002761733</v>
+        <v>6968871.681962283</v>
       </c>
       <c r="M138" s="76" t="n">
-        <v>6042613.096186023</v>
+        <v>6038975.209403258</v>
       </c>
       <c r="N138" s="76" t="n">
-        <v>6924087.97873775</v>
+        <v>6919970.19680671</v>
       </c>
       <c r="O138" s="76" t="n">
-        <v>6780402.395999495</v>
+        <v>6776464.404053407</v>
       </c>
       <c r="P138" s="76" t="n">
-        <v>3921355.33830155</v>
+        <v>3919277.628158494</v>
       </c>
       <c r="Q138" s="76" t="n">
-        <v>5130092.135503772</v>
+        <v>5127462.077014433</v>
       </c>
       <c r="R138" s="76" t="n">
-        <v>3747338.0127708</v>
+        <v>3745426.328475418</v>
       </c>
       <c r="S138" s="76" t="n">
-        <v>4059780.386651986</v>
+        <v>4055424.588572294</v>
       </c>
       <c r="T138" s="76" t="n">
-        <v>4236765.212144201</v>
+        <v>4233270.135898707</v>
       </c>
       <c r="U138" s="76" t="n">
-        <v>3675700.174359782</v>
+        <v>3673096.45273776</v>
       </c>
       <c r="V138" s="76" t="n">
-        <v>3555897.32273365</v>
+        <v>3553424.744345559</v>
       </c>
       <c r="W138" s="76" t="n">
-        <v>4635582.550563537</v>
+        <v>4632187.749380341</v>
       </c>
     </row>
     <row r="139">
@@ -19249,67 +19273,67 @@
         </is>
       </c>
       <c r="C139" s="76" t="n">
-        <v>735162.3770318329</v>
+        <v>734371.1587642515</v>
       </c>
       <c r="D139" s="76" t="n">
-        <v>822441.1933357476</v>
+        <v>821597.1052890816</v>
       </c>
       <c r="E139" s="76" t="n">
-        <v>1146575.387715854</v>
+        <v>1145666.694676928</v>
       </c>
       <c r="F139" s="76" t="n">
-        <v>1341996.06412629</v>
+        <v>1338508.242632336</v>
       </c>
       <c r="G139" s="76" t="n">
-        <v>1342351.176162167</v>
+        <v>1340859.51963222</v>
       </c>
       <c r="H139" s="76" t="n">
-        <v>1869423.985050261</v>
+        <v>1864531.338389964</v>
       </c>
       <c r="I139" s="76" t="n">
-        <v>1956978.61473962</v>
+        <v>1953238.635501883</v>
       </c>
       <c r="J139" s="76" t="n">
-        <v>1775895.487939552</v>
+        <v>1774208.880855598</v>
       </c>
       <c r="K139" s="76" t="n">
-        <v>1450836.03437021</v>
+        <v>1449278.180612209</v>
       </c>
       <c r="L139" s="76" t="n">
-        <v>2573636.196538953</v>
+        <v>2570574.941644055</v>
       </c>
       <c r="M139" s="76" t="n">
-        <v>1554822.037996205</v>
+        <v>1553363.579388032</v>
       </c>
       <c r="N139" s="76" t="n">
-        <v>1699622.082352191</v>
+        <v>1697933.391597602</v>
       </c>
       <c r="O139" s="76" t="n">
-        <v>1736238.956409389</v>
+        <v>1734113.741489195</v>
       </c>
       <c r="P139" s="76" t="n">
-        <v>1588853.756940169</v>
+        <v>1586962.841513037</v>
       </c>
       <c r="Q139" s="76" t="n">
-        <v>1799784.434648326</v>
+        <v>1797882.384910463</v>
       </c>
       <c r="R139" s="76" t="n">
-        <v>2029148.755461595</v>
+        <v>2022901.50881455</v>
       </c>
       <c r="S139" s="76" t="n">
-        <v>1771739.166875343</v>
+        <v>1769254.875709437</v>
       </c>
       <c r="T139" s="76" t="n">
-        <v>2661316.49108829</v>
+        <v>2654663.520803449</v>
       </c>
       <c r="U139" s="76" t="n">
-        <v>2623855.966194599</v>
+        <v>2617946.564114949</v>
       </c>
       <c r="V139" s="76" t="n">
-        <v>2286300.316213254</v>
+        <v>2283442.285563098</v>
       </c>
       <c r="W139" s="76" t="n">
-        <v>2125136.139080944</v>
+        <v>2122379.655252365</v>
       </c>
     </row>
     <row r="140">
@@ -19324,67 +19348,67 @@
         </is>
       </c>
       <c r="C140" s="76" t="n">
-        <v>7098244.240548571</v>
+        <v>7102623.52217776</v>
       </c>
       <c r="D140" s="76" t="n">
-        <v>3971778.554110775</v>
+        <v>3974876.955337141</v>
       </c>
       <c r="E140" s="76" t="n">
-        <v>5010433.641036765</v>
+        <v>5014452.113038291</v>
       </c>
       <c r="F140" s="76" t="n">
-        <v>4098647.987426497</v>
+        <v>4100162.023492881</v>
       </c>
       <c r="G140" s="76" t="n">
-        <v>4504830.570333089</v>
+        <v>4506535.767416241</v>
       </c>
       <c r="H140" s="76" t="n">
-        <v>3803573.003089771</v>
+        <v>3806102.78415123</v>
       </c>
       <c r="I140" s="76" t="n">
-        <v>3838922.856621885</v>
+        <v>3839471.772977202</v>
       </c>
       <c r="J140" s="76" t="n">
-        <v>5525024.241671484</v>
+        <v>5528791.170313018</v>
       </c>
       <c r="K140" s="76" t="n">
-        <v>2952303.461736716</v>
+        <v>2954495.066783518</v>
       </c>
       <c r="L140" s="76" t="n">
-        <v>6126631.28553458</v>
+        <v>6131918.218468508</v>
       </c>
       <c r="M140" s="76" t="n">
-        <v>4598535.326149342</v>
+        <v>4601210.6264122</v>
       </c>
       <c r="N140" s="76" t="n">
-        <v>11402568.7282682</v>
+        <v>11409582.86438133</v>
       </c>
       <c r="O140" s="76" t="n">
-        <v>8864655.633019468</v>
+        <v>8872601.410948027</v>
       </c>
       <c r="P140" s="76" t="n">
-        <v>5323740.068205868</v>
+        <v>5328879.14254935</v>
       </c>
       <c r="Q140" s="76" t="n">
-        <v>5253548.196802686</v>
+        <v>5258991.841430341</v>
       </c>
       <c r="R140" s="76" t="n">
-        <v>4856452.945716094</v>
+        <v>4859571.725346747</v>
       </c>
       <c r="S140" s="76" t="n">
-        <v>4791986.204742218</v>
+        <v>4796801.0269672</v>
       </c>
       <c r="T140" s="76" t="n">
-        <v>4187028.431903456</v>
+        <v>4190795.475628924</v>
       </c>
       <c r="U140" s="76" t="n">
-        <v>4666008.042432963</v>
+        <v>4669059.137195311</v>
       </c>
       <c r="V140" s="76" t="n">
-        <v>5588410.457147978</v>
+        <v>5593675.899478627</v>
       </c>
       <c r="W140" s="76" t="n">
-        <v>3628918.896161164</v>
+        <v>3632359.200699152</v>
       </c>
     </row>
     <row r="141">
@@ -19399,67 +19423,67 @@
         </is>
       </c>
       <c r="C141" s="76" t="n">
-        <v>4197549.453585615</v>
+        <v>4196013.623709741</v>
       </c>
       <c r="D141" s="76" t="n">
-        <v>4581922.119198677</v>
+        <v>4580893.420496081</v>
       </c>
       <c r="E141" s="76" t="n">
-        <v>4280251.489546131</v>
+        <v>4279997.626162728</v>
       </c>
       <c r="F141" s="76" t="n">
-        <v>5144572.074543822</v>
+        <v>5143157.359105667</v>
       </c>
       <c r="G141" s="76" t="n">
-        <v>5972748.920921757</v>
+        <v>5974734.277003963</v>
       </c>
       <c r="H141" s="76" t="n">
-        <v>4751635.063482889</v>
+        <v>4752463.070753934</v>
       </c>
       <c r="I141" s="76" t="n">
-        <v>6333219.348893579</v>
+        <v>6331758.749596802</v>
       </c>
       <c r="J141" s="76" t="n">
-        <v>5956550.221196449</v>
+        <v>5954854.284376726</v>
       </c>
       <c r="K141" s="76" t="n">
-        <v>5595550.970378389</v>
+        <v>5592537.942559394</v>
       </c>
       <c r="L141" s="76" t="n">
-        <v>7310286.681885184</v>
+        <v>7306462.596338375</v>
       </c>
       <c r="M141" s="76" t="n">
-        <v>5909182.221080204</v>
+        <v>5906138.350493073</v>
       </c>
       <c r="N141" s="76" t="n">
-        <v>6366231.261949122</v>
+        <v>6362876.927995234</v>
       </c>
       <c r="O141" s="76" t="n">
-        <v>6476842.583360348</v>
+        <v>6473545.528421244</v>
       </c>
       <c r="P141" s="76" t="n">
-        <v>6657243.279185618</v>
+        <v>6654335.853863654</v>
       </c>
       <c r="Q141" s="76" t="n">
-        <v>6036475.69759964</v>
+        <v>6034393.144021475</v>
       </c>
       <c r="R141" s="76" t="n">
-        <v>6705262.521472321</v>
+        <v>6704692.191469754</v>
       </c>
       <c r="S141" s="76" t="n">
-        <v>6540652.751810616</v>
+        <v>6541205.716759787</v>
       </c>
       <c r="T141" s="76" t="n">
-        <v>5760144.172720322</v>
+        <v>5760413.202672022</v>
       </c>
       <c r="U141" s="76" t="n">
-        <v>7073276.835605205</v>
+        <v>7071754.00798484</v>
       </c>
       <c r="V141" s="76" t="n">
-        <v>6376874.882235102</v>
+        <v>6373624.195451209</v>
       </c>
       <c r="W141" s="76" t="n">
-        <v>6344266.775381424</v>
+        <v>6340272.577186462</v>
       </c>
     </row>
     <row r="142">
@@ -19474,67 +19498,67 @@
         </is>
       </c>
       <c r="C142" s="76" t="n">
-        <v>383074.8955929141</v>
+        <v>352886.1080107989</v>
       </c>
       <c r="D142" s="76" t="n">
-        <v>436700.1958281328</v>
+        <v>404934.8807913108</v>
       </c>
       <c r="E142" s="76" t="n">
-        <v>112404.316227573</v>
+        <v>102807.5876124295</v>
       </c>
       <c r="F142" s="76" t="n">
-        <v>241559.0905186069</v>
+        <v>211008.0783642581</v>
       </c>
       <c r="G142" s="76" t="n">
-        <v>299553.2062972168</v>
+        <v>244232.9418421922</v>
       </c>
       <c r="H142" s="76" t="n">
-        <v>123354.2239728252</v>
+        <v>104872.0154378451</v>
       </c>
       <c r="I142" s="76" t="n">
-        <v>384225.288110699</v>
+        <v>331904.1682596217</v>
       </c>
       <c r="J142" s="76" t="n">
-        <v>243383.4027324088</v>
+        <v>223124.1097824808</v>
       </c>
       <c r="K142" s="76" t="n">
-        <v>113500.3950194644</v>
+        <v>105273.7359989562</v>
       </c>
       <c r="L142" s="76" t="n">
-        <v>482400.0037851102</v>
+        <v>444432.9579013825</v>
       </c>
       <c r="M142" s="76" t="n">
-        <v>365723.9980361449</v>
+        <v>339293.0978365483</v>
       </c>
       <c r="N142" s="76" t="n">
-        <v>243413.6636357892</v>
+        <v>223781.4379295256</v>
       </c>
       <c r="O142" s="76" t="n">
-        <v>452850.9962243905</v>
+        <v>411620.7568939804</v>
       </c>
       <c r="P142" s="76" t="n">
-        <v>391575.4553225627</v>
+        <v>355464.3817291282</v>
       </c>
       <c r="Q142" s="76" t="n">
-        <v>117569.6385157537</v>
+        <v>106296.7843527271</v>
       </c>
       <c r="R142" s="76" t="n">
-        <v>296299.1181390865</v>
+        <v>244859.1210530289</v>
       </c>
       <c r="S142" s="76" t="n">
-        <v>262092.318917895</v>
+        <v>213047.356434813</v>
       </c>
       <c r="T142" s="76" t="n">
-        <v>121211.359534275</v>
+        <v>98983.60434657245</v>
       </c>
       <c r="U142" s="76" t="n">
-        <v>347340.9142353227</v>
+        <v>290770.8220856158</v>
       </c>
       <c r="V142" s="76" t="n">
-        <v>253256.103602465</v>
+        <v>227813.205712456</v>
       </c>
       <c r="W142" s="76" t="n">
-        <v>129066.2173362786</v>
+        <v>116141.7319765453</v>
       </c>
     </row>
     <row r="143">
@@ -19549,67 +19573,67 @@
         </is>
       </c>
       <c r="C143" s="76" t="n">
-        <v>1678645.573372363</v>
+        <v>1673024.481811598</v>
       </c>
       <c r="D143" s="76" t="n">
-        <v>2426256.68028541</v>
+        <v>2417841.80693058</v>
       </c>
       <c r="E143" s="76" t="n">
-        <v>1497907.304077666</v>
+        <v>1491889.819096417</v>
       </c>
       <c r="F143" s="76" t="n">
-        <v>2441752.033265143</v>
+        <v>2424404.449296364</v>
       </c>
       <c r="G143" s="76" t="n">
-        <v>2731619.71663958</v>
+        <v>2718098.394796744</v>
       </c>
       <c r="H143" s="76" t="n">
-        <v>2151439.820681615</v>
+        <v>2142239.068930533</v>
       </c>
       <c r="I143" s="76" t="n">
-        <v>3435451.34233636</v>
+        <v>3414626.263824762</v>
       </c>
       <c r="J143" s="76" t="n">
-        <v>2280366.591073589</v>
+        <v>2271549.908716938</v>
       </c>
       <c r="K143" s="76" t="n">
-        <v>2606440.574618125</v>
+        <v>2597189.593894895</v>
       </c>
       <c r="L143" s="76" t="n">
-        <v>4760365.948077728</v>
+        <v>4742882.613192518</v>
       </c>
       <c r="M143" s="76" t="n">
-        <v>3000532.076945181</v>
+        <v>2991492.596758206</v>
       </c>
       <c r="N143" s="76" t="n">
-        <v>2793500.694283802</v>
+        <v>2784558.565013234</v>
       </c>
       <c r="O143" s="76" t="n">
-        <v>3593059.91118271</v>
+        <v>3578390.202153626</v>
       </c>
       <c r="P143" s="76" t="n">
-        <v>3815853.816846156</v>
+        <v>3799433.408986409</v>
       </c>
       <c r="Q143" s="76" t="n">
-        <v>2764513.308708232</v>
+        <v>2752193.855083095</v>
       </c>
       <c r="R143" s="76" t="n">
-        <v>3750775.317755247</v>
+        <v>3720914.945408435</v>
       </c>
       <c r="S143" s="76" t="n">
-        <v>3451854.770315334</v>
+        <v>3428603.705731375</v>
       </c>
       <c r="T143" s="76" t="n">
-        <v>2938576.245540997</v>
+        <v>2920169.674823996</v>
       </c>
       <c r="U143" s="76" t="n">
-        <v>4192981.325913972</v>
+        <v>4165304.562710232</v>
       </c>
       <c r="V143" s="76" t="n">
-        <v>3104586.706292063</v>
+        <v>3090651.114860122</v>
       </c>
       <c r="W143" s="76" t="n">
-        <v>3245394.239814309</v>
+        <v>3230917.554218106</v>
       </c>
     </row>
     <row r="144">
@@ -19624,67 +19648,67 @@
         </is>
       </c>
       <c r="C144" s="77" t="n">
-        <v>142767149.1798976</v>
+        <v>142770531.2248915</v>
       </c>
       <c r="D144" s="77" t="n">
-        <v>148821211.4852525</v>
+        <v>148841075.2887103</v>
       </c>
       <c r="E144" s="77" t="n">
-        <v>127092437.4471536</v>
+        <v>127112739.5387266</v>
       </c>
       <c r="F144" s="77" t="n">
-        <v>160606306.0100988</v>
+        <v>160645210.2847907</v>
       </c>
       <c r="G144" s="77" t="n">
-        <v>169649325.0948987</v>
+        <v>169681258.6128536</v>
       </c>
       <c r="H144" s="77" t="n">
-        <v>155133605.6349851</v>
+        <v>155167042.576371</v>
       </c>
       <c r="I144" s="77" t="n">
-        <v>184862301.3720603</v>
+        <v>184840806.0885738</v>
       </c>
       <c r="J144" s="77" t="n">
-        <v>164445961.7308613</v>
+        <v>164407710.6477044</v>
       </c>
       <c r="K144" s="77" t="n">
-        <v>152934468.9917814</v>
+        <v>152937014.6045321</v>
       </c>
       <c r="L144" s="77" t="n">
-        <v>237163535.6853098</v>
+        <v>237205219.9303083</v>
       </c>
       <c r="M144" s="77" t="n">
-        <v>172347378.1352307</v>
+        <v>172322237.1921925</v>
       </c>
       <c r="N144" s="77" t="n">
-        <v>197137141.9057417</v>
+        <v>197154010.9169264</v>
       </c>
       <c r="O144" s="77" t="n">
-        <v>200591749.7003832</v>
+        <v>200579825.7713442</v>
       </c>
       <c r="P144" s="77" t="n">
-        <v>189201454.6562854</v>
+        <v>189193701.5147713</v>
       </c>
       <c r="Q144" s="77" t="n">
-        <v>165798156.8569888</v>
+        <v>165808633.2143191</v>
       </c>
       <c r="R144" s="77" t="n">
-        <v>198428549.3683461</v>
+        <v>198465167.8640766</v>
       </c>
       <c r="S144" s="77" t="n">
-        <v>184351376.5473693</v>
+        <v>184370251.9955885</v>
       </c>
       <c r="T144" s="77" t="n">
-        <v>174924781.0904615</v>
+        <v>174964857.4602563</v>
       </c>
       <c r="U144" s="77" t="n">
-        <v>207677326.5633207</v>
+        <v>207660869.1652502</v>
       </c>
       <c r="V144" s="77" t="n">
-        <v>181122592.1859721</v>
+        <v>181083385.3999777</v>
       </c>
       <c r="W144" s="77" t="n">
-        <v>170808602.7687467</v>
+        <v>170799288.6031185</v>
       </c>
     </row>
     <row r="145">
@@ -19707,10 +19731,18 @@
       <c r="E145" s="142" t="n">
         <v>718404.8371598427</v>
       </c>
-      <c r="F145" s="142" t="inlineStr"/>
-      <c r="G145" s="142" t="inlineStr"/>
-      <c r="H145" s="142" t="inlineStr"/>
-      <c r="I145" s="142" t="inlineStr"/>
+      <c r="F145" s="142" t="n">
+        <v>767091.0241282438</v>
+      </c>
+      <c r="G145" s="142" t="n">
+        <v>1012912.345539066</v>
+      </c>
+      <c r="H145" s="142" t="n">
+        <v>986408.5767487767</v>
+      </c>
+      <c r="I145" s="142" t="n">
+        <v>753525.6177428862</v>
+      </c>
       <c r="J145" s="142" t="inlineStr"/>
       <c r="K145" s="142" t="inlineStr"/>
       <c r="L145" s="142" t="inlineStr"/>
@@ -19746,10 +19778,18 @@
       <c r="E146" s="142" t="n">
         <v>2897471.969812693</v>
       </c>
-      <c r="F146" s="142" t="inlineStr"/>
-      <c r="G146" s="142" t="inlineStr"/>
-      <c r="H146" s="142" t="inlineStr"/>
-      <c r="I146" s="142" t="inlineStr"/>
+      <c r="F146" s="142" t="n">
+        <v>2569061.867548321</v>
+      </c>
+      <c r="G146" s="142" t="n">
+        <v>3093732.148994989</v>
+      </c>
+      <c r="H146" s="142" t="n">
+        <v>2841139.649817491</v>
+      </c>
+      <c r="I146" s="142" t="n">
+        <v>2429473.05871003</v>
+      </c>
       <c r="J146" s="142" t="inlineStr"/>
       <c r="K146" s="142" t="inlineStr"/>
       <c r="L146" s="142" t="inlineStr"/>
@@ -19785,10 +19825,18 @@
       <c r="E147" s="142" t="n">
         <v>4302033.955099371</v>
       </c>
-      <c r="F147" s="142" t="inlineStr"/>
-      <c r="G147" s="142" t="inlineStr"/>
-      <c r="H147" s="142" t="inlineStr"/>
-      <c r="I147" s="142" t="inlineStr"/>
+      <c r="F147" s="142" t="n">
+        <v>5347336.690092451</v>
+      </c>
+      <c r="G147" s="142" t="n">
+        <v>6759135.111848888</v>
+      </c>
+      <c r="H147" s="142" t="n">
+        <v>5266923.707620983</v>
+      </c>
+      <c r="I147" s="142" t="n">
+        <v>5818676.299122395</v>
+      </c>
       <c r="J147" s="142" t="inlineStr"/>
       <c r="K147" s="142" t="inlineStr"/>
       <c r="L147" s="142" t="inlineStr"/>
@@ -19824,10 +19872,18 @@
       <c r="E148" s="142" t="n">
         <v>14051874.13313056</v>
       </c>
-      <c r="F148" s="142" t="inlineStr"/>
-      <c r="G148" s="142" t="inlineStr"/>
-      <c r="H148" s="142" t="inlineStr"/>
-      <c r="I148" s="142" t="inlineStr"/>
+      <c r="F148" s="142" t="n">
+        <v>13411895.93426105</v>
+      </c>
+      <c r="G148" s="142" t="n">
+        <v>13283718.19711909</v>
+      </c>
+      <c r="H148" s="142" t="n">
+        <v>13589319.45691678</v>
+      </c>
+      <c r="I148" s="142" t="n">
+        <v>14093490.72539866</v>
+      </c>
       <c r="J148" s="142" t="inlineStr"/>
       <c r="K148" s="142" t="inlineStr"/>
       <c r="L148" s="142" t="inlineStr"/>
@@ -19863,10 +19919,18 @@
       <c r="E149" s="142" t="n">
         <v>16836112.83181437</v>
       </c>
-      <c r="F149" s="142" t="inlineStr"/>
-      <c r="G149" s="142" t="inlineStr"/>
-      <c r="H149" s="142" t="inlineStr"/>
-      <c r="I149" s="142" t="inlineStr"/>
+      <c r="F149" s="142" t="n">
+        <v>29696170.96647371</v>
+      </c>
+      <c r="G149" s="142" t="n">
+        <v>16825965.1503716</v>
+      </c>
+      <c r="H149" s="142" t="n">
+        <v>30443176.09118015</v>
+      </c>
+      <c r="I149" s="142" t="n">
+        <v>17049659.25050278</v>
+      </c>
       <c r="J149" s="142" t="inlineStr"/>
       <c r="K149" s="142" t="inlineStr"/>
       <c r="L149" s="142" t="inlineStr"/>
@@ -19902,10 +19966,18 @@
       <c r="E150" s="142" t="n">
         <v>31127061.709466</v>
       </c>
-      <c r="F150" s="142" t="inlineStr"/>
-      <c r="G150" s="142" t="inlineStr"/>
-      <c r="H150" s="142" t="inlineStr"/>
-      <c r="I150" s="142" t="inlineStr"/>
+      <c r="F150" s="142" t="n">
+        <v>38316868.25751115</v>
+      </c>
+      <c r="G150" s="142" t="n">
+        <v>45147022.20718196</v>
+      </c>
+      <c r="H150" s="142" t="n">
+        <v>35773990.97152603</v>
+      </c>
+      <c r="I150" s="142" t="n">
+        <v>33609963.58755794</v>
+      </c>
       <c r="J150" s="142" t="inlineStr"/>
       <c r="K150" s="142" t="inlineStr"/>
       <c r="L150" s="142" t="inlineStr"/>
@@ -19941,10 +20013,18 @@
       <c r="E151" s="142" t="n">
         <v>199994.047971055</v>
       </c>
-      <c r="F151" s="142" t="inlineStr"/>
-      <c r="G151" s="142" t="inlineStr"/>
-      <c r="H151" s="142" t="inlineStr"/>
-      <c r="I151" s="142" t="inlineStr"/>
+      <c r="F151" s="142" t="n">
+        <v>341673.4648234965</v>
+      </c>
+      <c r="G151" s="142" t="n">
+        <v>347446.9544932717</v>
+      </c>
+      <c r="H151" s="142" t="n">
+        <v>365637.0460607013</v>
+      </c>
+      <c r="I151" s="142" t="n">
+        <v>387565.0590933539</v>
+      </c>
       <c r="J151" s="142" t="inlineStr"/>
       <c r="K151" s="142" t="inlineStr"/>
       <c r="L151" s="142" t="inlineStr"/>
@@ -19980,10 +20060,18 @@
       <c r="E152" s="142" t="n">
         <v>3911194.782169435</v>
       </c>
-      <c r="F152" s="142" t="inlineStr"/>
-      <c r="G152" s="142" t="inlineStr"/>
-      <c r="H152" s="142" t="inlineStr"/>
-      <c r="I152" s="142" t="inlineStr"/>
+      <c r="F152" s="142" t="n">
+        <v>3874222.690433297</v>
+      </c>
+      <c r="G152" s="142" t="n">
+        <v>3997901.860311431</v>
+      </c>
+      <c r="H152" s="142" t="n">
+        <v>3445092.835535185</v>
+      </c>
+      <c r="I152" s="142" t="n">
+        <v>2841302.686197911</v>
+      </c>
       <c r="J152" s="142" t="inlineStr"/>
       <c r="K152" s="142" t="inlineStr"/>
       <c r="L152" s="142" t="inlineStr"/>
@@ -20019,10 +20107,18 @@
       <c r="E153" s="142" t="n">
         <v>7475390.742186077</v>
       </c>
-      <c r="F153" s="142" t="inlineStr"/>
-      <c r="G153" s="142" t="inlineStr"/>
-      <c r="H153" s="142" t="inlineStr"/>
-      <c r="I153" s="142" t="inlineStr"/>
+      <c r="F153" s="142" t="n">
+        <v>8284404.850324178</v>
+      </c>
+      <c r="G153" s="142" t="n">
+        <v>10059816.09656174</v>
+      </c>
+      <c r="H153" s="142" t="n">
+        <v>7725932.384252025</v>
+      </c>
+      <c r="I153" s="142" t="n">
+        <v>8065413.555251994</v>
+      </c>
       <c r="J153" s="142" t="inlineStr"/>
       <c r="K153" s="142" t="inlineStr"/>
       <c r="L153" s="142" t="inlineStr"/>
@@ -20058,10 +20154,18 @@
       <c r="E154" s="142" t="n">
         <v>8831895.216363268</v>
       </c>
-      <c r="F154" s="142" t="inlineStr"/>
-      <c r="G154" s="142" t="inlineStr"/>
-      <c r="H154" s="142" t="inlineStr"/>
-      <c r="I154" s="142" t="inlineStr"/>
+      <c r="F154" s="142" t="n">
+        <v>10216390.28352183</v>
+      </c>
+      <c r="G154" s="142" t="n">
+        <v>13995323.4110776</v>
+      </c>
+      <c r="H154" s="142" t="n">
+        <v>9238094.333529364</v>
+      </c>
+      <c r="I154" s="142" t="n">
+        <v>10398136.19998789</v>
+      </c>
       <c r="J154" s="142" t="inlineStr"/>
       <c r="K154" s="142" t="inlineStr"/>
       <c r="L154" s="142" t="inlineStr"/>
@@ -20097,10 +20201,18 @@
       <c r="E155" s="142" t="n">
         <v>14172905.62818664</v>
       </c>
-      <c r="F155" s="142" t="inlineStr"/>
-      <c r="G155" s="142" t="inlineStr"/>
-      <c r="H155" s="142" t="inlineStr"/>
-      <c r="I155" s="142" t="inlineStr"/>
+      <c r="F155" s="142" t="n">
+        <v>15457630.85190522</v>
+      </c>
+      <c r="G155" s="142" t="n">
+        <v>21189073.6066555</v>
+      </c>
+      <c r="H155" s="142" t="n">
+        <v>14704838.27575892</v>
+      </c>
+      <c r="I155" s="142" t="n">
+        <v>15272497.43130384</v>
+      </c>
       <c r="J155" s="142" t="inlineStr"/>
       <c r="K155" s="142" t="inlineStr"/>
       <c r="L155" s="142" t="inlineStr"/>
@@ -20136,10 +20248,18 @@
       <c r="E156" s="142" t="n">
         <v>906362.3647455756</v>
       </c>
-      <c r="F156" s="142" t="inlineStr"/>
-      <c r="G156" s="142" t="inlineStr"/>
-      <c r="H156" s="142" t="inlineStr"/>
-      <c r="I156" s="142" t="inlineStr"/>
+      <c r="F156" s="142" t="n">
+        <v>1520047.260388415</v>
+      </c>
+      <c r="G156" s="142" t="n">
+        <v>1154108.354042781</v>
+      </c>
+      <c r="H156" s="142" t="n">
+        <v>955837.7361906803</v>
+      </c>
+      <c r="I156" s="142" t="n">
+        <v>932620.4271638599</v>
+      </c>
       <c r="J156" s="142" t="inlineStr"/>
       <c r="K156" s="142" t="inlineStr"/>
       <c r="L156" s="142" t="inlineStr"/>
@@ -20175,10 +20295,18 @@
       <c r="E157" s="142" t="n">
         <v>1811676.981542232</v>
       </c>
-      <c r="F157" s="142" t="inlineStr"/>
-      <c r="G157" s="142" t="inlineStr"/>
-      <c r="H157" s="142" t="inlineStr"/>
-      <c r="I157" s="142" t="inlineStr"/>
+      <c r="F157" s="142" t="n">
+        <v>2010669.366198895</v>
+      </c>
+      <c r="G157" s="142" t="n">
+        <v>2686984.593125756</v>
+      </c>
+      <c r="H157" s="142" t="n">
+        <v>1826490.600444273</v>
+      </c>
+      <c r="I157" s="142" t="n">
+        <v>1779384.243594981</v>
+      </c>
       <c r="J157" s="142" t="inlineStr"/>
       <c r="K157" s="142" t="inlineStr"/>
       <c r="L157" s="142" t="inlineStr"/>
@@ -20214,10 +20342,18 @@
       <c r="E158" s="142" t="n">
         <v>1693158.672488496</v>
       </c>
-      <c r="F158" s="142" t="inlineStr"/>
-      <c r="G158" s="142" t="inlineStr"/>
-      <c r="H158" s="142" t="inlineStr"/>
-      <c r="I158" s="142" t="inlineStr"/>
+      <c r="F158" s="142" t="n">
+        <v>2160550.08682648</v>
+      </c>
+      <c r="G158" s="142" t="n">
+        <v>2686529.012313159</v>
+      </c>
+      <c r="H158" s="142" t="n">
+        <v>1744774.581423559</v>
+      </c>
+      <c r="I158" s="142" t="n">
+        <v>1790493.347343732</v>
+      </c>
       <c r="J158" s="142" t="inlineStr"/>
       <c r="K158" s="142" t="inlineStr"/>
       <c r="L158" s="142" t="inlineStr"/>
@@ -20253,10 +20389,18 @@
       <c r="E159" s="142" t="n">
         <v>1905595.859645415</v>
       </c>
-      <c r="F159" s="142" t="inlineStr"/>
-      <c r="G159" s="142" t="inlineStr"/>
-      <c r="H159" s="142" t="inlineStr"/>
-      <c r="I159" s="142" t="inlineStr"/>
+      <c r="F159" s="142" t="n">
+        <v>2639199.282490598</v>
+      </c>
+      <c r="G159" s="142" t="n">
+        <v>3098257.918825624</v>
+      </c>
+      <c r="H159" s="142" t="n">
+        <v>2372483.817944382</v>
+      </c>
+      <c r="I159" s="142" t="n">
+        <v>3082975.493551534</v>
+      </c>
       <c r="J159" s="142" t="inlineStr"/>
       <c r="K159" s="142" t="inlineStr"/>
       <c r="L159" s="142" t="inlineStr"/>
@@ -20292,10 +20436,18 @@
       <c r="E160" s="142" t="n">
         <v>6356848.849721549</v>
       </c>
-      <c r="F160" s="142" t="inlineStr"/>
-      <c r="G160" s="142" t="inlineStr"/>
-      <c r="H160" s="142" t="inlineStr"/>
-      <c r="I160" s="142" t="inlineStr"/>
+      <c r="F160" s="142" t="n">
+        <v>7828546.369483962</v>
+      </c>
+      <c r="G160" s="142" t="n">
+        <v>9188410.155244863</v>
+      </c>
+      <c r="H160" s="142" t="n">
+        <v>7708837.981861054</v>
+      </c>
+      <c r="I160" s="142" t="n">
+        <v>8163627.811460725</v>
+      </c>
       <c r="J160" s="142" t="inlineStr"/>
       <c r="K160" s="142" t="inlineStr"/>
       <c r="L160" s="142" t="inlineStr"/>
@@ -20331,10 +20483,18 @@
       <c r="E161" s="142" t="n">
         <v>5333609.748357096</v>
       </c>
-      <c r="F161" s="142" t="inlineStr"/>
-      <c r="G161" s="142" t="inlineStr"/>
-      <c r="H161" s="142" t="inlineStr"/>
-      <c r="I161" s="142" t="inlineStr"/>
+      <c r="F161" s="142" t="n">
+        <v>3448821.963266529</v>
+      </c>
+      <c r="G161" s="142" t="n">
+        <v>3656611.755085543</v>
+      </c>
+      <c r="H161" s="142" t="n">
+        <v>3231584.585904295</v>
+      </c>
+      <c r="I161" s="142" t="n">
+        <v>2767732.289464425</v>
+      </c>
       <c r="J161" s="142" t="inlineStr"/>
       <c r="K161" s="142" t="inlineStr"/>
       <c r="L161" s="142" t="inlineStr"/>
@@ -20370,10 +20530,18 @@
       <c r="E162" s="142" t="n">
         <v>584854.7167544232</v>
       </c>
-      <c r="F162" s="142" t="inlineStr"/>
-      <c r="G162" s="142" t="inlineStr"/>
-      <c r="H162" s="142" t="inlineStr"/>
-      <c r="I162" s="142" t="inlineStr"/>
+      <c r="F162" s="142" t="n">
+        <v>1403103.877760346</v>
+      </c>
+      <c r="G162" s="142" t="n">
+        <v>2046136.586384383</v>
+      </c>
+      <c r="H162" s="142" t="n">
+        <v>3098517.856618773</v>
+      </c>
+      <c r="I162" s="142" t="n">
+        <v>2402739.577020861</v>
+      </c>
       <c r="J162" s="142" t="inlineStr"/>
       <c r="K162" s="142" t="inlineStr"/>
       <c r="L162" s="142" t="inlineStr"/>
@@ -20409,10 +20577,18 @@
       <c r="E163" s="142" t="n">
         <v>2666430.966048842</v>
       </c>
-      <c r="F163" s="142" t="inlineStr"/>
-      <c r="G163" s="142" t="inlineStr"/>
-      <c r="H163" s="142" t="inlineStr"/>
-      <c r="I163" s="142" t="inlineStr"/>
+      <c r="F163" s="142" t="n">
+        <v>2639925.168440953</v>
+      </c>
+      <c r="G163" s="142" t="n">
+        <v>3130938.582874758</v>
+      </c>
+      <c r="H163" s="142" t="n">
+        <v>3607627.183205283</v>
+      </c>
+      <c r="I163" s="142" t="n">
+        <v>2505067.682643525</v>
+      </c>
       <c r="J163" s="142" t="inlineStr"/>
       <c r="K163" s="142" t="inlineStr"/>
       <c r="L163" s="142" t="inlineStr"/>
@@ -20448,10 +20624,18 @@
       <c r="E164" s="142" t="n">
         <v>5072261.553202425</v>
       </c>
-      <c r="F164" s="142" t="inlineStr"/>
-      <c r="G164" s="142" t="inlineStr"/>
-      <c r="H164" s="142" t="inlineStr"/>
-      <c r="I164" s="142" t="inlineStr"/>
+      <c r="F164" s="142" t="n">
+        <v>5978753.318047594</v>
+      </c>
+      <c r="G164" s="142" t="n">
+        <v>5513967.66804783</v>
+      </c>
+      <c r="H164" s="142" t="n">
+        <v>5466239.180303586</v>
+      </c>
+      <c r="I164" s="142" t="n">
+        <v>4800767.694808303</v>
+      </c>
       <c r="J164" s="142" t="inlineStr"/>
       <c r="K164" s="142" t="inlineStr"/>
       <c r="L164" s="142" t="inlineStr"/>
@@ -20487,10 +20671,18 @@
       <c r="E165" s="142" t="n">
         <v>309135.9690400375</v>
       </c>
-      <c r="F165" s="142" t="inlineStr"/>
-      <c r="G165" s="142" t="inlineStr"/>
-      <c r="H165" s="142" t="inlineStr"/>
-      <c r="I165" s="142" t="inlineStr"/>
+      <c r="F165" s="142" t="n">
+        <v>400085.1916459799</v>
+      </c>
+      <c r="G165" s="142" t="n">
+        <v>534013.8055491006</v>
+      </c>
+      <c r="H165" s="142" t="n">
+        <v>235805.4276420042</v>
+      </c>
+      <c r="I165" s="142" t="n">
+        <v>343735.3086120703</v>
+      </c>
       <c r="J165" s="142" t="inlineStr"/>
       <c r="K165" s="142" t="inlineStr"/>
       <c r="L165" s="142" t="inlineStr"/>
@@ -20526,10 +20718,18 @@
       <c r="E166" s="142" t="n">
         <v>2560925.465094599</v>
       </c>
-      <c r="F166" s="142" t="inlineStr"/>
-      <c r="G166" s="142" t="inlineStr"/>
-      <c r="H166" s="142" t="inlineStr"/>
-      <c r="I166" s="142" t="inlineStr"/>
+      <c r="F166" s="142" t="n">
+        <v>2909034.23442729</v>
+      </c>
+      <c r="G166" s="142" t="n">
+        <v>3784249.478351067</v>
+      </c>
+      <c r="H166" s="142" t="n">
+        <v>2577089.719515709</v>
+      </c>
+      <c r="I166" s="142" t="n">
+        <v>2839310.653466294</v>
+      </c>
       <c r="J166" s="142" t="inlineStr"/>
       <c r="K166" s="142" t="inlineStr"/>
       <c r="L166" s="142" t="inlineStr"/>
@@ -20566,16 +20766,16 @@
         <v>133725201</v>
       </c>
       <c r="F167" s="146" t="n">
-        <v>0</v>
+        <v>161221483</v>
       </c>
       <c r="G167" s="146" t="n">
-        <v>0</v>
+        <v>173192255</v>
       </c>
       <c r="H167" s="146" t="n">
-        <v>0</v>
+        <v>157205842</v>
       </c>
       <c r="I167" s="146" t="n">
-        <v>0</v>
+        <v>142128158</v>
       </c>
       <c r="J167" s="146" t="n">
         <v>0</v>
@@ -26967,10 +27167,18 @@
       <c r="E100" s="142" t="n">
         <v>714366.4914858241</v>
       </c>
-      <c r="F100" s="142" t="inlineStr"/>
-      <c r="G100" s="142" t="inlineStr"/>
-      <c r="H100" s="142" t="inlineStr"/>
-      <c r="I100" s="142" t="inlineStr"/>
+      <c r="F100" s="142" t="n">
+        <v>1019154.883086813</v>
+      </c>
+      <c r="G100" s="142" t="n">
+        <v>1294079.792118226</v>
+      </c>
+      <c r="H100" s="142" t="n">
+        <v>400719.7664795828</v>
+      </c>
+      <c r="I100" s="142" t="n">
+        <v>447282.7596854775</v>
+      </c>
       <c r="J100" s="142" t="inlineStr"/>
       <c r="K100" s="142" t="inlineStr"/>
       <c r="L100" s="142" t="inlineStr"/>
@@ -27006,10 +27214,18 @@
       <c r="E101" s="142" t="n">
         <v>108279.068288033</v>
       </c>
-      <c r="F101" s="142" t="inlineStr"/>
-      <c r="G101" s="142" t="inlineStr"/>
-      <c r="H101" s="142" t="inlineStr"/>
-      <c r="I101" s="142" t="inlineStr"/>
+      <c r="F101" s="142" t="n">
+        <v>288553.6071222562</v>
+      </c>
+      <c r="G101" s="142" t="n">
+        <v>451164.6597589403</v>
+      </c>
+      <c r="H101" s="142" t="n">
+        <v>-77234.94820832612</v>
+      </c>
+      <c r="I101" s="142" t="n">
+        <v>-49694.12855032936</v>
+      </c>
       <c r="J101" s="142" t="inlineStr"/>
       <c r="K101" s="142" t="inlineStr"/>
       <c r="L101" s="142" t="inlineStr"/>
@@ -27045,10 +27261,18 @@
       <c r="E102" s="142" t="n">
         <v>-143320.3461998284</v>
       </c>
-      <c r="F102" s="142" t="inlineStr"/>
-      <c r="G102" s="142" t="inlineStr"/>
-      <c r="H102" s="142" t="inlineStr"/>
-      <c r="I102" s="142" t="inlineStr"/>
+      <c r="F102" s="142" t="n">
+        <v>-14734.08079397911</v>
+      </c>
+      <c r="G102" s="142" t="n">
+        <v>101253.1690277676</v>
+      </c>
+      <c r="H102" s="142" t="n">
+        <v>-275643.8274632702</v>
+      </c>
+      <c r="I102" s="142" t="n">
+        <v>-255999.5051483238</v>
+      </c>
       <c r="J102" s="142" t="inlineStr"/>
       <c r="K102" s="142" t="inlineStr"/>
       <c r="L102" s="142" t="inlineStr"/>
@@ -27084,10 +27308,18 @@
       <c r="E103" s="142" t="n">
         <v>496876.0381640932</v>
       </c>
-      <c r="F103" s="142" t="inlineStr"/>
-      <c r="G103" s="142" t="inlineStr"/>
-      <c r="H103" s="142" t="inlineStr"/>
-      <c r="I103" s="142" t="inlineStr"/>
+      <c r="F103" s="142" t="n">
+        <v>756983.4592539321</v>
+      </c>
+      <c r="G103" s="142" t="n">
+        <v>991605.2855836442</v>
+      </c>
+      <c r="H103" s="142" t="n">
+        <v>229208.8860586099</v>
+      </c>
+      <c r="I103" s="142" t="n">
+        <v>268945.8984080319</v>
+      </c>
       <c r="J103" s="142" t="inlineStr"/>
       <c r="K103" s="142" t="inlineStr"/>
       <c r="L103" s="142" t="inlineStr"/>
@@ -27123,10 +27355,18 @@
       <c r="E104" s="142" t="n">
         <v>348153.9848120422</v>
       </c>
-      <c r="F104" s="142" t="inlineStr"/>
-      <c r="G104" s="142" t="inlineStr"/>
-      <c r="H104" s="142" t="inlineStr"/>
-      <c r="I104" s="142" t="inlineStr"/>
+      <c r="F104" s="142" t="n">
+        <v>577708.1306721375</v>
+      </c>
+      <c r="G104" s="142" t="n">
+        <v>784770.3233523318</v>
+      </c>
+      <c r="H104" s="142" t="n">
+        <v>111928.1046778647</v>
+      </c>
+      <c r="I104" s="142" t="n">
+        <v>146997.4459934013</v>
+      </c>
       <c r="J104" s="142" t="inlineStr"/>
       <c r="K104" s="142" t="inlineStr"/>
       <c r="L104" s="142" t="inlineStr"/>
@@ -27162,10 +27402,18 @@
       <c r="E105" s="142" t="n">
         <v>618347.9657859316</v>
       </c>
-      <c r="F105" s="142" t="inlineStr"/>
-      <c r="G105" s="142" t="inlineStr"/>
-      <c r="H105" s="142" t="inlineStr"/>
-      <c r="I105" s="142" t="inlineStr"/>
+      <c r="F105" s="142" t="n">
+        <v>903410.4298816125</v>
+      </c>
+      <c r="G105" s="142" t="n">
+        <v>1160542.178233676</v>
+      </c>
+      <c r="H105" s="142" t="n">
+        <v>325000.4802856683</v>
+      </c>
+      <c r="I105" s="142" t="n">
+        <v>368549.9130879499</v>
+      </c>
       <c r="J105" s="142" t="inlineStr"/>
       <c r="K105" s="142" t="inlineStr"/>
       <c r="L105" s="142" t="inlineStr"/>
@@ -27201,10 +27449,18 @@
       <c r="E106" s="142" t="n">
         <v>-188552.8301852985</v>
       </c>
-      <c r="F106" s="142" t="inlineStr"/>
-      <c r="G106" s="142" t="inlineStr"/>
-      <c r="H106" s="142" t="inlineStr"/>
-      <c r="I106" s="142" t="inlineStr"/>
+      <c r="F106" s="142" t="n">
+        <v>-69259.07050663687</v>
+      </c>
+      <c r="G106" s="142" t="n">
+        <v>38346.16293219756</v>
+      </c>
+      <c r="H106" s="142" t="n">
+        <v>-311313.7294451259</v>
+      </c>
+      <c r="I106" s="142" t="n">
+        <v>-293089.0375785964</v>
+      </c>
       <c r="J106" s="142" t="inlineStr"/>
       <c r="K106" s="142" t="inlineStr"/>
       <c r="L106" s="142" t="inlineStr"/>
@@ -27240,10 +27496,18 @@
       <c r="E107" s="142" t="n">
         <v>-167676.2304249095</v>
       </c>
-      <c r="F107" s="142" t="inlineStr"/>
-      <c r="G107" s="142" t="inlineStr"/>
-      <c r="H107" s="142" t="inlineStr"/>
-      <c r="I107" s="142" t="inlineStr"/>
+      <c r="F107" s="142" t="n">
+        <v>-44093.60783746012</v>
+      </c>
+      <c r="G107" s="142" t="n">
+        <v>67380.26127628656</v>
+      </c>
+      <c r="H107" s="142" t="n">
+        <v>-294850.6435927832</v>
+      </c>
+      <c r="I107" s="142" t="n">
+        <v>-275970.7355172837</v>
+      </c>
       <c r="J107" s="142" t="inlineStr"/>
       <c r="K107" s="142" t="inlineStr"/>
       <c r="L107" s="142" t="inlineStr"/>
@@ -27279,10 +27543,18 @@
       <c r="E108" s="142" t="n">
         <v>3237854.997889221</v>
       </c>
-      <c r="F108" s="142" t="inlineStr"/>
-      <c r="G108" s="142" t="inlineStr"/>
-      <c r="H108" s="142" t="inlineStr"/>
-      <c r="I108" s="142" t="inlineStr"/>
+      <c r="F108" s="142" t="n">
+        <v>4061065.756163207</v>
+      </c>
+      <c r="G108" s="142" t="n">
+        <v>4803617.470955688</v>
+      </c>
+      <c r="H108" s="142" t="n">
+        <v>2390718.540472701</v>
+      </c>
+      <c r="I108" s="142" t="n">
+        <v>2516481.719126539</v>
+      </c>
       <c r="J108" s="142" t="inlineStr"/>
       <c r="K108" s="142" t="inlineStr"/>
       <c r="L108" s="142" t="inlineStr"/>
@@ -27318,10 +27590,18 @@
       <c r="E109" s="142" t="n">
         <v>1127542.879484864</v>
       </c>
-      <c r="F109" s="142" t="inlineStr"/>
-      <c r="G109" s="142" t="inlineStr"/>
-      <c r="H109" s="142" t="inlineStr"/>
-      <c r="I109" s="142" t="inlineStr"/>
+      <c r="F109" s="142" t="n">
+        <v>1517213.71868818</v>
+      </c>
+      <c r="G109" s="142" t="n">
+        <v>1868704.205112003</v>
+      </c>
+      <c r="H109" s="142" t="n">
+        <v>726546.6935587414</v>
+      </c>
+      <c r="I109" s="142" t="n">
+        <v>786077.3093510666</v>
+      </c>
       <c r="J109" s="142" t="inlineStr"/>
       <c r="K109" s="142" t="inlineStr"/>
       <c r="L109" s="142" t="inlineStr"/>
@@ -27357,10 +27637,18 @@
       <c r="E110" s="142" t="n">
         <v>1886332.741965292</v>
       </c>
-      <c r="F110" s="142" t="inlineStr"/>
-      <c r="G110" s="142" t="inlineStr"/>
-      <c r="H110" s="142" t="inlineStr"/>
-      <c r="I110" s="142" t="inlineStr"/>
+      <c r="F110" s="142" t="n">
+        <v>2431888.434741902</v>
+      </c>
+      <c r="G110" s="142" t="n">
+        <v>2923990.015187042</v>
+      </c>
+      <c r="H110" s="142" t="n">
+        <v>1324921.083702715</v>
+      </c>
+      <c r="I110" s="142" t="n">
+        <v>1408266.469275831</v>
+      </c>
       <c r="J110" s="142" t="inlineStr"/>
       <c r="K110" s="142" t="inlineStr"/>
       <c r="L110" s="142" t="inlineStr"/>
@@ -27396,10 +27684,18 @@
       <c r="E111" s="142" t="n">
         <v>8735912.365184646</v>
       </c>
-      <c r="F111" s="142" t="inlineStr"/>
-      <c r="G111" s="142" t="inlineStr"/>
-      <c r="H111" s="142" t="inlineStr"/>
-      <c r="I111" s="142" t="inlineStr"/>
+      <c r="F111" s="142" t="n">
+        <v>10688637.24853765</v>
+      </c>
+      <c r="G111" s="142" t="n">
+        <v>12450032.12351708</v>
+      </c>
+      <c r="H111" s="142" t="n">
+        <v>6726433.719082958</v>
+      </c>
+      <c r="I111" s="142" t="n">
+        <v>7024754.514697709</v>
+      </c>
       <c r="J111" s="142" t="inlineStr"/>
       <c r="K111" s="142" t="inlineStr"/>
       <c r="L111" s="142" t="inlineStr"/>
@@ -27435,10 +27731,18 @@
       <c r="E112" s="142" t="n">
         <v>1738081.873750092</v>
       </c>
-      <c r="F112" s="142" t="inlineStr"/>
-      <c r="G112" s="142" t="inlineStr"/>
-      <c r="H112" s="142" t="inlineStr"/>
-      <c r="I112" s="142" t="inlineStr"/>
+      <c r="F112" s="142" t="n">
+        <v>2253181.090990385</v>
+      </c>
+      <c r="G112" s="142" t="n">
+        <v>2717810.352945125</v>
+      </c>
+      <c r="H112" s="142" t="n">
+        <v>1208011.874390666</v>
+      </c>
+      <c r="I112" s="142" t="n">
+        <v>1286704.37716853</v>
+      </c>
       <c r="J112" s="142" t="inlineStr"/>
       <c r="K112" s="142" t="inlineStr"/>
       <c r="L112" s="142" t="inlineStr"/>
@@ -27475,16 +27779,16 @@
         <v>18512199</v>
       </c>
       <c r="F113" s="146" t="n">
-        <v>0</v>
+        <v>24369710.00000001</v>
       </c>
       <c r="G113" s="146" t="n">
-        <v>0</v>
+        <v>29653296.00000001</v>
       </c>
       <c r="H113" s="146" t="n">
-        <v>0</v>
+        <v>12484446</v>
       </c>
       <c r="I113" s="146" t="n">
-        <v>0</v>
+        <v>13379307.00000001</v>
       </c>
       <c r="J113" s="146" t="n">
         <v>0</v>
@@ -28605,10 +28909,18 @@
       <c r="D35" s="142" t="n">
         <v>13055296</v>
       </c>
-      <c r="E35" s="142" t="inlineStr"/>
-      <c r="F35" s="142" t="inlineStr"/>
-      <c r="G35" s="142" t="inlineStr"/>
-      <c r="H35" s="142" t="inlineStr"/>
+      <c r="E35" s="142" t="n">
+        <v>36372710</v>
+      </c>
+      <c r="F35" s="142" t="n">
+        <v>22762727</v>
+      </c>
+      <c r="G35" s="142" t="n">
+        <v>24561901</v>
+      </c>
+      <c r="H35" s="142" t="n">
+        <v>28840233</v>
+      </c>
       <c r="I35" s="142" t="inlineStr"/>
       <c r="J35" s="142" t="inlineStr"/>
       <c r="K35" s="142" t="inlineStr"/>
@@ -37828,10 +38140,18 @@
       <c r="E135" s="142" t="n">
         <v>609048.3931967367</v>
       </c>
-      <c r="F135" s="142" t="inlineStr"/>
-      <c r="G135" s="142" t="inlineStr"/>
-      <c r="H135" s="142" t="inlineStr"/>
-      <c r="I135" s="142" t="inlineStr"/>
+      <c r="F135" s="142" t="n">
+        <v>5994288.693976318</v>
+      </c>
+      <c r="G135" s="142" t="n">
+        <v>602284.8826488991</v>
+      </c>
+      <c r="H135" s="142" t="n">
+        <v>440969.4154455484</v>
+      </c>
+      <c r="I135" s="142" t="n">
+        <v>777502.166386263</v>
+      </c>
       <c r="J135" s="142" t="inlineStr"/>
       <c r="K135" s="142" t="inlineStr"/>
       <c r="L135" s="142" t="inlineStr"/>
@@ -37867,10 +38187,18 @@
       <c r="E136" s="142" t="n">
         <v>223184.2359269936</v>
       </c>
-      <c r="F136" s="142" t="inlineStr"/>
-      <c r="G136" s="142" t="inlineStr"/>
-      <c r="H136" s="142" t="inlineStr"/>
-      <c r="I136" s="142" t="inlineStr"/>
+      <c r="F136" s="142" t="n">
+        <v>2196591.858766748</v>
+      </c>
+      <c r="G136" s="142" t="n">
+        <v>220705.7646746843</v>
+      </c>
+      <c r="H136" s="142" t="n">
+        <v>161592.1216651115</v>
+      </c>
+      <c r="I136" s="142" t="n">
+        <v>284913.6930247961</v>
+      </c>
       <c r="J136" s="142" t="inlineStr"/>
       <c r="K136" s="142" t="inlineStr"/>
       <c r="L136" s="142" t="inlineStr"/>
@@ -37906,10 +38234,18 @@
       <c r="E137" s="142" t="n">
         <v>573148.2229986287</v>
       </c>
-      <c r="F137" s="142" t="inlineStr"/>
-      <c r="G137" s="142" t="inlineStr"/>
-      <c r="H137" s="142" t="inlineStr"/>
-      <c r="I137" s="142" t="inlineStr"/>
+      <c r="F137" s="142" t="n">
+        <v>5640957.190709663</v>
+      </c>
+      <c r="G137" s="142" t="n">
+        <v>566783.3854996266</v>
+      </c>
+      <c r="H137" s="142" t="n">
+        <v>414976.6088911082</v>
+      </c>
+      <c r="I137" s="142" t="n">
+        <v>731672.5403426588</v>
+      </c>
       <c r="J137" s="142" t="inlineStr"/>
       <c r="K137" s="142" t="inlineStr"/>
       <c r="L137" s="142" t="inlineStr"/>
@@ -37945,10 +38281,18 @@
       <c r="E138" s="142" t="n">
         <v>1715688.113903458</v>
       </c>
-      <c r="F138" s="142" t="inlineStr"/>
-      <c r="G138" s="142" t="inlineStr"/>
-      <c r="H138" s="142" t="inlineStr"/>
-      <c r="I138" s="142" t="inlineStr"/>
+      <c r="F138" s="142" t="n">
+        <v>16885899.34468307</v>
+      </c>
+      <c r="G138" s="142" t="n">
+        <v>1696635.318124327</v>
+      </c>
+      <c r="H138" s="142" t="n">
+        <v>1242209.967427818</v>
+      </c>
+      <c r="I138" s="142" t="n">
+        <v>2190222.058384453</v>
+      </c>
       <c r="J138" s="142" t="inlineStr"/>
       <c r="K138" s="142" t="inlineStr"/>
       <c r="L138" s="142" t="inlineStr"/>
@@ -37984,10 +38328,18 @@
       <c r="E139" s="142" t="n">
         <v>139849.2416298203</v>
       </c>
-      <c r="F139" s="142" t="inlineStr"/>
-      <c r="G139" s="142" t="inlineStr"/>
-      <c r="H139" s="142" t="inlineStr"/>
-      <c r="I139" s="142" t="inlineStr"/>
+      <c r="F139" s="142" t="n">
+        <v>1376404.136890982</v>
+      </c>
+      <c r="G139" s="142" t="n">
+        <v>138296.2093397165</v>
+      </c>
+      <c r="H139" s="142" t="n">
+        <v>101255.0710598205</v>
+      </c>
+      <c r="I139" s="142" t="n">
+        <v>178529.4724511947</v>
+      </c>
       <c r="J139" s="142" t="inlineStr"/>
       <c r="K139" s="142" t="inlineStr"/>
       <c r="L139" s="142" t="inlineStr"/>
@@ -38023,10 +38375,18 @@
       <c r="E140" s="142" t="n">
         <v>1166077.987869096</v>
       </c>
-      <c r="F140" s="142" t="inlineStr"/>
-      <c r="G140" s="142" t="inlineStr"/>
-      <c r="H140" s="142" t="inlineStr"/>
-      <c r="I140" s="142" t="inlineStr"/>
+      <c r="F140" s="142" t="n">
+        <v>11476605.43407838</v>
+      </c>
+      <c r="G140" s="142" t="n">
+        <v>1153128.637934588</v>
+      </c>
+      <c r="H140" s="142" t="n">
+        <v>844275.6510293531</v>
+      </c>
+      <c r="I140" s="142" t="n">
+        <v>1488597.904322349</v>
+      </c>
       <c r="J140" s="142" t="inlineStr"/>
       <c r="K140" s="142" t="inlineStr"/>
       <c r="L140" s="142" t="inlineStr"/>
@@ -38062,10 +38422,18 @@
       <c r="E141" s="142" t="n">
         <v>1562737.550593863</v>
       </c>
-      <c r="F141" s="142" t="inlineStr"/>
-      <c r="G141" s="142" t="inlineStr"/>
-      <c r="H141" s="142" t="inlineStr"/>
-      <c r="I141" s="142" t="inlineStr"/>
+      <c r="F141" s="142" t="n">
+        <v>15380551.25966176</v>
+      </c>
+      <c r="G141" s="142" t="n">
+        <v>1545383.277887443</v>
+      </c>
+      <c r="H141" s="142" t="n">
+        <v>1131469.14412363</v>
+      </c>
+      <c r="I141" s="142" t="n">
+        <v>1994967.63254313</v>
+      </c>
       <c r="J141" s="142" t="inlineStr"/>
       <c r="K141" s="142" t="inlineStr"/>
       <c r="L141" s="142" t="inlineStr"/>
@@ -38101,10 +38469,18 @@
       <c r="E142" s="142" t="n">
         <v>239219.2923691414</v>
       </c>
-      <c r="F142" s="142" t="inlineStr"/>
-      <c r="G142" s="142" t="inlineStr"/>
-      <c r="H142" s="142" t="inlineStr"/>
-      <c r="I142" s="142" t="inlineStr"/>
+      <c r="F142" s="142" t="n">
+        <v>2354409.790169433</v>
+      </c>
+      <c r="G142" s="142" t="n">
+        <v>236562.7510741342</v>
+      </c>
+      <c r="H142" s="142" t="n">
+        <v>173201.986406428</v>
+      </c>
+      <c r="I142" s="142" t="n">
+        <v>305383.80880075</v>
+      </c>
       <c r="J142" s="142" t="inlineStr"/>
       <c r="K142" s="142" t="inlineStr"/>
       <c r="L142" s="142" t="inlineStr"/>
@@ -38140,10 +38516,18 @@
       <c r="E143" s="142" t="n">
         <v>1084962.526587847</v>
       </c>
-      <c r="F143" s="142" t="inlineStr"/>
-      <c r="G143" s="142" t="inlineStr"/>
-      <c r="H143" s="142" t="inlineStr"/>
-      <c r="I143" s="142" t="inlineStr"/>
+      <c r="F143" s="142" t="n">
+        <v>10678262.48153766</v>
+      </c>
+      <c r="G143" s="142" t="n">
+        <v>1072913.967598849</v>
+      </c>
+      <c r="H143" s="142" t="n">
+        <v>785545.6093046821</v>
+      </c>
+      <c r="I143" s="142" t="n">
+        <v>1385047.106753428</v>
+      </c>
       <c r="J143" s="142" t="inlineStr"/>
       <c r="K143" s="142" t="inlineStr"/>
       <c r="L143" s="142" t="inlineStr"/>
@@ -38179,10 +38563,18 @@
       <c r="E144" s="142" t="n">
         <v>1000246.36807126</v>
       </c>
-      <c r="F144" s="142" t="inlineStr"/>
-      <c r="G144" s="142" t="inlineStr"/>
-      <c r="H144" s="142" t="inlineStr"/>
-      <c r="I144" s="142" t="inlineStr"/>
+      <c r="F144" s="142" t="n">
+        <v>9844481.263385676</v>
+      </c>
+      <c r="G144" s="142" t="n">
+        <v>989138.585936941</v>
+      </c>
+      <c r="H144" s="142" t="n">
+        <v>724208.5541262364</v>
+      </c>
+      <c r="I144" s="142" t="n">
+        <v>1276899.712375044</v>
+      </c>
       <c r="J144" s="142" t="inlineStr"/>
       <c r="K144" s="142" t="inlineStr"/>
       <c r="L144" s="142" t="inlineStr"/>
@@ -38218,10 +38610,18 @@
       <c r="E145" s="142" t="n">
         <v>1599882.089501333</v>
       </c>
-      <c r="F145" s="142" t="inlineStr"/>
-      <c r="G145" s="142" t="inlineStr"/>
-      <c r="H145" s="142" t="inlineStr"/>
-      <c r="I145" s="142" t="inlineStr"/>
+      <c r="F145" s="142" t="n">
+        <v>15746129.91006645</v>
+      </c>
+      <c r="G145" s="142" t="n">
+        <v>1582115.324974063</v>
+      </c>
+      <c r="H145" s="142" t="n">
+        <v>1158362.911173978</v>
+      </c>
+      <c r="I145" s="142" t="n">
+        <v>2042385.80126761</v>
+      </c>
       <c r="J145" s="142" t="inlineStr"/>
       <c r="K145" s="142" t="inlineStr"/>
       <c r="L145" s="142" t="inlineStr"/>
@@ -38257,10 +38657,18 @@
       <c r="E146" s="142" t="n">
         <v>500871.2159364141</v>
       </c>
-      <c r="F146" s="142" t="inlineStr"/>
-      <c r="G146" s="142" t="inlineStr"/>
-      <c r="H146" s="142" t="inlineStr"/>
-      <c r="I146" s="142" t="inlineStr"/>
+      <c r="F146" s="142" t="n">
+        <v>4929602.803920351</v>
+      </c>
+      <c r="G146" s="142" t="n">
+        <v>495309.0179404334</v>
+      </c>
+      <c r="H146" s="142" t="n">
+        <v>362645.8747320524</v>
+      </c>
+      <c r="I146" s="142" t="n">
+        <v>639404.7826430917</v>
+      </c>
       <c r="J146" s="142" t="inlineStr"/>
       <c r="K146" s="142" t="inlineStr"/>
       <c r="L146" s="142" t="inlineStr"/>
@@ -38296,10 +38704,18 @@
       <c r="E147" s="142" t="n">
         <v>7125705.870457444</v>
       </c>
-      <c r="F147" s="142" t="inlineStr"/>
-      <c r="G147" s="142" t="inlineStr"/>
-      <c r="H147" s="142" t="inlineStr"/>
-      <c r="I147" s="142" t="inlineStr"/>
+      <c r="F147" s="142" t="n">
+        <v>70131599.74315256</v>
+      </c>
+      <c r="G147" s="142" t="n">
+        <v>7046574.577519186</v>
+      </c>
+      <c r="H147" s="142" t="n">
+        <v>5159226.076995039</v>
+      </c>
+      <c r="I147" s="142" t="n">
+        <v>9096570.671884764</v>
+      </c>
       <c r="J147" s="142" t="inlineStr"/>
       <c r="K147" s="142" t="inlineStr"/>
       <c r="L147" s="142" t="inlineStr"/>
@@ -38335,10 +38751,18 @@
       <c r="E148" s="142" t="n">
         <v>3850130.645744373</v>
       </c>
-      <c r="F148" s="142" t="inlineStr"/>
-      <c r="G148" s="142" t="inlineStr"/>
-      <c r="H148" s="142" t="inlineStr"/>
-      <c r="I148" s="142" t="inlineStr"/>
+      <c r="F148" s="142" t="n">
+        <v>37893203.32819965</v>
+      </c>
+      <c r="G148" s="142" t="n">
+        <v>3807374.767026156</v>
+      </c>
+      <c r="H148" s="142" t="n">
+        <v>2787610.769862852</v>
+      </c>
+      <c r="I148" s="142" t="n">
+        <v>4915019.810206489</v>
+      </c>
       <c r="J148" s="142" t="inlineStr"/>
       <c r="K148" s="142" t="inlineStr"/>
       <c r="L148" s="142" t="inlineStr"/>
@@ -38374,10 +38798,18 @@
       <c r="E149" s="142" t="n">
         <v>736851.893826556</v>
       </c>
-      <c r="F149" s="142" t="inlineStr"/>
-      <c r="G149" s="142" t="inlineStr"/>
-      <c r="H149" s="142" t="inlineStr"/>
-      <c r="I149" s="142" t="inlineStr"/>
+      <c r="F149" s="142" t="n">
+        <v>7252137.967422239</v>
+      </c>
+      <c r="G149" s="142" t="n">
+        <v>728669.1194989992</v>
+      </c>
+      <c r="H149" s="142" t="n">
+        <v>533503.0065265801</v>
+      </c>
+      <c r="I149" s="142" t="n">
+        <v>940654.2241232164</v>
+      </c>
       <c r="J149" s="142" t="inlineStr"/>
       <c r="K149" s="142" t="inlineStr"/>
       <c r="L149" s="142" t="inlineStr"/>
@@ -38413,10 +38845,18 @@
       <c r="E150" s="142" t="n">
         <v>2398572.375685667</v>
       </c>
-      <c r="F150" s="142" t="inlineStr"/>
-      <c r="G150" s="142" t="inlineStr"/>
-      <c r="H150" s="142" t="inlineStr"/>
-      <c r="I150" s="142" t="inlineStr"/>
+      <c r="F150" s="142" t="n">
+        <v>23606884.82862834</v>
+      </c>
+      <c r="G150" s="142" t="n">
+        <v>2371936.118626433</v>
+      </c>
+      <c r="H150" s="142" t="n">
+        <v>1736638.779815791</v>
+      </c>
+      <c r="I150" s="142" t="n">
+        <v>3061982.002023684</v>
+      </c>
       <c r="J150" s="142" t="inlineStr"/>
       <c r="K150" s="142" t="inlineStr"/>
       <c r="L150" s="142" t="inlineStr"/>
@@ -38452,10 +38892,18 @@
       <c r="E151" s="142" t="n">
         <v>170072.6711119604</v>
       </c>
-      <c r="F151" s="142" t="inlineStr"/>
-      <c r="G151" s="142" t="inlineStr"/>
-      <c r="H151" s="142" t="inlineStr"/>
-      <c r="I151" s="142" t="inlineStr"/>
+      <c r="F151" s="142" t="n">
+        <v>1673864.837324128</v>
+      </c>
+      <c r="G151" s="142" t="n">
+        <v>168184.0062409687</v>
+      </c>
+      <c r="H151" s="142" t="n">
+        <v>123137.7460333903</v>
+      </c>
+      <c r="I151" s="142" t="n">
+        <v>217112.2552981331</v>
+      </c>
       <c r="J151" s="142" t="inlineStr"/>
       <c r="K151" s="142" t="inlineStr"/>
       <c r="L151" s="142" t="inlineStr"/>
@@ -38491,10 +38939,18 @@
       <c r="E152" s="142" t="n">
         <v>276336.9755567109</v>
       </c>
-      <c r="F152" s="142" t="inlineStr"/>
-      <c r="G152" s="142" t="inlineStr"/>
-      <c r="H152" s="142" t="inlineStr"/>
-      <c r="I152" s="142" t="inlineStr"/>
+      <c r="F152" s="142" t="n">
+        <v>2719724.125061656</v>
+      </c>
+      <c r="G152" s="142" t="n">
+        <v>273268.2406748644</v>
+      </c>
+      <c r="H152" s="142" t="n">
+        <v>200076.3091051637</v>
+      </c>
+      <c r="I152" s="142" t="n">
+        <v>352767.6939106022</v>
+      </c>
       <c r="J152" s="142" t="inlineStr"/>
       <c r="K152" s="142" t="inlineStr"/>
       <c r="L152" s="142" t="inlineStr"/>
@@ -38530,10 +38986,18 @@
       <c r="E153" s="142" t="n">
         <v>485894.6035214554</v>
       </c>
-      <c r="F153" s="142" t="inlineStr"/>
-      <c r="G153" s="142" t="inlineStr"/>
-      <c r="H153" s="142" t="inlineStr"/>
-      <c r="I153" s="142" t="inlineStr"/>
+      <c r="F153" s="142" t="n">
+        <v>4782202.138429961</v>
+      </c>
+      <c r="G153" s="142" t="n">
+        <v>480498.7214983448</v>
+      </c>
+      <c r="H153" s="142" t="n">
+        <v>351802.3554062481</v>
+      </c>
+      <c r="I153" s="142" t="n">
+        <v>620285.8608499652</v>
+      </c>
       <c r="J153" s="142" t="inlineStr"/>
       <c r="K153" s="142" t="inlineStr"/>
       <c r="L153" s="142" t="inlineStr"/>
@@ -38569,10 +39033,18 @@
       <c r="E154" s="142" t="n">
         <v>1606152.725511239</v>
       </c>
-      <c r="F154" s="142" t="inlineStr"/>
-      <c r="G154" s="142" t="inlineStr"/>
-      <c r="H154" s="142" t="inlineStr"/>
-      <c r="I154" s="142" t="inlineStr"/>
+      <c r="F154" s="142" t="n">
+        <v>15807845.86393496</v>
+      </c>
+      <c r="G154" s="142" t="n">
+        <v>1588316.325281341</v>
+      </c>
+      <c r="H154" s="142" t="n">
+        <v>1162903.040869168</v>
+      </c>
+      <c r="I154" s="142" t="n">
+        <v>2050390.802408376</v>
+      </c>
       <c r="J154" s="142" t="inlineStr"/>
       <c r="K154" s="142" t="inlineStr"/>
       <c r="L154" s="142" t="inlineStr"/>
@@ -38609,16 +39081,16 @@
         <v>27064633</v>
       </c>
       <c r="F155" s="146" t="n">
-        <v>0</v>
+        <v>266371647</v>
       </c>
       <c r="G155" s="146" t="n">
-        <v>0</v>
+        <v>26764079</v>
       </c>
       <c r="H155" s="146" t="n">
-        <v>0</v>
+        <v>19595611</v>
       </c>
       <c r="I155" s="146" t="n">
-        <v>0</v>
+        <v>34550310</v>
       </c>
       <c r="J155" s="146" t="n">
         <v>0</v>
@@ -39720,6 +40192,18 @@
       </c>
       <c r="D35" t="n">
         <v>5072139</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5726502</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6180744</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5594349</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6945122</v>
       </c>
     </row>
   </sheetData>
@@ -40779,6 +41263,18 @@
       <c r="D35" t="n">
         <v>1252335</v>
       </c>
+      <c r="E35" t="n">
+        <v>2508552</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2391408</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3849607</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3892302</v>
+      </c>
     </row>
     <row customHeight="1" ht="26" r="37" s="126"/>
   </sheetData>
